--- a/data_prep/input_data.xlsx
+++ b/data_prep/input_data.xlsx
@@ -4,20 +4,55 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="120" windowWidth="12435" windowHeight="10545" activeTab="1"/>
+    <workbookView xWindow="360" yWindow="180" windowWidth="12435" windowHeight="10485" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Introduction" sheetId="4" r:id="rId1"/>
-    <sheet name="non-hiv black fertility" sheetId="1" r:id="rId2"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
+    <sheet name="FertilityMotherRates" sheetId="1" r:id="rId2"/>
+    <sheet name="FertilityMotherDieaseMultiplier" sheetId="2" r:id="rId3"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <externalReferences>
+    <externalReference r:id="rId5"/>
+  </externalReferences>
+  <definedNames>
+    <definedName name="CurrYear">[1]Results!$B$3</definedName>
+    <definedName name="NOTFert_Black">'[1]Assumptions - Black'!$E$12</definedName>
+    <definedName name="PROFert_Black">'[1]Assumptions - Black'!$E$9</definedName>
+    <definedName name="RSKFert_Black">'[1]Assumptions - Black'!$E$11</definedName>
+    <definedName name="StartYear">'[1]Assumptions - Asian'!$C$38</definedName>
+    <definedName name="STDFert_Black">'[1]Assumptions - Black'!$E$10</definedName>
+  </definedNames>
+  <calcPr calcId="145621" calcMode="manual"/>
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>A satisfied Microsoft Office user</author>
+  </authors>
+  <commentList>
+    <comment ref="C9" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Scaling factor required to ensure that the risk group age-spcific fertility rates are rebalanced as the proportions in the risk groups change over time so as to always remain consistent with the overall HIV+ fertility rate for the specific age.
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="29">
   <si>
     <t>Age</t>
   </si>
@@ -45,32 +80,93 @@
   <si>
     <t>Copy and paste to visual studio</t>
   </si>
+  <si>
+    <t>Get fertility modifiers from ASSA model</t>
+  </si>
+  <si>
+    <t>Age \ Duration</t>
+  </si>
+  <si>
+    <t>Rel. Fert scaling factor</t>
+  </si>
+  <si>
+    <t>Extract the rates relevant to the infected state</t>
+  </si>
+  <si>
+    <t>Hence take the average of those rates and use that as the disease multiplier</t>
+  </si>
+  <si>
+    <t>We need to remove the zeros from the table since they will throw the computations out.</t>
+  </si>
+  <si>
+    <t>Compute the average</t>
+  </si>
+  <si>
+    <t>Thus the fertility is boosted by 30% in the infected stage</t>
+  </si>
+  <si>
+    <t>Should I use a geometric mean instead?</t>
+  </si>
+  <si>
+    <t>Extract the rates relevant to the symptoms state</t>
+  </si>
+  <si>
+    <t>Average time to symptoms after infection is 5.3 years. Hence mothers will be exposed to the fertility adjustments between years 0 to 5 from the ASSA model</t>
+  </si>
+  <si>
+    <t>To choose how to average over the fertility modifier table for disease state in the ASSA model is very complicated.</t>
+  </si>
+  <si>
+    <t>You will need to get detailed population percentages from our model and use them as weights.</t>
+  </si>
+  <si>
+    <t>In the interest of getting the job done, just say that the first 5 years after infection correspond with the infected disease state</t>
+  </si>
+  <si>
+    <t>And that the next 5 years after than correspond to the symptoms state.</t>
+  </si>
+  <si>
+    <t>This can be done a lot better, but I doubt that it will make a big difference.</t>
+  </si>
+  <si>
+    <t>These rate are chosen based on the simplifying assumption described at the top of this work sheet</t>
+  </si>
+  <si>
+    <t>Remove the zeros so that the average is computed correctly</t>
+  </si>
+  <si>
+    <t>Hence fertility is boosted by 8% in the symptoms state.</t>
+  </si>
+  <si>
+    <t>Not sure that this is very realistic</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="18">
+  <numFmts count="19">
     <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="166" formatCode="0.0000"/>
-    <numFmt numFmtId="167" formatCode="0.000"/>
-    <numFmt numFmtId="170" formatCode="0.0%"/>
-    <numFmt numFmtId="171" formatCode="\ \ \ \ \ @"/>
-    <numFmt numFmtId="172" formatCode="&quot;R&quot;#,##0.00_-;&quot;R&quot;#,##0.00\-"/>
-    <numFmt numFmtId="173" formatCode="&quot;R&quot;#,##0.00_-;[Red]&quot;R&quot;#,##0.00\-"/>
-    <numFmt numFmtId="174" formatCode="_-* #,##0_-;_-* #,##0\-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="175" formatCode="#,##0\ &quot;DM&quot;;[Red]\-#,##0\ &quot;DM&quot;"/>
-    <numFmt numFmtId="176" formatCode="&quot;£&quot;#,##0_);[Red]\(&quot;£&quot;#,##0\)"/>
-    <numFmt numFmtId="177" formatCode="_ &quot;SFr.&quot;\ * #,##0.00_ ;_ &quot;SFr.&quot;\ * \-#,##0.00_ ;_ &quot;SFr.&quot;\ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_-&quot;L.&quot;\ * #,##0_-;\-&quot;L.&quot;\ * #,##0_-;_-&quot;L.&quot;\ * &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="179" formatCode="#,##0.00\ &quot;Pts&quot;;[Red]\-#,##0.00\ &quot;Pts&quot;"/>
-    <numFmt numFmtId="180" formatCode="_-* #,##0\ &quot;F&quot;_-;\-* #,##0\ &quot;F&quot;_-;_-* &quot;-&quot;\ &quot;F&quot;_-;_-@_-"/>
-    <numFmt numFmtId="181" formatCode="_-* #,##0\ _F_-;\-* #,##0\ _F_-;_-* &quot;-&quot;\ _F_-;_-@_-"/>
-    <numFmt numFmtId="182" formatCode="_-* #,##0.00\ &quot;F&quot;_-;\-* #,##0.00\ &quot;F&quot;_-;_-* &quot;-&quot;??\ &quot;F&quot;_-;_-@_-"/>
-    <numFmt numFmtId="183" formatCode="_-* #,##0.00\ _F_-;\-* #,##0.00\ _F_-;_-* &quot;-&quot;??\ _F_-;_-@_-"/>
-    <numFmt numFmtId="184" formatCode="_ * #,##0_)\ _F_ ;_ * \(#,##0\)\ _F_ ;_ * &quot;-&quot;_)\ _F_ ;_ @_ "/>
+    <numFmt numFmtId="165" formatCode="0.0000"/>
+    <numFmt numFmtId="166" formatCode="0.000"/>
+    <numFmt numFmtId="167" formatCode="0.0%"/>
+    <numFmt numFmtId="168" formatCode="\ \ \ \ \ @"/>
+    <numFmt numFmtId="169" formatCode="&quot;R&quot;#,##0.00_-;&quot;R&quot;#,##0.00\-"/>
+    <numFmt numFmtId="170" formatCode="&quot;R&quot;#,##0.00_-;[Red]&quot;R&quot;#,##0.00\-"/>
+    <numFmt numFmtId="171" formatCode="_-* #,##0_-;_-* #,##0\-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="172" formatCode="#,##0\ &quot;DM&quot;;[Red]\-#,##0\ &quot;DM&quot;"/>
+    <numFmt numFmtId="173" formatCode="&quot;£&quot;#,##0_);[Red]\(&quot;£&quot;#,##0\)"/>
+    <numFmt numFmtId="174" formatCode="_ &quot;SFr.&quot;\ * #,##0.00_ ;_ &quot;SFr.&quot;\ * \-#,##0.00_ ;_ &quot;SFr.&quot;\ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="175" formatCode="_-&quot;L.&quot;\ * #,##0_-;\-&quot;L.&quot;\ * #,##0_-;_-&quot;L.&quot;\ * &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="#,##0.00\ &quot;Pts&quot;;[Red]\-#,##0.00\ &quot;Pts&quot;"/>
+    <numFmt numFmtId="177" formatCode="_-* #,##0\ &quot;F&quot;_-;\-* #,##0\ &quot;F&quot;_-;_-* &quot;-&quot;\ &quot;F&quot;_-;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_-* #,##0\ _F_-;\-* #,##0\ _F_-;_-* &quot;-&quot;\ _F_-;_-@_-"/>
+    <numFmt numFmtId="179" formatCode="_-* #,##0.00\ &quot;F&quot;_-;\-* #,##0.00\ &quot;F&quot;_-;_-* &quot;-&quot;??\ &quot;F&quot;_-;_-@_-"/>
+    <numFmt numFmtId="180" formatCode="_-* #,##0.00\ _F_-;\-* #,##0.00\ _F_-;_-* &quot;-&quot;??\ _F_-;_-@_-"/>
+    <numFmt numFmtId="181" formatCode="_ * #,##0_)\ _F_ ;_ * \(#,##0\)\ _F_ ;_ * &quot;-&quot;_)\ _F_ ;_ @_ "/>
+    <numFmt numFmtId="182" formatCode="0.00000"/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -129,6 +225,12 @@
       <sz val="10"/>
       <name val="Univers (E1)"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -150,7 +252,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -235,53 +337,81 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="171" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
+    <xf numFmtId="168" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="179" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="173" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="39" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="178" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
+    <xf numFmtId="175" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
     <xf numFmtId="37" fontId="7" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="170" fontId="7" fillId="0" borderId="1" applyFill="0" applyBorder="0" applyAlignment="0">
+    <xf numFmtId="167" fontId="7" fillId="0" borderId="1" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="179" fontId="5" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0">
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="178" fontId="2" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="175" fontId="2" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="181" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="183" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="178" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="180" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="182" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="173" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="179" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="171" fontId="2" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
+    <xf numFmtId="168" fontId="2" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="175" fontId="2" fillId="0" borderId="2" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="172" fontId="2" fillId="0" borderId="2" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="174" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="172" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="38" fontId="9" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="174" fontId="2" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="184" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="171" fontId="2" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="181" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="10" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFont="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="4" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="174" fontId="2" fillId="0" borderId="4" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -292,11 +422,24 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="1" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="1" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="3" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="3" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="1" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="1" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="3" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="3" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="182" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="182" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="182" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="28">
     <cellStyle name="Bold 11" xfId="2"/>
@@ -336,6 +479,446 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Assumptions - All"/>
+      <sheetName val="Assumptions - Asian"/>
+      <sheetName val="Assumptions - Black"/>
+      <sheetName val="Assumptions - Coloured"/>
+      <sheetName val="Assumptions - White"/>
+      <sheetName val="Results - Asian"/>
+      <sheetName val="Interventions - Asian"/>
+      <sheetName val="Population - Asian"/>
+      <sheetName val="MortTable - Asian"/>
+      <sheetName val="SexActivity - Asian"/>
+      <sheetName val="Male HIVTable - Asian"/>
+      <sheetName val="Female HIVTable - Asian"/>
+      <sheetName val="HIVTable - Asian"/>
+      <sheetName val="Male Adult Survival - Asian"/>
+      <sheetName val="Fem Adult Survival - Asian"/>
+      <sheetName val="Male Staging - Asian"/>
+      <sheetName val="Female Staging - Asian"/>
+      <sheetName val="Paediatric Survival - Asian"/>
+      <sheetName val="Non-HIV Fertility - Asian"/>
+      <sheetName val="HIV+ Fertility - Asian"/>
+      <sheetName val="Male Migration - Asian"/>
+      <sheetName val="Female Migration - Asian"/>
+      <sheetName val="FemPRO - Asian"/>
+      <sheetName val="FemSTD - Asian"/>
+      <sheetName val="FemRSK - Asian"/>
+      <sheetName val="FemNOT - Asian"/>
+      <sheetName val="MalePRO - Asian"/>
+      <sheetName val="MaleSTD - Asian"/>
+      <sheetName val="MaleRSK - Asian"/>
+      <sheetName val="MaleNOT - Asian"/>
+      <sheetName val="MaleOLD - Asian"/>
+      <sheetName val="FemOLD - Asian"/>
+      <sheetName val="Young - Asian"/>
+      <sheetName val="Results - Black"/>
+      <sheetName val="Interventions - Black"/>
+      <sheetName val="Population - Black"/>
+      <sheetName val="MortTable - Black"/>
+      <sheetName val="SexActivity - Black"/>
+      <sheetName val="Male HIVTable - Black"/>
+      <sheetName val="Female HIVTable - Black"/>
+      <sheetName val="HIVTable - Black"/>
+      <sheetName val="Male Adult Survival - Black"/>
+      <sheetName val="Fem Adult Survival - Black"/>
+      <sheetName val="Male Staging - Black"/>
+      <sheetName val="Female Staging - Black"/>
+      <sheetName val="Paediatric Survival - Black"/>
+      <sheetName val="Non-HIV Fertility - Black"/>
+      <sheetName val="HIV+ Fertility - Black"/>
+      <sheetName val="Male Migration - Black"/>
+      <sheetName val="Female Migration - Black"/>
+      <sheetName val="FemPRO - Black"/>
+      <sheetName val="FemSTD - Black"/>
+      <sheetName val="FemRSK - Black"/>
+      <sheetName val="FemNOT - Black"/>
+      <sheetName val="MalePRO - Black"/>
+      <sheetName val="MaleSTD - Black"/>
+      <sheetName val="MaleRSK - Black"/>
+      <sheetName val="MaleNOT - Black"/>
+      <sheetName val="MaleOLD - Black"/>
+      <sheetName val="FemOLD - Black"/>
+      <sheetName val="Young - Black"/>
+      <sheetName val="Results - Coloured"/>
+      <sheetName val="Interventions - Coloured"/>
+      <sheetName val="Population - Coloured"/>
+      <sheetName val="MortTable - Coloured"/>
+      <sheetName val="SexActivity - Coloured"/>
+      <sheetName val="Male HIVTable - Coloured"/>
+      <sheetName val="Female HIVTable - Coloured"/>
+      <sheetName val="HIVTable - Coloured"/>
+      <sheetName val="Male Adult Survival - Coloured"/>
+      <sheetName val="Fem Adult Survival - Coloured"/>
+      <sheetName val="Male Staging - Coloured"/>
+      <sheetName val="Female Staging - Coloured"/>
+      <sheetName val="Paediatric Survival - Coloured"/>
+      <sheetName val="Non-HIV Fertility - Coloured"/>
+      <sheetName val="HIV+ Fertility - Coloured"/>
+      <sheetName val="Male Migration - Coloured"/>
+      <sheetName val="Female Migration - Coloured"/>
+      <sheetName val="FemPRO - Coloured"/>
+      <sheetName val="FemSTD - Coloured"/>
+      <sheetName val="FemRSK - Coloured"/>
+      <sheetName val="FemNOT - Coloured"/>
+      <sheetName val="MalePRO - Coloured"/>
+      <sheetName val="MaleSTD - Coloured"/>
+      <sheetName val="MaleRSK - Coloured"/>
+      <sheetName val="MaleNOT - Coloured"/>
+      <sheetName val="MaleOLD - Coloured"/>
+      <sheetName val="FemOLD - Coloured"/>
+      <sheetName val="Young - Coloured"/>
+      <sheetName val="Results - White"/>
+      <sheetName val="Interventions - White"/>
+      <sheetName val="Population - White"/>
+      <sheetName val="MortTable - White"/>
+      <sheetName val="SexActivity - White"/>
+      <sheetName val="Male HIVTable - White"/>
+      <sheetName val="Female HIVTable - White"/>
+      <sheetName val="HIVTable - White"/>
+      <sheetName val="Male Adult Survival - White"/>
+      <sheetName val="Fem Adult Survival - White"/>
+      <sheetName val="Male Staging - White"/>
+      <sheetName val="Female Staging - White"/>
+      <sheetName val="Paediatric Survival - White"/>
+      <sheetName val="Non-HIV Fertility - White"/>
+      <sheetName val="HIV+ Fertility - White"/>
+      <sheetName val="Male Migration - White"/>
+      <sheetName val="Female Migration - White"/>
+      <sheetName val="FemPRO - White"/>
+      <sheetName val="FemSTD - White"/>
+      <sheetName val="FemRSK - White"/>
+      <sheetName val="FemNOT - White"/>
+      <sheetName val="MalePRO - White"/>
+      <sheetName val="MaleSTD - White"/>
+      <sheetName val="MaleRSK - White"/>
+      <sheetName val="MaleNOT - White"/>
+      <sheetName val="MaleOLD - White"/>
+      <sheetName val="FemOLD - White"/>
+      <sheetName val="Young - White"/>
+      <sheetName val="Results"/>
+      <sheetName val="Population"/>
+      <sheetName val="MortTable"/>
+      <sheetName val="HIVTable"/>
+      <sheetName val="Fertility"/>
+      <sheetName val="Male Migration"/>
+      <sheetName val="Female Migration"/>
+      <sheetName val="FemPRO"/>
+      <sheetName val="FemSTD"/>
+      <sheetName val="FemRSK"/>
+      <sheetName val="FemNOT"/>
+      <sheetName val="MalePRO"/>
+      <sheetName val="MaleSTD"/>
+      <sheetName val="MaleRSK"/>
+      <sheetName val="MaleNOT"/>
+      <sheetName val="MaleOLD"/>
+      <sheetName val="FemOLD"/>
+      <sheetName val="Young"/>
+      <sheetName val="AIDS Age Profile"/>
+      <sheetName val="AIDS Age Profile - Asian"/>
+      <sheetName val="AIDS Age Profile - Black"/>
+      <sheetName val="AIDS Age Profile - Coloured"/>
+      <sheetName val="AIDS Age Profile - White"/>
+      <sheetName val="HIV Prevalence"/>
+      <sheetName val="HIV Prevalence - Asian"/>
+      <sheetName val="HIV Prevalence - Black"/>
+      <sheetName val="HIV Prevalence - Coloured"/>
+      <sheetName val="HIV Prevalence - White"/>
+      <sheetName val="ANC Age Prevalence"/>
+      <sheetName val="ANC Age Profile"/>
+      <sheetName val="ANC Age Profile - Asian"/>
+      <sheetName val="ANC Age Profile - Black"/>
+      <sheetName val="ANC Age Profile - Coloured"/>
+      <sheetName val="ANC Age Profile - White"/>
+      <sheetName val="Calibration"/>
+      <sheetName val="Calibration - Asian"/>
+      <sheetName val="Calibration - Black"/>
+      <sheetName val="Calibration - Coloured"/>
+      <sheetName val="Calibration - White"/>
+      <sheetName val="Cumulative Deaths"/>
+      <sheetName val="Cumulative Deaths - Asian"/>
+      <sheetName val="Cumulative Deaths - Black"/>
+      <sheetName val="Cumulative Deaths - Coloured"/>
+      <sheetName val="Cumulative Deaths - White"/>
+      <sheetName val="Deaths"/>
+      <sheetName val="Deaths - Asian"/>
+      <sheetName val="Deaths - Black"/>
+      <sheetName val="Deaths - Coloured"/>
+      <sheetName val="Deaths - White"/>
+      <sheetName val="Pyramid"/>
+      <sheetName val="Pyramid - Asian"/>
+      <sheetName val="Pyramid - Black"/>
+      <sheetName val="Pyramid - Coloured"/>
+      <sheetName val="Pyramid - White"/>
+      <sheetName val="Mortality"/>
+      <sheetName val="Reported deaths - Female"/>
+      <sheetName val="Reported deaths - Male"/>
+      <sheetName val="Macros"/>
+      <sheetName val="Mortality - Asian"/>
+      <sheetName val="Mortality - Black"/>
+      <sheetName val="Mortality - Coloured"/>
+      <sheetName val="Mortality - White"/>
+      <sheetName val="CopyrightMacro"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1">
+        <row r="38">
+          <cell r="C38">
+            <v>1985</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="2">
+        <row r="9">
+          <cell r="E9">
+            <v>0.4</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="E10">
+            <v>0.7</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="E11">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="E12">
+            <v>1.1668103448275862</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="4" refreshError="1"/>
+      <sheetData sheetId="5" refreshError="1"/>
+      <sheetData sheetId="6" refreshError="1"/>
+      <sheetData sheetId="7" refreshError="1"/>
+      <sheetData sheetId="8" refreshError="1"/>
+      <sheetData sheetId="9" refreshError="1"/>
+      <sheetData sheetId="10" refreshError="1"/>
+      <sheetData sheetId="11" refreshError="1"/>
+      <sheetData sheetId="12" refreshError="1"/>
+      <sheetData sheetId="13" refreshError="1"/>
+      <sheetData sheetId="14" refreshError="1"/>
+      <sheetData sheetId="15" refreshError="1"/>
+      <sheetData sheetId="16" refreshError="1"/>
+      <sheetData sheetId="17" refreshError="1"/>
+      <sheetData sheetId="18" refreshError="1"/>
+      <sheetData sheetId="19" refreshError="1"/>
+      <sheetData sheetId="20" refreshError="1"/>
+      <sheetData sheetId="21" refreshError="1"/>
+      <sheetData sheetId="22" refreshError="1"/>
+      <sheetData sheetId="23" refreshError="1"/>
+      <sheetData sheetId="24" refreshError="1"/>
+      <sheetData sheetId="25" refreshError="1"/>
+      <sheetData sheetId="26" refreshError="1"/>
+      <sheetData sheetId="27" refreshError="1"/>
+      <sheetData sheetId="28" refreshError="1"/>
+      <sheetData sheetId="29" refreshError="1"/>
+      <sheetData sheetId="30" refreshError="1"/>
+      <sheetData sheetId="31" refreshError="1"/>
+      <sheetData sheetId="32" refreshError="1"/>
+      <sheetData sheetId="33" refreshError="1"/>
+      <sheetData sheetId="34" refreshError="1"/>
+      <sheetData sheetId="35">
+        <row r="24">
+          <cell r="L24">
+            <v>0.13707089256826621</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="36" refreshError="1"/>
+      <sheetData sheetId="37">
+        <row r="65">
+          <cell r="I65">
+            <v>1.6105100000000008</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="38" refreshError="1"/>
+      <sheetData sheetId="39" refreshError="1"/>
+      <sheetData sheetId="40" refreshError="1"/>
+      <sheetData sheetId="41" refreshError="1"/>
+      <sheetData sheetId="42" refreshError="1"/>
+      <sheetData sheetId="43" refreshError="1"/>
+      <sheetData sheetId="44" refreshError="1"/>
+      <sheetData sheetId="45" refreshError="1"/>
+      <sheetData sheetId="46" refreshError="1"/>
+      <sheetData sheetId="47" refreshError="1"/>
+      <sheetData sheetId="48" refreshError="1"/>
+      <sheetData sheetId="49" refreshError="1"/>
+      <sheetData sheetId="50">
+        <row r="11">
+          <cell r="C11">
+            <v>623.61428619074252</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="51">
+        <row r="11">
+          <cell r="C11">
+            <v>10628.326004991786</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="52">
+        <row r="11">
+          <cell r="C11">
+            <v>3144.9933796865002</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="53">
+        <row r="11">
+          <cell r="C11">
+            <v>18674.022136887445</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="54" refreshError="1"/>
+      <sheetData sheetId="55" refreshError="1"/>
+      <sheetData sheetId="56" refreshError="1"/>
+      <sheetData sheetId="57" refreshError="1"/>
+      <sheetData sheetId="58" refreshError="1"/>
+      <sheetData sheetId="59" refreshError="1"/>
+      <sheetData sheetId="60" refreshError="1"/>
+      <sheetData sheetId="61" refreshError="1"/>
+      <sheetData sheetId="62" refreshError="1"/>
+      <sheetData sheetId="63" refreshError="1"/>
+      <sheetData sheetId="64" refreshError="1"/>
+      <sheetData sheetId="65" refreshError="1"/>
+      <sheetData sheetId="66" refreshError="1"/>
+      <sheetData sheetId="67" refreshError="1"/>
+      <sheetData sheetId="68" refreshError="1"/>
+      <sheetData sheetId="69" refreshError="1"/>
+      <sheetData sheetId="70" refreshError="1"/>
+      <sheetData sheetId="71" refreshError="1"/>
+      <sheetData sheetId="72" refreshError="1"/>
+      <sheetData sheetId="73" refreshError="1"/>
+      <sheetData sheetId="74" refreshError="1"/>
+      <sheetData sheetId="75" refreshError="1"/>
+      <sheetData sheetId="76" refreshError="1"/>
+      <sheetData sheetId="77" refreshError="1"/>
+      <sheetData sheetId="78" refreshError="1"/>
+      <sheetData sheetId="79" refreshError="1"/>
+      <sheetData sheetId="80" refreshError="1"/>
+      <sheetData sheetId="81" refreshError="1"/>
+      <sheetData sheetId="82" refreshError="1"/>
+      <sheetData sheetId="83" refreshError="1"/>
+      <sheetData sheetId="84" refreshError="1"/>
+      <sheetData sheetId="85" refreshError="1"/>
+      <sheetData sheetId="86" refreshError="1"/>
+      <sheetData sheetId="87" refreshError="1"/>
+      <sheetData sheetId="88" refreshError="1"/>
+      <sheetData sheetId="89" refreshError="1"/>
+      <sheetData sheetId="90" refreshError="1"/>
+      <sheetData sheetId="91" refreshError="1"/>
+      <sheetData sheetId="92" refreshError="1"/>
+      <sheetData sheetId="93" refreshError="1"/>
+      <sheetData sheetId="94" refreshError="1"/>
+      <sheetData sheetId="95" refreshError="1"/>
+      <sheetData sheetId="96" refreshError="1"/>
+      <sheetData sheetId="97" refreshError="1"/>
+      <sheetData sheetId="98" refreshError="1"/>
+      <sheetData sheetId="99" refreshError="1"/>
+      <sheetData sheetId="100" refreshError="1"/>
+      <sheetData sheetId="101" refreshError="1"/>
+      <sheetData sheetId="102" refreshError="1"/>
+      <sheetData sheetId="103" refreshError="1"/>
+      <sheetData sheetId="104" refreshError="1"/>
+      <sheetData sheetId="105" refreshError="1"/>
+      <sheetData sheetId="106" refreshError="1"/>
+      <sheetData sheetId="107" refreshError="1"/>
+      <sheetData sheetId="108" refreshError="1"/>
+      <sheetData sheetId="109" refreshError="1"/>
+      <sheetData sheetId="110" refreshError="1"/>
+      <sheetData sheetId="111" refreshError="1"/>
+      <sheetData sheetId="112" refreshError="1"/>
+      <sheetData sheetId="113" refreshError="1"/>
+      <sheetData sheetId="114" refreshError="1"/>
+      <sheetData sheetId="115" refreshError="1"/>
+      <sheetData sheetId="116" refreshError="1"/>
+      <sheetData sheetId="117">
+        <row r="3">
+          <cell r="B3">
+            <v>2025</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="118" refreshError="1"/>
+      <sheetData sheetId="119" refreshError="1"/>
+      <sheetData sheetId="120" refreshError="1"/>
+      <sheetData sheetId="121" refreshError="1"/>
+      <sheetData sheetId="122" refreshError="1"/>
+      <sheetData sheetId="123" refreshError="1"/>
+      <sheetData sheetId="124" refreshError="1"/>
+      <sheetData sheetId="125" refreshError="1"/>
+      <sheetData sheetId="126" refreshError="1"/>
+      <sheetData sheetId="127" refreshError="1"/>
+      <sheetData sheetId="128" refreshError="1"/>
+      <sheetData sheetId="129" refreshError="1"/>
+      <sheetData sheetId="130" refreshError="1"/>
+      <sheetData sheetId="131" refreshError="1"/>
+      <sheetData sheetId="132" refreshError="1"/>
+      <sheetData sheetId="133" refreshError="1"/>
+      <sheetData sheetId="134" refreshError="1"/>
+      <sheetData sheetId="135" refreshError="1"/>
+      <sheetData sheetId="136" refreshError="1"/>
+      <sheetData sheetId="137" refreshError="1"/>
+      <sheetData sheetId="138" refreshError="1"/>
+      <sheetData sheetId="139" refreshError="1"/>
+      <sheetData sheetId="140" refreshError="1"/>
+      <sheetData sheetId="141" refreshError="1"/>
+      <sheetData sheetId="142" refreshError="1"/>
+      <sheetData sheetId="143" refreshError="1"/>
+      <sheetData sheetId="144" refreshError="1"/>
+      <sheetData sheetId="145" refreshError="1"/>
+      <sheetData sheetId="146" refreshError="1"/>
+      <sheetData sheetId="147" refreshError="1"/>
+      <sheetData sheetId="148" refreshError="1"/>
+      <sheetData sheetId="149" refreshError="1"/>
+      <sheetData sheetId="150" refreshError="1"/>
+      <sheetData sheetId="151" refreshError="1"/>
+      <sheetData sheetId="152" refreshError="1"/>
+      <sheetData sheetId="153" refreshError="1"/>
+      <sheetData sheetId="154" refreshError="1"/>
+      <sheetData sheetId="155" refreshError="1"/>
+      <sheetData sheetId="156" refreshError="1"/>
+      <sheetData sheetId="157" refreshError="1"/>
+      <sheetData sheetId="158" refreshError="1"/>
+      <sheetData sheetId="159" refreshError="1"/>
+      <sheetData sheetId="160" refreshError="1"/>
+      <sheetData sheetId="161" refreshError="1"/>
+      <sheetData sheetId="162" refreshError="1"/>
+      <sheetData sheetId="163" refreshError="1"/>
+      <sheetData sheetId="164" refreshError="1"/>
+      <sheetData sheetId="165" refreshError="1"/>
+      <sheetData sheetId="166" refreshError="1"/>
+      <sheetData sheetId="167" refreshError="1"/>
+      <sheetData sheetId="168" refreshError="1"/>
+      <sheetData sheetId="169" refreshError="1"/>
+      <sheetData sheetId="170" refreshError="1"/>
+      <sheetData sheetId="171" refreshError="1"/>
+      <sheetData sheetId="172" refreshError="1"/>
+      <sheetData sheetId="173" refreshError="1"/>
+      <sheetData sheetId="174" refreshError="1"/>
+      <sheetData sheetId="175" refreshError="1"/>
+      <sheetData sheetId="176" refreshError="1"/>
+      <sheetData sheetId="177" refreshError="1"/>
+      <sheetData sheetId="178" refreshError="1"/>
+      <sheetData sheetId="179" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -662,7 +1245,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X182"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A78" workbookViewId="0">
+    <sheetView topLeftCell="A78" workbookViewId="0">
       <selection activeCell="C79" sqref="C79"/>
     </sheetView>
   </sheetViews>
@@ -4371,14 +4954,8483 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AG236"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:33">
+      <c r="A1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:33">
+      <c r="B2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:33">
+      <c r="B3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:33">
+      <c r="B4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:33">
+      <c r="B5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:33">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:33" ht="45">
+      <c r="B9" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" s="13">
+        <v>0</v>
+      </c>
+      <c r="E9" s="14">
+        <v>1</v>
+      </c>
+      <c r="F9" s="14">
+        <v>2</v>
+      </c>
+      <c r="G9" s="14">
+        <v>3</v>
+      </c>
+      <c r="H9" s="14">
+        <v>4</v>
+      </c>
+      <c r="I9" s="14">
+        <v>5</v>
+      </c>
+      <c r="J9" s="14">
+        <v>6</v>
+      </c>
+      <c r="K9" s="14">
+        <v>7</v>
+      </c>
+      <c r="L9" s="14">
+        <v>8</v>
+      </c>
+      <c r="M9" s="14">
+        <v>9</v>
+      </c>
+      <c r="N9" s="14">
+        <v>10</v>
+      </c>
+      <c r="O9" s="14">
+        <v>11</v>
+      </c>
+      <c r="P9" s="14">
+        <v>12</v>
+      </c>
+      <c r="Q9" s="14">
+        <v>13</v>
+      </c>
+      <c r="R9" s="14">
+        <v>14</v>
+      </c>
+      <c r="S9" s="14">
+        <v>15</v>
+      </c>
+      <c r="T9" s="14">
+        <v>16</v>
+      </c>
+      <c r="U9" s="14">
+        <v>17</v>
+      </c>
+      <c r="V9" s="14">
+        <v>18</v>
+      </c>
+      <c r="W9" s="14">
+        <v>19</v>
+      </c>
+      <c r="X9" s="14">
+        <v>20</v>
+      </c>
+      <c r="Y9" s="14">
+        <v>21</v>
+      </c>
+      <c r="Z9" s="14">
+        <v>22</v>
+      </c>
+      <c r="AA9" s="14">
+        <v>23</v>
+      </c>
+      <c r="AB9" s="14">
+        <v>24</v>
+      </c>
+      <c r="AC9" s="14">
+        <v>25</v>
+      </c>
+      <c r="AD9" s="14">
+        <v>26</v>
+      </c>
+      <c r="AE9" s="14">
+        <v>27</v>
+      </c>
+      <c r="AF9" s="14">
+        <v>28</v>
+      </c>
+      <c r="AG9" s="14">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="1:33">
+      <c r="B10" s="15">
+        <v>14</v>
+      </c>
+      <c r="C10" s="15"/>
+      <c r="D10" s="16">
+        <v>1.5</v>
+      </c>
+      <c r="E10" s="16">
+        <v>0</v>
+      </c>
+      <c r="F10" s="16">
+        <v>0</v>
+      </c>
+      <c r="G10" s="16">
+        <v>0</v>
+      </c>
+      <c r="H10" s="16">
+        <v>0</v>
+      </c>
+      <c r="I10" s="16">
+        <v>0</v>
+      </c>
+      <c r="J10" s="16">
+        <v>0</v>
+      </c>
+      <c r="K10" s="16">
+        <v>0</v>
+      </c>
+      <c r="L10" s="16">
+        <v>0</v>
+      </c>
+      <c r="M10" s="16">
+        <v>0</v>
+      </c>
+      <c r="N10" s="16">
+        <v>0</v>
+      </c>
+      <c r="O10" s="16">
+        <v>0</v>
+      </c>
+      <c r="P10" s="16">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="16">
+        <v>0</v>
+      </c>
+      <c r="R10" s="16">
+        <v>0</v>
+      </c>
+      <c r="S10" s="16">
+        <v>0</v>
+      </c>
+      <c r="T10" s="16">
+        <v>0</v>
+      </c>
+      <c r="U10" s="16">
+        <v>0</v>
+      </c>
+      <c r="V10" s="16">
+        <v>0</v>
+      </c>
+      <c r="W10" s="16">
+        <v>0</v>
+      </c>
+      <c r="X10" s="16">
+        <v>0</v>
+      </c>
+      <c r="Y10" s="16">
+        <v>0</v>
+      </c>
+      <c r="Z10" s="16">
+        <v>0</v>
+      </c>
+      <c r="AA10" s="16">
+        <v>0</v>
+      </c>
+      <c r="AB10" s="16">
+        <v>0</v>
+      </c>
+      <c r="AC10" s="16">
+        <v>0</v>
+      </c>
+      <c r="AD10" s="16">
+        <v>0</v>
+      </c>
+      <c r="AE10" s="16">
+        <v>0</v>
+      </c>
+      <c r="AF10" s="16">
+        <v>0</v>
+      </c>
+      <c r="AG10" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:33">
+      <c r="B11" s="15">
+        <v>15</v>
+      </c>
+      <c r="C11" s="15"/>
+      <c r="D11" s="16">
+        <v>1.6673463333190113</v>
+      </c>
+      <c r="E11" s="16">
+        <v>1.7149847999852688</v>
+      </c>
+      <c r="F11" s="16">
+        <v>0</v>
+      </c>
+      <c r="G11" s="16">
+        <v>0</v>
+      </c>
+      <c r="H11" s="16">
+        <v>0</v>
+      </c>
+      <c r="I11" s="16">
+        <v>0</v>
+      </c>
+      <c r="J11" s="16">
+        <v>0</v>
+      </c>
+      <c r="K11" s="16">
+        <v>0</v>
+      </c>
+      <c r="L11" s="16">
+        <v>0</v>
+      </c>
+      <c r="M11" s="16">
+        <v>0</v>
+      </c>
+      <c r="N11" s="16">
+        <v>0</v>
+      </c>
+      <c r="O11" s="16">
+        <v>0</v>
+      </c>
+      <c r="P11" s="16">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="16">
+        <v>0</v>
+      </c>
+      <c r="R11" s="16">
+        <v>0</v>
+      </c>
+      <c r="S11" s="16">
+        <v>0</v>
+      </c>
+      <c r="T11" s="16">
+        <v>0</v>
+      </c>
+      <c r="U11" s="16">
+        <v>0</v>
+      </c>
+      <c r="V11" s="16">
+        <v>0</v>
+      </c>
+      <c r="W11" s="16">
+        <v>0</v>
+      </c>
+      <c r="X11" s="16">
+        <v>0</v>
+      </c>
+      <c r="Y11" s="16">
+        <v>0</v>
+      </c>
+      <c r="Z11" s="16">
+        <v>0</v>
+      </c>
+      <c r="AA11" s="16">
+        <v>0</v>
+      </c>
+      <c r="AB11" s="16">
+        <v>0</v>
+      </c>
+      <c r="AC11" s="16">
+        <v>0</v>
+      </c>
+      <c r="AD11" s="16">
+        <v>0</v>
+      </c>
+      <c r="AE11" s="16">
+        <v>0</v>
+      </c>
+      <c r="AF11" s="16">
+        <v>0</v>
+      </c>
+      <c r="AG11" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:33">
+      <c r="B12" s="15">
+        <v>16</v>
+      </c>
+      <c r="C12" s="15"/>
+      <c r="D12" s="16">
+        <v>1.6278326681618007</v>
+      </c>
+      <c r="E12" s="16">
+        <v>1.6574296257647423</v>
+      </c>
+      <c r="F12" s="16">
+        <v>1.7047847579294493</v>
+      </c>
+      <c r="G12" s="16">
+        <v>0</v>
+      </c>
+      <c r="H12" s="16">
+        <v>0</v>
+      </c>
+      <c r="I12" s="16">
+        <v>0</v>
+      </c>
+      <c r="J12" s="16">
+        <v>0</v>
+      </c>
+      <c r="K12" s="16">
+        <v>0</v>
+      </c>
+      <c r="L12" s="16">
+        <v>0</v>
+      </c>
+      <c r="M12" s="16">
+        <v>0</v>
+      </c>
+      <c r="N12" s="16">
+        <v>0</v>
+      </c>
+      <c r="O12" s="16">
+        <v>0</v>
+      </c>
+      <c r="P12" s="16">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="16">
+        <v>0</v>
+      </c>
+      <c r="R12" s="16">
+        <v>0</v>
+      </c>
+      <c r="S12" s="16">
+        <v>0</v>
+      </c>
+      <c r="T12" s="16">
+        <v>0</v>
+      </c>
+      <c r="U12" s="16">
+        <v>0</v>
+      </c>
+      <c r="V12" s="16">
+        <v>0</v>
+      </c>
+      <c r="W12" s="16">
+        <v>0</v>
+      </c>
+      <c r="X12" s="16">
+        <v>0</v>
+      </c>
+      <c r="Y12" s="16">
+        <v>0</v>
+      </c>
+      <c r="Z12" s="16">
+        <v>0</v>
+      </c>
+      <c r="AA12" s="16">
+        <v>0</v>
+      </c>
+      <c r="AB12" s="16">
+        <v>0</v>
+      </c>
+      <c r="AC12" s="16">
+        <v>0</v>
+      </c>
+      <c r="AD12" s="16">
+        <v>0</v>
+      </c>
+      <c r="AE12" s="16">
+        <v>0</v>
+      </c>
+      <c r="AF12" s="16">
+        <v>0</v>
+      </c>
+      <c r="AG12" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:33">
+      <c r="B13" s="15">
+        <v>17</v>
+      </c>
+      <c r="C13" s="15"/>
+      <c r="D13" s="16">
+        <v>1.6092519776391276</v>
+      </c>
+      <c r="E13" s="16">
+        <v>1.6236019952741267</v>
+      </c>
+      <c r="F13" s="16">
+        <v>1.6531220315518378</v>
+      </c>
+      <c r="G13" s="16">
+        <v>1.7003540895961762</v>
+      </c>
+      <c r="H13" s="16">
+        <v>0</v>
+      </c>
+      <c r="I13" s="16">
+        <v>0</v>
+      </c>
+      <c r="J13" s="16">
+        <v>0</v>
+      </c>
+      <c r="K13" s="16">
+        <v>0</v>
+      </c>
+      <c r="L13" s="16">
+        <v>0</v>
+      </c>
+      <c r="M13" s="16">
+        <v>0</v>
+      </c>
+      <c r="N13" s="16">
+        <v>0</v>
+      </c>
+      <c r="O13" s="16">
+        <v>0</v>
+      </c>
+      <c r="P13" s="16">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="16">
+        <v>0</v>
+      </c>
+      <c r="R13" s="16">
+        <v>0</v>
+      </c>
+      <c r="S13" s="16">
+        <v>0</v>
+      </c>
+      <c r="T13" s="16">
+        <v>0</v>
+      </c>
+      <c r="U13" s="16">
+        <v>0</v>
+      </c>
+      <c r="V13" s="16">
+        <v>0</v>
+      </c>
+      <c r="W13" s="16">
+        <v>0</v>
+      </c>
+      <c r="X13" s="16">
+        <v>0</v>
+      </c>
+      <c r="Y13" s="16">
+        <v>0</v>
+      </c>
+      <c r="Z13" s="16">
+        <v>0</v>
+      </c>
+      <c r="AA13" s="16">
+        <v>0</v>
+      </c>
+      <c r="AB13" s="16">
+        <v>0</v>
+      </c>
+      <c r="AC13" s="16">
+        <v>0</v>
+      </c>
+      <c r="AD13" s="16">
+        <v>0</v>
+      </c>
+      <c r="AE13" s="16">
+        <v>0</v>
+      </c>
+      <c r="AF13" s="16">
+        <v>0</v>
+      </c>
+      <c r="AG13" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:33">
+      <c r="B14" s="15">
+        <v>18</v>
+      </c>
+      <c r="C14" s="15"/>
+      <c r="D14" s="16">
+        <v>1.5884506504446931</v>
+      </c>
+      <c r="E14" s="16">
+        <v>1.5897163481741303</v>
+      </c>
+      <c r="F14" s="16">
+        <v>1.6038921627438363</v>
+      </c>
+      <c r="G14" s="16">
+        <v>1.6330538384300877</v>
+      </c>
+      <c r="H14" s="16">
+        <v>1.6797125195280904</v>
+      </c>
+      <c r="I14" s="16">
+        <v>0</v>
+      </c>
+      <c r="J14" s="16">
+        <v>0</v>
+      </c>
+      <c r="K14" s="16">
+        <v>0</v>
+      </c>
+      <c r="L14" s="16">
+        <v>0</v>
+      </c>
+      <c r="M14" s="16">
+        <v>0</v>
+      </c>
+      <c r="N14" s="16">
+        <v>0</v>
+      </c>
+      <c r="O14" s="16">
+        <v>0</v>
+      </c>
+      <c r="P14" s="16">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="16">
+        <v>0</v>
+      </c>
+      <c r="R14" s="16">
+        <v>0</v>
+      </c>
+      <c r="S14" s="16">
+        <v>0</v>
+      </c>
+      <c r="T14" s="16">
+        <v>0</v>
+      </c>
+      <c r="U14" s="16">
+        <v>0</v>
+      </c>
+      <c r="V14" s="16">
+        <v>0</v>
+      </c>
+      <c r="W14" s="16">
+        <v>0</v>
+      </c>
+      <c r="X14" s="16">
+        <v>0</v>
+      </c>
+      <c r="Y14" s="16">
+        <v>0</v>
+      </c>
+      <c r="Z14" s="16">
+        <v>0</v>
+      </c>
+      <c r="AA14" s="16">
+        <v>0</v>
+      </c>
+      <c r="AB14" s="16">
+        <v>0</v>
+      </c>
+      <c r="AC14" s="16">
+        <v>0</v>
+      </c>
+      <c r="AD14" s="16">
+        <v>0</v>
+      </c>
+      <c r="AE14" s="16">
+        <v>0</v>
+      </c>
+      <c r="AF14" s="16">
+        <v>0</v>
+      </c>
+      <c r="AG14" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:33">
+      <c r="B15" s="15">
+        <v>19</v>
+      </c>
+      <c r="C15" s="15"/>
+      <c r="D15" s="16">
+        <v>1.5639614533812212</v>
+      </c>
+      <c r="E15" s="16">
+        <v>1.5542431336544091</v>
+      </c>
+      <c r="F15" s="16">
+        <v>1.5554815743983563</v>
+      </c>
+      <c r="G15" s="16">
+        <v>1.5693521107305712</v>
+      </c>
+      <c r="H15" s="16">
+        <v>1.5978857854711268</v>
+      </c>
+      <c r="I15" s="16">
+        <v>1.6435396650560163</v>
+      </c>
+      <c r="J15" s="16">
+        <v>0</v>
+      </c>
+      <c r="K15" s="16">
+        <v>0</v>
+      </c>
+      <c r="L15" s="16">
+        <v>0</v>
+      </c>
+      <c r="M15" s="16">
+        <v>0</v>
+      </c>
+      <c r="N15" s="16">
+        <v>0</v>
+      </c>
+      <c r="O15" s="16">
+        <v>0</v>
+      </c>
+      <c r="P15" s="16">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="16">
+        <v>0</v>
+      </c>
+      <c r="R15" s="16">
+        <v>0</v>
+      </c>
+      <c r="S15" s="16">
+        <v>0</v>
+      </c>
+      <c r="T15" s="16">
+        <v>0</v>
+      </c>
+      <c r="U15" s="16">
+        <v>0</v>
+      </c>
+      <c r="V15" s="16">
+        <v>0</v>
+      </c>
+      <c r="W15" s="16">
+        <v>0</v>
+      </c>
+      <c r="X15" s="16">
+        <v>0</v>
+      </c>
+      <c r="Y15" s="16">
+        <v>0</v>
+      </c>
+      <c r="Z15" s="16">
+        <v>0</v>
+      </c>
+      <c r="AA15" s="16">
+        <v>0</v>
+      </c>
+      <c r="AB15" s="16">
+        <v>0</v>
+      </c>
+      <c r="AC15" s="16">
+        <v>0</v>
+      </c>
+      <c r="AD15" s="16">
+        <v>0</v>
+      </c>
+      <c r="AE15" s="16">
+        <v>0</v>
+      </c>
+      <c r="AF15" s="16">
+        <v>0</v>
+      </c>
+      <c r="AG15" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:33">
+      <c r="B16" s="15">
+        <v>20</v>
+      </c>
+      <c r="C16" s="15"/>
+      <c r="D16" s="16">
+        <v>1.5422626280322473</v>
+      </c>
+      <c r="E16" s="16">
+        <v>1.5234654023162886</v>
+      </c>
+      <c r="F16" s="16">
+        <v>1.5139987215100343</v>
+      </c>
+      <c r="G16" s="16">
+        <v>1.5152050949933085</v>
+      </c>
+      <c r="H16" s="16">
+        <v>1.5287164780059879</v>
+      </c>
+      <c r="I16" s="16">
+        <v>1.556511323060642</v>
+      </c>
+      <c r="J16" s="16">
+        <v>1.6009830751480894</v>
+      </c>
+      <c r="K16" s="16">
+        <v>0</v>
+      </c>
+      <c r="L16" s="16">
+        <v>0</v>
+      </c>
+      <c r="M16" s="16">
+        <v>0</v>
+      </c>
+      <c r="N16" s="16">
+        <v>0</v>
+      </c>
+      <c r="O16" s="16">
+        <v>0</v>
+      </c>
+      <c r="P16" s="16">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="16">
+        <v>0</v>
+      </c>
+      <c r="R16" s="16">
+        <v>0</v>
+      </c>
+      <c r="S16" s="16">
+        <v>0</v>
+      </c>
+      <c r="T16" s="16">
+        <v>0</v>
+      </c>
+      <c r="U16" s="16">
+        <v>0</v>
+      </c>
+      <c r="V16" s="16">
+        <v>0</v>
+      </c>
+      <c r="W16" s="16">
+        <v>0</v>
+      </c>
+      <c r="X16" s="16">
+        <v>0</v>
+      </c>
+      <c r="Y16" s="16">
+        <v>0</v>
+      </c>
+      <c r="Z16" s="16">
+        <v>0</v>
+      </c>
+      <c r="AA16" s="16">
+        <v>0</v>
+      </c>
+      <c r="AB16" s="16">
+        <v>0</v>
+      </c>
+      <c r="AC16" s="16">
+        <v>0</v>
+      </c>
+      <c r="AD16" s="16">
+        <v>0</v>
+      </c>
+      <c r="AE16" s="16">
+        <v>0</v>
+      </c>
+      <c r="AF16" s="16">
+        <v>0</v>
+      </c>
+      <c r="AG16" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:33">
+      <c r="B17" s="15">
+        <v>21</v>
+      </c>
+      <c r="C17" s="15"/>
+      <c r="D17" s="16">
+        <v>1.5227734027971189</v>
+      </c>
+      <c r="E17" s="16">
+        <v>1.4965473414117805</v>
+      </c>
+      <c r="F17" s="16">
+        <v>1.4783072974271663</v>
+      </c>
+      <c r="G17" s="16">
+        <v>1.4691212251363073</v>
+      </c>
+      <c r="H17" s="16">
+        <v>1.4702918396583275</v>
+      </c>
+      <c r="I17" s="16">
+        <v>1.4834027223049628</v>
+      </c>
+      <c r="J17" s="16">
+        <v>1.5103736808923254</v>
+      </c>
+      <c r="K17" s="16">
+        <v>1.5535272146321064</v>
+      </c>
+      <c r="L17" s="16">
+        <v>0</v>
+      </c>
+      <c r="M17" s="16">
+        <v>0</v>
+      </c>
+      <c r="N17" s="16">
+        <v>0</v>
+      </c>
+      <c r="O17" s="16">
+        <v>0</v>
+      </c>
+      <c r="P17" s="16">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="16">
+        <v>0</v>
+      </c>
+      <c r="R17" s="16">
+        <v>0</v>
+      </c>
+      <c r="S17" s="16">
+        <v>0</v>
+      </c>
+      <c r="T17" s="16">
+        <v>0</v>
+      </c>
+      <c r="U17" s="16">
+        <v>0</v>
+      </c>
+      <c r="V17" s="16">
+        <v>0</v>
+      </c>
+      <c r="W17" s="16">
+        <v>0</v>
+      </c>
+      <c r="X17" s="16">
+        <v>0</v>
+      </c>
+      <c r="Y17" s="16">
+        <v>0</v>
+      </c>
+      <c r="Z17" s="16">
+        <v>0</v>
+      </c>
+      <c r="AA17" s="16">
+        <v>0</v>
+      </c>
+      <c r="AB17" s="16">
+        <v>0</v>
+      </c>
+      <c r="AC17" s="16">
+        <v>0</v>
+      </c>
+      <c r="AD17" s="16">
+        <v>0</v>
+      </c>
+      <c r="AE17" s="16">
+        <v>0</v>
+      </c>
+      <c r="AF17" s="16">
+        <v>0</v>
+      </c>
+      <c r="AG17" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="2:33">
+      <c r="B18" s="15">
+        <v>22</v>
+      </c>
+      <c r="C18" s="15"/>
+      <c r="D18" s="16">
+        <v>1.5058526391756033</v>
+      </c>
+      <c r="E18" s="16">
+        <v>1.4735890173608417</v>
+      </c>
+      <c r="F18" s="16">
+        <v>1.448210037169122</v>
+      </c>
+      <c r="G18" s="16">
+        <v>1.4305591322856148</v>
+      </c>
+      <c r="H18" s="16">
+        <v>1.4216697629180992</v>
+      </c>
+      <c r="I18" s="16">
+        <v>1.4228025675100653</v>
+      </c>
+      <c r="J18" s="16">
+        <v>1.4354899789400914</v>
+      </c>
+      <c r="K18" s="16">
+        <v>1.4615897967390021</v>
+      </c>
+      <c r="L18" s="16">
+        <v>1.5033495052172594</v>
+      </c>
+      <c r="M18" s="16">
+        <v>0</v>
+      </c>
+      <c r="N18" s="16">
+        <v>0</v>
+      </c>
+      <c r="O18" s="16">
+        <v>0</v>
+      </c>
+      <c r="P18" s="16">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="16">
+        <v>0</v>
+      </c>
+      <c r="R18" s="16">
+        <v>0</v>
+      </c>
+      <c r="S18" s="16">
+        <v>0</v>
+      </c>
+      <c r="T18" s="16">
+        <v>0</v>
+      </c>
+      <c r="U18" s="16">
+        <v>0</v>
+      </c>
+      <c r="V18" s="16">
+        <v>0</v>
+      </c>
+      <c r="W18" s="16">
+        <v>0</v>
+      </c>
+      <c r="X18" s="16">
+        <v>0</v>
+      </c>
+      <c r="Y18" s="16">
+        <v>0</v>
+      </c>
+      <c r="Z18" s="16">
+        <v>0</v>
+      </c>
+      <c r="AA18" s="16">
+        <v>0</v>
+      </c>
+      <c r="AB18" s="16">
+        <v>0</v>
+      </c>
+      <c r="AC18" s="16">
+        <v>0</v>
+      </c>
+      <c r="AD18" s="16">
+        <v>0</v>
+      </c>
+      <c r="AE18" s="16">
+        <v>0</v>
+      </c>
+      <c r="AF18" s="16">
+        <v>0</v>
+      </c>
+      <c r="AG18" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:33">
+      <c r="B19" s="15">
+        <v>23</v>
+      </c>
+      <c r="C19" s="15"/>
+      <c r="D19" s="16">
+        <v>1.492273775586229</v>
+      </c>
+      <c r="E19" s="16">
+        <v>1.4551060668451896</v>
+      </c>
+      <c r="F19" s="16">
+        <v>1.4239297149102754</v>
+      </c>
+      <c r="G19" s="16">
+        <v>1.3994059952005349</v>
+      </c>
+      <c r="H19" s="16">
+        <v>1.3823499180565193</v>
+      </c>
+      <c r="I19" s="16">
+        <v>1.3737601165310651</v>
+      </c>
+      <c r="J19" s="16">
+        <v>1.3748547461059897</v>
+      </c>
+      <c r="K19" s="16">
+        <v>1.3871145973451515</v>
+      </c>
+      <c r="L19" s="16">
+        <v>1.4123348627514269</v>
+      </c>
+      <c r="M19" s="16">
+        <v>1.4526872874014678</v>
+      </c>
+      <c r="N19" s="16">
+        <v>0</v>
+      </c>
+      <c r="O19" s="16">
+        <v>0</v>
+      </c>
+      <c r="P19" s="16">
+        <v>0</v>
+      </c>
+      <c r="Q19" s="16">
+        <v>0</v>
+      </c>
+      <c r="R19" s="16">
+        <v>0</v>
+      </c>
+      <c r="S19" s="16">
+        <v>0</v>
+      </c>
+      <c r="T19" s="16">
+        <v>0</v>
+      </c>
+      <c r="U19" s="16">
+        <v>0</v>
+      </c>
+      <c r="V19" s="16">
+        <v>0</v>
+      </c>
+      <c r="W19" s="16">
+        <v>0</v>
+      </c>
+      <c r="X19" s="16">
+        <v>0</v>
+      </c>
+      <c r="Y19" s="16">
+        <v>0</v>
+      </c>
+      <c r="Z19" s="16">
+        <v>0</v>
+      </c>
+      <c r="AA19" s="16">
+        <v>0</v>
+      </c>
+      <c r="AB19" s="16">
+        <v>0</v>
+      </c>
+      <c r="AC19" s="16">
+        <v>0</v>
+      </c>
+      <c r="AD19" s="16">
+        <v>0</v>
+      </c>
+      <c r="AE19" s="16">
+        <v>0</v>
+      </c>
+      <c r="AF19" s="16">
+        <v>0</v>
+      </c>
+      <c r="AG19" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="2:33">
+      <c r="B20" s="15">
+        <v>24</v>
+      </c>
+      <c r="C20" s="15"/>
+      <c r="D20" s="16">
+        <v>1.4805197639466432</v>
+      </c>
+      <c r="E20" s="16">
+        <v>1.4394033537698374</v>
+      </c>
+      <c r="F20" s="16">
+        <v>1.4035524760763152</v>
+      </c>
+      <c r="G20" s="16">
+        <v>1.3734806847819896</v>
+      </c>
+      <c r="H20" s="16">
+        <v>1.3498258266891809</v>
+      </c>
+      <c r="I20" s="16">
+        <v>1.3333740367797799</v>
+      </c>
+      <c r="J20" s="16">
+        <v>1.3250885670983881</v>
+      </c>
+      <c r="K20" s="16">
+        <v>1.326144414562211</v>
+      </c>
+      <c r="L20" s="16">
+        <v>1.3379699061570336</v>
+      </c>
+      <c r="M20" s="16">
+        <v>1.362296631723525</v>
+      </c>
+      <c r="N20" s="16">
+        <v>1.4012193926299115</v>
+      </c>
+      <c r="O20" s="16">
+        <v>0</v>
+      </c>
+      <c r="P20" s="16">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="16">
+        <v>0</v>
+      </c>
+      <c r="R20" s="16">
+        <v>0</v>
+      </c>
+      <c r="S20" s="16">
+        <v>0</v>
+      </c>
+      <c r="T20" s="16">
+        <v>0</v>
+      </c>
+      <c r="U20" s="16">
+        <v>0</v>
+      </c>
+      <c r="V20" s="16">
+        <v>0</v>
+      </c>
+      <c r="W20" s="16">
+        <v>0</v>
+      </c>
+      <c r="X20" s="16">
+        <v>0</v>
+      </c>
+      <c r="Y20" s="16">
+        <v>0</v>
+      </c>
+      <c r="Z20" s="16">
+        <v>0</v>
+      </c>
+      <c r="AA20" s="16">
+        <v>0</v>
+      </c>
+      <c r="AB20" s="16">
+        <v>0</v>
+      </c>
+      <c r="AC20" s="16">
+        <v>0</v>
+      </c>
+      <c r="AD20" s="16">
+        <v>0</v>
+      </c>
+      <c r="AE20" s="16">
+        <v>0</v>
+      </c>
+      <c r="AF20" s="16">
+        <v>0</v>
+      </c>
+      <c r="AG20" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="2:33">
+      <c r="B21" s="15">
+        <v>25</v>
+      </c>
+      <c r="C21" s="15"/>
+      <c r="D21" s="16">
+        <v>1.4694914740253069</v>
+      </c>
+      <c r="E21" s="16">
+        <v>1.4252354331900527</v>
+      </c>
+      <c r="F21" s="16">
+        <v>1.38565435761336</v>
+      </c>
+      <c r="G21" s="16">
+        <v>1.3511421934099157</v>
+      </c>
+      <c r="H21" s="16">
+        <v>1.3221933177948288</v>
+      </c>
+      <c r="I21" s="16">
+        <v>1.2994217596286064</v>
+      </c>
+      <c r="J21" s="16">
+        <v>1.2835842986981478</v>
+      </c>
+      <c r="K21" s="16">
+        <v>1.2756082180958443</v>
+      </c>
+      <c r="L21" s="16">
+        <v>1.2766246389867568</v>
+      </c>
+      <c r="M21" s="16">
+        <v>1.288008552964983</v>
+      </c>
+      <c r="N21" s="16">
+        <v>1.3114268902916189</v>
+      </c>
+      <c r="O21" s="16">
+        <v>1.3488962300142369</v>
+      </c>
+      <c r="P21" s="16">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="16">
+        <v>0</v>
+      </c>
+      <c r="R21" s="16">
+        <v>0</v>
+      </c>
+      <c r="S21" s="16">
+        <v>0</v>
+      </c>
+      <c r="T21" s="16">
+        <v>0</v>
+      </c>
+      <c r="U21" s="16">
+        <v>0</v>
+      </c>
+      <c r="V21" s="16">
+        <v>0</v>
+      </c>
+      <c r="W21" s="16">
+        <v>0</v>
+      </c>
+      <c r="X21" s="16">
+        <v>0</v>
+      </c>
+      <c r="Y21" s="16">
+        <v>0</v>
+      </c>
+      <c r="Z21" s="16">
+        <v>0</v>
+      </c>
+      <c r="AA21" s="16">
+        <v>0</v>
+      </c>
+      <c r="AB21" s="16">
+        <v>0</v>
+      </c>
+      <c r="AC21" s="16">
+        <v>0</v>
+      </c>
+      <c r="AD21" s="16">
+        <v>0</v>
+      </c>
+      <c r="AE21" s="16">
+        <v>0</v>
+      </c>
+      <c r="AF21" s="16">
+        <v>0</v>
+      </c>
+      <c r="AG21" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="2:33">
+      <c r="B22" s="15">
+        <v>26</v>
+      </c>
+      <c r="C22" s="15"/>
+      <c r="D22" s="16">
+        <v>1.4606080963580037</v>
+      </c>
+      <c r="E22" s="16">
+        <v>1.4138283352655465</v>
+      </c>
+      <c r="F22" s="16">
+        <v>1.3712486771691608</v>
+      </c>
+      <c r="G22" s="16">
+        <v>1.3331669004594775</v>
+      </c>
+      <c r="H22" s="16">
+        <v>1.2999620288935971</v>
+      </c>
+      <c r="I22" s="16">
+        <v>1.272109713080853</v>
+      </c>
+      <c r="J22" s="16">
+        <v>1.2502007229692176</v>
+      </c>
+      <c r="K22" s="16">
+        <v>1.2349631721443681</v>
+      </c>
+      <c r="L22" s="16">
+        <v>1.2272892189712963</v>
+      </c>
+      <c r="M22" s="16">
+        <v>1.2282671386676873</v>
+      </c>
+      <c r="N22" s="16">
+        <v>1.239219839267272</v>
+      </c>
+      <c r="O22" s="16">
+        <v>1.2617511090721314</v>
+      </c>
+      <c r="P22" s="16">
+        <v>1.2978011407599066</v>
+      </c>
+      <c r="Q22" s="16">
+        <v>0</v>
+      </c>
+      <c r="R22" s="16">
+        <v>0</v>
+      </c>
+      <c r="S22" s="16">
+        <v>0</v>
+      </c>
+      <c r="T22" s="16">
+        <v>0</v>
+      </c>
+      <c r="U22" s="16">
+        <v>0</v>
+      </c>
+      <c r="V22" s="16">
+        <v>0</v>
+      </c>
+      <c r="W22" s="16">
+        <v>0</v>
+      </c>
+      <c r="X22" s="16">
+        <v>0</v>
+      </c>
+      <c r="Y22" s="16">
+        <v>0</v>
+      </c>
+      <c r="Z22" s="16">
+        <v>0</v>
+      </c>
+      <c r="AA22" s="16">
+        <v>0</v>
+      </c>
+      <c r="AB22" s="16">
+        <v>0</v>
+      </c>
+      <c r="AC22" s="16">
+        <v>0</v>
+      </c>
+      <c r="AD22" s="16">
+        <v>0</v>
+      </c>
+      <c r="AE22" s="16">
+        <v>0</v>
+      </c>
+      <c r="AF22" s="16">
+        <v>0</v>
+      </c>
+      <c r="AG22" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="2:33">
+      <c r="B23" s="15">
+        <v>27</v>
+      </c>
+      <c r="C23" s="15"/>
+      <c r="D23" s="16">
+        <v>1.4520022459377639</v>
+      </c>
+      <c r="E23" s="16">
+        <v>1.4032448557999928</v>
+      </c>
+      <c r="F23" s="16">
+        <v>1.3583023012076803</v>
+      </c>
+      <c r="G23" s="16">
+        <v>1.3173948967269984</v>
+      </c>
+      <c r="H23" s="16">
+        <v>1.2808087259390684</v>
+      </c>
+      <c r="I23" s="16">
+        <v>1.2489079269988848</v>
+      </c>
+      <c r="J23" s="16">
+        <v>1.2221494700357856</v>
+      </c>
+      <c r="K23" s="16">
+        <v>1.2011009233745802</v>
+      </c>
+      <c r="L23" s="16">
+        <v>1.1864618050078699</v>
+      </c>
+      <c r="M23" s="16">
+        <v>1.1790892350894817</v>
+      </c>
+      <c r="N23" s="16">
+        <v>1.1800287484242138</v>
+      </c>
+      <c r="O23" s="16">
+        <v>1.1905512977732198</v>
+      </c>
+      <c r="P23" s="16">
+        <v>1.2121976850054599</v>
+      </c>
+      <c r="Q23" s="16">
+        <v>1.2468319045770446</v>
+      </c>
+      <c r="R23" s="16">
+        <v>0</v>
+      </c>
+      <c r="S23" s="16">
+        <v>0</v>
+      </c>
+      <c r="T23" s="16">
+        <v>0</v>
+      </c>
+      <c r="U23" s="16">
+        <v>0</v>
+      </c>
+      <c r="V23" s="16">
+        <v>0</v>
+      </c>
+      <c r="W23" s="16">
+        <v>0</v>
+      </c>
+      <c r="X23" s="16">
+        <v>0</v>
+      </c>
+      <c r="Y23" s="16">
+        <v>0</v>
+      </c>
+      <c r="Z23" s="16">
+        <v>0</v>
+      </c>
+      <c r="AA23" s="16">
+        <v>0</v>
+      </c>
+      <c r="AB23" s="16">
+        <v>0</v>
+      </c>
+      <c r="AC23" s="16">
+        <v>0</v>
+      </c>
+      <c r="AD23" s="16">
+        <v>0</v>
+      </c>
+      <c r="AE23" s="16">
+        <v>0</v>
+      </c>
+      <c r="AF23" s="16">
+        <v>0</v>
+      </c>
+      <c r="AG23" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="2:33">
+      <c r="B24" s="15">
+        <v>28</v>
+      </c>
+      <c r="C24" s="15"/>
+      <c r="D24" s="16">
+        <v>1.4435441790702332</v>
+      </c>
+      <c r="E24" s="16">
+        <v>1.3932570128280322</v>
+      </c>
+      <c r="F24" s="16">
+        <v>1.3464722534196409</v>
+      </c>
+      <c r="G24" s="16">
+        <v>1.3033479886085313</v>
+      </c>
+      <c r="H24" s="16">
+        <v>1.2640956194550019</v>
+      </c>
+      <c r="I24" s="16">
+        <v>1.2289896551457755</v>
+      </c>
+      <c r="J24" s="16">
+        <v>1.1983795015027123</v>
+      </c>
+      <c r="K24" s="16">
+        <v>1.1727036405179263</v>
+      </c>
+      <c r="L24" s="16">
+        <v>1.1525066777875952</v>
+      </c>
+      <c r="M24" s="16">
+        <v>1.1384598301445557</v>
+      </c>
+      <c r="N24" s="16">
+        <v>1.1313855403009299</v>
+      </c>
+      <c r="O24" s="16">
+        <v>1.1322870427234799</v>
+      </c>
+      <c r="P24" s="16">
+        <v>1.142383869856046</v>
+      </c>
+      <c r="Q24" s="16">
+        <v>1.1631544856716105</v>
+      </c>
+      <c r="R24" s="16">
+        <v>1.1963874709765134</v>
+      </c>
+      <c r="S24" s="16">
+        <v>0</v>
+      </c>
+      <c r="T24" s="16">
+        <v>0</v>
+      </c>
+      <c r="U24" s="16">
+        <v>0</v>
+      </c>
+      <c r="V24" s="16">
+        <v>0</v>
+      </c>
+      <c r="W24" s="16">
+        <v>0</v>
+      </c>
+      <c r="X24" s="16">
+        <v>0</v>
+      </c>
+      <c r="Y24" s="16">
+        <v>0</v>
+      </c>
+      <c r="Z24" s="16">
+        <v>0</v>
+      </c>
+      <c r="AA24" s="16">
+        <v>0</v>
+      </c>
+      <c r="AB24" s="16">
+        <v>0</v>
+      </c>
+      <c r="AC24" s="16">
+        <v>0</v>
+      </c>
+      <c r="AD24" s="16">
+        <v>0</v>
+      </c>
+      <c r="AE24" s="16">
+        <v>0</v>
+      </c>
+      <c r="AF24" s="16">
+        <v>0</v>
+      </c>
+      <c r="AG24" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="2:33">
+      <c r="B25" s="15">
+        <v>29</v>
+      </c>
+      <c r="C25" s="15"/>
+      <c r="D25" s="16">
+        <v>1.4351664361572374</v>
+      </c>
+      <c r="E25" s="16">
+        <v>1.3837144741881739</v>
+      </c>
+      <c r="F25" s="16">
+        <v>1.335511529793318</v>
+      </c>
+      <c r="G25" s="16">
+        <v>1.2906658300887903</v>
+      </c>
+      <c r="H25" s="16">
+        <v>1.2493289106698851</v>
+      </c>
+      <c r="I25" s="16">
+        <v>1.2117034107846658</v>
+      </c>
+      <c r="J25" s="16">
+        <v>1.1780524622031701</v>
+      </c>
+      <c r="K25" s="16">
+        <v>1.1487109891349114</v>
+      </c>
+      <c r="L25" s="16">
+        <v>1.1240993000733583</v>
+      </c>
+      <c r="M25" s="16">
+        <v>1.1047394286750349</v>
+      </c>
+      <c r="N25" s="16">
+        <v>1.0912747722535669</v>
+      </c>
+      <c r="O25" s="16">
+        <v>1.0844936862340648</v>
+      </c>
+      <c r="P25" s="16">
+        <v>1.0853578246294697</v>
+      </c>
+      <c r="Q25" s="16">
+        <v>1.0950361746580133</v>
+      </c>
+      <c r="R25" s="16">
+        <v>1.1149459232881587</v>
+      </c>
+      <c r="S25" s="16">
+        <v>1.1468015210963918</v>
+      </c>
+      <c r="T25" s="16">
+        <v>0</v>
+      </c>
+      <c r="U25" s="16">
+        <v>0</v>
+      </c>
+      <c r="V25" s="16">
+        <v>0</v>
+      </c>
+      <c r="W25" s="16">
+        <v>0</v>
+      </c>
+      <c r="X25" s="16">
+        <v>0</v>
+      </c>
+      <c r="Y25" s="16">
+        <v>0</v>
+      </c>
+      <c r="Z25" s="16">
+        <v>0</v>
+      </c>
+      <c r="AA25" s="16">
+        <v>0</v>
+      </c>
+      <c r="AB25" s="16">
+        <v>0</v>
+      </c>
+      <c r="AC25" s="16">
+        <v>0</v>
+      </c>
+      <c r="AD25" s="16">
+        <v>0</v>
+      </c>
+      <c r="AE25" s="16">
+        <v>0</v>
+      </c>
+      <c r="AF25" s="16">
+        <v>0</v>
+      </c>
+      <c r="AG25" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="2:33">
+      <c r="B26" s="15">
+        <v>30</v>
+      </c>
+      <c r="C26" s="15"/>
+      <c r="D26" s="16">
+        <v>1.4268955711047071</v>
+      </c>
+      <c r="E26" s="16">
+        <v>1.3745724842200848</v>
+      </c>
+      <c r="F26" s="16">
+        <v>1.3252928680027614</v>
+      </c>
+      <c r="G26" s="16">
+        <v>1.279125093064426</v>
+      </c>
+      <c r="H26" s="16">
+        <v>1.2361728170799795</v>
+      </c>
+      <c r="I26" s="16">
+        <v>1.1965811776825368</v>
+      </c>
+      <c r="J26" s="16">
+        <v>1.1605442585181438</v>
+      </c>
+      <c r="K26" s="16">
+        <v>1.1283140817089077</v>
+      </c>
+      <c r="L26" s="16">
+        <v>1.1002114306783384</v>
+      </c>
+      <c r="M26" s="16">
+        <v>1.0766388681365504</v>
+      </c>
+      <c r="N26" s="16">
+        <v>1.0580963870335018</v>
+      </c>
+      <c r="O26" s="16">
+        <v>1.0452002198990589</v>
+      </c>
+      <c r="P26" s="16">
+        <v>1.0387054371193727</v>
+      </c>
+      <c r="Q26" s="16">
+        <v>1.0395330908541289</v>
+      </c>
+      <c r="R26" s="16">
+        <v>1.0488028126834015</v>
+      </c>
+      <c r="S26" s="16">
+        <v>1.0678719547321904</v>
+      </c>
+      <c r="T26" s="16">
+        <v>1.0983825820102531</v>
+      </c>
+      <c r="U26" s="16">
+        <v>0</v>
+      </c>
+      <c r="V26" s="16">
+        <v>0</v>
+      </c>
+      <c r="W26" s="16">
+        <v>0</v>
+      </c>
+      <c r="X26" s="16">
+        <v>0</v>
+      </c>
+      <c r="Y26" s="16">
+        <v>0</v>
+      </c>
+      <c r="Z26" s="16">
+        <v>0</v>
+      </c>
+      <c r="AA26" s="16">
+        <v>0</v>
+      </c>
+      <c r="AB26" s="16">
+        <v>0</v>
+      </c>
+      <c r="AC26" s="16">
+        <v>0</v>
+      </c>
+      <c r="AD26" s="16">
+        <v>0</v>
+      </c>
+      <c r="AE26" s="16">
+        <v>0</v>
+      </c>
+      <c r="AF26" s="16">
+        <v>0</v>
+      </c>
+      <c r="AG26" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="2:33">
+      <c r="B27" s="15">
+        <v>31</v>
+      </c>
+      <c r="C27" s="15"/>
+      <c r="D27" s="16">
+        <v>1.4187100908911701</v>
+      </c>
+      <c r="E27" s="16">
+        <v>1.3657525868623919</v>
+      </c>
+      <c r="F27" s="16">
+        <v>1.3156715629161377</v>
+      </c>
+      <c r="G27" s="16">
+        <v>1.268503595833383</v>
+      </c>
+      <c r="H27" s="16">
+        <v>1.2243141265207158</v>
+      </c>
+      <c r="I27" s="16">
+        <v>1.1832023708846893</v>
+      </c>
+      <c r="J27" s="16">
+        <v>1.1453072473590642</v>
+      </c>
+      <c r="K27" s="16">
+        <v>1.110814523036417</v>
+      </c>
+      <c r="L27" s="16">
+        <v>1.0799654208010188</v>
+      </c>
+      <c r="M27" s="16">
+        <v>1.0530669783922473</v>
+      </c>
+      <c r="N27" s="16">
+        <v>1.0305045085644813</v>
+      </c>
+      <c r="O27" s="16">
+        <v>1.01275657939141</v>
+      </c>
+      <c r="P27" s="16">
+        <v>1.0004130176191639</v>
+      </c>
+      <c r="Q27" s="16">
+        <v>0.99419653859848967</v>
+      </c>
+      <c r="R27" s="16">
+        <v>0.99498872707545993</v>
+      </c>
+      <c r="S27" s="16">
+        <v>1.0038612380175345</v>
+      </c>
+      <c r="T27" s="16">
+        <v>1.0221132605269438</v>
+      </c>
+      <c r="U27" s="16">
+        <v>1.0513164965419994</v>
+      </c>
+      <c r="V27" s="16">
+        <v>0</v>
+      </c>
+      <c r="W27" s="16">
+        <v>0</v>
+      </c>
+      <c r="X27" s="16">
+        <v>0</v>
+      </c>
+      <c r="Y27" s="16">
+        <v>0</v>
+      </c>
+      <c r="Z27" s="16">
+        <v>0</v>
+      </c>
+      <c r="AA27" s="16">
+        <v>0</v>
+      </c>
+      <c r="AB27" s="16">
+        <v>0</v>
+      </c>
+      <c r="AC27" s="16">
+        <v>0</v>
+      </c>
+      <c r="AD27" s="16">
+        <v>0</v>
+      </c>
+      <c r="AE27" s="16">
+        <v>0</v>
+      </c>
+      <c r="AF27" s="16">
+        <v>0</v>
+      </c>
+      <c r="AG27" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="2:33">
+      <c r="B28" s="15">
+        <v>32</v>
+      </c>
+      <c r="C28" s="15"/>
+      <c r="D28" s="16">
+        <v>1.4106668155080109</v>
+      </c>
+      <c r="E28" s="16">
+        <v>1.3572623985303578</v>
+      </c>
+      <c r="F28" s="16">
+        <v>1.3065986093603446</v>
+      </c>
+      <c r="G28" s="16">
+        <v>1.2586867131113715</v>
+      </c>
+      <c r="H28" s="16">
+        <v>1.2135617023374459</v>
+      </c>
+      <c r="I28" s="16">
+        <v>1.1712861835445827</v>
+      </c>
+      <c r="J28" s="16">
+        <v>1.1319550753635612</v>
+      </c>
+      <c r="K28" s="16">
+        <v>1.0957012793419332</v>
+      </c>
+      <c r="L28" s="16">
+        <v>1.0627025165597535</v>
+      </c>
+      <c r="M28" s="16">
+        <v>1.0331895619671601</v>
+      </c>
+      <c r="N28" s="16">
+        <v>1.0074561547722292</v>
+      </c>
+      <c r="O28" s="16">
+        <v>0.98587091892184764</v>
+      </c>
+      <c r="P28" s="16">
+        <v>0.9688916945735816</v>
+      </c>
+      <c r="Q28" s="16">
+        <v>0.95708276168096917</v>
+      </c>
+      <c r="R28" s="16">
+        <v>0.95113553308212662</v>
+      </c>
+      <c r="S28" s="16">
+        <v>0.95189341000091687</v>
+      </c>
+      <c r="T28" s="16">
+        <v>0.96038163149137101</v>
+      </c>
+      <c r="U28" s="16">
+        <v>0.97784311570030491</v>
+      </c>
+      <c r="V28" s="16">
+        <v>1.0057814904345992</v>
+      </c>
+      <c r="W28" s="16">
+        <v>0</v>
+      </c>
+      <c r="X28" s="16">
+        <v>0</v>
+      </c>
+      <c r="Y28" s="16">
+        <v>0</v>
+      </c>
+      <c r="Z28" s="16">
+        <v>0</v>
+      </c>
+      <c r="AA28" s="16">
+        <v>0</v>
+      </c>
+      <c r="AB28" s="16">
+        <v>0</v>
+      </c>
+      <c r="AC28" s="16">
+        <v>0</v>
+      </c>
+      <c r="AD28" s="16">
+        <v>0</v>
+      </c>
+      <c r="AE28" s="16">
+        <v>0</v>
+      </c>
+      <c r="AF28" s="16">
+        <v>0</v>
+      </c>
+      <c r="AG28" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="2:33">
+      <c r="B29" s="15">
+        <v>33</v>
+      </c>
+      <c r="C29" s="15"/>
+      <c r="D29" s="16">
+        <v>1.4028154611764361</v>
+      </c>
+      <c r="E29" s="16">
+        <v>1.3491114907594632</v>
+      </c>
+      <c r="F29" s="16">
+        <v>1.2980374087651865</v>
+      </c>
+      <c r="G29" s="16">
+        <v>1.2495843655779013</v>
+      </c>
+      <c r="H29" s="16">
+        <v>1.2037631347507713</v>
+      </c>
+      <c r="I29" s="16">
+        <v>1.1606071819159243</v>
+      </c>
+      <c r="J29" s="16">
+        <v>1.1201763817055077</v>
+      </c>
+      <c r="K29" s="16">
+        <v>1.0825615109167517</v>
+      </c>
+      <c r="L29" s="16">
+        <v>1.0478896718554391</v>
+      </c>
+      <c r="M29" s="16">
+        <v>1.0163308306316508</v>
+      </c>
+      <c r="N29" s="16">
+        <v>0.98810569218689936</v>
+      </c>
+      <c r="O29" s="16">
+        <v>0.96349517823604058</v>
+      </c>
+      <c r="P29" s="16">
+        <v>0.94285182759054031</v>
+      </c>
+      <c r="Q29" s="16">
+        <v>0.92661350226764772</v>
+      </c>
+      <c r="R29" s="16">
+        <v>0.91531985951381711</v>
+      </c>
+      <c r="S29" s="16">
+        <v>0.90963214193751463</v>
+      </c>
+      <c r="T29" s="16">
+        <v>0.91035694842511383</v>
+      </c>
+      <c r="U29" s="16">
+        <v>0.91847478108622971</v>
+      </c>
+      <c r="V29" s="16">
+        <v>0.93517432256052468</v>
+      </c>
+      <c r="W29" s="16">
+        <v>0.96189358891939691</v>
+      </c>
+      <c r="X29" s="16">
+        <v>0</v>
+      </c>
+      <c r="Y29" s="16">
+        <v>0</v>
+      </c>
+      <c r="Z29" s="16">
+        <v>0</v>
+      </c>
+      <c r="AA29" s="16">
+        <v>0</v>
+      </c>
+      <c r="AB29" s="16">
+        <v>0</v>
+      </c>
+      <c r="AC29" s="16">
+        <v>0</v>
+      </c>
+      <c r="AD29" s="16">
+        <v>0</v>
+      </c>
+      <c r="AE29" s="16">
+        <v>0</v>
+      </c>
+      <c r="AF29" s="16">
+        <v>0</v>
+      </c>
+      <c r="AG29" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="2:33">
+      <c r="B30" s="15">
+        <v>34</v>
+      </c>
+      <c r="C30" s="15"/>
+      <c r="D30" s="16">
+        <v>1.3952248968867864</v>
+      </c>
+      <c r="E30" s="16">
+        <v>1.3413351391018402</v>
+      </c>
+      <c r="F30" s="16">
+        <v>1.2899848192463972</v>
+      </c>
+      <c r="G30" s="16">
+        <v>1.2411491293268977</v>
+      </c>
+      <c r="H30" s="16">
+        <v>1.1948196075742494</v>
+      </c>
+      <c r="I30" s="16">
+        <v>1.1510065553757927</v>
+      </c>
+      <c r="J30" s="16">
+        <v>1.1097419716861767</v>
+      </c>
+      <c r="K30" s="16">
+        <v>1.0710831070492284</v>
+      </c>
+      <c r="L30" s="16">
+        <v>1.035116759843858</v>
+      </c>
+      <c r="M30" s="16">
+        <v>1.001964461942022</v>
+      </c>
+      <c r="N30" s="16">
+        <v>0.97178873045464365</v>
+      </c>
+      <c r="O30" s="16">
+        <v>0.9448005976248206</v>
+      </c>
+      <c r="P30" s="16">
+        <v>0.92126867338586238</v>
+      </c>
+      <c r="Q30" s="16">
+        <v>0.90153004604967035</v>
+      </c>
+      <c r="R30" s="16">
+        <v>0.88600338772677367</v>
+      </c>
+      <c r="S30" s="16">
+        <v>0.8752047044406116</v>
+      </c>
+      <c r="T30" s="16">
+        <v>0.86976625893047754</v>
+      </c>
+      <c r="U30" s="16">
+        <v>0.87045929977424652</v>
+      </c>
+      <c r="V30" s="16">
+        <v>0.87822135722446282</v>
+      </c>
+      <c r="W30" s="16">
+        <v>0.8941890182649076</v>
+      </c>
+      <c r="X30" s="16">
+        <v>0.91973727592961918</v>
+      </c>
+      <c r="Y30" s="16">
+        <v>0</v>
+      </c>
+      <c r="Z30" s="16">
+        <v>0</v>
+      </c>
+      <c r="AA30" s="16">
+        <v>0</v>
+      </c>
+      <c r="AB30" s="16">
+        <v>0</v>
+      </c>
+      <c r="AC30" s="16">
+        <v>0</v>
+      </c>
+      <c r="AD30" s="16">
+        <v>0</v>
+      </c>
+      <c r="AE30" s="16">
+        <v>0</v>
+      </c>
+      <c r="AF30" s="16">
+        <v>0</v>
+      </c>
+      <c r="AG30" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="2:33">
+      <c r="B31" s="15">
+        <v>35</v>
+      </c>
+      <c r="C31" s="15"/>
+      <c r="D31" s="16">
+        <v>1.3879501420728564</v>
+      </c>
+      <c r="E31" s="16">
+        <v>1.3339612741501858</v>
+      </c>
+      <c r="F31" s="16">
+        <v>1.2824377884964713</v>
+      </c>
+      <c r="G31" s="16">
+        <v>1.2333422353313641</v>
+      </c>
+      <c r="H31" s="16">
+        <v>1.1866508959678113</v>
+      </c>
+      <c r="I31" s="16">
+        <v>1.1423556801887409</v>
+      </c>
+      <c r="J31" s="16">
+        <v>1.1004664370527617</v>
+      </c>
+      <c r="K31" s="16">
+        <v>1.0610137604565357</v>
+      </c>
+      <c r="L31" s="16">
+        <v>1.0240523871013358</v>
+      </c>
+      <c r="M31" s="16">
+        <v>0.98966530409295594</v>
+      </c>
+      <c r="N31" s="16">
+        <v>0.95796870690004621</v>
+      </c>
+      <c r="O31" s="16">
+        <v>0.92911797658901496</v>
+      </c>
+      <c r="P31" s="16">
+        <v>0.90331487908341845</v>
+      </c>
+      <c r="Q31" s="16">
+        <v>0.88081622978963847</v>
+      </c>
+      <c r="R31" s="16">
+        <v>0.86194431564152163</v>
+      </c>
+      <c r="S31" s="16">
+        <v>0.84709942506802272</v>
+      </c>
+      <c r="T31" s="16">
+        <v>0.83677490652789677</v>
+      </c>
+      <c r="U31" s="16">
+        <v>0.83157526042189434</v>
+      </c>
+      <c r="V31" s="16">
+        <v>0.83223787019115447</v>
+      </c>
+      <c r="W31" s="16">
+        <v>0.83965909960687202</v>
+      </c>
+      <c r="X31" s="16">
+        <v>0.85492562869063327</v>
+      </c>
+      <c r="Y31" s="16">
+        <v>0.87935207522465142</v>
+      </c>
+      <c r="Z31" s="16">
+        <v>0</v>
+      </c>
+      <c r="AA31" s="16">
+        <v>0</v>
+      </c>
+      <c r="AB31" s="16">
+        <v>0</v>
+      </c>
+      <c r="AC31" s="16">
+        <v>0</v>
+      </c>
+      <c r="AD31" s="16">
+        <v>0</v>
+      </c>
+      <c r="AE31" s="16">
+        <v>0</v>
+      </c>
+      <c r="AF31" s="16">
+        <v>0</v>
+      </c>
+      <c r="AG31" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="2:33">
+      <c r="B32" s="15">
+        <v>36</v>
+      </c>
+      <c r="C32" s="15"/>
+      <c r="D32" s="16">
+        <v>1.3810501970397306</v>
+      </c>
+      <c r="E32" s="16">
+        <v>1.3270265364677503</v>
+      </c>
+      <c r="F32" s="16">
+        <v>1.2754074917805704</v>
+      </c>
+      <c r="G32" s="16">
+        <v>1.2261456122351844</v>
+      </c>
+      <c r="H32" s="16">
+        <v>1.1792050918967811</v>
+      </c>
+      <c r="I32" s="16">
+        <v>1.1345632532021146</v>
+      </c>
+      <c r="J32" s="16">
+        <v>1.092212361051476</v>
+      </c>
+      <c r="K32" s="16">
+        <v>1.0521618321823516</v>
+      </c>
+      <c r="L32" s="16">
+        <v>1.0144409175825797</v>
+      </c>
+      <c r="M32" s="16">
+        <v>0.97910195130430244</v>
+      </c>
+      <c r="N32" s="16">
+        <v>0.94622427776216156</v>
+      </c>
+      <c r="O32" s="16">
+        <v>0.91591899206371286</v>
+      </c>
+      <c r="P32" s="16">
+        <v>0.88833465487560992</v>
+      </c>
+      <c r="Q32" s="16">
+        <v>0.86366417567391995</v>
+      </c>
+      <c r="R32" s="16">
+        <v>0.8421530970389639</v>
+      </c>
+      <c r="S32" s="16">
+        <v>0.82410955922780715</v>
+      </c>
+      <c r="T32" s="16">
+        <v>0.80991628014317618</v>
+      </c>
+      <c r="U32" s="16">
+        <v>0.80004495287882749</v>
+      </c>
+      <c r="V32" s="16">
+        <v>0.79507354349332804</v>
+      </c>
+      <c r="W32" s="16">
+        <v>0.79570706822917903</v>
+      </c>
+      <c r="X32" s="16">
+        <v>0.80280254527071326</v>
+      </c>
+      <c r="Y32" s="16">
+        <v>0.81739895518472605</v>
+      </c>
+      <c r="Z32" s="16">
+        <v>0.84075321104714684</v>
+      </c>
+      <c r="AA32" s="16">
+        <v>0</v>
+      </c>
+      <c r="AB32" s="16">
+        <v>0</v>
+      </c>
+      <c r="AC32" s="16">
+        <v>0</v>
+      </c>
+      <c r="AD32" s="16">
+        <v>0</v>
+      </c>
+      <c r="AE32" s="16">
+        <v>0</v>
+      </c>
+      <c r="AF32" s="16">
+        <v>0</v>
+      </c>
+      <c r="AG32" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:33">
+      <c r="B33" s="15">
+        <v>37</v>
+      </c>
+      <c r="C33" s="15"/>
+      <c r="D33" s="16">
+        <v>1.374568336479171</v>
+      </c>
+      <c r="E33" s="16">
+        <v>1.3205564199901438</v>
+      </c>
+      <c r="F33" s="16">
+        <v>1.2688991435547063</v>
+      </c>
+      <c r="G33" s="16">
+        <v>1.2195411542495191</v>
+      </c>
+      <c r="H33" s="16">
+        <v>1.1724370798039405</v>
+      </c>
+      <c r="I33" s="16">
+        <v>1.1275526826810653</v>
+      </c>
+      <c r="J33" s="16">
+        <v>1.0848662786569612</v>
+      </c>
+      <c r="K33" s="16">
+        <v>1.0443704714504496</v>
+      </c>
+      <c r="L33" s="16">
+        <v>1.0060742653201511</v>
+      </c>
+      <c r="M33" s="16">
+        <v>0.97000562998060891</v>
+      </c>
+      <c r="N33" s="16">
+        <v>0.93621460710930082</v>
+      </c>
+      <c r="O33" s="16">
+        <v>0.90477706561842841</v>
+      </c>
+      <c r="P33" s="16">
+        <v>0.8757992343458908</v>
+      </c>
+      <c r="Q33" s="16">
+        <v>0.84942316659469508</v>
+      </c>
+      <c r="R33" s="16">
+        <v>0.82583332187807479</v>
+      </c>
+      <c r="S33" s="16">
+        <v>0.80526448733955247</v>
+      </c>
+      <c r="T33" s="16">
+        <v>0.78801130584989176</v>
+      </c>
+      <c r="U33" s="16">
+        <v>0.77443973122060117</v>
+      </c>
+      <c r="V33" s="16">
+        <v>0.7650007950974238</v>
+      </c>
+      <c r="W33" s="16">
+        <v>0.76024714704430274</v>
+      </c>
+      <c r="X33" s="16">
+        <v>0.76085292166346119</v>
+      </c>
+      <c r="Y33" s="16">
+        <v>0.76763759739803994</v>
+      </c>
+      <c r="Z33" s="16">
+        <v>0.78159464462345873</v>
+      </c>
+      <c r="AA33" s="16">
+        <v>0.80392592018412901</v>
+      </c>
+      <c r="AB33" s="16">
+        <v>0</v>
+      </c>
+      <c r="AC33" s="16">
+        <v>0</v>
+      </c>
+      <c r="AD33" s="16">
+        <v>0</v>
+      </c>
+      <c r="AE33" s="16">
+        <v>0</v>
+      </c>
+      <c r="AF33" s="16">
+        <v>0</v>
+      </c>
+      <c r="AG33" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:33">
+      <c r="B34" s="15">
+        <v>38</v>
+      </c>
+      <c r="C34" s="15"/>
+      <c r="D34" s="16">
+        <v>1.3684865676687397</v>
+      </c>
+      <c r="E34" s="16">
+        <v>1.3145207775910739</v>
+      </c>
+      <c r="F34" s="16">
+        <v>1.2628683536423315</v>
+      </c>
+      <c r="G34" s="16">
+        <v>1.2134677080825189</v>
+      </c>
+      <c r="H34" s="16">
+        <v>1.1662659060622746</v>
+      </c>
+      <c r="I34" s="16">
+        <v>1.1212195573834518</v>
+      </c>
+      <c r="J34" s="16">
+        <v>1.0782959201645157</v>
+      </c>
+      <c r="K34" s="16">
+        <v>1.0374742574496172</v>
+      </c>
+      <c r="L34" s="16">
+        <v>0.99874749606165136</v>
+      </c>
+      <c r="M34" s="16">
+        <v>0.96212424691120735</v>
+      </c>
+      <c r="N34" s="16">
+        <v>0.92763125786518585</v>
+      </c>
+      <c r="O34" s="16">
+        <v>0.8953163845470905</v>
+      </c>
+      <c r="P34" s="16">
+        <v>0.86525218156102124</v>
+      </c>
+      <c r="Q34" s="16">
+        <v>0.83754023717355774</v>
+      </c>
+      <c r="R34" s="16">
+        <v>0.81231639913658871</v>
+      </c>
+      <c r="S34" s="16">
+        <v>0.78975706891109265</v>
+      </c>
+      <c r="T34" s="16">
+        <v>0.77008677704260942</v>
+      </c>
+      <c r="U34" s="16">
+        <v>0.75358729502645849</v>
+      </c>
+      <c r="V34" s="16">
+        <v>0.74060859010406366</v>
+      </c>
+      <c r="W34" s="16">
+        <v>0.73158199075429786</v>
+      </c>
+      <c r="X34" s="16">
+        <v>0.72703600422940173</v>
+      </c>
+      <c r="Y34" s="16">
+        <v>0.72761531578655636</v>
+      </c>
+      <c r="Z34" s="16">
+        <v>0.73410360522669138</v>
+      </c>
+      <c r="AA34" s="16">
+        <v>0.74745094350354013</v>
+      </c>
+      <c r="AB34" s="16">
+        <v>0.76880668474649871</v>
+      </c>
+      <c r="AC34" s="16">
+        <v>0</v>
+      </c>
+      <c r="AD34" s="16">
+        <v>0</v>
+      </c>
+      <c r="AE34" s="16">
+        <v>0</v>
+      </c>
+      <c r="AF34" s="16">
+        <v>0</v>
+      </c>
+      <c r="AG34" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:33">
+      <c r="B35" s="15">
+        <v>39</v>
+      </c>
+      <c r="C35" s="15"/>
+      <c r="D35" s="16">
+        <v>1.3628152059161807</v>
+      </c>
+      <c r="E35" s="16">
+        <v>1.3089192612686213</v>
+      </c>
+      <c r="F35" s="16">
+        <v>1.2573024871247815</v>
+      </c>
+      <c r="G35" s="16">
+        <v>1.2078983832080763</v>
+      </c>
+      <c r="H35" s="16">
+        <v>1.1606480425616967</v>
+      </c>
+      <c r="I35" s="16">
+        <v>1.1155008344775605</v>
+      </c>
+      <c r="J35" s="16">
+        <v>1.0724152574404568</v>
+      </c>
+      <c r="K35" s="16">
+        <v>1.0313599947532366</v>
+      </c>
+      <c r="L35" s="16">
+        <v>0.99231521209558504</v>
+      </c>
+      <c r="M35" s="16">
+        <v>0.95527414417073497</v>
+      </c>
+      <c r="N35" s="16">
+        <v>0.92024502707467326</v>
+      </c>
+      <c r="O35" s="16">
+        <v>0.88725344439660814</v>
+      </c>
+      <c r="P35" s="16">
+        <v>0.85634516870664934</v>
+      </c>
+      <c r="Q35" s="16">
+        <v>0.82758959646147034</v>
+      </c>
+      <c r="R35" s="16">
+        <v>0.80108389400671587</v>
+      </c>
+      <c r="S35" s="16">
+        <v>0.77695799593089276</v>
+      </c>
+      <c r="T35" s="16">
+        <v>0.75538062531499151</v>
+      </c>
+      <c r="U35" s="16">
+        <v>0.73656653936799266</v>
+      </c>
+      <c r="V35" s="16">
+        <v>0.72078524467199456</v>
+      </c>
+      <c r="W35" s="16">
+        <v>0.70837147513958021</v>
+      </c>
+      <c r="X35" s="16">
+        <v>0.69973778443935608</v>
+      </c>
+      <c r="Y35" s="16">
+        <v>0.69538967502821247</v>
+      </c>
+      <c r="Z35" s="16">
+        <v>0.69594377038680033</v>
+      </c>
+      <c r="AA35" s="16">
+        <v>0.7021496384029885</v>
+      </c>
+      <c r="AB35" s="16">
+        <v>0.71491599546486095</v>
+      </c>
+      <c r="AC35" s="16">
+        <v>0.73534216676385711</v>
+      </c>
+      <c r="AD35" s="16">
+        <v>0</v>
+      </c>
+      <c r="AE35" s="16">
+        <v>0</v>
+      </c>
+      <c r="AF35" s="16">
+        <v>0</v>
+      </c>
+      <c r="AG35" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="2:33">
+      <c r="B36" s="15">
+        <v>40</v>
+      </c>
+      <c r="C36" s="15"/>
+      <c r="D36" s="16">
+        <v>1.3575085347392279</v>
+      </c>
+      <c r="E36" s="16">
+        <v>1.3036997886073067</v>
+      </c>
+      <c r="F36" s="16">
+        <v>1.2521417113721929</v>
+      </c>
+      <c r="G36" s="16">
+        <v>1.2027639400883186</v>
+      </c>
+      <c r="H36" s="16">
+        <v>1.1555028590900023</v>
+      </c>
+      <c r="I36" s="16">
+        <v>1.1103021166526617</v>
+      </c>
+      <c r="J36" s="16">
+        <v>1.0671132782980663</v>
+      </c>
+      <c r="K36" s="16">
+        <v>1.0258966427399576</v>
+      </c>
+      <c r="L36" s="16">
+        <v>0.98662225171893603</v>
+      </c>
+      <c r="M36" s="16">
+        <v>0.94927113127647056</v>
+      </c>
+      <c r="N36" s="16">
+        <v>0.91383680957696201</v>
+      </c>
+      <c r="O36" s="16">
+        <v>0.88032716545574374</v>
+      </c>
+      <c r="P36" s="16">
+        <v>0.84876667275174633</v>
+      </c>
+      <c r="Q36" s="16">
+        <v>0.81919911853875527</v>
+      </c>
+      <c r="R36" s="16">
+        <v>0.79169088903369944</v>
+      </c>
+      <c r="S36" s="16">
+        <v>0.76633493575614486</v>
+      </c>
+      <c r="T36" s="16">
+        <v>0.74325555706645152</v>
+      </c>
+      <c r="U36" s="16">
+        <v>0.72261415727245604</v>
+      </c>
+      <c r="V36" s="16">
+        <v>0.70461617796795262</v>
+      </c>
+      <c r="W36" s="16">
+        <v>0.68951943523290893</v>
+      </c>
+      <c r="X36" s="16">
+        <v>0.67764414308400112</v>
+      </c>
+      <c r="Y36" s="16">
+        <v>0.66938495967313194</v>
+      </c>
+      <c r="Z36" s="16">
+        <v>0.66522546006119554</v>
+      </c>
+      <c r="AA36" s="16">
+        <v>0.66575552018873407</v>
+      </c>
+      <c r="AB36" s="16">
+        <v>0.67169219361716881</v>
+      </c>
+      <c r="AC36" s="16">
+        <v>0.68390477895566282</v>
+      </c>
+      <c r="AD36" s="16">
+        <v>0.70344491549725319</v>
+      </c>
+      <c r="AE36" s="16">
+        <v>0</v>
+      </c>
+      <c r="AF36" s="16">
+        <v>0</v>
+      </c>
+      <c r="AG36" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:33">
+      <c r="B37" s="15">
+        <v>41</v>
+      </c>
+      <c r="C37" s="15"/>
+      <c r="D37" s="16">
+        <v>1.3523779079230547</v>
+      </c>
+      <c r="E37" s="16">
+        <v>1.2986746997152843</v>
+      </c>
+      <c r="F37" s="16">
+        <v>1.2471980014576542</v>
+      </c>
+      <c r="G37" s="16">
+        <v>1.1978744290765262</v>
+      </c>
+      <c r="H37" s="16">
+        <v>1.150636669126079</v>
+      </c>
+      <c r="I37" s="16">
+        <v>1.1054238630161721</v>
+      </c>
+      <c r="J37" s="16">
+        <v>1.062182101281689</v>
+      </c>
+      <c r="K37" s="16">
+        <v>1.0208650485738175</v>
+      </c>
+      <c r="L37" s="16">
+        <v>0.98143472424294076</v>
+      </c>
+      <c r="M37" s="16">
+        <v>0.94386246840771415</v>
+      </c>
+      <c r="N37" s="16">
+        <v>0.90813012943279448</v>
+      </c>
+      <c r="O37" s="16">
+        <v>0.87423151596914983</v>
+      </c>
+      <c r="P37" s="16">
+        <v>0.8421741653867838</v>
+      </c>
+      <c r="Q37" s="16">
+        <v>0.81198149083899285</v>
+      </c>
+      <c r="R37" s="16">
+        <v>0.78369538168664932</v>
+      </c>
+      <c r="S37" s="16">
+        <v>0.75737934699664289</v>
+      </c>
+      <c r="T37" s="16">
+        <v>0.7331223098097287</v>
+      </c>
+      <c r="U37" s="16">
+        <v>0.71104318144888157</v>
+      </c>
+      <c r="V37" s="16">
+        <v>0.69129637102877639</v>
+      </c>
+      <c r="W37" s="16">
+        <v>0.67407841639304533</v>
+      </c>
+      <c r="X37" s="16">
+        <v>0.65963595998382796</v>
+      </c>
+      <c r="Y37" s="16">
+        <v>0.64827533788027947</v>
+      </c>
+      <c r="Z37" s="16">
+        <v>0.64037410392003469</v>
+      </c>
+      <c r="AA37" s="16">
+        <v>0.63639487522919258</v>
+      </c>
+      <c r="AB37" s="16">
+        <v>0.63690196277917566</v>
+      </c>
+      <c r="AC37" s="16">
+        <v>0.6425813433389902</v>
+      </c>
+      <c r="AD37" s="16">
+        <v>0.65426464049060806</v>
+      </c>
+      <c r="AE37" s="16">
+        <v>0.67295791593319698</v>
+      </c>
+      <c r="AF37" s="16">
+        <v>0</v>
+      </c>
+      <c r="AG37" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="2:33">
+      <c r="B38" s="15">
+        <v>42</v>
+      </c>
+      <c r="C38" s="15"/>
+      <c r="D38" s="16">
+        <v>1.3473573659886069</v>
+      </c>
+      <c r="E38" s="16">
+        <v>1.2937755093582959</v>
+      </c>
+      <c r="F38" s="16">
+        <v>1.2423994145950441</v>
+      </c>
+      <c r="G38" s="16">
+        <v>1.1931533487445378</v>
+      </c>
+      <c r="H38" s="16">
+        <v>1.1459671076747118</v>
+      </c>
+      <c r="I38" s="16">
+        <v>1.1007762948236695</v>
+      </c>
+      <c r="J38" s="16">
+        <v>1.0575226887778579</v>
+      </c>
+      <c r="K38" s="16">
+        <v>1.016154716123306</v>
+      </c>
+      <c r="L38" s="16">
+        <v>0.97662804935424852</v>
+      </c>
+      <c r="M38" s="16">
+        <v>0.93890635363112862</v>
+      </c>
+      <c r="N38" s="16">
+        <v>0.90296221098714324</v>
+      </c>
+      <c r="O38" s="16">
+        <v>0.8687782563491695</v>
+      </c>
+      <c r="P38" s="16">
+        <v>0.83634856665701673</v>
+      </c>
+      <c r="Q38" s="16">
+        <v>0.80568035266491311</v>
+      </c>
+      <c r="R38" s="16">
+        <v>0.77679601296732903</v>
+      </c>
+      <c r="S38" s="16">
+        <v>0.74973562173945052</v>
+      </c>
+      <c r="T38" s="16">
+        <v>0.72455993601885038</v>
+      </c>
+      <c r="U38" s="16">
+        <v>0.70135402555686965</v>
+      </c>
+      <c r="V38" s="16">
+        <v>0.68023164890912324</v>
+      </c>
+      <c r="W38" s="16">
+        <v>0.66134052420219203</v>
+      </c>
+      <c r="X38" s="16">
+        <v>0.64486867273342441</v>
+      </c>
+      <c r="Y38" s="16">
+        <v>0.63105204922327229</v>
+      </c>
+      <c r="Z38" s="16">
+        <v>0.62018371533336247</v>
+      </c>
+      <c r="AA38" s="16">
+        <v>0.61262486441485386</v>
+      </c>
+      <c r="AB38" s="16">
+        <v>0.60881806707205055</v>
+      </c>
+      <c r="AC38" s="16">
+        <v>0.60930318106971737</v>
+      </c>
+      <c r="AD38" s="16">
+        <v>0.61473645784358755</v>
+      </c>
+      <c r="AE38" s="16">
+        <v>0.62591348434983451</v>
+      </c>
+      <c r="AF38" s="16">
+        <v>0.64379672675982968</v>
+      </c>
+      <c r="AG38" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="2:33">
+      <c r="B39" s="15">
+        <v>43</v>
+      </c>
+      <c r="C39" s="15"/>
+      <c r="D39" s="16">
+        <v>1.3423565381439624</v>
+      </c>
+      <c r="E39" s="16">
+        <v>1.2889113474448204</v>
+      </c>
+      <c r="F39" s="16">
+        <v>1.2376537785389676</v>
+      </c>
+      <c r="G39" s="16">
+        <v>1.1885062893877372</v>
+      </c>
+      <c r="H39" s="16">
+        <v>1.1413964322006211</v>
+      </c>
+      <c r="I39" s="16">
+        <v>1.0962570481786689</v>
+      </c>
+      <c r="J39" s="16">
+        <v>1.0530265341708089</v>
+      </c>
+      <c r="K39" s="16">
+        <v>1.0116491943071206</v>
+      </c>
+      <c r="L39" s="16">
+        <v>0.97207569233860891</v>
+      </c>
+      <c r="M39" s="16">
+        <v>0.93426362360959214</v>
+      </c>
+      <c r="N39" s="16">
+        <v>0.89817822942264158</v>
+      </c>
+      <c r="O39" s="16">
+        <v>0.86379328115465581</v>
+      </c>
+      <c r="P39" s="16">
+        <v>0.83109216699917332</v>
+      </c>
+      <c r="Q39" s="16">
+        <v>0.8000692208280511</v>
+      </c>
+      <c r="R39" s="16">
+        <v>0.77073134060554227</v>
+      </c>
+      <c r="S39" s="16">
+        <v>0.74309995331405687</v>
+      </c>
+      <c r="T39" s="16">
+        <v>0.71721339478077772</v>
+      </c>
+      <c r="U39" s="16">
+        <v>0.69312978650868662</v>
+      </c>
+      <c r="V39" s="16">
+        <v>0.67093050807130705</v>
+      </c>
+      <c r="W39" s="16">
+        <v>0.65072438337601668</v>
+      </c>
+      <c r="X39" s="16">
+        <v>0.63265272279404994</v>
+      </c>
+      <c r="Y39" s="16">
+        <v>0.61689539158597617</v>
+      </c>
+      <c r="Z39" s="16">
+        <v>0.60367810916696374</v>
+      </c>
+      <c r="AA39" s="16">
+        <v>0.59328122469359668</v>
+      </c>
+      <c r="AB39" s="16">
+        <v>0.58605026357782708</v>
+      </c>
+      <c r="AC39" s="16">
+        <v>0.58240859848108284</v>
+      </c>
+      <c r="AD39" s="16">
+        <v>0.58287266907748181</v>
+      </c>
+      <c r="AE39" s="16">
+        <v>0.58807025975715377</v>
+      </c>
+      <c r="AF39" s="16">
+        <v>0.59876244629819275</v>
+      </c>
+      <c r="AG39" s="16">
+        <v>0.61586994476385559</v>
+      </c>
+    </row>
+    <row r="40" spans="2:33">
+      <c r="B40" s="15">
+        <v>44</v>
+      </c>
+      <c r="C40" s="15"/>
+      <c r="D40" s="16">
+        <v>1.3372214270428913</v>
+      </c>
+      <c r="E40" s="16">
+        <v>1.2839310950735943</v>
+      </c>
+      <c r="F40" s="16">
+        <v>1.2328120814055525</v>
+      </c>
+      <c r="G40" s="16">
+        <v>1.1837854743112131</v>
+      </c>
+      <c r="H40" s="16">
+        <v>1.1367771067330241</v>
+      </c>
+      <c r="I40" s="16">
+        <v>1.0917176841368135</v>
+      </c>
+      <c r="J40" s="16">
+        <v>1.0485429707790743</v>
+      </c>
+      <c r="K40" s="16">
+        <v>1.0071940447571912</v>
+      </c>
+      <c r="L40" s="16">
+        <v>0.96761763433803927</v>
+      </c>
+      <c r="M40" s="16">
+        <v>0.92976655060988056</v>
+      </c>
+      <c r="N40" s="16">
+        <v>0.89360023455992066</v>
+      </c>
+      <c r="O40" s="16">
+        <v>0.85908544034684653</v>
+      </c>
+      <c r="P40" s="16">
+        <v>0.82619708093615962</v>
+      </c>
+      <c r="Q40" s="16">
+        <v>0.79491926754253772</v>
+      </c>
+      <c r="R40" s="16">
+        <v>0.76524658065342555</v>
+      </c>
+      <c r="S40" s="16">
+        <v>0.73718561800239557</v>
+      </c>
+      <c r="T40" s="16">
+        <v>0.71075687397242848</v>
+      </c>
+      <c r="U40" s="16">
+        <v>0.68599701584168571</v>
+      </c>
+      <c r="V40" s="16">
+        <v>0.66296163540180342</v>
+      </c>
+      <c r="W40" s="16">
+        <v>0.64172857021827345</v>
+      </c>
+      <c r="X40" s="16">
+        <v>0.62240190768859349</v>
+      </c>
+      <c r="Y40" s="16">
+        <v>0.60511680771591059</v>
+      </c>
+      <c r="Z40" s="16">
+        <v>0.59004530700910685</v>
+      </c>
+      <c r="AA40" s="16">
+        <v>0.57740330065094247</v>
+      </c>
+      <c r="AB40" s="16">
+        <v>0.56745893573154416</v>
+      </c>
+      <c r="AC40" s="16">
+        <v>0.56054269883024999</v>
+      </c>
+      <c r="AD40" s="16">
+        <v>0.55705953551060094</v>
+      </c>
+      <c r="AE40" s="16">
+        <v>0.55750340765044981</v>
+      </c>
+      <c r="AF40" s="16">
+        <v>0.56247477561675951</v>
+      </c>
+      <c r="AG40" s="16">
+        <v>0.57270158971888252</v>
+      </c>
+    </row>
+    <row r="41" spans="2:33">
+      <c r="B41" s="15">
+        <v>45</v>
+      </c>
+      <c r="C41" s="15"/>
+      <c r="D41" s="16">
+        <v>1.3319233399148043</v>
+      </c>
+      <c r="E41" s="16">
+        <v>1.2788046167344547</v>
+      </c>
+      <c r="F41" s="16">
+        <v>1.2278422845645689</v>
+      </c>
+      <c r="G41" s="16">
+        <v>1.1789564161813766</v>
+      </c>
+      <c r="H41" s="16">
+        <v>1.13207154713339</v>
+      </c>
+      <c r="I41" s="16">
+        <v>1.087116750367177</v>
+      </c>
+      <c r="J41" s="16">
+        <v>1.0440257584954364</v>
+      </c>
+      <c r="K41" s="16">
+        <v>1.0027371419271554</v>
+      </c>
+      <c r="L41" s="16">
+        <v>0.96319455277591259</v>
+      </c>
+      <c r="M41" s="16">
+        <v>0.92534704649588806</v>
+      </c>
+      <c r="N41" s="16">
+        <v>0.88914949563326706</v>
+      </c>
+      <c r="O41" s="16">
+        <v>0.85456311300459364</v>
+      </c>
+      <c r="P41" s="16">
+        <v>0.82155610512039867</v>
+      </c>
+      <c r="Q41" s="16">
+        <v>0.7901044808787695</v>
+      </c>
+      <c r="R41" s="16">
+        <v>0.76019304559944256</v>
+      </c>
+      <c r="S41" s="16">
+        <v>0.73181661652245389</v>
+      </c>
+      <c r="T41" s="16">
+        <v>0.70498150315794195</v>
+      </c>
+      <c r="U41" s="16">
+        <v>0.67970730458728812</v>
+      </c>
+      <c r="V41" s="16">
+        <v>0.65602908627059298</v>
+      </c>
+      <c r="W41" s="16">
+        <v>0.63400001145992513</v>
+      </c>
+      <c r="X41" s="16">
+        <v>0.61369451736971503</v>
+      </c>
+      <c r="Y41" s="16">
+        <v>0.59521214431675107</v>
+      </c>
+      <c r="Z41" s="16">
+        <v>0.5786821477142704</v>
+      </c>
+      <c r="AA41" s="16">
+        <v>0.56426904880992634</v>
+      </c>
+      <c r="AB41" s="16">
+        <v>0.55217931126260211</v>
+      </c>
+      <c r="AC41" s="16">
+        <v>0.54266936809818489</v>
+      </c>
+      <c r="AD41" s="16">
+        <v>0.53605526851756202</v>
+      </c>
+      <c r="AE41" s="16">
+        <v>0.5327242679488251</v>
+      </c>
+      <c r="AF41" s="16">
+        <v>0.53314874943723023</v>
+      </c>
+      <c r="AG41" s="16">
+        <v>0.53790294210737133</v>
+      </c>
+    </row>
+    <row r="42" spans="2:33">
+      <c r="B42" s="15">
+        <v>46</v>
+      </c>
+      <c r="C42" s="15"/>
+      <c r="D42" s="16">
+        <v>1.3265260259686984</v>
+      </c>
+      <c r="E42" s="16">
+        <v>1.2735910528527792</v>
+      </c>
+      <c r="F42" s="16">
+        <v>1.2227986922460614</v>
+      </c>
+      <c r="G42" s="16">
+        <v>1.1740682823650921</v>
+      </c>
+      <c r="H42" s="16">
+        <v>1.1273233964411358</v>
+      </c>
+      <c r="I42" s="16">
+        <v>1.0824918750282673</v>
+      </c>
+      <c r="J42" s="16">
+        <v>1.0395058973608693</v>
+      </c>
+      <c r="K42" s="16">
+        <v>0.99830209826691318</v>
+      </c>
+      <c r="L42" s="16">
+        <v>0.95882173849681163</v>
+      </c>
+      <c r="M42" s="16">
+        <v>0.92101093794962885</v>
+      </c>
+      <c r="N42" s="16">
+        <v>0.88482098322287117</v>
+      </c>
+      <c r="O42" s="16">
+        <v>0.85020872324342955</v>
+      </c>
+      <c r="P42" s="16">
+        <v>0.81713706953305987</v>
+      </c>
+      <c r="Q42" s="16">
+        <v>0.78557562101497891</v>
+      </c>
+      <c r="R42" s="16">
+        <v>0.75550143729026931</v>
+      </c>
+      <c r="S42" s="16">
+        <v>0.72689998913772591</v>
+      </c>
+      <c r="T42" s="16">
+        <v>0.69976632077909795</v>
+      </c>
+      <c r="U42" s="16">
+        <v>0.6741064653961909</v>
+      </c>
+      <c r="V42" s="16">
+        <v>0.649939163718252</v>
+      </c>
+      <c r="W42" s="16">
+        <v>0.62729794549501205</v>
+      </c>
+      <c r="X42" s="16">
+        <v>0.60623364566579985</v>
+      </c>
+      <c r="Y42" s="16">
+        <v>0.58681744142787362</v>
+      </c>
+      <c r="Z42" s="16">
+        <v>0.56914451367720609</v>
+      </c>
+      <c r="AA42" s="16">
+        <v>0.55333845701785445</v>
+      </c>
+      <c r="AB42" s="16">
+        <v>0.53955658740242385</v>
+      </c>
+      <c r="AC42" s="16">
+        <v>0.52799632630466775</v>
+      </c>
+      <c r="AD42" s="16">
+        <v>0.51890287613048958</v>
+      </c>
+      <c r="AE42" s="16">
+        <v>0.51257844453888057</v>
+      </c>
+      <c r="AF42" s="16">
+        <v>0.50939332690165795</v>
+      </c>
+      <c r="AG42" s="16">
+        <v>0.50979921799879069</v>
+      </c>
+    </row>
+    <row r="43" spans="2:33">
+      <c r="B43" s="15">
+        <v>47</v>
+      </c>
+      <c r="C43" s="15"/>
+      <c r="D43" s="16">
+        <v>1.3212368785954214</v>
+      </c>
+      <c r="E43" s="16">
+        <v>1.2684878636178389</v>
+      </c>
+      <c r="F43" s="16">
+        <v>1.2178689012726065</v>
+      </c>
+      <c r="G43" s="16">
+        <v>1.1692988078610789</v>
+      </c>
+      <c r="H43" s="16">
+        <v>1.1227004507138887</v>
+      </c>
+      <c r="I43" s="16">
+        <v>1.0780007468860362</v>
+      </c>
+      <c r="J43" s="16">
+        <v>1.0351306940514386</v>
+      </c>
+      <c r="K43" s="16">
+        <v>0.994025438738394</v>
+      </c>
+      <c r="L43" s="16">
+        <v>0.95462438812767314</v>
+      </c>
+      <c r="M43" s="16">
+        <v>0.91687137292914467</v>
+      </c>
+      <c r="N43" s="16">
+        <v>0.88071487040387286</v>
+      </c>
+      <c r="O43" s="16">
+        <v>0.84610829845799063</v>
+      </c>
+      <c r="P43" s="16">
+        <v>0.8130103939639981</v>
+      </c>
+      <c r="Q43" s="16">
+        <v>0.78138569113863077</v>
+      </c>
+      <c r="R43" s="16">
+        <v>0.75120511901291676</v>
+      </c>
+      <c r="S43" s="16">
+        <v>0.72244674087619754</v>
+      </c>
+      <c r="T43" s="16">
+        <v>0.69509666318970653</v>
+      </c>
+      <c r="U43" s="16">
+        <v>0.66915014700038666</v>
+      </c>
+      <c r="V43" s="16">
+        <v>0.64461296152629299</v>
+      </c>
+      <c r="W43" s="16">
+        <v>0.62150302755234776</v>
+      </c>
+      <c r="X43" s="16">
+        <v>0.59985240783478133</v>
+      </c>
+      <c r="Y43" s="16">
+        <v>0.57970971318282305</v>
+      </c>
+      <c r="Z43" s="16">
+        <v>0.56114300664922978</v>
+      </c>
+      <c r="AA43" s="16">
+        <v>0.54424330477572447</v>
+      </c>
+      <c r="AB43" s="16">
+        <v>0.52912879465565199</v>
+      </c>
+      <c r="AC43" s="16">
+        <v>0.51594990935457341</v>
+      </c>
+      <c r="AD43" s="16">
+        <v>0.50489543276256788</v>
+      </c>
+      <c r="AE43" s="16">
+        <v>0.49619983919067767</v>
+      </c>
+      <c r="AF43" s="16">
+        <v>0.49015211410938575</v>
+      </c>
+      <c r="AG43" s="16">
+        <v>0.48710635172861277</v>
+      </c>
+    </row>
+    <row r="44" spans="2:33">
+      <c r="B44" s="15">
+        <v>48</v>
+      </c>
+      <c r="C44" s="15"/>
+      <c r="D44" s="16">
+        <v>1.3164084346450404</v>
+      </c>
+      <c r="E44" s="16">
+        <v>1.2638321767619041</v>
+      </c>
+      <c r="F44" s="16">
+        <v>1.2133749850946267</v>
+      </c>
+      <c r="G44" s="16">
+        <v>1.1649553001746804</v>
+      </c>
+      <c r="H44" s="16">
+        <v>1.1184954655482986</v>
+      </c>
+      <c r="I44" s="16">
+        <v>1.0739216997830943</v>
+      </c>
+      <c r="J44" s="16">
+        <v>1.0311640952198433</v>
+      </c>
+      <c r="K44" s="16">
+        <v>0.99015664752473687</v>
+      </c>
+      <c r="L44" s="16">
+        <v>0.95083732096017259</v>
+      </c>
+      <c r="M44" s="16">
+        <v>0.91314815532547533</v>
+      </c>
+      <c r="N44" s="16">
+        <v>0.8770354217569083</v>
+      </c>
+      <c r="O44" s="16">
+        <v>0.84244983605997426</v>
+      </c>
+      <c r="P44" s="16">
+        <v>0.80934684002558588</v>
+      </c>
+      <c r="Q44" s="16">
+        <v>0.77768696331417531</v>
+      </c>
+      <c r="R44" s="16">
+        <v>0.7474362810491435</v>
+      </c>
+      <c r="S44" s="16">
+        <v>0.71856698532822028</v>
+      </c>
+      <c r="T44" s="16">
+        <v>0.69105809254034245</v>
+      </c>
+      <c r="U44" s="16">
+        <v>0.66489631278902994</v>
+      </c>
+      <c r="V44" s="16">
+        <v>0.64007711301783021</v>
+      </c>
+      <c r="W44" s="16">
+        <v>0.61660601178555063</v>
+      </c>
+      <c r="X44" s="16">
+        <v>0.59450015126024902</v>
+      </c>
+      <c r="Y44" s="16">
+        <v>0.57379020114518342</v>
+      </c>
+      <c r="Z44" s="16">
+        <v>0.55452266022178931</v>
+      </c>
+      <c r="AA44" s="16">
+        <v>0.53676263435981375</v>
+      </c>
+      <c r="AB44" s="16">
+        <v>0.52059718564169666</v>
+      </c>
+      <c r="AC44" s="16">
+        <v>0.50613936620355904</v>
+      </c>
+      <c r="AD44" s="16">
+        <v>0.49353307314045275</v>
+      </c>
+      <c r="AE44" s="16">
+        <v>0.48295888811687837</v>
+      </c>
+      <c r="AF44" s="16">
+        <v>0.47464109807465521</v>
+      </c>
+      <c r="AG44" s="16">
+        <v>0.468856132730612</v>
+      </c>
+    </row>
+    <row r="45" spans="2:33">
+      <c r="B45" s="15">
+        <v>49</v>
+      </c>
+      <c r="C45" s="15"/>
+      <c r="D45" s="16">
+        <v>1.3125187623894596</v>
+      </c>
+      <c r="E45" s="16">
+        <v>1.2600818894415384</v>
+      </c>
+      <c r="F45" s="16">
+        <v>1.2097552669210652</v>
+      </c>
+      <c r="G45" s="16">
+        <v>1.1614570399128488</v>
+      </c>
+      <c r="H45" s="16">
+        <v>1.1151091387186867</v>
+      </c>
+      <c r="I45" s="16">
+        <v>1.0706372296527606</v>
+      </c>
+      <c r="J45" s="16">
+        <v>1.0279706882460364</v>
+      </c>
+      <c r="K45" s="16">
+        <v>0.98704259805145855</v>
+      </c>
+      <c r="L45" s="16">
+        <v>0.94778977893171634</v>
+      </c>
+      <c r="M45" s="16">
+        <v>0.91015284953722753</v>
+      </c>
+      <c r="N45" s="16">
+        <v>0.8740763296710734</v>
+      </c>
+      <c r="O45" s="16">
+        <v>0.83950878942263318</v>
+      </c>
+      <c r="P45" s="16">
+        <v>0.80640305337181073</v>
+      </c>
+      <c r="Q45" s="16">
+        <v>0.77471646986823794</v>
+      </c>
+      <c r="R45" s="16">
+        <v>0.74441125743106784</v>
+      </c>
+      <c r="S45" s="16">
+        <v>0.71545494276289645</v>
+      </c>
+      <c r="T45" s="16">
+        <v>0.68782090780726624</v>
+      </c>
+      <c r="U45" s="16">
+        <v>0.6614890668008383</v>
+      </c>
+      <c r="V45" s="16">
+        <v>0.63644669849584012</v>
+      </c>
+      <c r="W45" s="16">
+        <v>0.61268946379644895</v>
+      </c>
+      <c r="X45" s="16">
+        <v>0.59022264513312173</v>
+      </c>
+      <c r="Y45" s="16">
+        <v>0.56906265119403387</v>
+      </c>
+      <c r="Z45" s="16">
+        <v>0.54923883938575679</v>
+      </c>
+      <c r="AA45" s="16">
+        <v>0.53079571889770782</v>
+      </c>
+      <c r="AB45" s="16">
+        <v>0.51379560984665695</v>
+      </c>
+      <c r="AC45" s="16">
+        <v>0.49832184909861998</v>
+      </c>
+      <c r="AD45" s="16">
+        <v>0.48448265150966996</v>
+      </c>
+      <c r="AE45" s="16">
+        <v>0.4724157570992768</v>
+      </c>
+      <c r="AF45" s="16">
+        <v>0.46229402079529841</v>
+      </c>
+      <c r="AG45" s="16">
+        <v>0.45433213273947748</v>
+      </c>
+    </row>
+    <row r="46" spans="2:33">
+      <c r="B46" s="15">
+        <v>50</v>
+      </c>
+      <c r="C46" s="15"/>
+      <c r="D46" s="16">
+        <v>0</v>
+      </c>
+      <c r="E46" s="16">
+        <v>0</v>
+      </c>
+      <c r="F46" s="16">
+        <v>0</v>
+      </c>
+      <c r="G46" s="16">
+        <v>0</v>
+      </c>
+      <c r="H46" s="16">
+        <v>0</v>
+      </c>
+      <c r="I46" s="16">
+        <v>0</v>
+      </c>
+      <c r="J46" s="16">
+        <v>0</v>
+      </c>
+      <c r="K46" s="16">
+        <v>0</v>
+      </c>
+      <c r="L46" s="16">
+        <v>0</v>
+      </c>
+      <c r="M46" s="16">
+        <v>0</v>
+      </c>
+      <c r="N46" s="16">
+        <v>0</v>
+      </c>
+      <c r="O46" s="16">
+        <v>0</v>
+      </c>
+      <c r="P46" s="16">
+        <v>0</v>
+      </c>
+      <c r="Q46" s="16">
+        <v>0</v>
+      </c>
+      <c r="R46" s="16">
+        <v>0</v>
+      </c>
+      <c r="S46" s="16">
+        <v>0</v>
+      </c>
+      <c r="T46" s="16">
+        <v>0</v>
+      </c>
+      <c r="U46" s="16">
+        <v>0</v>
+      </c>
+      <c r="V46" s="16">
+        <v>0</v>
+      </c>
+      <c r="W46" s="16">
+        <v>0</v>
+      </c>
+      <c r="X46" s="16">
+        <v>0</v>
+      </c>
+      <c r="Y46" s="16">
+        <v>0</v>
+      </c>
+      <c r="Z46" s="16">
+        <v>0</v>
+      </c>
+      <c r="AA46" s="16">
+        <v>0</v>
+      </c>
+      <c r="AB46" s="16">
+        <v>0</v>
+      </c>
+      <c r="AC46" s="16">
+        <v>0</v>
+      </c>
+      <c r="AD46" s="16">
+        <v>0</v>
+      </c>
+      <c r="AE46" s="16">
+        <v>0</v>
+      </c>
+      <c r="AF46" s="16">
+        <v>0</v>
+      </c>
+      <c r="AG46" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:33">
+      <c r="B47" s="15">
+        <v>51</v>
+      </c>
+      <c r="C47" s="15"/>
+      <c r="D47" s="16">
+        <v>0</v>
+      </c>
+      <c r="E47" s="16">
+        <v>0</v>
+      </c>
+      <c r="F47" s="16">
+        <v>0</v>
+      </c>
+      <c r="G47" s="16">
+        <v>0</v>
+      </c>
+      <c r="H47" s="16">
+        <v>0</v>
+      </c>
+      <c r="I47" s="16">
+        <v>0</v>
+      </c>
+      <c r="J47" s="16">
+        <v>0</v>
+      </c>
+      <c r="K47" s="16">
+        <v>0</v>
+      </c>
+      <c r="L47" s="16">
+        <v>0</v>
+      </c>
+      <c r="M47" s="16">
+        <v>0</v>
+      </c>
+      <c r="N47" s="16">
+        <v>0</v>
+      </c>
+      <c r="O47" s="16">
+        <v>0</v>
+      </c>
+      <c r="P47" s="16">
+        <v>0</v>
+      </c>
+      <c r="Q47" s="16">
+        <v>0</v>
+      </c>
+      <c r="R47" s="16">
+        <v>0</v>
+      </c>
+      <c r="S47" s="16">
+        <v>0</v>
+      </c>
+      <c r="T47" s="16">
+        <v>0</v>
+      </c>
+      <c r="U47" s="16">
+        <v>0</v>
+      </c>
+      <c r="V47" s="16">
+        <v>0</v>
+      </c>
+      <c r="W47" s="16">
+        <v>0</v>
+      </c>
+      <c r="X47" s="16">
+        <v>0</v>
+      </c>
+      <c r="Y47" s="16">
+        <v>0</v>
+      </c>
+      <c r="Z47" s="16">
+        <v>0</v>
+      </c>
+      <c r="AA47" s="16">
+        <v>0</v>
+      </c>
+      <c r="AB47" s="16">
+        <v>0</v>
+      </c>
+      <c r="AC47" s="16">
+        <v>0</v>
+      </c>
+      <c r="AD47" s="16">
+        <v>0</v>
+      </c>
+      <c r="AE47" s="16">
+        <v>0</v>
+      </c>
+      <c r="AF47" s="16">
+        <v>0</v>
+      </c>
+      <c r="AG47" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:33">
+      <c r="B48" s="15">
+        <v>52</v>
+      </c>
+      <c r="C48" s="15"/>
+      <c r="D48" s="16">
+        <v>0</v>
+      </c>
+      <c r="E48" s="16">
+        <v>0</v>
+      </c>
+      <c r="F48" s="16">
+        <v>0</v>
+      </c>
+      <c r="G48" s="16">
+        <v>0</v>
+      </c>
+      <c r="H48" s="16">
+        <v>0</v>
+      </c>
+      <c r="I48" s="16">
+        <v>0</v>
+      </c>
+      <c r="J48" s="16">
+        <v>0</v>
+      </c>
+      <c r="K48" s="16">
+        <v>0</v>
+      </c>
+      <c r="L48" s="16">
+        <v>0</v>
+      </c>
+      <c r="M48" s="16">
+        <v>0</v>
+      </c>
+      <c r="N48" s="16">
+        <v>0</v>
+      </c>
+      <c r="O48" s="16">
+        <v>0</v>
+      </c>
+      <c r="P48" s="16">
+        <v>0</v>
+      </c>
+      <c r="Q48" s="16">
+        <v>0</v>
+      </c>
+      <c r="R48" s="16">
+        <v>0</v>
+      </c>
+      <c r="S48" s="16">
+        <v>0</v>
+      </c>
+      <c r="T48" s="16">
+        <v>0</v>
+      </c>
+      <c r="U48" s="16">
+        <v>0</v>
+      </c>
+      <c r="V48" s="16">
+        <v>0</v>
+      </c>
+      <c r="W48" s="16">
+        <v>0</v>
+      </c>
+      <c r="X48" s="16">
+        <v>0</v>
+      </c>
+      <c r="Y48" s="16">
+        <v>0</v>
+      </c>
+      <c r="Z48" s="16">
+        <v>0</v>
+      </c>
+      <c r="AA48" s="16">
+        <v>0</v>
+      </c>
+      <c r="AB48" s="16">
+        <v>0</v>
+      </c>
+      <c r="AC48" s="16">
+        <v>0</v>
+      </c>
+      <c r="AD48" s="16">
+        <v>0</v>
+      </c>
+      <c r="AE48" s="16">
+        <v>0</v>
+      </c>
+      <c r="AF48" s="16">
+        <v>0</v>
+      </c>
+      <c r="AG48" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:33">
+      <c r="B49" s="15">
+        <v>53</v>
+      </c>
+      <c r="C49" s="15"/>
+      <c r="D49" s="16">
+        <v>0</v>
+      </c>
+      <c r="E49" s="16">
+        <v>0</v>
+      </c>
+      <c r="F49" s="16">
+        <v>0</v>
+      </c>
+      <c r="G49" s="16">
+        <v>0</v>
+      </c>
+      <c r="H49" s="16">
+        <v>0</v>
+      </c>
+      <c r="I49" s="16">
+        <v>0</v>
+      </c>
+      <c r="J49" s="16">
+        <v>0</v>
+      </c>
+      <c r="K49" s="16">
+        <v>0</v>
+      </c>
+      <c r="L49" s="16">
+        <v>0</v>
+      </c>
+      <c r="M49" s="16">
+        <v>0</v>
+      </c>
+      <c r="N49" s="16">
+        <v>0</v>
+      </c>
+      <c r="O49" s="16">
+        <v>0</v>
+      </c>
+      <c r="P49" s="16">
+        <v>0</v>
+      </c>
+      <c r="Q49" s="16">
+        <v>0</v>
+      </c>
+      <c r="R49" s="16">
+        <v>0</v>
+      </c>
+      <c r="S49" s="16">
+        <v>0</v>
+      </c>
+      <c r="T49" s="16">
+        <v>0</v>
+      </c>
+      <c r="U49" s="16">
+        <v>0</v>
+      </c>
+      <c r="V49" s="16">
+        <v>0</v>
+      </c>
+      <c r="W49" s="16">
+        <v>0</v>
+      </c>
+      <c r="X49" s="16">
+        <v>0</v>
+      </c>
+      <c r="Y49" s="16">
+        <v>0</v>
+      </c>
+      <c r="Z49" s="16">
+        <v>0</v>
+      </c>
+      <c r="AA49" s="16">
+        <v>0</v>
+      </c>
+      <c r="AB49" s="16">
+        <v>0</v>
+      </c>
+      <c r="AC49" s="16">
+        <v>0</v>
+      </c>
+      <c r="AD49" s="16">
+        <v>0</v>
+      </c>
+      <c r="AE49" s="16">
+        <v>0</v>
+      </c>
+      <c r="AF49" s="16">
+        <v>0</v>
+      </c>
+      <c r="AG49" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:33">
+      <c r="B50" s="15">
+        <v>54</v>
+      </c>
+      <c r="C50" s="15"/>
+      <c r="D50" s="16">
+        <v>0</v>
+      </c>
+      <c r="E50" s="16">
+        <v>0</v>
+      </c>
+      <c r="F50" s="16">
+        <v>0</v>
+      </c>
+      <c r="G50" s="16">
+        <v>0</v>
+      </c>
+      <c r="H50" s="16">
+        <v>0</v>
+      </c>
+      <c r="I50" s="16">
+        <v>0</v>
+      </c>
+      <c r="J50" s="16">
+        <v>0</v>
+      </c>
+      <c r="K50" s="16">
+        <v>0</v>
+      </c>
+      <c r="L50" s="16">
+        <v>0</v>
+      </c>
+      <c r="M50" s="16">
+        <v>0</v>
+      </c>
+      <c r="N50" s="16">
+        <v>0</v>
+      </c>
+      <c r="O50" s="16">
+        <v>0</v>
+      </c>
+      <c r="P50" s="16">
+        <v>0</v>
+      </c>
+      <c r="Q50" s="16">
+        <v>0</v>
+      </c>
+      <c r="R50" s="16">
+        <v>0</v>
+      </c>
+      <c r="S50" s="16">
+        <v>0</v>
+      </c>
+      <c r="T50" s="16">
+        <v>0</v>
+      </c>
+      <c r="U50" s="16">
+        <v>0</v>
+      </c>
+      <c r="V50" s="16">
+        <v>0</v>
+      </c>
+      <c r="W50" s="16">
+        <v>0</v>
+      </c>
+      <c r="X50" s="16">
+        <v>0</v>
+      </c>
+      <c r="Y50" s="16">
+        <v>0</v>
+      </c>
+      <c r="Z50" s="16">
+        <v>0</v>
+      </c>
+      <c r="AA50" s="16">
+        <v>0</v>
+      </c>
+      <c r="AB50" s="16">
+        <v>0</v>
+      </c>
+      <c r="AC50" s="16">
+        <v>0</v>
+      </c>
+      <c r="AD50" s="16">
+        <v>0</v>
+      </c>
+      <c r="AE50" s="16">
+        <v>0</v>
+      </c>
+      <c r="AF50" s="16">
+        <v>0</v>
+      </c>
+      <c r="AG50" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:33">
+      <c r="B51" s="15">
+        <v>55</v>
+      </c>
+      <c r="C51" s="15"/>
+      <c r="D51" s="16">
+        <v>0</v>
+      </c>
+      <c r="E51" s="16">
+        <v>0</v>
+      </c>
+      <c r="F51" s="16">
+        <v>0</v>
+      </c>
+      <c r="G51" s="16">
+        <v>0</v>
+      </c>
+      <c r="H51" s="16">
+        <v>0</v>
+      </c>
+      <c r="I51" s="16">
+        <v>0</v>
+      </c>
+      <c r="J51" s="16">
+        <v>0</v>
+      </c>
+      <c r="K51" s="16">
+        <v>0</v>
+      </c>
+      <c r="L51" s="16">
+        <v>0</v>
+      </c>
+      <c r="M51" s="16">
+        <v>0</v>
+      </c>
+      <c r="N51" s="16">
+        <v>0</v>
+      </c>
+      <c r="O51" s="16">
+        <v>0</v>
+      </c>
+      <c r="P51" s="16">
+        <v>0</v>
+      </c>
+      <c r="Q51" s="16">
+        <v>0</v>
+      </c>
+      <c r="R51" s="16">
+        <v>0</v>
+      </c>
+      <c r="S51" s="16">
+        <v>0</v>
+      </c>
+      <c r="T51" s="16">
+        <v>0</v>
+      </c>
+      <c r="U51" s="16">
+        <v>0</v>
+      </c>
+      <c r="V51" s="16">
+        <v>0</v>
+      </c>
+      <c r="W51" s="16">
+        <v>0</v>
+      </c>
+      <c r="X51" s="16">
+        <v>0</v>
+      </c>
+      <c r="Y51" s="16">
+        <v>0</v>
+      </c>
+      <c r="Z51" s="16">
+        <v>0</v>
+      </c>
+      <c r="AA51" s="16">
+        <v>0</v>
+      </c>
+      <c r="AB51" s="16">
+        <v>0</v>
+      </c>
+      <c r="AC51" s="16">
+        <v>0</v>
+      </c>
+      <c r="AD51" s="16">
+        <v>0</v>
+      </c>
+      <c r="AE51" s="16">
+        <v>0</v>
+      </c>
+      <c r="AF51" s="16">
+        <v>0</v>
+      </c>
+      <c r="AG51" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:33">
+      <c r="B52" s="15">
+        <v>56</v>
+      </c>
+      <c r="C52" s="15"/>
+      <c r="D52" s="16">
+        <v>0</v>
+      </c>
+      <c r="E52" s="16">
+        <v>0</v>
+      </c>
+      <c r="F52" s="16">
+        <v>0</v>
+      </c>
+      <c r="G52" s="16">
+        <v>0</v>
+      </c>
+      <c r="H52" s="16">
+        <v>0</v>
+      </c>
+      <c r="I52" s="16">
+        <v>0</v>
+      </c>
+      <c r="J52" s="16">
+        <v>0</v>
+      </c>
+      <c r="K52" s="16">
+        <v>0</v>
+      </c>
+      <c r="L52" s="16">
+        <v>0</v>
+      </c>
+      <c r="M52" s="16">
+        <v>0</v>
+      </c>
+      <c r="N52" s="16">
+        <v>0</v>
+      </c>
+      <c r="O52" s="16">
+        <v>0</v>
+      </c>
+      <c r="P52" s="16">
+        <v>0</v>
+      </c>
+      <c r="Q52" s="16">
+        <v>0</v>
+      </c>
+      <c r="R52" s="16">
+        <v>0</v>
+      </c>
+      <c r="S52" s="16">
+        <v>0</v>
+      </c>
+      <c r="T52" s="16">
+        <v>0</v>
+      </c>
+      <c r="U52" s="16">
+        <v>0</v>
+      </c>
+      <c r="V52" s="16">
+        <v>0</v>
+      </c>
+      <c r="W52" s="16">
+        <v>0</v>
+      </c>
+      <c r="X52" s="16">
+        <v>0</v>
+      </c>
+      <c r="Y52" s="16">
+        <v>0</v>
+      </c>
+      <c r="Z52" s="16">
+        <v>0</v>
+      </c>
+      <c r="AA52" s="16">
+        <v>0</v>
+      </c>
+      <c r="AB52" s="16">
+        <v>0</v>
+      </c>
+      <c r="AC52" s="16">
+        <v>0</v>
+      </c>
+      <c r="AD52" s="16">
+        <v>0</v>
+      </c>
+      <c r="AE52" s="16">
+        <v>0</v>
+      </c>
+      <c r="AF52" s="16">
+        <v>0</v>
+      </c>
+      <c r="AG52" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:33">
+      <c r="B53" s="15">
+        <v>57</v>
+      </c>
+      <c r="C53" s="15"/>
+      <c r="D53" s="16">
+        <v>0</v>
+      </c>
+      <c r="E53" s="16">
+        <v>0</v>
+      </c>
+      <c r="F53" s="16">
+        <v>0</v>
+      </c>
+      <c r="G53" s="16">
+        <v>0</v>
+      </c>
+      <c r="H53" s="16">
+        <v>0</v>
+      </c>
+      <c r="I53" s="16">
+        <v>0</v>
+      </c>
+      <c r="J53" s="16">
+        <v>0</v>
+      </c>
+      <c r="K53" s="16">
+        <v>0</v>
+      </c>
+      <c r="L53" s="16">
+        <v>0</v>
+      </c>
+      <c r="M53" s="16">
+        <v>0</v>
+      </c>
+      <c r="N53" s="16">
+        <v>0</v>
+      </c>
+      <c r="O53" s="16">
+        <v>0</v>
+      </c>
+      <c r="P53" s="16">
+        <v>0</v>
+      </c>
+      <c r="Q53" s="16">
+        <v>0</v>
+      </c>
+      <c r="R53" s="16">
+        <v>0</v>
+      </c>
+      <c r="S53" s="16">
+        <v>0</v>
+      </c>
+      <c r="T53" s="16">
+        <v>0</v>
+      </c>
+      <c r="U53" s="16">
+        <v>0</v>
+      </c>
+      <c r="V53" s="16">
+        <v>0</v>
+      </c>
+      <c r="W53" s="16">
+        <v>0</v>
+      </c>
+      <c r="X53" s="16">
+        <v>0</v>
+      </c>
+      <c r="Y53" s="16">
+        <v>0</v>
+      </c>
+      <c r="Z53" s="16">
+        <v>0</v>
+      </c>
+      <c r="AA53" s="16">
+        <v>0</v>
+      </c>
+      <c r="AB53" s="16">
+        <v>0</v>
+      </c>
+      <c r="AC53" s="16">
+        <v>0</v>
+      </c>
+      <c r="AD53" s="16">
+        <v>0</v>
+      </c>
+      <c r="AE53" s="16">
+        <v>0</v>
+      </c>
+      <c r="AF53" s="16">
+        <v>0</v>
+      </c>
+      <c r="AG53" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:33">
+      <c r="B54" s="15">
+        <v>58</v>
+      </c>
+      <c r="C54" s="15"/>
+      <c r="D54" s="16">
+        <v>0</v>
+      </c>
+      <c r="E54" s="16">
+        <v>0</v>
+      </c>
+      <c r="F54" s="16">
+        <v>0</v>
+      </c>
+      <c r="G54" s="16">
+        <v>0</v>
+      </c>
+      <c r="H54" s="16">
+        <v>0</v>
+      </c>
+      <c r="I54" s="16">
+        <v>0</v>
+      </c>
+      <c r="J54" s="16">
+        <v>0</v>
+      </c>
+      <c r="K54" s="16">
+        <v>0</v>
+      </c>
+      <c r="L54" s="16">
+        <v>0</v>
+      </c>
+      <c r="M54" s="16">
+        <v>0</v>
+      </c>
+      <c r="N54" s="16">
+        <v>0</v>
+      </c>
+      <c r="O54" s="16">
+        <v>0</v>
+      </c>
+      <c r="P54" s="16">
+        <v>0</v>
+      </c>
+      <c r="Q54" s="16">
+        <v>0</v>
+      </c>
+      <c r="R54" s="16">
+        <v>0</v>
+      </c>
+      <c r="S54" s="16">
+        <v>0</v>
+      </c>
+      <c r="T54" s="16">
+        <v>0</v>
+      </c>
+      <c r="U54" s="16">
+        <v>0</v>
+      </c>
+      <c r="V54" s="16">
+        <v>0</v>
+      </c>
+      <c r="W54" s="16">
+        <v>0</v>
+      </c>
+      <c r="X54" s="16">
+        <v>0</v>
+      </c>
+      <c r="Y54" s="16">
+        <v>0</v>
+      </c>
+      <c r="Z54" s="16">
+        <v>0</v>
+      </c>
+      <c r="AA54" s="16">
+        <v>0</v>
+      </c>
+      <c r="AB54" s="16">
+        <v>0</v>
+      </c>
+      <c r="AC54" s="16">
+        <v>0</v>
+      </c>
+      <c r="AD54" s="16">
+        <v>0</v>
+      </c>
+      <c r="AE54" s="16">
+        <v>0</v>
+      </c>
+      <c r="AF54" s="16">
+        <v>0</v>
+      </c>
+      <c r="AG54" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:33">
+      <c r="B55" s="17">
+        <v>59</v>
+      </c>
+      <c r="C55" s="17"/>
+      <c r="D55" s="18">
+        <v>0</v>
+      </c>
+      <c r="E55" s="18">
+        <v>0</v>
+      </c>
+      <c r="F55" s="18">
+        <v>0</v>
+      </c>
+      <c r="G55" s="18">
+        <v>0</v>
+      </c>
+      <c r="H55" s="18">
+        <v>0</v>
+      </c>
+      <c r="I55" s="18">
+        <v>0</v>
+      </c>
+      <c r="J55" s="18">
+        <v>0</v>
+      </c>
+      <c r="K55" s="18">
+        <v>0</v>
+      </c>
+      <c r="L55" s="18">
+        <v>0</v>
+      </c>
+      <c r="M55" s="18">
+        <v>0</v>
+      </c>
+      <c r="N55" s="18">
+        <v>0</v>
+      </c>
+      <c r="O55" s="18">
+        <v>0</v>
+      </c>
+      <c r="P55" s="18">
+        <v>0</v>
+      </c>
+      <c r="Q55" s="18">
+        <v>0</v>
+      </c>
+      <c r="R55" s="18">
+        <v>0</v>
+      </c>
+      <c r="S55" s="18">
+        <v>0</v>
+      </c>
+      <c r="T55" s="18">
+        <v>0</v>
+      </c>
+      <c r="U55" s="18">
+        <v>0</v>
+      </c>
+      <c r="V55" s="18">
+        <v>0</v>
+      </c>
+      <c r="W55" s="18">
+        <v>0</v>
+      </c>
+      <c r="X55" s="18">
+        <v>0</v>
+      </c>
+      <c r="Y55" s="18">
+        <v>0</v>
+      </c>
+      <c r="Z55" s="18">
+        <v>0</v>
+      </c>
+      <c r="AA55" s="18">
+        <v>0</v>
+      </c>
+      <c r="AB55" s="18">
+        <v>0</v>
+      </c>
+      <c r="AC55" s="18">
+        <v>0</v>
+      </c>
+      <c r="AD55" s="18">
+        <v>0</v>
+      </c>
+      <c r="AE55" s="18">
+        <v>0</v>
+      </c>
+      <c r="AF55" s="18">
+        <v>0</v>
+      </c>
+      <c r="AG55" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:33">
+      <c r="A57" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="58" spans="1:33">
+      <c r="B58" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="59" spans="1:33">
+      <c r="B59" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="60" spans="1:33">
+      <c r="B60" s="16">
+        <v>1.5</v>
+      </c>
+      <c r="C60" s="16">
+        <v>0</v>
+      </c>
+      <c r="D60" s="16">
+        <v>0</v>
+      </c>
+      <c r="E60" s="16">
+        <v>0</v>
+      </c>
+      <c r="F60" s="16">
+        <v>0</v>
+      </c>
+      <c r="G60" s="16">
+        <v>0</v>
+      </c>
+      <c r="H60" s="16"/>
+    </row>
+    <row r="61" spans="1:33">
+      <c r="B61" s="16">
+        <v>1.6673463333190113</v>
+      </c>
+      <c r="C61" s="16">
+        <v>1.7149847999852688</v>
+      </c>
+      <c r="D61" s="16">
+        <v>0</v>
+      </c>
+      <c r="E61" s="16">
+        <v>0</v>
+      </c>
+      <c r="F61" s="16">
+        <v>0</v>
+      </c>
+      <c r="G61" s="16">
+        <v>0</v>
+      </c>
+      <c r="H61" s="16"/>
+    </row>
+    <row r="62" spans="1:33">
+      <c r="B62" s="16">
+        <v>1.6278326681618007</v>
+      </c>
+      <c r="C62" s="16">
+        <v>1.6574296257647423</v>
+      </c>
+      <c r="D62" s="16">
+        <v>1.7047847579294493</v>
+      </c>
+      <c r="E62" s="16">
+        <v>0</v>
+      </c>
+      <c r="F62" s="16">
+        <v>0</v>
+      </c>
+      <c r="G62" s="16">
+        <v>0</v>
+      </c>
+      <c r="H62" s="16"/>
+    </row>
+    <row r="63" spans="1:33">
+      <c r="B63" s="16">
+        <v>1.6092519776391276</v>
+      </c>
+      <c r="C63" s="16">
+        <v>1.6236019952741267</v>
+      </c>
+      <c r="D63" s="16">
+        <v>1.6531220315518378</v>
+      </c>
+      <c r="E63" s="16">
+        <v>1.7003540895961762</v>
+      </c>
+      <c r="F63" s="16">
+        <v>0</v>
+      </c>
+      <c r="G63" s="16">
+        <v>0</v>
+      </c>
+      <c r="H63" s="16"/>
+    </row>
+    <row r="64" spans="1:33">
+      <c r="B64" s="16">
+        <v>1.5884506504446931</v>
+      </c>
+      <c r="C64" s="16">
+        <v>1.5897163481741303</v>
+      </c>
+      <c r="D64" s="16">
+        <v>1.6038921627438363</v>
+      </c>
+      <c r="E64" s="16">
+        <v>1.6330538384300877</v>
+      </c>
+      <c r="F64" s="16">
+        <v>1.6797125195280904</v>
+      </c>
+      <c r="G64" s="16">
+        <v>0</v>
+      </c>
+      <c r="H64" s="16"/>
+    </row>
+    <row r="65" spans="2:8">
+      <c r="B65" s="16">
+        <v>1.5639614533812212</v>
+      </c>
+      <c r="C65" s="16">
+        <v>1.5542431336544091</v>
+      </c>
+      <c r="D65" s="16">
+        <v>1.5554815743983563</v>
+      </c>
+      <c r="E65" s="16">
+        <v>1.5693521107305712</v>
+      </c>
+      <c r="F65" s="16">
+        <v>1.5978857854711268</v>
+      </c>
+      <c r="G65" s="16">
+        <v>1.6435396650560163</v>
+      </c>
+      <c r="H65" s="16"/>
+    </row>
+    <row r="66" spans="2:8">
+      <c r="B66" s="16">
+        <v>1.5422626280322473</v>
+      </c>
+      <c r="C66" s="16">
+        <v>1.5234654023162886</v>
+      </c>
+      <c r="D66" s="16">
+        <v>1.5139987215100343</v>
+      </c>
+      <c r="E66" s="16">
+        <v>1.5152050949933085</v>
+      </c>
+      <c r="F66" s="16">
+        <v>1.5287164780059879</v>
+      </c>
+      <c r="G66" s="16">
+        <v>1.556511323060642</v>
+      </c>
+      <c r="H66" s="16"/>
+    </row>
+    <row r="67" spans="2:8">
+      <c r="B67" s="16">
+        <v>1.5227734027971189</v>
+      </c>
+      <c r="C67" s="16">
+        <v>1.4965473414117805</v>
+      </c>
+      <c r="D67" s="16">
+        <v>1.4783072974271663</v>
+      </c>
+      <c r="E67" s="16">
+        <v>1.4691212251363073</v>
+      </c>
+      <c r="F67" s="16">
+        <v>1.4702918396583275</v>
+      </c>
+      <c r="G67" s="16">
+        <v>1.4834027223049628</v>
+      </c>
+      <c r="H67" s="16"/>
+    </row>
+    <row r="68" spans="2:8">
+      <c r="B68" s="16">
+        <v>1.5058526391756033</v>
+      </c>
+      <c r="C68" s="16">
+        <v>1.4735890173608417</v>
+      </c>
+      <c r="D68" s="16">
+        <v>1.448210037169122</v>
+      </c>
+      <c r="E68" s="16">
+        <v>1.4305591322856148</v>
+      </c>
+      <c r="F68" s="16">
+        <v>1.4216697629180992</v>
+      </c>
+      <c r="G68" s="16">
+        <v>1.4228025675100653</v>
+      </c>
+      <c r="H68" s="16"/>
+    </row>
+    <row r="69" spans="2:8">
+      <c r="B69" s="16">
+        <v>1.492273775586229</v>
+      </c>
+      <c r="C69" s="16">
+        <v>1.4551060668451896</v>
+      </c>
+      <c r="D69" s="16">
+        <v>1.4239297149102754</v>
+      </c>
+      <c r="E69" s="16">
+        <v>1.3994059952005349</v>
+      </c>
+      <c r="F69" s="16">
+        <v>1.3823499180565193</v>
+      </c>
+      <c r="G69" s="16">
+        <v>1.3737601165310651</v>
+      </c>
+      <c r="H69" s="16"/>
+    </row>
+    <row r="70" spans="2:8">
+      <c r="B70" s="16">
+        <v>1.4805197639466432</v>
+      </c>
+      <c r="C70" s="16">
+        <v>1.4394033537698374</v>
+      </c>
+      <c r="D70" s="16">
+        <v>1.4035524760763152</v>
+      </c>
+      <c r="E70" s="16">
+        <v>1.3734806847819896</v>
+      </c>
+      <c r="F70" s="16">
+        <v>1.3498258266891809</v>
+      </c>
+      <c r="G70" s="16">
+        <v>1.3333740367797799</v>
+      </c>
+      <c r="H70" s="16"/>
+    </row>
+    <row r="71" spans="2:8">
+      <c r="B71" s="16">
+        <v>1.4694914740253069</v>
+      </c>
+      <c r="C71" s="16">
+        <v>1.4252354331900527</v>
+      </c>
+      <c r="D71" s="16">
+        <v>1.38565435761336</v>
+      </c>
+      <c r="E71" s="16">
+        <v>1.3511421934099157</v>
+      </c>
+      <c r="F71" s="16">
+        <v>1.3221933177948288</v>
+      </c>
+      <c r="G71" s="16">
+        <v>1.2994217596286064</v>
+      </c>
+      <c r="H71" s="16"/>
+    </row>
+    <row r="72" spans="2:8">
+      <c r="B72" s="16">
+        <v>1.4606080963580037</v>
+      </c>
+      <c r="C72" s="16">
+        <v>1.4138283352655465</v>
+      </c>
+      <c r="D72" s="16">
+        <v>1.3712486771691608</v>
+      </c>
+      <c r="E72" s="16">
+        <v>1.3331669004594775</v>
+      </c>
+      <c r="F72" s="16">
+        <v>1.2999620288935971</v>
+      </c>
+      <c r="G72" s="16">
+        <v>1.272109713080853</v>
+      </c>
+      <c r="H72" s="16"/>
+    </row>
+    <row r="73" spans="2:8">
+      <c r="B73" s="16">
+        <v>1.4520022459377639</v>
+      </c>
+      <c r="C73" s="16">
+        <v>1.4032448557999928</v>
+      </c>
+      <c r="D73" s="16">
+        <v>1.3583023012076803</v>
+      </c>
+      <c r="E73" s="16">
+        <v>1.3173948967269984</v>
+      </c>
+      <c r="F73" s="16">
+        <v>1.2808087259390684</v>
+      </c>
+      <c r="G73" s="16">
+        <v>1.2489079269988848</v>
+      </c>
+      <c r="H73" s="16"/>
+    </row>
+    <row r="74" spans="2:8">
+      <c r="B74" s="16">
+        <v>1.4435441790702332</v>
+      </c>
+      <c r="C74" s="16">
+        <v>1.3932570128280322</v>
+      </c>
+      <c r="D74" s="16">
+        <v>1.3464722534196409</v>
+      </c>
+      <c r="E74" s="16">
+        <v>1.3033479886085313</v>
+      </c>
+      <c r="F74" s="16">
+        <v>1.2640956194550019</v>
+      </c>
+      <c r="G74" s="16">
+        <v>1.2289896551457755</v>
+      </c>
+      <c r="H74" s="16"/>
+    </row>
+    <row r="75" spans="2:8">
+      <c r="B75" s="16">
+        <v>1.4351664361572374</v>
+      </c>
+      <c r="C75" s="16">
+        <v>1.3837144741881739</v>
+      </c>
+      <c r="D75" s="16">
+        <v>1.335511529793318</v>
+      </c>
+      <c r="E75" s="16">
+        <v>1.2906658300887903</v>
+      </c>
+      <c r="F75" s="16">
+        <v>1.2493289106698851</v>
+      </c>
+      <c r="G75" s="16">
+        <v>1.2117034107846658</v>
+      </c>
+      <c r="H75" s="16"/>
+    </row>
+    <row r="76" spans="2:8">
+      <c r="B76" s="16">
+        <v>1.4268955711047071</v>
+      </c>
+      <c r="C76" s="16">
+        <v>1.3745724842200848</v>
+      </c>
+      <c r="D76" s="16">
+        <v>1.3252928680027614</v>
+      </c>
+      <c r="E76" s="16">
+        <v>1.279125093064426</v>
+      </c>
+      <c r="F76" s="16">
+        <v>1.2361728170799795</v>
+      </c>
+      <c r="G76" s="16">
+        <v>1.1965811776825368</v>
+      </c>
+      <c r="H76" s="16"/>
+    </row>
+    <row r="77" spans="2:8">
+      <c r="B77" s="16">
+        <v>1.4187100908911701</v>
+      </c>
+      <c r="C77" s="16">
+        <v>1.3657525868623919</v>
+      </c>
+      <c r="D77" s="16">
+        <v>1.3156715629161377</v>
+      </c>
+      <c r="E77" s="16">
+        <v>1.268503595833383</v>
+      </c>
+      <c r="F77" s="16">
+        <v>1.2243141265207158</v>
+      </c>
+      <c r="G77" s="16">
+        <v>1.1832023708846893</v>
+      </c>
+      <c r="H77" s="16"/>
+    </row>
+    <row r="78" spans="2:8">
+      <c r="B78" s="16">
+        <v>1.4106668155080109</v>
+      </c>
+      <c r="C78" s="16">
+        <v>1.3572623985303578</v>
+      </c>
+      <c r="D78" s="16">
+        <v>1.3065986093603446</v>
+      </c>
+      <c r="E78" s="16">
+        <v>1.2586867131113715</v>
+      </c>
+      <c r="F78" s="16">
+        <v>1.2135617023374459</v>
+      </c>
+      <c r="G78" s="16">
+        <v>1.1712861835445827</v>
+      </c>
+      <c r="H78" s="16"/>
+    </row>
+    <row r="79" spans="2:8">
+      <c r="B79" s="16">
+        <v>1.4028154611764361</v>
+      </c>
+      <c r="C79" s="16">
+        <v>1.3491114907594632</v>
+      </c>
+      <c r="D79" s="16">
+        <v>1.2980374087651865</v>
+      </c>
+      <c r="E79" s="16">
+        <v>1.2495843655779013</v>
+      </c>
+      <c r="F79" s="16">
+        <v>1.2037631347507713</v>
+      </c>
+      <c r="G79" s="16">
+        <v>1.1606071819159243</v>
+      </c>
+      <c r="H79" s="16"/>
+    </row>
+    <row r="80" spans="2:8">
+      <c r="B80" s="16">
+        <v>1.3952248968867864</v>
+      </c>
+      <c r="C80" s="16">
+        <v>1.3413351391018402</v>
+      </c>
+      <c r="D80" s="16">
+        <v>1.2899848192463972</v>
+      </c>
+      <c r="E80" s="16">
+        <v>1.2411491293268977</v>
+      </c>
+      <c r="F80" s="16">
+        <v>1.1948196075742494</v>
+      </c>
+      <c r="G80" s="16">
+        <v>1.1510065553757927</v>
+      </c>
+      <c r="H80" s="16"/>
+    </row>
+    <row r="81" spans="2:8">
+      <c r="B81" s="16">
+        <v>1.3879501420728564</v>
+      </c>
+      <c r="C81" s="16">
+        <v>1.3339612741501858</v>
+      </c>
+      <c r="D81" s="16">
+        <v>1.2824377884964713</v>
+      </c>
+      <c r="E81" s="16">
+        <v>1.2333422353313641</v>
+      </c>
+      <c r="F81" s="16">
+        <v>1.1866508959678113</v>
+      </c>
+      <c r="G81" s="16">
+        <v>1.1423556801887409</v>
+      </c>
+      <c r="H81" s="16"/>
+    </row>
+    <row r="82" spans="2:8">
+      <c r="B82" s="16">
+        <v>1.3810501970397306</v>
+      </c>
+      <c r="C82" s="16">
+        <v>1.3270265364677503</v>
+      </c>
+      <c r="D82" s="16">
+        <v>1.2754074917805704</v>
+      </c>
+      <c r="E82" s="16">
+        <v>1.2261456122351844</v>
+      </c>
+      <c r="F82" s="16">
+        <v>1.1792050918967811</v>
+      </c>
+      <c r="G82" s="16">
+        <v>1.1345632532021146</v>
+      </c>
+      <c r="H82" s="16"/>
+    </row>
+    <row r="83" spans="2:8">
+      <c r="B83" s="16">
+        <v>1.374568336479171</v>
+      </c>
+      <c r="C83" s="16">
+        <v>1.3205564199901438</v>
+      </c>
+      <c r="D83" s="16">
+        <v>1.2688991435547063</v>
+      </c>
+      <c r="E83" s="16">
+        <v>1.2195411542495191</v>
+      </c>
+      <c r="F83" s="16">
+        <v>1.1724370798039405</v>
+      </c>
+      <c r="G83" s="16">
+        <v>1.1275526826810653</v>
+      </c>
+      <c r="H83" s="16"/>
+    </row>
+    <row r="84" spans="2:8">
+      <c r="B84" s="16">
+        <v>1.3684865676687397</v>
+      </c>
+      <c r="C84" s="16">
+        <v>1.3145207775910739</v>
+      </c>
+      <c r="D84" s="16">
+        <v>1.2628683536423315</v>
+      </c>
+      <c r="E84" s="16">
+        <v>1.2134677080825189</v>
+      </c>
+      <c r="F84" s="16">
+        <v>1.1662659060622746</v>
+      </c>
+      <c r="G84" s="16">
+        <v>1.1212195573834518</v>
+      </c>
+      <c r="H84" s="16"/>
+    </row>
+    <row r="85" spans="2:8">
+      <c r="B85" s="16">
+        <v>1.3628152059161807</v>
+      </c>
+      <c r="C85" s="16">
+        <v>1.3089192612686213</v>
+      </c>
+      <c r="D85" s="16">
+        <v>1.2573024871247815</v>
+      </c>
+      <c r="E85" s="16">
+        <v>1.2078983832080763</v>
+      </c>
+      <c r="F85" s="16">
+        <v>1.1606480425616967</v>
+      </c>
+      <c r="G85" s="16">
+        <v>1.1155008344775605</v>
+      </c>
+      <c r="H85" s="16"/>
+    </row>
+    <row r="86" spans="2:8">
+      <c r="B86" s="16">
+        <v>1.3575085347392279</v>
+      </c>
+      <c r="C86" s="16">
+        <v>1.3036997886073067</v>
+      </c>
+      <c r="D86" s="16">
+        <v>1.2521417113721929</v>
+      </c>
+      <c r="E86" s="16">
+        <v>1.2027639400883186</v>
+      </c>
+      <c r="F86" s="16">
+        <v>1.1555028590900023</v>
+      </c>
+      <c r="G86" s="16">
+        <v>1.1103021166526617</v>
+      </c>
+      <c r="H86" s="16"/>
+    </row>
+    <row r="87" spans="2:8">
+      <c r="B87" s="16">
+        <v>1.3523779079230547</v>
+      </c>
+      <c r="C87" s="16">
+        <v>1.2986746997152843</v>
+      </c>
+      <c r="D87" s="16">
+        <v>1.2471980014576542</v>
+      </c>
+      <c r="E87" s="16">
+        <v>1.1978744290765262</v>
+      </c>
+      <c r="F87" s="16">
+        <v>1.150636669126079</v>
+      </c>
+      <c r="G87" s="16">
+        <v>1.1054238630161721</v>
+      </c>
+      <c r="H87" s="16"/>
+    </row>
+    <row r="88" spans="2:8">
+      <c r="B88" s="16">
+        <v>1.3473573659886069</v>
+      </c>
+      <c r="C88" s="16">
+        <v>1.2937755093582959</v>
+      </c>
+      <c r="D88" s="16">
+        <v>1.2423994145950441</v>
+      </c>
+      <c r="E88" s="16">
+        <v>1.1931533487445378</v>
+      </c>
+      <c r="F88" s="16">
+        <v>1.1459671076747118</v>
+      </c>
+      <c r="G88" s="16">
+        <v>1.1007762948236695</v>
+      </c>
+      <c r="H88" s="16"/>
+    </row>
+    <row r="89" spans="2:8">
+      <c r="B89" s="16">
+        <v>1.3423565381439624</v>
+      </c>
+      <c r="C89" s="16">
+        <v>1.2889113474448204</v>
+      </c>
+      <c r="D89" s="16">
+        <v>1.2376537785389676</v>
+      </c>
+      <c r="E89" s="16">
+        <v>1.1885062893877372</v>
+      </c>
+      <c r="F89" s="16">
+        <v>1.1413964322006211</v>
+      </c>
+      <c r="G89" s="16">
+        <v>1.0962570481786689</v>
+      </c>
+      <c r="H89" s="16"/>
+    </row>
+    <row r="90" spans="2:8">
+      <c r="B90" s="16">
+        <v>1.3372214270428913</v>
+      </c>
+      <c r="C90" s="16">
+        <v>1.2839310950735943</v>
+      </c>
+      <c r="D90" s="16">
+        <v>1.2328120814055525</v>
+      </c>
+      <c r="E90" s="16">
+        <v>1.1837854743112131</v>
+      </c>
+      <c r="F90" s="16">
+        <v>1.1367771067330241</v>
+      </c>
+      <c r="G90" s="16">
+        <v>1.0917176841368135</v>
+      </c>
+      <c r="H90" s="16"/>
+    </row>
+    <row r="91" spans="2:8">
+      <c r="B91" s="16">
+        <v>1.3319233399148043</v>
+      </c>
+      <c r="C91" s="16">
+        <v>1.2788046167344547</v>
+      </c>
+      <c r="D91" s="16">
+        <v>1.2278422845645689</v>
+      </c>
+      <c r="E91" s="16">
+        <v>1.1789564161813766</v>
+      </c>
+      <c r="F91" s="16">
+        <v>1.13207154713339</v>
+      </c>
+      <c r="G91" s="16">
+        <v>1.087116750367177</v>
+      </c>
+      <c r="H91" s="16"/>
+    </row>
+    <row r="92" spans="2:8">
+      <c r="B92" s="16">
+        <v>1.3265260259686984</v>
+      </c>
+      <c r="C92" s="16">
+        <v>1.2735910528527792</v>
+      </c>
+      <c r="D92" s="16">
+        <v>1.2227986922460614</v>
+      </c>
+      <c r="E92" s="16">
+        <v>1.1740682823650921</v>
+      </c>
+      <c r="F92" s="16">
+        <v>1.1273233964411358</v>
+      </c>
+      <c r="G92" s="16">
+        <v>1.0824918750282673</v>
+      </c>
+      <c r="H92" s="16"/>
+    </row>
+    <row r="93" spans="2:8">
+      <c r="B93" s="16">
+        <v>1.3212368785954214</v>
+      </c>
+      <c r="C93" s="16">
+        <v>1.2684878636178389</v>
+      </c>
+      <c r="D93" s="16">
+        <v>1.2178689012726065</v>
+      </c>
+      <c r="E93" s="16">
+        <v>1.1692988078610789</v>
+      </c>
+      <c r="F93" s="16">
+        <v>1.1227004507138887</v>
+      </c>
+      <c r="G93" s="16">
+        <v>1.0780007468860362</v>
+      </c>
+      <c r="H93" s="16"/>
+    </row>
+    <row r="94" spans="2:8">
+      <c r="B94" s="16">
+        <v>1.3164084346450404</v>
+      </c>
+      <c r="C94" s="16">
+        <v>1.2638321767619041</v>
+      </c>
+      <c r="D94" s="16">
+        <v>1.2133749850946267</v>
+      </c>
+      <c r="E94" s="16">
+        <v>1.1649553001746804</v>
+      </c>
+      <c r="F94" s="16">
+        <v>1.1184954655482986</v>
+      </c>
+      <c r="G94" s="16">
+        <v>1.0739216997830943</v>
+      </c>
+      <c r="H94" s="16"/>
+    </row>
+    <row r="95" spans="2:8">
+      <c r="B95" s="16">
+        <v>1.3125187623894596</v>
+      </c>
+      <c r="C95" s="16">
+        <v>1.2600818894415384</v>
+      </c>
+      <c r="D95" s="16">
+        <v>1.2097552669210652</v>
+      </c>
+      <c r="E95" s="16">
+        <v>1.1614570399128488</v>
+      </c>
+      <c r="F95" s="16">
+        <v>1.1151091387186867</v>
+      </c>
+      <c r="G95" s="16">
+        <v>1.0706372296527606</v>
+      </c>
+      <c r="H95" s="16"/>
+    </row>
+    <row r="96" spans="2:8">
+      <c r="B96" s="16">
+        <v>0</v>
+      </c>
+      <c r="C96" s="16">
+        <v>0</v>
+      </c>
+      <c r="D96" s="16">
+        <v>0</v>
+      </c>
+      <c r="E96" s="16">
+        <v>0</v>
+      </c>
+      <c r="F96" s="16">
+        <v>0</v>
+      </c>
+      <c r="G96" s="16">
+        <v>0</v>
+      </c>
+      <c r="H96" s="16"/>
+    </row>
+    <row r="97" spans="1:8">
+      <c r="B97" s="16">
+        <v>0</v>
+      </c>
+      <c r="C97" s="16">
+        <v>0</v>
+      </c>
+      <c r="D97" s="16">
+        <v>0</v>
+      </c>
+      <c r="E97" s="16">
+        <v>0</v>
+      </c>
+      <c r="F97" s="16">
+        <v>0</v>
+      </c>
+      <c r="G97" s="16">
+        <v>0</v>
+      </c>
+      <c r="H97" s="16"/>
+    </row>
+    <row r="98" spans="1:8">
+      <c r="B98" s="16">
+        <v>0</v>
+      </c>
+      <c r="C98" s="16">
+        <v>0</v>
+      </c>
+      <c r="D98" s="16">
+        <v>0</v>
+      </c>
+      <c r="E98" s="16">
+        <v>0</v>
+      </c>
+      <c r="F98" s="16">
+        <v>0</v>
+      </c>
+      <c r="G98" s="16">
+        <v>0</v>
+      </c>
+      <c r="H98" s="16"/>
+    </row>
+    <row r="99" spans="1:8">
+      <c r="B99" s="16">
+        <v>0</v>
+      </c>
+      <c r="C99" s="16">
+        <v>0</v>
+      </c>
+      <c r="D99" s="16">
+        <v>0</v>
+      </c>
+      <c r="E99" s="16">
+        <v>0</v>
+      </c>
+      <c r="F99" s="16">
+        <v>0</v>
+      </c>
+      <c r="G99" s="16">
+        <v>0</v>
+      </c>
+      <c r="H99" s="16"/>
+    </row>
+    <row r="100" spans="1:8">
+      <c r="B100" s="16">
+        <v>0</v>
+      </c>
+      <c r="C100" s="16">
+        <v>0</v>
+      </c>
+      <c r="D100" s="16">
+        <v>0</v>
+      </c>
+      <c r="E100" s="16">
+        <v>0</v>
+      </c>
+      <c r="F100" s="16">
+        <v>0</v>
+      </c>
+      <c r="G100" s="16">
+        <v>0</v>
+      </c>
+      <c r="H100" s="16"/>
+    </row>
+    <row r="101" spans="1:8">
+      <c r="B101" s="16">
+        <v>0</v>
+      </c>
+      <c r="C101" s="16">
+        <v>0</v>
+      </c>
+      <c r="D101" s="16">
+        <v>0</v>
+      </c>
+      <c r="E101" s="16">
+        <v>0</v>
+      </c>
+      <c r="F101" s="16">
+        <v>0</v>
+      </c>
+      <c r="G101" s="16">
+        <v>0</v>
+      </c>
+      <c r="H101" s="16"/>
+    </row>
+    <row r="102" spans="1:8">
+      <c r="B102" s="16">
+        <v>0</v>
+      </c>
+      <c r="C102" s="16">
+        <v>0</v>
+      </c>
+      <c r="D102" s="16">
+        <v>0</v>
+      </c>
+      <c r="E102" s="16">
+        <v>0</v>
+      </c>
+      <c r="F102" s="16">
+        <v>0</v>
+      </c>
+      <c r="G102" s="16">
+        <v>0</v>
+      </c>
+      <c r="H102" s="16"/>
+    </row>
+    <row r="103" spans="1:8">
+      <c r="B103" s="16">
+        <v>0</v>
+      </c>
+      <c r="C103" s="16">
+        <v>0</v>
+      </c>
+      <c r="D103" s="16">
+        <v>0</v>
+      </c>
+      <c r="E103" s="16">
+        <v>0</v>
+      </c>
+      <c r="F103" s="16">
+        <v>0</v>
+      </c>
+      <c r="G103" s="16">
+        <v>0</v>
+      </c>
+      <c r="H103" s="16"/>
+    </row>
+    <row r="104" spans="1:8">
+      <c r="B104" s="16">
+        <v>0</v>
+      </c>
+      <c r="C104" s="16">
+        <v>0</v>
+      </c>
+      <c r="D104" s="16">
+        <v>0</v>
+      </c>
+      <c r="E104" s="16">
+        <v>0</v>
+      </c>
+      <c r="F104" s="16">
+        <v>0</v>
+      </c>
+      <c r="G104" s="16">
+        <v>0</v>
+      </c>
+      <c r="H104" s="16"/>
+    </row>
+    <row r="105" spans="1:8">
+      <c r="B105" s="18">
+        <v>0</v>
+      </c>
+      <c r="C105" s="18">
+        <v>0</v>
+      </c>
+      <c r="D105" s="18">
+        <v>0</v>
+      </c>
+      <c r="E105" s="18">
+        <v>0</v>
+      </c>
+      <c r="F105" s="18">
+        <v>0</v>
+      </c>
+      <c r="G105" s="18">
+        <v>0</v>
+      </c>
+      <c r="H105" s="18"/>
+    </row>
+    <row r="107" spans="1:8">
+      <c r="A107" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8">
+      <c r="B108" s="16">
+        <v>1.5</v>
+      </c>
+      <c r="C108" s="16"/>
+      <c r="D108" s="16"/>
+      <c r="E108" s="16"/>
+      <c r="F108" s="16"/>
+      <c r="G108" s="16"/>
+      <c r="H108" s="16"/>
+    </row>
+    <row r="109" spans="1:8">
+      <c r="B109" s="16">
+        <v>1.6673463333190113</v>
+      </c>
+      <c r="C109" s="16">
+        <v>1.7149847999852688</v>
+      </c>
+      <c r="D109" s="16"/>
+      <c r="E109" s="16"/>
+      <c r="F109" s="16"/>
+      <c r="G109" s="16"/>
+      <c r="H109" s="16"/>
+    </row>
+    <row r="110" spans="1:8">
+      <c r="B110" s="16">
+        <v>1.6278326681618007</v>
+      </c>
+      <c r="C110" s="16">
+        <v>1.6574296257647423</v>
+      </c>
+      <c r="D110" s="16">
+        <v>1.7047847579294493</v>
+      </c>
+      <c r="E110" s="16"/>
+      <c r="F110" s="16"/>
+      <c r="G110" s="16"/>
+      <c r="H110" s="16"/>
+    </row>
+    <row r="111" spans="1:8">
+      <c r="B111" s="16">
+        <v>1.6092519776391276</v>
+      </c>
+      <c r="C111" s="16">
+        <v>1.6236019952741267</v>
+      </c>
+      <c r="D111" s="16">
+        <v>1.6531220315518378</v>
+      </c>
+      <c r="E111" s="16">
+        <v>1.7003540895961762</v>
+      </c>
+      <c r="F111" s="16"/>
+      <c r="G111" s="16"/>
+      <c r="H111" s="16"/>
+    </row>
+    <row r="112" spans="1:8">
+      <c r="B112" s="16">
+        <v>1.5884506504446931</v>
+      </c>
+      <c r="C112" s="16">
+        <v>1.5897163481741303</v>
+      </c>
+      <c r="D112" s="16">
+        <v>1.6038921627438363</v>
+      </c>
+      <c r="E112" s="16">
+        <v>1.6330538384300877</v>
+      </c>
+      <c r="F112" s="16">
+        <v>1.6797125195280904</v>
+      </c>
+      <c r="G112" s="16"/>
+      <c r="H112" s="16"/>
+    </row>
+    <row r="113" spans="2:8">
+      <c r="B113" s="16">
+        <v>1.5639614533812212</v>
+      </c>
+      <c r="C113" s="16">
+        <v>1.5542431336544091</v>
+      </c>
+      <c r="D113" s="16">
+        <v>1.5554815743983563</v>
+      </c>
+      <c r="E113" s="16">
+        <v>1.5693521107305712</v>
+      </c>
+      <c r="F113" s="16">
+        <v>1.5978857854711268</v>
+      </c>
+      <c r="G113" s="16">
+        <v>1.6435396650560163</v>
+      </c>
+      <c r="H113" s="16"/>
+    </row>
+    <row r="114" spans="2:8">
+      <c r="B114" s="16">
+        <v>1.5422626280322473</v>
+      </c>
+      <c r="C114" s="16">
+        <v>1.5234654023162886</v>
+      </c>
+      <c r="D114" s="16">
+        <v>1.5139987215100343</v>
+      </c>
+      <c r="E114" s="16">
+        <v>1.5152050949933085</v>
+      </c>
+      <c r="F114" s="16">
+        <v>1.5287164780059879</v>
+      </c>
+      <c r="G114" s="16">
+        <v>1.556511323060642</v>
+      </c>
+      <c r="H114" s="16"/>
+    </row>
+    <row r="115" spans="2:8">
+      <c r="B115" s="16">
+        <v>1.5227734027971189</v>
+      </c>
+      <c r="C115" s="16">
+        <v>1.4965473414117805</v>
+      </c>
+      <c r="D115" s="16">
+        <v>1.4783072974271663</v>
+      </c>
+      <c r="E115" s="16">
+        <v>1.4691212251363073</v>
+      </c>
+      <c r="F115" s="16">
+        <v>1.4702918396583275</v>
+      </c>
+      <c r="G115" s="16">
+        <v>1.4834027223049628</v>
+      </c>
+      <c r="H115" s="16"/>
+    </row>
+    <row r="116" spans="2:8">
+      <c r="B116" s="16">
+        <v>1.5058526391756033</v>
+      </c>
+      <c r="C116" s="16">
+        <v>1.4735890173608417</v>
+      </c>
+      <c r="D116" s="16">
+        <v>1.448210037169122</v>
+      </c>
+      <c r="E116" s="16">
+        <v>1.4305591322856148</v>
+      </c>
+      <c r="F116" s="16">
+        <v>1.4216697629180992</v>
+      </c>
+      <c r="G116" s="16">
+        <v>1.4228025675100653</v>
+      </c>
+      <c r="H116" s="16"/>
+    </row>
+    <row r="117" spans="2:8">
+      <c r="B117" s="16">
+        <v>1.492273775586229</v>
+      </c>
+      <c r="C117" s="16">
+        <v>1.4551060668451896</v>
+      </c>
+      <c r="D117" s="16">
+        <v>1.4239297149102754</v>
+      </c>
+      <c r="E117" s="16">
+        <v>1.3994059952005349</v>
+      </c>
+      <c r="F117" s="16">
+        <v>1.3823499180565193</v>
+      </c>
+      <c r="G117" s="16">
+        <v>1.3737601165310651</v>
+      </c>
+      <c r="H117" s="16"/>
+    </row>
+    <row r="118" spans="2:8">
+      <c r="B118" s="16">
+        <v>1.4805197639466432</v>
+      </c>
+      <c r="C118" s="16">
+        <v>1.4394033537698374</v>
+      </c>
+      <c r="D118" s="16">
+        <v>1.4035524760763152</v>
+      </c>
+      <c r="E118" s="16">
+        <v>1.3734806847819896</v>
+      </c>
+      <c r="F118" s="16">
+        <v>1.3498258266891809</v>
+      </c>
+      <c r="G118" s="16">
+        <v>1.3333740367797799</v>
+      </c>
+      <c r="H118" s="16"/>
+    </row>
+    <row r="119" spans="2:8">
+      <c r="B119" s="16">
+        <v>1.4694914740253069</v>
+      </c>
+      <c r="C119" s="16">
+        <v>1.4252354331900527</v>
+      </c>
+      <c r="D119" s="16">
+        <v>1.38565435761336</v>
+      </c>
+      <c r="E119" s="16">
+        <v>1.3511421934099157</v>
+      </c>
+      <c r="F119" s="16">
+        <v>1.3221933177948288</v>
+      </c>
+      <c r="G119" s="16">
+        <v>1.2994217596286064</v>
+      </c>
+      <c r="H119" s="16"/>
+    </row>
+    <row r="120" spans="2:8">
+      <c r="B120" s="16">
+        <v>1.4606080963580037</v>
+      </c>
+      <c r="C120" s="16">
+        <v>1.4138283352655465</v>
+      </c>
+      <c r="D120" s="16">
+        <v>1.3712486771691608</v>
+      </c>
+      <c r="E120" s="16">
+        <v>1.3331669004594775</v>
+      </c>
+      <c r="F120" s="16">
+        <v>1.2999620288935971</v>
+      </c>
+      <c r="G120" s="16">
+        <v>1.272109713080853</v>
+      </c>
+      <c r="H120" s="16"/>
+    </row>
+    <row r="121" spans="2:8">
+      <c r="B121" s="16">
+        <v>1.4520022459377639</v>
+      </c>
+      <c r="C121" s="16">
+        <v>1.4032448557999928</v>
+      </c>
+      <c r="D121" s="16">
+        <v>1.3583023012076803</v>
+      </c>
+      <c r="E121" s="16">
+        <v>1.3173948967269984</v>
+      </c>
+      <c r="F121" s="16">
+        <v>1.2808087259390684</v>
+      </c>
+      <c r="G121" s="16">
+        <v>1.2489079269988848</v>
+      </c>
+      <c r="H121" s="16"/>
+    </row>
+    <row r="122" spans="2:8">
+      <c r="B122" s="16">
+        <v>1.4435441790702332</v>
+      </c>
+      <c r="C122" s="16">
+        <v>1.3932570128280322</v>
+      </c>
+      <c r="D122" s="16">
+        <v>1.3464722534196409</v>
+      </c>
+      <c r="E122" s="16">
+        <v>1.3033479886085313</v>
+      </c>
+      <c r="F122" s="16">
+        <v>1.2640956194550019</v>
+      </c>
+      <c r="G122" s="16">
+        <v>1.2289896551457755</v>
+      </c>
+      <c r="H122" s="16"/>
+    </row>
+    <row r="123" spans="2:8">
+      <c r="B123" s="16">
+        <v>1.4351664361572374</v>
+      </c>
+      <c r="C123" s="16">
+        <v>1.3837144741881739</v>
+      </c>
+      <c r="D123" s="16">
+        <v>1.335511529793318</v>
+      </c>
+      <c r="E123" s="16">
+        <v>1.2906658300887903</v>
+      </c>
+      <c r="F123" s="16">
+        <v>1.2493289106698851</v>
+      </c>
+      <c r="G123" s="16">
+        <v>1.2117034107846658</v>
+      </c>
+      <c r="H123" s="16"/>
+    </row>
+    <row r="124" spans="2:8">
+      <c r="B124" s="16">
+        <v>1.4268955711047071</v>
+      </c>
+      <c r="C124" s="16">
+        <v>1.3745724842200848</v>
+      </c>
+      <c r="D124" s="16">
+        <v>1.3252928680027614</v>
+      </c>
+      <c r="E124" s="16">
+        <v>1.279125093064426</v>
+      </c>
+      <c r="F124" s="16">
+        <v>1.2361728170799795</v>
+      </c>
+      <c r="G124" s="16">
+        <v>1.1965811776825368</v>
+      </c>
+      <c r="H124" s="16"/>
+    </row>
+    <row r="125" spans="2:8">
+      <c r="B125" s="16">
+        <v>1.4187100908911701</v>
+      </c>
+      <c r="C125" s="16">
+        <v>1.3657525868623919</v>
+      </c>
+      <c r="D125" s="16">
+        <v>1.3156715629161377</v>
+      </c>
+      <c r="E125" s="16">
+        <v>1.268503595833383</v>
+      </c>
+      <c r="F125" s="16">
+        <v>1.2243141265207158</v>
+      </c>
+      <c r="G125" s="16">
+        <v>1.1832023708846893</v>
+      </c>
+      <c r="H125" s="16"/>
+    </row>
+    <row r="126" spans="2:8">
+      <c r="B126" s="16">
+        <v>1.4106668155080109</v>
+      </c>
+      <c r="C126" s="16">
+        <v>1.3572623985303578</v>
+      </c>
+      <c r="D126" s="16">
+        <v>1.3065986093603446</v>
+      </c>
+      <c r="E126" s="16">
+        <v>1.2586867131113715</v>
+      </c>
+      <c r="F126" s="16">
+        <v>1.2135617023374459</v>
+      </c>
+      <c r="G126" s="16">
+        <v>1.1712861835445827</v>
+      </c>
+      <c r="H126" s="16"/>
+    </row>
+    <row r="127" spans="2:8">
+      <c r="B127" s="16">
+        <v>1.4028154611764361</v>
+      </c>
+      <c r="C127" s="16">
+        <v>1.3491114907594632</v>
+      </c>
+      <c r="D127" s="16">
+        <v>1.2980374087651865</v>
+      </c>
+      <c r="E127" s="16">
+        <v>1.2495843655779013</v>
+      </c>
+      <c r="F127" s="16">
+        <v>1.2037631347507713</v>
+      </c>
+      <c r="G127" s="16">
+        <v>1.1606071819159243</v>
+      </c>
+      <c r="H127" s="16"/>
+    </row>
+    <row r="128" spans="2:8">
+      <c r="B128" s="16">
+        <v>1.3952248968867864</v>
+      </c>
+      <c r="C128" s="16">
+        <v>1.3413351391018402</v>
+      </c>
+      <c r="D128" s="16">
+        <v>1.2899848192463972</v>
+      </c>
+      <c r="E128" s="16">
+        <v>1.2411491293268977</v>
+      </c>
+      <c r="F128" s="16">
+        <v>1.1948196075742494</v>
+      </c>
+      <c r="G128" s="16">
+        <v>1.1510065553757927</v>
+      </c>
+      <c r="H128" s="16"/>
+    </row>
+    <row r="129" spans="2:8">
+      <c r="B129" s="16">
+        <v>1.3879501420728564</v>
+      </c>
+      <c r="C129" s="16">
+        <v>1.3339612741501858</v>
+      </c>
+      <c r="D129" s="16">
+        <v>1.2824377884964713</v>
+      </c>
+      <c r="E129" s="16">
+        <v>1.2333422353313641</v>
+      </c>
+      <c r="F129" s="16">
+        <v>1.1866508959678113</v>
+      </c>
+      <c r="G129" s="16">
+        <v>1.1423556801887409</v>
+      </c>
+      <c r="H129" s="16"/>
+    </row>
+    <row r="130" spans="2:8">
+      <c r="B130" s="16">
+        <v>1.3810501970397306</v>
+      </c>
+      <c r="C130" s="16">
+        <v>1.3270265364677503</v>
+      </c>
+      <c r="D130" s="16">
+        <v>1.2754074917805704</v>
+      </c>
+      <c r="E130" s="16">
+        <v>1.2261456122351844</v>
+      </c>
+      <c r="F130" s="16">
+        <v>1.1792050918967811</v>
+      </c>
+      <c r="G130" s="16">
+        <v>1.1345632532021146</v>
+      </c>
+      <c r="H130" s="16"/>
+    </row>
+    <row r="131" spans="2:8">
+      <c r="B131" s="16">
+        <v>1.374568336479171</v>
+      </c>
+      <c r="C131" s="16">
+        <v>1.3205564199901438</v>
+      </c>
+      <c r="D131" s="16">
+        <v>1.2688991435547063</v>
+      </c>
+      <c r="E131" s="16">
+        <v>1.2195411542495191</v>
+      </c>
+      <c r="F131" s="16">
+        <v>1.1724370798039405</v>
+      </c>
+      <c r="G131" s="16">
+        <v>1.1275526826810653</v>
+      </c>
+      <c r="H131" s="16"/>
+    </row>
+    <row r="132" spans="2:8">
+      <c r="B132" s="16">
+        <v>1.3684865676687397</v>
+      </c>
+      <c r="C132" s="16">
+        <v>1.3145207775910739</v>
+      </c>
+      <c r="D132" s="16">
+        <v>1.2628683536423315</v>
+      </c>
+      <c r="E132" s="16">
+        <v>1.2134677080825189</v>
+      </c>
+      <c r="F132" s="16">
+        <v>1.1662659060622746</v>
+      </c>
+      <c r="G132" s="16">
+        <v>1.1212195573834518</v>
+      </c>
+      <c r="H132" s="16"/>
+    </row>
+    <row r="133" spans="2:8">
+      <c r="B133" s="16">
+        <v>1.3628152059161807</v>
+      </c>
+      <c r="C133" s="16">
+        <v>1.3089192612686213</v>
+      </c>
+      <c r="D133" s="16">
+        <v>1.2573024871247815</v>
+      </c>
+      <c r="E133" s="16">
+        <v>1.2078983832080763</v>
+      </c>
+      <c r="F133" s="16">
+        <v>1.1606480425616967</v>
+      </c>
+      <c r="G133" s="16">
+        <v>1.1155008344775605</v>
+      </c>
+      <c r="H133" s="16"/>
+    </row>
+    <row r="134" spans="2:8">
+      <c r="B134" s="16">
+        <v>1.3575085347392279</v>
+      </c>
+      <c r="C134" s="16">
+        <v>1.3036997886073067</v>
+      </c>
+      <c r="D134" s="16">
+        <v>1.2521417113721929</v>
+      </c>
+      <c r="E134" s="16">
+        <v>1.2027639400883186</v>
+      </c>
+      <c r="F134" s="16">
+        <v>1.1555028590900023</v>
+      </c>
+      <c r="G134" s="16">
+        <v>1.1103021166526617</v>
+      </c>
+      <c r="H134" s="16"/>
+    </row>
+    <row r="135" spans="2:8">
+      <c r="B135" s="16">
+        <v>1.3523779079230547</v>
+      </c>
+      <c r="C135" s="16">
+        <v>1.2986746997152843</v>
+      </c>
+      <c r="D135" s="16">
+        <v>1.2471980014576542</v>
+      </c>
+      <c r="E135" s="16">
+        <v>1.1978744290765262</v>
+      </c>
+      <c r="F135" s="16">
+        <v>1.150636669126079</v>
+      </c>
+      <c r="G135" s="16">
+        <v>1.1054238630161721</v>
+      </c>
+      <c r="H135" s="16"/>
+    </row>
+    <row r="136" spans="2:8">
+      <c r="B136" s="16">
+        <v>1.3473573659886069</v>
+      </c>
+      <c r="C136" s="16">
+        <v>1.2937755093582959</v>
+      </c>
+      <c r="D136" s="16">
+        <v>1.2423994145950441</v>
+      </c>
+      <c r="E136" s="16">
+        <v>1.1931533487445378</v>
+      </c>
+      <c r="F136" s="16">
+        <v>1.1459671076747118</v>
+      </c>
+      <c r="G136" s="16">
+        <v>1.1007762948236695</v>
+      </c>
+      <c r="H136" s="16"/>
+    </row>
+    <row r="137" spans="2:8">
+      <c r="B137" s="16">
+        <v>1.3423565381439624</v>
+      </c>
+      <c r="C137" s="16">
+        <v>1.2889113474448204</v>
+      </c>
+      <c r="D137" s="16">
+        <v>1.2376537785389676</v>
+      </c>
+      <c r="E137" s="16">
+        <v>1.1885062893877372</v>
+      </c>
+      <c r="F137" s="16">
+        <v>1.1413964322006211</v>
+      </c>
+      <c r="G137" s="16">
+        <v>1.0962570481786689</v>
+      </c>
+      <c r="H137" s="16"/>
+    </row>
+    <row r="138" spans="2:8">
+      <c r="B138" s="16">
+        <v>1.3372214270428913</v>
+      </c>
+      <c r="C138" s="16">
+        <v>1.2839310950735943</v>
+      </c>
+      <c r="D138" s="16">
+        <v>1.2328120814055525</v>
+      </c>
+      <c r="E138" s="16">
+        <v>1.1837854743112131</v>
+      </c>
+      <c r="F138" s="16">
+        <v>1.1367771067330241</v>
+      </c>
+      <c r="G138" s="16">
+        <v>1.0917176841368135</v>
+      </c>
+      <c r="H138" s="16"/>
+    </row>
+    <row r="139" spans="2:8">
+      <c r="B139" s="16">
+        <v>1.3319233399148043</v>
+      </c>
+      <c r="C139" s="16">
+        <v>1.2788046167344547</v>
+      </c>
+      <c r="D139" s="16">
+        <v>1.2278422845645689</v>
+      </c>
+      <c r="E139" s="16">
+        <v>1.1789564161813766</v>
+      </c>
+      <c r="F139" s="16">
+        <v>1.13207154713339</v>
+      </c>
+      <c r="G139" s="16">
+        <v>1.087116750367177</v>
+      </c>
+      <c r="H139" s="16"/>
+    </row>
+    <row r="140" spans="2:8">
+      <c r="B140" s="16">
+        <v>1.3265260259686984</v>
+      </c>
+      <c r="C140" s="16">
+        <v>1.2735910528527792</v>
+      </c>
+      <c r="D140" s="16">
+        <v>1.2227986922460614</v>
+      </c>
+      <c r="E140" s="16">
+        <v>1.1740682823650921</v>
+      </c>
+      <c r="F140" s="16">
+        <v>1.1273233964411358</v>
+      </c>
+      <c r="G140" s="16">
+        <v>1.0824918750282673</v>
+      </c>
+      <c r="H140" s="16"/>
+    </row>
+    <row r="141" spans="2:8">
+      <c r="B141" s="16">
+        <v>1.3212368785954214</v>
+      </c>
+      <c r="C141" s="16">
+        <v>1.2684878636178389</v>
+      </c>
+      <c r="D141" s="16">
+        <v>1.2178689012726065</v>
+      </c>
+      <c r="E141" s="16">
+        <v>1.1692988078610789</v>
+      </c>
+      <c r="F141" s="16">
+        <v>1.1227004507138887</v>
+      </c>
+      <c r="G141" s="16">
+        <v>1.0780007468860362</v>
+      </c>
+      <c r="H141" s="16"/>
+    </row>
+    <row r="142" spans="2:8">
+      <c r="B142" s="16">
+        <v>1.3164084346450404</v>
+      </c>
+      <c r="C142" s="16">
+        <v>1.2638321767619041</v>
+      </c>
+      <c r="D142" s="16">
+        <v>1.2133749850946267</v>
+      </c>
+      <c r="E142" s="16">
+        <v>1.1649553001746804</v>
+      </c>
+      <c r="F142" s="16">
+        <v>1.1184954655482986</v>
+      </c>
+      <c r="G142" s="16">
+        <v>1.0739216997830943</v>
+      </c>
+      <c r="H142" s="16"/>
+    </row>
+    <row r="143" spans="2:8">
+      <c r="B143" s="16">
+        <v>1.3125187623894596</v>
+      </c>
+      <c r="C143" s="16">
+        <v>1.2600818894415384</v>
+      </c>
+      <c r="D143" s="16">
+        <v>1.2097552669210652</v>
+      </c>
+      <c r="E143" s="16">
+        <v>1.1614570399128488</v>
+      </c>
+      <c r="F143" s="16">
+        <v>1.1151091387186867</v>
+      </c>
+      <c r="G143" s="16">
+        <v>1.0706372296527606</v>
+      </c>
+      <c r="H143" s="16"/>
+    </row>
+    <row r="145" spans="1:24">
+      <c r="A145" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="146" spans="1:24">
+      <c r="B146" s="19">
+        <f>AVERAGE(B108:G143)</f>
+        <v>1.3266823963388743</v>
+      </c>
+    </row>
+    <row r="147" spans="1:24">
+      <c r="B147" s="19" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="148" spans="1:24">
+      <c r="B148" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="150" spans="1:24">
+      <c r="A150" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="151" spans="1:24">
+      <c r="B151" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="152" spans="1:24">
+      <c r="B152" s="14">
+        <v>6</v>
+      </c>
+      <c r="C152" s="14">
+        <v>7</v>
+      </c>
+      <c r="D152" s="14">
+        <v>8</v>
+      </c>
+      <c r="E152" s="14">
+        <v>9</v>
+      </c>
+      <c r="F152" s="14">
+        <v>10</v>
+      </c>
+      <c r="G152" s="14"/>
+      <c r="H152" s="14"/>
+      <c r="I152" s="14"/>
+      <c r="J152" s="14"/>
+      <c r="K152" s="14"/>
+      <c r="L152" s="14"/>
+      <c r="M152" s="14"/>
+      <c r="N152" s="14"/>
+      <c r="O152" s="14"/>
+      <c r="P152" s="14"/>
+      <c r="Q152" s="14"/>
+      <c r="R152" s="14"/>
+      <c r="S152" s="14"/>
+      <c r="T152" s="14"/>
+      <c r="U152" s="14"/>
+      <c r="V152" s="14"/>
+      <c r="W152" s="14"/>
+      <c r="X152" s="14"/>
+    </row>
+    <row r="153" spans="1:24">
+      <c r="B153" s="16">
+        <v>0</v>
+      </c>
+      <c r="C153" s="16">
+        <v>0</v>
+      </c>
+      <c r="D153" s="16">
+        <v>0</v>
+      </c>
+      <c r="E153" s="16">
+        <v>0</v>
+      </c>
+      <c r="F153" s="16">
+        <v>0</v>
+      </c>
+      <c r="G153" s="16"/>
+      <c r="H153" s="16"/>
+      <c r="I153" s="16"/>
+      <c r="J153" s="16"/>
+      <c r="K153" s="16"/>
+      <c r="L153" s="16"/>
+      <c r="M153" s="16"/>
+      <c r="N153" s="16"/>
+      <c r="O153" s="16"/>
+      <c r="P153" s="16"/>
+      <c r="Q153" s="16"/>
+      <c r="R153" s="16"/>
+      <c r="S153" s="16"/>
+      <c r="T153" s="16"/>
+      <c r="U153" s="16"/>
+      <c r="V153" s="16"/>
+      <c r="W153" s="16"/>
+      <c r="X153" s="16"/>
+    </row>
+    <row r="154" spans="1:24">
+      <c r="B154" s="16">
+        <v>0</v>
+      </c>
+      <c r="C154" s="16">
+        <v>0</v>
+      </c>
+      <c r="D154" s="16">
+        <v>0</v>
+      </c>
+      <c r="E154" s="16">
+        <v>0</v>
+      </c>
+      <c r="F154" s="16">
+        <v>0</v>
+      </c>
+      <c r="G154" s="16"/>
+      <c r="H154" s="16"/>
+      <c r="I154" s="16"/>
+      <c r="J154" s="16"/>
+      <c r="K154" s="16"/>
+      <c r="L154" s="16"/>
+      <c r="M154" s="16"/>
+      <c r="N154" s="16"/>
+      <c r="O154" s="16"/>
+      <c r="P154" s="16"/>
+      <c r="Q154" s="16"/>
+      <c r="R154" s="16"/>
+      <c r="S154" s="16"/>
+      <c r="T154" s="16"/>
+      <c r="U154" s="16"/>
+      <c r="V154" s="16"/>
+      <c r="W154" s="16"/>
+      <c r="X154" s="16"/>
+    </row>
+    <row r="155" spans="1:24">
+      <c r="B155" s="16">
+        <v>0</v>
+      </c>
+      <c r="C155" s="16">
+        <v>0</v>
+      </c>
+      <c r="D155" s="16">
+        <v>0</v>
+      </c>
+      <c r="E155" s="16">
+        <v>0</v>
+      </c>
+      <c r="F155" s="16">
+        <v>0</v>
+      </c>
+      <c r="G155" s="16"/>
+      <c r="H155" s="16"/>
+      <c r="I155" s="16"/>
+      <c r="J155" s="16"/>
+      <c r="K155" s="16"/>
+      <c r="L155" s="16"/>
+      <c r="M155" s="16"/>
+      <c r="N155" s="16"/>
+      <c r="O155" s="16"/>
+      <c r="P155" s="16"/>
+      <c r="Q155" s="16"/>
+      <c r="R155" s="16"/>
+      <c r="S155" s="16"/>
+      <c r="T155" s="16"/>
+      <c r="U155" s="16"/>
+      <c r="V155" s="16"/>
+      <c r="W155" s="16"/>
+      <c r="X155" s="16"/>
+    </row>
+    <row r="156" spans="1:24">
+      <c r="B156" s="16">
+        <v>0</v>
+      </c>
+      <c r="C156" s="16">
+        <v>0</v>
+      </c>
+      <c r="D156" s="16">
+        <v>0</v>
+      </c>
+      <c r="E156" s="16">
+        <v>0</v>
+      </c>
+      <c r="F156" s="16">
+        <v>0</v>
+      </c>
+      <c r="G156" s="16"/>
+      <c r="H156" s="16"/>
+      <c r="I156" s="16"/>
+      <c r="J156" s="16"/>
+      <c r="K156" s="16"/>
+      <c r="L156" s="16"/>
+      <c r="M156" s="16"/>
+      <c r="N156" s="16"/>
+      <c r="O156" s="16"/>
+      <c r="P156" s="16"/>
+      <c r="Q156" s="16"/>
+      <c r="R156" s="16"/>
+      <c r="S156" s="16"/>
+      <c r="T156" s="16"/>
+      <c r="U156" s="16"/>
+      <c r="V156" s="16"/>
+      <c r="W156" s="16"/>
+      <c r="X156" s="16"/>
+    </row>
+    <row r="157" spans="1:24">
+      <c r="B157" s="16">
+        <v>0</v>
+      </c>
+      <c r="C157" s="16">
+        <v>0</v>
+      </c>
+      <c r="D157" s="16">
+        <v>0</v>
+      </c>
+      <c r="E157" s="16">
+        <v>0</v>
+      </c>
+      <c r="F157" s="16">
+        <v>0</v>
+      </c>
+      <c r="G157" s="16"/>
+      <c r="H157" s="16"/>
+      <c r="I157" s="16"/>
+      <c r="J157" s="16"/>
+      <c r="K157" s="16"/>
+      <c r="L157" s="16"/>
+      <c r="M157" s="16"/>
+      <c r="N157" s="16"/>
+      <c r="O157" s="16"/>
+      <c r="P157" s="16"/>
+      <c r="Q157" s="16"/>
+      <c r="R157" s="16"/>
+      <c r="S157" s="16"/>
+      <c r="T157" s="16"/>
+      <c r="U157" s="16"/>
+      <c r="V157" s="16"/>
+      <c r="W157" s="16"/>
+      <c r="X157" s="16"/>
+    </row>
+    <row r="158" spans="1:24">
+      <c r="B158" s="16">
+        <v>0</v>
+      </c>
+      <c r="C158" s="16">
+        <v>0</v>
+      </c>
+      <c r="D158" s="16">
+        <v>0</v>
+      </c>
+      <c r="E158" s="16">
+        <v>0</v>
+      </c>
+      <c r="F158" s="16">
+        <v>0</v>
+      </c>
+      <c r="G158" s="16"/>
+      <c r="H158" s="16"/>
+      <c r="I158" s="16"/>
+      <c r="J158" s="16"/>
+      <c r="K158" s="16"/>
+      <c r="L158" s="16"/>
+      <c r="M158" s="16"/>
+      <c r="N158" s="16"/>
+      <c r="O158" s="16"/>
+      <c r="P158" s="16"/>
+      <c r="Q158" s="16"/>
+      <c r="R158" s="16"/>
+      <c r="S158" s="16"/>
+      <c r="T158" s="16"/>
+      <c r="U158" s="16"/>
+      <c r="V158" s="16"/>
+      <c r="W158" s="16"/>
+      <c r="X158" s="16"/>
+    </row>
+    <row r="159" spans="1:24">
+      <c r="B159" s="16">
+        <v>1.6009830751480894</v>
+      </c>
+      <c r="C159" s="16">
+        <v>0</v>
+      </c>
+      <c r="D159" s="16">
+        <v>0</v>
+      </c>
+      <c r="E159" s="16">
+        <v>0</v>
+      </c>
+      <c r="F159" s="16">
+        <v>0</v>
+      </c>
+      <c r="G159" s="16"/>
+      <c r="H159" s="16"/>
+      <c r="I159" s="16"/>
+      <c r="J159" s="16"/>
+      <c r="K159" s="16"/>
+      <c r="L159" s="16"/>
+      <c r="M159" s="16"/>
+      <c r="N159" s="16"/>
+      <c r="O159" s="16"/>
+      <c r="P159" s="16"/>
+      <c r="Q159" s="16"/>
+      <c r="R159" s="16"/>
+      <c r="S159" s="16"/>
+      <c r="T159" s="16"/>
+      <c r="U159" s="16"/>
+      <c r="V159" s="16"/>
+      <c r="W159" s="16"/>
+      <c r="X159" s="16"/>
+    </row>
+    <row r="160" spans="1:24">
+      <c r="B160" s="16">
+        <v>1.5103736808923254</v>
+      </c>
+      <c r="C160" s="16">
+        <v>1.5535272146321064</v>
+      </c>
+      <c r="D160" s="16">
+        <v>0</v>
+      </c>
+      <c r="E160" s="16">
+        <v>0</v>
+      </c>
+      <c r="F160" s="16">
+        <v>0</v>
+      </c>
+      <c r="G160" s="16"/>
+      <c r="H160" s="16"/>
+      <c r="I160" s="16"/>
+      <c r="J160" s="16"/>
+      <c r="K160" s="16"/>
+      <c r="L160" s="16"/>
+      <c r="M160" s="16"/>
+      <c r="N160" s="16"/>
+      <c r="O160" s="16"/>
+      <c r="P160" s="16"/>
+      <c r="Q160" s="16"/>
+      <c r="R160" s="16"/>
+      <c r="S160" s="16"/>
+      <c r="T160" s="16"/>
+      <c r="U160" s="16"/>
+      <c r="V160" s="16"/>
+      <c r="W160" s="16"/>
+      <c r="X160" s="16"/>
+    </row>
+    <row r="161" spans="2:24">
+      <c r="B161" s="16">
+        <v>1.4354899789400914</v>
+      </c>
+      <c r="C161" s="16">
+        <v>1.4615897967390021</v>
+      </c>
+      <c r="D161" s="16">
+        <v>1.5033495052172594</v>
+      </c>
+      <c r="E161" s="16">
+        <v>0</v>
+      </c>
+      <c r="F161" s="16">
+        <v>0</v>
+      </c>
+      <c r="G161" s="16"/>
+      <c r="H161" s="16"/>
+      <c r="I161" s="16"/>
+      <c r="J161" s="16"/>
+      <c r="K161" s="16"/>
+      <c r="L161" s="16"/>
+      <c r="M161" s="16"/>
+      <c r="N161" s="16"/>
+      <c r="O161" s="16"/>
+      <c r="P161" s="16"/>
+      <c r="Q161" s="16"/>
+      <c r="R161" s="16"/>
+      <c r="S161" s="16"/>
+      <c r="T161" s="16"/>
+      <c r="U161" s="16"/>
+      <c r="V161" s="16"/>
+      <c r="W161" s="16"/>
+      <c r="X161" s="16"/>
+    </row>
+    <row r="162" spans="2:24">
+      <c r="B162" s="16">
+        <v>1.3748547461059897</v>
+      </c>
+      <c r="C162" s="16">
+        <v>1.3871145973451515</v>
+      </c>
+      <c r="D162" s="16">
+        <v>1.4123348627514269</v>
+      </c>
+      <c r="E162" s="16">
+        <v>1.4526872874014678</v>
+      </c>
+      <c r="F162" s="16">
+        <v>0</v>
+      </c>
+      <c r="G162" s="16"/>
+      <c r="H162" s="16"/>
+      <c r="I162" s="16"/>
+      <c r="J162" s="16"/>
+      <c r="K162" s="16"/>
+      <c r="L162" s="16"/>
+      <c r="M162" s="16"/>
+      <c r="N162" s="16"/>
+      <c r="O162" s="16"/>
+      <c r="P162" s="16"/>
+      <c r="Q162" s="16"/>
+      <c r="R162" s="16"/>
+      <c r="S162" s="16"/>
+      <c r="T162" s="16"/>
+      <c r="U162" s="16"/>
+      <c r="V162" s="16"/>
+      <c r="W162" s="16"/>
+      <c r="X162" s="16"/>
+    </row>
+    <row r="163" spans="2:24">
+      <c r="B163" s="16">
+        <v>1.3250885670983881</v>
+      </c>
+      <c r="C163" s="16">
+        <v>1.326144414562211</v>
+      </c>
+      <c r="D163" s="16">
+        <v>1.3379699061570336</v>
+      </c>
+      <c r="E163" s="16">
+        <v>1.362296631723525</v>
+      </c>
+      <c r="F163" s="16">
+        <v>1.4012193926299115</v>
+      </c>
+      <c r="G163" s="16"/>
+      <c r="H163" s="16"/>
+      <c r="I163" s="16"/>
+      <c r="J163" s="16"/>
+      <c r="K163" s="16"/>
+      <c r="L163" s="16"/>
+      <c r="M163" s="16"/>
+      <c r="N163" s="16"/>
+      <c r="O163" s="16"/>
+      <c r="P163" s="16"/>
+      <c r="Q163" s="16"/>
+      <c r="R163" s="16"/>
+      <c r="S163" s="16"/>
+      <c r="T163" s="16"/>
+      <c r="U163" s="16"/>
+      <c r="V163" s="16"/>
+      <c r="W163" s="16"/>
+      <c r="X163" s="16"/>
+    </row>
+    <row r="164" spans="2:24">
+      <c r="B164" s="16">
+        <v>1.2835842986981478</v>
+      </c>
+      <c r="C164" s="16">
+        <v>1.2756082180958443</v>
+      </c>
+      <c r="D164" s="16">
+        <v>1.2766246389867568</v>
+      </c>
+      <c r="E164" s="16">
+        <v>1.288008552964983</v>
+      </c>
+      <c r="F164" s="16">
+        <v>1.3114268902916189</v>
+      </c>
+      <c r="G164" s="16"/>
+      <c r="H164" s="16"/>
+      <c r="I164" s="16"/>
+      <c r="J164" s="16"/>
+      <c r="K164" s="16"/>
+      <c r="L164" s="16"/>
+      <c r="M164" s="16"/>
+      <c r="N164" s="16"/>
+      <c r="O164" s="16"/>
+      <c r="P164" s="16"/>
+      <c r="Q164" s="16"/>
+      <c r="R164" s="16"/>
+      <c r="S164" s="16"/>
+      <c r="T164" s="16"/>
+      <c r="U164" s="16"/>
+      <c r="V164" s="16"/>
+      <c r="W164" s="16"/>
+      <c r="X164" s="16"/>
+    </row>
+    <row r="165" spans="2:24">
+      <c r="B165" s="16">
+        <v>1.2502007229692176</v>
+      </c>
+      <c r="C165" s="16">
+        <v>1.2349631721443681</v>
+      </c>
+      <c r="D165" s="16">
+        <v>1.2272892189712963</v>
+      </c>
+      <c r="E165" s="16">
+        <v>1.2282671386676873</v>
+      </c>
+      <c r="F165" s="16">
+        <v>1.239219839267272</v>
+      </c>
+      <c r="G165" s="16"/>
+      <c r="H165" s="16"/>
+      <c r="I165" s="16"/>
+      <c r="J165" s="16"/>
+      <c r="K165" s="16"/>
+      <c r="L165" s="16"/>
+      <c r="M165" s="16"/>
+      <c r="N165" s="16"/>
+      <c r="O165" s="16"/>
+      <c r="P165" s="16"/>
+      <c r="Q165" s="16"/>
+      <c r="R165" s="16"/>
+      <c r="S165" s="16"/>
+      <c r="T165" s="16"/>
+      <c r="U165" s="16"/>
+      <c r="V165" s="16"/>
+      <c r="W165" s="16"/>
+      <c r="X165" s="16"/>
+    </row>
+    <row r="166" spans="2:24">
+      <c r="B166" s="16">
+        <v>1.2221494700357856</v>
+      </c>
+      <c r="C166" s="16">
+        <v>1.2011009233745802</v>
+      </c>
+      <c r="D166" s="16">
+        <v>1.1864618050078699</v>
+      </c>
+      <c r="E166" s="16">
+        <v>1.1790892350894817</v>
+      </c>
+      <c r="F166" s="16">
+        <v>1.1800287484242138</v>
+      </c>
+      <c r="G166" s="16"/>
+      <c r="H166" s="16"/>
+      <c r="I166" s="16"/>
+      <c r="J166" s="16"/>
+      <c r="K166" s="16"/>
+      <c r="L166" s="16"/>
+      <c r="M166" s="16"/>
+      <c r="N166" s="16"/>
+      <c r="O166" s="16"/>
+      <c r="P166" s="16"/>
+      <c r="Q166" s="16"/>
+      <c r="R166" s="16"/>
+      <c r="S166" s="16"/>
+      <c r="T166" s="16"/>
+      <c r="U166" s="16"/>
+      <c r="V166" s="16"/>
+      <c r="W166" s="16"/>
+      <c r="X166" s="16"/>
+    </row>
+    <row r="167" spans="2:24">
+      <c r="B167" s="16">
+        <v>1.1983795015027123</v>
+      </c>
+      <c r="C167" s="16">
+        <v>1.1727036405179263</v>
+      </c>
+      <c r="D167" s="16">
+        <v>1.1525066777875952</v>
+      </c>
+      <c r="E167" s="16">
+        <v>1.1384598301445557</v>
+      </c>
+      <c r="F167" s="16">
+        <v>1.1313855403009299</v>
+      </c>
+      <c r="G167" s="16"/>
+      <c r="H167" s="16"/>
+      <c r="I167" s="16"/>
+      <c r="J167" s="16"/>
+      <c r="K167" s="16"/>
+      <c r="L167" s="16"/>
+      <c r="M167" s="16"/>
+      <c r="N167" s="16"/>
+      <c r="O167" s="16"/>
+      <c r="P167" s="16"/>
+      <c r="Q167" s="16"/>
+      <c r="R167" s="16"/>
+      <c r="S167" s="16"/>
+      <c r="T167" s="16"/>
+      <c r="U167" s="16"/>
+      <c r="V167" s="16"/>
+      <c r="W167" s="16"/>
+      <c r="X167" s="16"/>
+    </row>
+    <row r="168" spans="2:24">
+      <c r="B168" s="16">
+        <v>1.1780524622031701</v>
+      </c>
+      <c r="C168" s="16">
+        <v>1.1487109891349114</v>
+      </c>
+      <c r="D168" s="16">
+        <v>1.1240993000733583</v>
+      </c>
+      <c r="E168" s="16">
+        <v>1.1047394286750349</v>
+      </c>
+      <c r="F168" s="16">
+        <v>1.0912747722535669</v>
+      </c>
+      <c r="G168" s="16"/>
+      <c r="H168" s="16"/>
+      <c r="I168" s="16"/>
+      <c r="J168" s="16"/>
+      <c r="K168" s="16"/>
+      <c r="L168" s="16"/>
+      <c r="M168" s="16"/>
+      <c r="N168" s="16"/>
+      <c r="O168" s="16"/>
+      <c r="P168" s="16"/>
+      <c r="Q168" s="16"/>
+      <c r="R168" s="16"/>
+      <c r="S168" s="16"/>
+      <c r="T168" s="16"/>
+      <c r="U168" s="16"/>
+      <c r="V168" s="16"/>
+      <c r="W168" s="16"/>
+      <c r="X168" s="16"/>
+    </row>
+    <row r="169" spans="2:24">
+      <c r="B169" s="16">
+        <v>1.1605442585181438</v>
+      </c>
+      <c r="C169" s="16">
+        <v>1.1283140817089077</v>
+      </c>
+      <c r="D169" s="16">
+        <v>1.1002114306783384</v>
+      </c>
+      <c r="E169" s="16">
+        <v>1.0766388681365504</v>
+      </c>
+      <c r="F169" s="16">
+        <v>1.0580963870335018</v>
+      </c>
+      <c r="G169" s="16"/>
+      <c r="H169" s="16"/>
+      <c r="I169" s="16"/>
+      <c r="J169" s="16"/>
+      <c r="K169" s="16"/>
+      <c r="L169" s="16"/>
+      <c r="M169" s="16"/>
+      <c r="N169" s="16"/>
+      <c r="O169" s="16"/>
+      <c r="P169" s="16"/>
+      <c r="Q169" s="16"/>
+      <c r="R169" s="16"/>
+      <c r="S169" s="16"/>
+      <c r="T169" s="16"/>
+      <c r="U169" s="16"/>
+      <c r="V169" s="16"/>
+      <c r="W169" s="16"/>
+      <c r="X169" s="16"/>
+    </row>
+    <row r="170" spans="2:24">
+      <c r="B170" s="16">
+        <v>1.1453072473590642</v>
+      </c>
+      <c r="C170" s="16">
+        <v>1.110814523036417</v>
+      </c>
+      <c r="D170" s="16">
+        <v>1.0799654208010188</v>
+      </c>
+      <c r="E170" s="16">
+        <v>1.0530669783922473</v>
+      </c>
+      <c r="F170" s="16">
+        <v>1.0305045085644813</v>
+      </c>
+      <c r="G170" s="16"/>
+      <c r="H170" s="16"/>
+      <c r="I170" s="16"/>
+      <c r="J170" s="16"/>
+      <c r="K170" s="16"/>
+      <c r="L170" s="16"/>
+      <c r="M170" s="16"/>
+      <c r="N170" s="16"/>
+      <c r="O170" s="16"/>
+      <c r="P170" s="16"/>
+      <c r="Q170" s="16"/>
+      <c r="R170" s="16"/>
+      <c r="S170" s="16"/>
+      <c r="T170" s="16"/>
+      <c r="U170" s="16"/>
+      <c r="V170" s="16"/>
+      <c r="W170" s="16"/>
+      <c r="X170" s="16"/>
+    </row>
+    <row r="171" spans="2:24">
+      <c r="B171" s="16">
+        <v>1.1319550753635612</v>
+      </c>
+      <c r="C171" s="16">
+        <v>1.0957012793419332</v>
+      </c>
+      <c r="D171" s="16">
+        <v>1.0627025165597535</v>
+      </c>
+      <c r="E171" s="16">
+        <v>1.0331895619671601</v>
+      </c>
+      <c r="F171" s="16">
+        <v>1.0074561547722292</v>
+      </c>
+      <c r="G171" s="16"/>
+      <c r="H171" s="16"/>
+      <c r="I171" s="16"/>
+      <c r="J171" s="16"/>
+      <c r="K171" s="16"/>
+      <c r="L171" s="16"/>
+      <c r="M171" s="16"/>
+      <c r="N171" s="16"/>
+      <c r="O171" s="16"/>
+      <c r="P171" s="16"/>
+      <c r="Q171" s="16"/>
+      <c r="R171" s="16"/>
+      <c r="S171" s="16"/>
+      <c r="T171" s="16"/>
+      <c r="U171" s="16"/>
+      <c r="V171" s="16"/>
+      <c r="W171" s="16"/>
+      <c r="X171" s="16"/>
+    </row>
+    <row r="172" spans="2:24">
+      <c r="B172" s="16">
+        <v>1.1201763817055077</v>
+      </c>
+      <c r="C172" s="16">
+        <v>1.0825615109167517</v>
+      </c>
+      <c r="D172" s="16">
+        <v>1.0478896718554391</v>
+      </c>
+      <c r="E172" s="16">
+        <v>1.0163308306316508</v>
+      </c>
+      <c r="F172" s="16">
+        <v>0.98810569218689936</v>
+      </c>
+      <c r="G172" s="16"/>
+      <c r="H172" s="16"/>
+      <c r="I172" s="16"/>
+      <c r="J172" s="16"/>
+      <c r="K172" s="16"/>
+      <c r="L172" s="16"/>
+      <c r="M172" s="16"/>
+      <c r="N172" s="16"/>
+      <c r="O172" s="16"/>
+      <c r="P172" s="16"/>
+      <c r="Q172" s="16"/>
+      <c r="R172" s="16"/>
+      <c r="S172" s="16"/>
+      <c r="T172" s="16"/>
+      <c r="U172" s="16"/>
+      <c r="V172" s="16"/>
+      <c r="W172" s="16"/>
+      <c r="X172" s="16"/>
+    </row>
+    <row r="173" spans="2:24">
+      <c r="B173" s="16">
+        <v>1.1097419716861767</v>
+      </c>
+      <c r="C173" s="16">
+        <v>1.0710831070492284</v>
+      </c>
+      <c r="D173" s="16">
+        <v>1.035116759843858</v>
+      </c>
+      <c r="E173" s="16">
+        <v>1.001964461942022</v>
+      </c>
+      <c r="F173" s="16">
+        <v>0.97178873045464365</v>
+      </c>
+      <c r="G173" s="16"/>
+      <c r="H173" s="16"/>
+      <c r="I173" s="16"/>
+      <c r="J173" s="16"/>
+      <c r="K173" s="16"/>
+      <c r="L173" s="16"/>
+      <c r="M173" s="16"/>
+      <c r="N173" s="16"/>
+      <c r="O173" s="16"/>
+      <c r="P173" s="16"/>
+      <c r="Q173" s="16"/>
+      <c r="R173" s="16"/>
+      <c r="S173" s="16"/>
+      <c r="T173" s="16"/>
+      <c r="U173" s="16"/>
+      <c r="V173" s="16"/>
+      <c r="W173" s="16"/>
+      <c r="X173" s="16"/>
+    </row>
+    <row r="174" spans="2:24">
+      <c r="B174" s="16">
+        <v>1.1004664370527617</v>
+      </c>
+      <c r="C174" s="16">
+        <v>1.0610137604565357</v>
+      </c>
+      <c r="D174" s="16">
+        <v>1.0240523871013358</v>
+      </c>
+      <c r="E174" s="16">
+        <v>0.98966530409295594</v>
+      </c>
+      <c r="F174" s="16">
+        <v>0.95796870690004621</v>
+      </c>
+      <c r="G174" s="16"/>
+      <c r="H174" s="16"/>
+      <c r="I174" s="16"/>
+      <c r="J174" s="16"/>
+      <c r="K174" s="16"/>
+      <c r="L174" s="16"/>
+      <c r="M174" s="16"/>
+      <c r="N174" s="16"/>
+      <c r="O174" s="16"/>
+      <c r="P174" s="16"/>
+      <c r="Q174" s="16"/>
+      <c r="R174" s="16"/>
+      <c r="S174" s="16"/>
+      <c r="T174" s="16"/>
+      <c r="U174" s="16"/>
+      <c r="V174" s="16"/>
+      <c r="W174" s="16"/>
+      <c r="X174" s="16"/>
+    </row>
+    <row r="175" spans="2:24">
+      <c r="B175" s="16">
+        <v>1.092212361051476</v>
+      </c>
+      <c r="C175" s="16">
+        <v>1.0521618321823516</v>
+      </c>
+      <c r="D175" s="16">
+        <v>1.0144409175825797</v>
+      </c>
+      <c r="E175" s="16">
+        <v>0.97910195130430244</v>
+      </c>
+      <c r="F175" s="16">
+        <v>0.94622427776216156</v>
+      </c>
+      <c r="G175" s="16"/>
+      <c r="H175" s="16"/>
+      <c r="I175" s="16"/>
+      <c r="J175" s="16"/>
+      <c r="K175" s="16"/>
+      <c r="L175" s="16"/>
+      <c r="M175" s="16"/>
+      <c r="N175" s="16"/>
+      <c r="O175" s="16"/>
+      <c r="P175" s="16"/>
+      <c r="Q175" s="16"/>
+      <c r="R175" s="16"/>
+      <c r="S175" s="16"/>
+      <c r="T175" s="16"/>
+      <c r="U175" s="16"/>
+      <c r="V175" s="16"/>
+      <c r="W175" s="16"/>
+      <c r="X175" s="16"/>
+    </row>
+    <row r="176" spans="2:24">
+      <c r="B176" s="16">
+        <v>1.0848662786569612</v>
+      </c>
+      <c r="C176" s="16">
+        <v>1.0443704714504496</v>
+      </c>
+      <c r="D176" s="16">
+        <v>1.0060742653201511</v>
+      </c>
+      <c r="E176" s="16">
+        <v>0.97000562998060891</v>
+      </c>
+      <c r="F176" s="16">
+        <v>0.93621460710930082</v>
+      </c>
+      <c r="G176" s="16"/>
+      <c r="H176" s="16"/>
+      <c r="I176" s="16"/>
+      <c r="J176" s="16"/>
+      <c r="K176" s="16"/>
+      <c r="L176" s="16"/>
+      <c r="M176" s="16"/>
+      <c r="N176" s="16"/>
+      <c r="O176" s="16"/>
+      <c r="P176" s="16"/>
+      <c r="Q176" s="16"/>
+      <c r="R176" s="16"/>
+      <c r="S176" s="16"/>
+      <c r="T176" s="16"/>
+      <c r="U176" s="16"/>
+      <c r="V176" s="16"/>
+      <c r="W176" s="16"/>
+      <c r="X176" s="16"/>
+    </row>
+    <row r="177" spans="2:24">
+      <c r="B177" s="16">
+        <v>1.0782959201645157</v>
+      </c>
+      <c r="C177" s="16">
+        <v>1.0374742574496172</v>
+      </c>
+      <c r="D177" s="16">
+        <v>0.99874749606165136</v>
+      </c>
+      <c r="E177" s="16">
+        <v>0.96212424691120735</v>
+      </c>
+      <c r="F177" s="16">
+        <v>0.92763125786518585</v>
+      </c>
+      <c r="G177" s="16"/>
+      <c r="H177" s="16"/>
+      <c r="I177" s="16"/>
+      <c r="J177" s="16"/>
+      <c r="K177" s="16"/>
+      <c r="L177" s="16"/>
+      <c r="M177" s="16"/>
+      <c r="N177" s="16"/>
+      <c r="O177" s="16"/>
+      <c r="P177" s="16"/>
+      <c r="Q177" s="16"/>
+      <c r="R177" s="16"/>
+      <c r="S177" s="16"/>
+      <c r="T177" s="16"/>
+      <c r="U177" s="16"/>
+      <c r="V177" s="16"/>
+      <c r="W177" s="16"/>
+      <c r="X177" s="16"/>
+    </row>
+    <row r="178" spans="2:24">
+      <c r="B178" s="16">
+        <v>1.0724152574404568</v>
+      </c>
+      <c r="C178" s="16">
+        <v>1.0313599947532366</v>
+      </c>
+      <c r="D178" s="16">
+        <v>0.99231521209558504</v>
+      </c>
+      <c r="E178" s="16">
+        <v>0.95527414417073497</v>
+      </c>
+      <c r="F178" s="16">
+        <v>0.92024502707467326</v>
+      </c>
+      <c r="G178" s="16"/>
+      <c r="H178" s="16"/>
+      <c r="I178" s="16"/>
+      <c r="J178" s="16"/>
+      <c r="K178" s="16"/>
+      <c r="L178" s="16"/>
+      <c r="M178" s="16"/>
+      <c r="N178" s="16"/>
+      <c r="O178" s="16"/>
+      <c r="P178" s="16"/>
+      <c r="Q178" s="16"/>
+      <c r="R178" s="16"/>
+      <c r="S178" s="16"/>
+      <c r="T178" s="16"/>
+      <c r="U178" s="16"/>
+      <c r="V178" s="16"/>
+      <c r="W178" s="16"/>
+      <c r="X178" s="16"/>
+    </row>
+    <row r="179" spans="2:24">
+      <c r="B179" s="16">
+        <v>1.0671132782980663</v>
+      </c>
+      <c r="C179" s="16">
+        <v>1.0258966427399576</v>
+      </c>
+      <c r="D179" s="16">
+        <v>0.98662225171893603</v>
+      </c>
+      <c r="E179" s="16">
+        <v>0.94927113127647056</v>
+      </c>
+      <c r="F179" s="16">
+        <v>0.91383680957696201</v>
+      </c>
+      <c r="G179" s="16"/>
+      <c r="H179" s="16"/>
+      <c r="I179" s="16"/>
+      <c r="J179" s="16"/>
+      <c r="K179" s="16"/>
+      <c r="L179" s="16"/>
+      <c r="M179" s="16"/>
+      <c r="N179" s="16"/>
+      <c r="O179" s="16"/>
+      <c r="P179" s="16"/>
+      <c r="Q179" s="16"/>
+      <c r="R179" s="16"/>
+      <c r="S179" s="16"/>
+      <c r="T179" s="16"/>
+      <c r="U179" s="16"/>
+      <c r="V179" s="16"/>
+      <c r="W179" s="16"/>
+      <c r="X179" s="16"/>
+    </row>
+    <row r="180" spans="2:24">
+      <c r="B180" s="16">
+        <v>1.062182101281689</v>
+      </c>
+      <c r="C180" s="16">
+        <v>1.0208650485738175</v>
+      </c>
+      <c r="D180" s="16">
+        <v>0.98143472424294076</v>
+      </c>
+      <c r="E180" s="16">
+        <v>0.94386246840771415</v>
+      </c>
+      <c r="F180" s="16">
+        <v>0.90813012943279448</v>
+      </c>
+      <c r="G180" s="16"/>
+      <c r="H180" s="16"/>
+      <c r="I180" s="16"/>
+      <c r="J180" s="16"/>
+      <c r="K180" s="16"/>
+      <c r="L180" s="16"/>
+      <c r="M180" s="16"/>
+      <c r="N180" s="16"/>
+      <c r="O180" s="16"/>
+      <c r="P180" s="16"/>
+      <c r="Q180" s="16"/>
+      <c r="R180" s="16"/>
+      <c r="S180" s="16"/>
+      <c r="T180" s="16"/>
+      <c r="U180" s="16"/>
+      <c r="V180" s="16"/>
+      <c r="W180" s="16"/>
+      <c r="X180" s="16"/>
+    </row>
+    <row r="181" spans="2:24">
+      <c r="B181" s="16">
+        <v>1.0575226887778579</v>
+      </c>
+      <c r="C181" s="16">
+        <v>1.016154716123306</v>
+      </c>
+      <c r="D181" s="16">
+        <v>0.97662804935424852</v>
+      </c>
+      <c r="E181" s="16">
+        <v>0.93890635363112862</v>
+      </c>
+      <c r="F181" s="16">
+        <v>0.90296221098714324</v>
+      </c>
+      <c r="G181" s="16"/>
+      <c r="H181" s="16"/>
+      <c r="I181" s="16"/>
+      <c r="J181" s="16"/>
+      <c r="K181" s="16"/>
+      <c r="L181" s="16"/>
+      <c r="M181" s="16"/>
+      <c r="N181" s="16"/>
+      <c r="O181" s="16"/>
+      <c r="P181" s="16"/>
+      <c r="Q181" s="16"/>
+      <c r="R181" s="16"/>
+      <c r="S181" s="16"/>
+      <c r="T181" s="16"/>
+      <c r="U181" s="16"/>
+      <c r="V181" s="16"/>
+      <c r="W181" s="16"/>
+      <c r="X181" s="16"/>
+    </row>
+    <row r="182" spans="2:24">
+      <c r="B182" s="16">
+        <v>1.0530265341708089</v>
+      </c>
+      <c r="C182" s="16">
+        <v>1.0116491943071206</v>
+      </c>
+      <c r="D182" s="16">
+        <v>0.97207569233860891</v>
+      </c>
+      <c r="E182" s="16">
+        <v>0.93426362360959214</v>
+      </c>
+      <c r="F182" s="16">
+        <v>0.89817822942264158</v>
+      </c>
+      <c r="G182" s="16"/>
+      <c r="H182" s="16"/>
+      <c r="I182" s="16"/>
+      <c r="J182" s="16"/>
+      <c r="K182" s="16"/>
+      <c r="L182" s="16"/>
+      <c r="M182" s="16"/>
+      <c r="N182" s="16"/>
+      <c r="O182" s="16"/>
+      <c r="P182" s="16"/>
+      <c r="Q182" s="16"/>
+      <c r="R182" s="16"/>
+      <c r="S182" s="16"/>
+      <c r="T182" s="16"/>
+      <c r="U182" s="16"/>
+      <c r="V182" s="16"/>
+      <c r="W182" s="16"/>
+      <c r="X182" s="16"/>
+    </row>
+    <row r="183" spans="2:24">
+      <c r="B183" s="16">
+        <v>1.0485429707790743</v>
+      </c>
+      <c r="C183" s="16">
+        <v>1.0071940447571912</v>
+      </c>
+      <c r="D183" s="16">
+        <v>0.96761763433803927</v>
+      </c>
+      <c r="E183" s="16">
+        <v>0.92976655060988056</v>
+      </c>
+      <c r="F183" s="16">
+        <v>0.89360023455992066</v>
+      </c>
+      <c r="G183" s="16"/>
+      <c r="H183" s="16"/>
+      <c r="I183" s="16"/>
+      <c r="J183" s="16"/>
+      <c r="K183" s="16"/>
+      <c r="L183" s="16"/>
+      <c r="M183" s="16"/>
+      <c r="N183" s="16"/>
+      <c r="O183" s="16"/>
+      <c r="P183" s="16"/>
+      <c r="Q183" s="16"/>
+      <c r="R183" s="16"/>
+      <c r="S183" s="16"/>
+      <c r="T183" s="16"/>
+      <c r="U183" s="16"/>
+      <c r="V183" s="16"/>
+      <c r="W183" s="16"/>
+      <c r="X183" s="16"/>
+    </row>
+    <row r="184" spans="2:24">
+      <c r="B184" s="16">
+        <v>1.0440257584954364</v>
+      </c>
+      <c r="C184" s="16">
+        <v>1.0027371419271554</v>
+      </c>
+      <c r="D184" s="16">
+        <v>0.96319455277591259</v>
+      </c>
+      <c r="E184" s="16">
+        <v>0.92534704649588806</v>
+      </c>
+      <c r="F184" s="16">
+        <v>0.88914949563326706</v>
+      </c>
+      <c r="G184" s="16"/>
+      <c r="H184" s="16"/>
+      <c r="I184" s="16"/>
+      <c r="J184" s="16"/>
+      <c r="K184" s="16"/>
+      <c r="L184" s="16"/>
+      <c r="M184" s="16"/>
+      <c r="N184" s="16"/>
+      <c r="O184" s="16"/>
+      <c r="P184" s="16"/>
+      <c r="Q184" s="16"/>
+      <c r="R184" s="16"/>
+      <c r="S184" s="16"/>
+      <c r="T184" s="16"/>
+      <c r="U184" s="16"/>
+      <c r="V184" s="16"/>
+      <c r="W184" s="16"/>
+      <c r="X184" s="16"/>
+    </row>
+    <row r="185" spans="2:24">
+      <c r="B185" s="16">
+        <v>1.0395058973608693</v>
+      </c>
+      <c r="C185" s="16">
+        <v>0.99830209826691318</v>
+      </c>
+      <c r="D185" s="16">
+        <v>0.95882173849681163</v>
+      </c>
+      <c r="E185" s="16">
+        <v>0.92101093794962885</v>
+      </c>
+      <c r="F185" s="16">
+        <v>0.88482098322287117</v>
+      </c>
+      <c r="G185" s="16"/>
+      <c r="H185" s="16"/>
+      <c r="I185" s="16"/>
+      <c r="J185" s="16"/>
+      <c r="K185" s="16"/>
+      <c r="L185" s="16"/>
+      <c r="M185" s="16"/>
+      <c r="N185" s="16"/>
+      <c r="O185" s="16"/>
+      <c r="P185" s="16"/>
+      <c r="Q185" s="16"/>
+      <c r="R185" s="16"/>
+      <c r="S185" s="16"/>
+      <c r="T185" s="16"/>
+      <c r="U185" s="16"/>
+      <c r="V185" s="16"/>
+      <c r="W185" s="16"/>
+      <c r="X185" s="16"/>
+    </row>
+    <row r="186" spans="2:24">
+      <c r="B186" s="16">
+        <v>1.0351306940514386</v>
+      </c>
+      <c r="C186" s="16">
+        <v>0.994025438738394</v>
+      </c>
+      <c r="D186" s="16">
+        <v>0.95462438812767314</v>
+      </c>
+      <c r="E186" s="16">
+        <v>0.91687137292914467</v>
+      </c>
+      <c r="F186" s="16">
+        <v>0.88071487040387286</v>
+      </c>
+      <c r="G186" s="16"/>
+      <c r="H186" s="16"/>
+      <c r="I186" s="16"/>
+      <c r="J186" s="16"/>
+      <c r="K186" s="16"/>
+      <c r="L186" s="16"/>
+      <c r="M186" s="16"/>
+      <c r="N186" s="16"/>
+      <c r="O186" s="16"/>
+      <c r="P186" s="16"/>
+      <c r="Q186" s="16"/>
+      <c r="R186" s="16"/>
+      <c r="S186" s="16"/>
+      <c r="T186" s="16"/>
+      <c r="U186" s="16"/>
+      <c r="V186" s="16"/>
+      <c r="W186" s="16"/>
+      <c r="X186" s="16"/>
+    </row>
+    <row r="187" spans="2:24">
+      <c r="B187" s="16">
+        <v>1.0311640952198433</v>
+      </c>
+      <c r="C187" s="16">
+        <v>0.99015664752473687</v>
+      </c>
+      <c r="D187" s="16">
+        <v>0.95083732096017259</v>
+      </c>
+      <c r="E187" s="16">
+        <v>0.91314815532547533</v>
+      </c>
+      <c r="F187" s="16">
+        <v>0.8770354217569083</v>
+      </c>
+      <c r="G187" s="16"/>
+      <c r="H187" s="16"/>
+      <c r="I187" s="16"/>
+      <c r="J187" s="16"/>
+      <c r="K187" s="16"/>
+      <c r="L187" s="16"/>
+      <c r="M187" s="16"/>
+      <c r="N187" s="16"/>
+      <c r="O187" s="16"/>
+      <c r="P187" s="16"/>
+      <c r="Q187" s="16"/>
+      <c r="R187" s="16"/>
+      <c r="S187" s="16"/>
+      <c r="T187" s="16"/>
+      <c r="U187" s="16"/>
+      <c r="V187" s="16"/>
+      <c r="W187" s="16"/>
+      <c r="X187" s="16"/>
+    </row>
+    <row r="188" spans="2:24">
+      <c r="B188" s="16">
+        <v>1.0279706882460364</v>
+      </c>
+      <c r="C188" s="16">
+        <v>0.98704259805145855</v>
+      </c>
+      <c r="D188" s="16">
+        <v>0.94778977893171634</v>
+      </c>
+      <c r="E188" s="16">
+        <v>0.91015284953722753</v>
+      </c>
+      <c r="F188" s="16">
+        <v>0.8740763296710734</v>
+      </c>
+      <c r="G188" s="16"/>
+      <c r="H188" s="16"/>
+      <c r="I188" s="16"/>
+      <c r="J188" s="16"/>
+      <c r="K188" s="16"/>
+      <c r="L188" s="16"/>
+      <c r="M188" s="16"/>
+      <c r="N188" s="16"/>
+      <c r="O188" s="16"/>
+      <c r="P188" s="16"/>
+      <c r="Q188" s="16"/>
+      <c r="R188" s="16"/>
+      <c r="S188" s="16"/>
+      <c r="T188" s="16"/>
+      <c r="U188" s="16"/>
+      <c r="V188" s="16"/>
+      <c r="W188" s="16"/>
+      <c r="X188" s="16"/>
+    </row>
+    <row r="189" spans="2:24">
+      <c r="B189" s="16">
+        <v>0</v>
+      </c>
+      <c r="C189" s="16">
+        <v>0</v>
+      </c>
+      <c r="D189" s="16">
+        <v>0</v>
+      </c>
+      <c r="E189" s="16">
+        <v>0</v>
+      </c>
+      <c r="F189" s="16">
+        <v>0</v>
+      </c>
+      <c r="G189" s="16"/>
+      <c r="H189" s="16"/>
+      <c r="I189" s="16"/>
+      <c r="J189" s="16"/>
+      <c r="K189" s="16"/>
+      <c r="L189" s="16"/>
+      <c r="M189" s="16"/>
+      <c r="N189" s="16"/>
+      <c r="O189" s="16"/>
+      <c r="P189" s="16"/>
+      <c r="Q189" s="16"/>
+      <c r="R189" s="16"/>
+      <c r="S189" s="16"/>
+      <c r="T189" s="16"/>
+      <c r="U189" s="16"/>
+      <c r="V189" s="16"/>
+      <c r="W189" s="16"/>
+      <c r="X189" s="16"/>
+    </row>
+    <row r="190" spans="2:24">
+      <c r="B190" s="16">
+        <v>0</v>
+      </c>
+      <c r="C190" s="16">
+        <v>0</v>
+      </c>
+      <c r="D190" s="16">
+        <v>0</v>
+      </c>
+      <c r="E190" s="16">
+        <v>0</v>
+      </c>
+      <c r="F190" s="16">
+        <v>0</v>
+      </c>
+      <c r="G190" s="16"/>
+      <c r="H190" s="16"/>
+      <c r="I190" s="16"/>
+      <c r="J190" s="16"/>
+      <c r="K190" s="16"/>
+      <c r="L190" s="16"/>
+      <c r="M190" s="16"/>
+      <c r="N190" s="16"/>
+      <c r="O190" s="16"/>
+      <c r="P190" s="16"/>
+      <c r="Q190" s="16"/>
+      <c r="R190" s="16"/>
+      <c r="S190" s="16"/>
+      <c r="T190" s="16"/>
+      <c r="U190" s="16"/>
+      <c r="V190" s="16"/>
+      <c r="W190" s="16"/>
+      <c r="X190" s="16"/>
+    </row>
+    <row r="191" spans="2:24">
+      <c r="B191" s="16">
+        <v>0</v>
+      </c>
+      <c r="C191" s="16">
+        <v>0</v>
+      </c>
+      <c r="D191" s="16">
+        <v>0</v>
+      </c>
+      <c r="E191" s="16">
+        <v>0</v>
+      </c>
+      <c r="F191" s="16">
+        <v>0</v>
+      </c>
+      <c r="G191" s="16"/>
+      <c r="H191" s="16"/>
+      <c r="I191" s="16"/>
+      <c r="J191" s="16"/>
+      <c r="K191" s="16"/>
+      <c r="L191" s="16"/>
+      <c r="M191" s="16"/>
+      <c r="N191" s="16"/>
+      <c r="O191" s="16"/>
+      <c r="P191" s="16"/>
+      <c r="Q191" s="16"/>
+      <c r="R191" s="16"/>
+      <c r="S191" s="16"/>
+      <c r="T191" s="16"/>
+      <c r="U191" s="16"/>
+      <c r="V191" s="16"/>
+      <c r="W191" s="16"/>
+      <c r="X191" s="16"/>
+    </row>
+    <row r="192" spans="2:24">
+      <c r="B192" s="16">
+        <v>0</v>
+      </c>
+      <c r="C192" s="16">
+        <v>0</v>
+      </c>
+      <c r="D192" s="16">
+        <v>0</v>
+      </c>
+      <c r="E192" s="16">
+        <v>0</v>
+      </c>
+      <c r="F192" s="16">
+        <v>0</v>
+      </c>
+      <c r="G192" s="16"/>
+      <c r="H192" s="16"/>
+      <c r="I192" s="16"/>
+      <c r="J192" s="16"/>
+      <c r="K192" s="16"/>
+      <c r="L192" s="16"/>
+      <c r="M192" s="16"/>
+      <c r="N192" s="16"/>
+      <c r="O192" s="16"/>
+      <c r="P192" s="16"/>
+      <c r="Q192" s="16"/>
+      <c r="R192" s="16"/>
+      <c r="S192" s="16"/>
+      <c r="T192" s="16"/>
+      <c r="U192" s="16"/>
+      <c r="V192" s="16"/>
+      <c r="W192" s="16"/>
+      <c r="X192" s="16"/>
+    </row>
+    <row r="193" spans="1:24">
+      <c r="B193" s="16">
+        <v>0</v>
+      </c>
+      <c r="C193" s="16">
+        <v>0</v>
+      </c>
+      <c r="D193" s="16">
+        <v>0</v>
+      </c>
+      <c r="E193" s="16">
+        <v>0</v>
+      </c>
+      <c r="F193" s="16">
+        <v>0</v>
+      </c>
+      <c r="G193" s="16"/>
+      <c r="H193" s="16"/>
+      <c r="I193" s="16"/>
+      <c r="J193" s="16"/>
+      <c r="K193" s="16"/>
+      <c r="L193" s="16"/>
+      <c r="M193" s="16"/>
+      <c r="N193" s="16"/>
+      <c r="O193" s="16"/>
+      <c r="P193" s="16"/>
+      <c r="Q193" s="16"/>
+      <c r="R193" s="16"/>
+      <c r="S193" s="16"/>
+      <c r="T193" s="16"/>
+      <c r="U193" s="16"/>
+      <c r="V193" s="16"/>
+      <c r="W193" s="16"/>
+      <c r="X193" s="16"/>
+    </row>
+    <row r="194" spans="1:24">
+      <c r="B194" s="16">
+        <v>0</v>
+      </c>
+      <c r="C194" s="16">
+        <v>0</v>
+      </c>
+      <c r="D194" s="16">
+        <v>0</v>
+      </c>
+      <c r="E194" s="16">
+        <v>0</v>
+      </c>
+      <c r="F194" s="16">
+        <v>0</v>
+      </c>
+      <c r="G194" s="16"/>
+      <c r="H194" s="16"/>
+      <c r="I194" s="16"/>
+      <c r="J194" s="16"/>
+      <c r="K194" s="16"/>
+      <c r="L194" s="16"/>
+      <c r="M194" s="16"/>
+      <c r="N194" s="16"/>
+      <c r="O194" s="16"/>
+      <c r="P194" s="16"/>
+      <c r="Q194" s="16"/>
+      <c r="R194" s="16"/>
+      <c r="S194" s="16"/>
+      <c r="T194" s="16"/>
+      <c r="U194" s="16"/>
+      <c r="V194" s="16"/>
+      <c r="W194" s="16"/>
+      <c r="X194" s="16"/>
+    </row>
+    <row r="195" spans="1:24">
+      <c r="B195" s="16">
+        <v>0</v>
+      </c>
+      <c r="C195" s="16">
+        <v>0</v>
+      </c>
+      <c r="D195" s="16">
+        <v>0</v>
+      </c>
+      <c r="E195" s="16">
+        <v>0</v>
+      </c>
+      <c r="F195" s="16">
+        <v>0</v>
+      </c>
+      <c r="G195" s="16"/>
+      <c r="H195" s="16"/>
+      <c r="I195" s="16"/>
+      <c r="J195" s="16"/>
+      <c r="K195" s="16"/>
+      <c r="L195" s="16"/>
+      <c r="M195" s="16"/>
+      <c r="N195" s="16"/>
+      <c r="O195" s="16"/>
+      <c r="P195" s="16"/>
+      <c r="Q195" s="16"/>
+      <c r="R195" s="16"/>
+      <c r="S195" s="16"/>
+      <c r="T195" s="16"/>
+      <c r="U195" s="16"/>
+      <c r="V195" s="16"/>
+      <c r="W195" s="16"/>
+      <c r="X195" s="16"/>
+    </row>
+    <row r="196" spans="1:24">
+      <c r="B196" s="16">
+        <v>0</v>
+      </c>
+      <c r="C196" s="16">
+        <v>0</v>
+      </c>
+      <c r="D196" s="16">
+        <v>0</v>
+      </c>
+      <c r="E196" s="16">
+        <v>0</v>
+      </c>
+      <c r="F196" s="16">
+        <v>0</v>
+      </c>
+      <c r="G196" s="16"/>
+      <c r="H196" s="16"/>
+      <c r="I196" s="16"/>
+      <c r="J196" s="16"/>
+      <c r="K196" s="16"/>
+      <c r="L196" s="16"/>
+      <c r="M196" s="16"/>
+      <c r="N196" s="16"/>
+      <c r="O196" s="16"/>
+      <c r="P196" s="16"/>
+      <c r="Q196" s="16"/>
+      <c r="R196" s="16"/>
+      <c r="S196" s="16"/>
+      <c r="T196" s="16"/>
+      <c r="U196" s="16"/>
+      <c r="V196" s="16"/>
+      <c r="W196" s="16"/>
+      <c r="X196" s="16"/>
+    </row>
+    <row r="197" spans="1:24">
+      <c r="B197" s="16">
+        <v>0</v>
+      </c>
+      <c r="C197" s="16">
+        <v>0</v>
+      </c>
+      <c r="D197" s="16">
+        <v>0</v>
+      </c>
+      <c r="E197" s="16">
+        <v>0</v>
+      </c>
+      <c r="F197" s="16">
+        <v>0</v>
+      </c>
+      <c r="G197" s="16"/>
+      <c r="H197" s="16"/>
+      <c r="I197" s="16"/>
+      <c r="J197" s="16"/>
+      <c r="K197" s="16"/>
+      <c r="L197" s="16"/>
+      <c r="M197" s="16"/>
+      <c r="N197" s="16"/>
+      <c r="O197" s="16"/>
+      <c r="P197" s="16"/>
+      <c r="Q197" s="16"/>
+      <c r="R197" s="16"/>
+      <c r="S197" s="16"/>
+      <c r="T197" s="16"/>
+      <c r="U197" s="16"/>
+      <c r="V197" s="16"/>
+      <c r="W197" s="16"/>
+      <c r="X197" s="16"/>
+    </row>
+    <row r="198" spans="1:24">
+      <c r="B198" s="18">
+        <v>0</v>
+      </c>
+      <c r="C198" s="18">
+        <v>0</v>
+      </c>
+      <c r="D198" s="18">
+        <v>0</v>
+      </c>
+      <c r="E198" s="18">
+        <v>0</v>
+      </c>
+      <c r="F198" s="18">
+        <v>0</v>
+      </c>
+      <c r="G198" s="18"/>
+      <c r="H198" s="18"/>
+      <c r="I198" s="18"/>
+      <c r="J198" s="18"/>
+      <c r="K198" s="18"/>
+      <c r="L198" s="18"/>
+      <c r="M198" s="18"/>
+      <c r="N198" s="18"/>
+      <c r="O198" s="18"/>
+      <c r="P198" s="18"/>
+      <c r="Q198" s="18"/>
+      <c r="R198" s="18"/>
+      <c r="S198" s="18"/>
+      <c r="T198" s="18"/>
+      <c r="U198" s="18"/>
+      <c r="V198" s="18"/>
+      <c r="W198" s="18"/>
+      <c r="X198" s="18"/>
+    </row>
+    <row r="200" spans="1:24">
+      <c r="A200" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="201" spans="1:24">
+      <c r="B201" s="14">
+        <v>6</v>
+      </c>
+      <c r="C201" s="14">
+        <v>7</v>
+      </c>
+      <c r="D201" s="14">
+        <v>8</v>
+      </c>
+      <c r="E201" s="14">
+        <v>9</v>
+      </c>
+      <c r="F201" s="14">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="202" spans="1:24">
+      <c r="B202" s="16">
+        <v>1.6009830751480894</v>
+      </c>
+      <c r="C202" s="16"/>
+      <c r="D202" s="16"/>
+      <c r="E202" s="16"/>
+      <c r="F202" s="16"/>
+    </row>
+    <row r="203" spans="1:24">
+      <c r="B203" s="16">
+        <v>1.5103736808923254</v>
+      </c>
+      <c r="C203" s="16">
+        <v>1.5535272146321064</v>
+      </c>
+      <c r="D203" s="16"/>
+      <c r="E203" s="16"/>
+      <c r="F203" s="16"/>
+    </row>
+    <row r="204" spans="1:24">
+      <c r="B204" s="16">
+        <v>1.4354899789400914</v>
+      </c>
+      <c r="C204" s="16">
+        <v>1.4615897967390021</v>
+      </c>
+      <c r="D204" s="16">
+        <v>1.5033495052172594</v>
+      </c>
+      <c r="E204" s="16"/>
+      <c r="F204" s="16"/>
+    </row>
+    <row r="205" spans="1:24">
+      <c r="B205" s="16">
+        <v>1.3748547461059897</v>
+      </c>
+      <c r="C205" s="16">
+        <v>1.3871145973451515</v>
+      </c>
+      <c r="D205" s="16">
+        <v>1.4123348627514269</v>
+      </c>
+      <c r="E205" s="16">
+        <v>1.4526872874014678</v>
+      </c>
+      <c r="F205" s="16"/>
+    </row>
+    <row r="206" spans="1:24">
+      <c r="B206" s="16">
+        <v>1.3250885670983881</v>
+      </c>
+      <c r="C206" s="16">
+        <v>1.326144414562211</v>
+      </c>
+      <c r="D206" s="16">
+        <v>1.3379699061570336</v>
+      </c>
+      <c r="E206" s="16">
+        <v>1.362296631723525</v>
+      </c>
+      <c r="F206" s="16">
+        <v>1.4012193926299115</v>
+      </c>
+    </row>
+    <row r="207" spans="1:24">
+      <c r="B207" s="16">
+        <v>1.2835842986981478</v>
+      </c>
+      <c r="C207" s="16">
+        <v>1.2756082180958443</v>
+      </c>
+      <c r="D207" s="16">
+        <v>1.2766246389867568</v>
+      </c>
+      <c r="E207" s="16">
+        <v>1.288008552964983</v>
+      </c>
+      <c r="F207" s="16">
+        <v>1.3114268902916189</v>
+      </c>
+    </row>
+    <row r="208" spans="1:24">
+      <c r="B208" s="16">
+        <v>1.2502007229692176</v>
+      </c>
+      <c r="C208" s="16">
+        <v>1.2349631721443681</v>
+      </c>
+      <c r="D208" s="16">
+        <v>1.2272892189712963</v>
+      </c>
+      <c r="E208" s="16">
+        <v>1.2282671386676873</v>
+      </c>
+      <c r="F208" s="16">
+        <v>1.239219839267272</v>
+      </c>
+    </row>
+    <row r="209" spans="2:6">
+      <c r="B209" s="16">
+        <v>1.2221494700357856</v>
+      </c>
+      <c r="C209" s="16">
+        <v>1.2011009233745802</v>
+      </c>
+      <c r="D209" s="16">
+        <v>1.1864618050078699</v>
+      </c>
+      <c r="E209" s="16">
+        <v>1.1790892350894817</v>
+      </c>
+      <c r="F209" s="16">
+        <v>1.1800287484242138</v>
+      </c>
+    </row>
+    <row r="210" spans="2:6">
+      <c r="B210" s="16">
+        <v>1.1983795015027123</v>
+      </c>
+      <c r="C210" s="16">
+        <v>1.1727036405179263</v>
+      </c>
+      <c r="D210" s="16">
+        <v>1.1525066777875952</v>
+      </c>
+      <c r="E210" s="16">
+        <v>1.1384598301445557</v>
+      </c>
+      <c r="F210" s="16">
+        <v>1.1313855403009299</v>
+      </c>
+    </row>
+    <row r="211" spans="2:6">
+      <c r="B211" s="16">
+        <v>1.1780524622031701</v>
+      </c>
+      <c r="C211" s="16">
+        <v>1.1487109891349114</v>
+      </c>
+      <c r="D211" s="16">
+        <v>1.1240993000733583</v>
+      </c>
+      <c r="E211" s="16">
+        <v>1.1047394286750349</v>
+      </c>
+      <c r="F211" s="16">
+        <v>1.0912747722535669</v>
+      </c>
+    </row>
+    <row r="212" spans="2:6">
+      <c r="B212" s="16">
+        <v>1.1605442585181438</v>
+      </c>
+      <c r="C212" s="16">
+        <v>1.1283140817089077</v>
+      </c>
+      <c r="D212" s="16">
+        <v>1.1002114306783384</v>
+      </c>
+      <c r="E212" s="16">
+        <v>1.0766388681365504</v>
+      </c>
+      <c r="F212" s="16">
+        <v>1.0580963870335018</v>
+      </c>
+    </row>
+    <row r="213" spans="2:6">
+      <c r="B213" s="16">
+        <v>1.1453072473590642</v>
+      </c>
+      <c r="C213" s="16">
+        <v>1.110814523036417</v>
+      </c>
+      <c r="D213" s="16">
+        <v>1.0799654208010188</v>
+      </c>
+      <c r="E213" s="16">
+        <v>1.0530669783922473</v>
+      </c>
+      <c r="F213" s="16">
+        <v>1.0305045085644813</v>
+      </c>
+    </row>
+    <row r="214" spans="2:6">
+      <c r="B214" s="16">
+        <v>1.1319550753635612</v>
+      </c>
+      <c r="C214" s="16">
+        <v>1.0957012793419332</v>
+      </c>
+      <c r="D214" s="16">
+        <v>1.0627025165597535</v>
+      </c>
+      <c r="E214" s="16">
+        <v>1.0331895619671601</v>
+      </c>
+      <c r="F214" s="16">
+        <v>1.0074561547722292</v>
+      </c>
+    </row>
+    <row r="215" spans="2:6">
+      <c r="B215" s="16">
+        <v>1.1201763817055077</v>
+      </c>
+      <c r="C215" s="16">
+        <v>1.0825615109167517</v>
+      </c>
+      <c r="D215" s="16">
+        <v>1.0478896718554391</v>
+      </c>
+      <c r="E215" s="16">
+        <v>1.0163308306316508</v>
+      </c>
+      <c r="F215" s="16">
+        <v>0.98810569218689936</v>
+      </c>
+    </row>
+    <row r="216" spans="2:6">
+      <c r="B216" s="16">
+        <v>1.1097419716861767</v>
+      </c>
+      <c r="C216" s="16">
+        <v>1.0710831070492284</v>
+      </c>
+      <c r="D216" s="16">
+        <v>1.035116759843858</v>
+      </c>
+      <c r="E216" s="16">
+        <v>1.001964461942022</v>
+      </c>
+      <c r="F216" s="16">
+        <v>0.97178873045464365</v>
+      </c>
+    </row>
+    <row r="217" spans="2:6">
+      <c r="B217" s="16">
+        <v>1.1004664370527617</v>
+      </c>
+      <c r="C217" s="16">
+        <v>1.0610137604565357</v>
+      </c>
+      <c r="D217" s="16">
+        <v>1.0240523871013358</v>
+      </c>
+      <c r="E217" s="16">
+        <v>0.98966530409295594</v>
+      </c>
+      <c r="F217" s="16">
+        <v>0.95796870690004621</v>
+      </c>
+    </row>
+    <row r="218" spans="2:6">
+      <c r="B218" s="16">
+        <v>1.092212361051476</v>
+      </c>
+      <c r="C218" s="16">
+        <v>1.0521618321823516</v>
+      </c>
+      <c r="D218" s="16">
+        <v>1.0144409175825797</v>
+      </c>
+      <c r="E218" s="16">
+        <v>0.97910195130430244</v>
+      </c>
+      <c r="F218" s="16">
+        <v>0.94622427776216156</v>
+      </c>
+    </row>
+    <row r="219" spans="2:6">
+      <c r="B219" s="16">
+        <v>1.0848662786569612</v>
+      </c>
+      <c r="C219" s="16">
+        <v>1.0443704714504496</v>
+      </c>
+      <c r="D219" s="16">
+        <v>1.0060742653201511</v>
+      </c>
+      <c r="E219" s="16">
+        <v>0.97000562998060891</v>
+      </c>
+      <c r="F219" s="16">
+        <v>0.93621460710930082</v>
+      </c>
+    </row>
+    <row r="220" spans="2:6">
+      <c r="B220" s="16">
+        <v>1.0782959201645157</v>
+      </c>
+      <c r="C220" s="16">
+        <v>1.0374742574496172</v>
+      </c>
+      <c r="D220" s="16">
+        <v>0.99874749606165136</v>
+      </c>
+      <c r="E220" s="16">
+        <v>0.96212424691120735</v>
+      </c>
+      <c r="F220" s="16">
+        <v>0.92763125786518585</v>
+      </c>
+    </row>
+    <row r="221" spans="2:6">
+      <c r="B221" s="16">
+        <v>1.0724152574404568</v>
+      </c>
+      <c r="C221" s="16">
+        <v>1.0313599947532366</v>
+      </c>
+      <c r="D221" s="16">
+        <v>0.99231521209558504</v>
+      </c>
+      <c r="E221" s="16">
+        <v>0.95527414417073497</v>
+      </c>
+      <c r="F221" s="16">
+        <v>0.92024502707467326</v>
+      </c>
+    </row>
+    <row r="222" spans="2:6">
+      <c r="B222" s="16">
+        <v>1.0671132782980663</v>
+      </c>
+      <c r="C222" s="16">
+        <v>1.0258966427399576</v>
+      </c>
+      <c r="D222" s="16">
+        <v>0.98662225171893603</v>
+      </c>
+      <c r="E222" s="16">
+        <v>0.94927113127647056</v>
+      </c>
+      <c r="F222" s="16">
+        <v>0.91383680957696201</v>
+      </c>
+    </row>
+    <row r="223" spans="2:6">
+      <c r="B223" s="16">
+        <v>1.062182101281689</v>
+      </c>
+      <c r="C223" s="16">
+        <v>1.0208650485738175</v>
+      </c>
+      <c r="D223" s="16">
+        <v>0.98143472424294076</v>
+      </c>
+      <c r="E223" s="16">
+        <v>0.94386246840771415</v>
+      </c>
+      <c r="F223" s="16">
+        <v>0.90813012943279448</v>
+      </c>
+    </row>
+    <row r="224" spans="2:6">
+      <c r="B224" s="16">
+        <v>1.0575226887778579</v>
+      </c>
+      <c r="C224" s="16">
+        <v>1.016154716123306</v>
+      </c>
+      <c r="D224" s="16">
+        <v>0.97662804935424852</v>
+      </c>
+      <c r="E224" s="16">
+        <v>0.93890635363112862</v>
+      </c>
+      <c r="F224" s="16">
+        <v>0.90296221098714324</v>
+      </c>
+    </row>
+    <row r="225" spans="1:6">
+      <c r="B225" s="16">
+        <v>1.0530265341708089</v>
+      </c>
+      <c r="C225" s="16">
+        <v>1.0116491943071206</v>
+      </c>
+      <c r="D225" s="16">
+        <v>0.97207569233860891</v>
+      </c>
+      <c r="E225" s="16">
+        <v>0.93426362360959214</v>
+      </c>
+      <c r="F225" s="16">
+        <v>0.89817822942264158</v>
+      </c>
+    </row>
+    <row r="226" spans="1:6">
+      <c r="B226" s="16">
+        <v>1.0485429707790743</v>
+      </c>
+      <c r="C226" s="16">
+        <v>1.0071940447571912</v>
+      </c>
+      <c r="D226" s="16">
+        <v>0.96761763433803927</v>
+      </c>
+      <c r="E226" s="16">
+        <v>0.92976655060988056</v>
+      </c>
+      <c r="F226" s="16">
+        <v>0.89360023455992066</v>
+      </c>
+    </row>
+    <row r="227" spans="1:6">
+      <c r="B227" s="16">
+        <v>1.0440257584954364</v>
+      </c>
+      <c r="C227" s="16">
+        <v>1.0027371419271554</v>
+      </c>
+      <c r="D227" s="16">
+        <v>0.96319455277591259</v>
+      </c>
+      <c r="E227" s="16">
+        <v>0.92534704649588806</v>
+      </c>
+      <c r="F227" s="16">
+        <v>0.88914949563326706</v>
+      </c>
+    </row>
+    <row r="228" spans="1:6">
+      <c r="B228" s="16">
+        <v>1.0395058973608693</v>
+      </c>
+      <c r="C228" s="16">
+        <v>0.99830209826691318</v>
+      </c>
+      <c r="D228" s="16">
+        <v>0.95882173849681163</v>
+      </c>
+      <c r="E228" s="16">
+        <v>0.92101093794962885</v>
+      </c>
+      <c r="F228" s="16">
+        <v>0.88482098322287117</v>
+      </c>
+    </row>
+    <row r="229" spans="1:6">
+      <c r="B229" s="16">
+        <v>1.0351306940514386</v>
+      </c>
+      <c r="C229" s="16">
+        <v>0.994025438738394</v>
+      </c>
+      <c r="D229" s="16">
+        <v>0.95462438812767314</v>
+      </c>
+      <c r="E229" s="16">
+        <v>0.91687137292914467</v>
+      </c>
+      <c r="F229" s="16">
+        <v>0.88071487040387286</v>
+      </c>
+    </row>
+    <row r="230" spans="1:6">
+      <c r="B230" s="16">
+        <v>1.0311640952198433</v>
+      </c>
+      <c r="C230" s="16">
+        <v>0.99015664752473687</v>
+      </c>
+      <c r="D230" s="16">
+        <v>0.95083732096017259</v>
+      </c>
+      <c r="E230" s="16">
+        <v>0.91314815532547533</v>
+      </c>
+      <c r="F230" s="16">
+        <v>0.8770354217569083</v>
+      </c>
+    </row>
+    <row r="231" spans="1:6">
+      <c r="B231" s="16">
+        <v>1.0279706882460364</v>
+      </c>
+      <c r="C231" s="16">
+        <v>0.98704259805145855</v>
+      </c>
+      <c r="D231" s="16">
+        <v>0.94778977893171634</v>
+      </c>
+      <c r="E231" s="16">
+        <v>0.91015284953722753</v>
+      </c>
+      <c r="F231" s="16">
+        <v>0.8740763296710734</v>
+      </c>
+    </row>
+    <row r="233" spans="1:6">
+      <c r="A233" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="234" spans="1:6">
+      <c r="B234" s="19">
+        <f>AVERAGE(B202:F231)</f>
+        <v>1.0843447692774222</v>
+      </c>
+    </row>
+    <row r="235" spans="1:6">
+      <c r="B235" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="236" spans="1:6">
+      <c r="B236" t="s">
+        <v>28</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/data_prep/input_data.xlsx
+++ b/data_prep/input_data.xlsx
@@ -4,13 +4,13 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="180" windowWidth="12435" windowHeight="10485" activeTab="2"/>
+    <workbookView xWindow="360" yWindow="180" windowWidth="12435" windowHeight="10485" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Introduction" sheetId="4" r:id="rId1"/>
     <sheet name="FertilityMotherRates" sheetId="1" r:id="rId2"/>
     <sheet name="FertilityMotherDieaseMultiplier" sheetId="2" r:id="rId3"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId4"/>
+    <sheet name="Dropout" sheetId="3" r:id="rId4"/>
   </sheets>
   <externalReferences>
     <externalReference r:id="rId5"/>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="56">
   <si>
     <t>Age</t>
   </si>
@@ -140,12 +140,93 @@
   <si>
     <t>Not sure that this is very realistic</t>
   </si>
+  <si>
+    <t>The raw values from Crhis</t>
+  </si>
+  <si>
+    <t>f.l.X0</t>
+  </si>
+  <si>
+    <t>f.l.X1</t>
+  </si>
+  <si>
+    <t>f.l.X2</t>
+  </si>
+  <si>
+    <t>f.l.X3</t>
+  </si>
+  <si>
+    <t>f.l.X4</t>
+  </si>
+  <si>
+    <t>f.l.X5</t>
+  </si>
+  <si>
+    <t>f.h.X0</t>
+  </si>
+  <si>
+    <t>f.h.X1</t>
+  </si>
+  <si>
+    <t>f.h.X2</t>
+  </si>
+  <si>
+    <t>f.h.X3</t>
+  </si>
+  <si>
+    <t>f.h.X4</t>
+  </si>
+  <si>
+    <t>f.h.X5</t>
+  </si>
+  <si>
+    <t>m.l.X0</t>
+  </si>
+  <si>
+    <t>m.l.X1</t>
+  </si>
+  <si>
+    <t>m.l.X2</t>
+  </si>
+  <si>
+    <t>m.l.X3</t>
+  </si>
+  <si>
+    <t>m.l.X4</t>
+  </si>
+  <si>
+    <t>m.l.X5</t>
+  </si>
+  <si>
+    <t>m.h.X0</t>
+  </si>
+  <si>
+    <t>m.h.X1</t>
+  </si>
+  <si>
+    <t>m.h.X2</t>
+  </si>
+  <si>
+    <t>m.h.X3</t>
+  </si>
+  <si>
+    <t>m.h.X4</t>
+  </si>
+  <si>
+    <t>m.h.X5</t>
+  </si>
+  <si>
+    <t>Round them</t>
+  </si>
+  <si>
+    <t>Now just copy and paste</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="19">
+  <numFmts count="20">
     <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="0.0000"/>
     <numFmt numFmtId="166" formatCode="0.000"/>
@@ -165,6 +246,7 @@
     <numFmt numFmtId="180" formatCode="_-* #,##0.00\ _F_-;\-* #,##0.00\ _F_-;_-* &quot;-&quot;??\ _F_-;_-@_-"/>
     <numFmt numFmtId="181" formatCode="_ * #,##0_)\ _F_ ;_ * \(#,##0\)\ _F_ ;_ * &quot;-&quot;_)\ _F_ ;_ @_ "/>
     <numFmt numFmtId="182" formatCode="0.00000"/>
+    <numFmt numFmtId="183" formatCode="0.000000"/>
   </numFmts>
   <fonts count="12">
     <font>
@@ -411,7 +493,7 @@
     <xf numFmtId="10" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFont="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="174" fontId="2" fillId="0" borderId="4" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -440,6 +522,10 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="182" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="182" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="182" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="183" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="28">
     <cellStyle name="Bold 11" xfId="2"/>
@@ -4957,8 +5043,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AG236"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -13436,12 +13522,2373 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:Z31"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="Q24" sqref="Q24"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="7.42578125" customWidth="1"/>
+    <col min="2" max="2" width="9.42578125" customWidth="1"/>
+    <col min="3" max="26" width="8.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:26">
+      <c r="A1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:26">
+      <c r="B2" s="21"/>
+      <c r="C2" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="E2" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="F2" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="G2" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="H2" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="I2" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="J2" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="K2" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="L2" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="M2" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="N2" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="O2" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="P2" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q2" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="R2" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="S2" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="T2" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="U2" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="V2" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="W2" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="X2" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="Y2" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z2" s="21" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26">
+      <c r="B3" s="21">
+        <v>6</v>
+      </c>
+      <c r="C3" s="23">
+        <v>0.15258494117328936</v>
+      </c>
+      <c r="D3" s="23">
+        <v>0.15258494117328936</v>
+      </c>
+      <c r="E3" s="23">
+        <v>0.18310192940794723</v>
+      </c>
+      <c r="F3" s="23">
+        <v>0.16784343529061829</v>
+      </c>
+      <c r="G3" s="23">
+        <v>0.22887741175993404</v>
+      </c>
+      <c r="H3" s="23">
+        <v>0.30516988234657871</v>
+      </c>
+      <c r="I3" s="23">
+        <v>4.6044101936074444E-2</v>
+      </c>
+      <c r="J3" s="23">
+        <v>4.6044101936074444E-2</v>
+      </c>
+      <c r="K3" s="23">
+        <v>5.5252922323289329E-2</v>
+      </c>
+      <c r="L3" s="23">
+        <v>5.064851212968189E-2</v>
+      </c>
+      <c r="M3" s="23">
+        <v>6.9066152904111666E-2</v>
+      </c>
+      <c r="N3" s="23">
+        <v>9.2088203872148888E-2</v>
+      </c>
+      <c r="O3" s="23">
+        <v>0.15258494117328936</v>
+      </c>
+      <c r="P3" s="23">
+        <v>0.15258494117328936</v>
+      </c>
+      <c r="Q3" s="23">
+        <v>0.18310192940794723</v>
+      </c>
+      <c r="R3" s="23">
+        <v>0.16784343529061829</v>
+      </c>
+      <c r="S3" s="23">
+        <v>0.25176515293592744</v>
+      </c>
+      <c r="T3" s="23">
+        <v>0.30516988234657871</v>
+      </c>
+      <c r="U3" s="23">
+        <v>4.6044101936074444E-2</v>
+      </c>
+      <c r="V3" s="23">
+        <v>4.6044101936074444E-2</v>
+      </c>
+      <c r="W3" s="23">
+        <v>5.5252922323289329E-2</v>
+      </c>
+      <c r="X3" s="23">
+        <v>5.064851212968189E-2</v>
+      </c>
+      <c r="Y3" s="23">
+        <v>7.5972768194522838E-2</v>
+      </c>
+      <c r="Z3" s="23">
+        <v>9.2088203872148888E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26">
+      <c r="B4" s="21">
+        <v>7</v>
+      </c>
+      <c r="C4" s="23">
+        <v>7.6292470586644678E-2</v>
+      </c>
+      <c r="D4" s="23">
+        <v>7.6292470586644678E-2</v>
+      </c>
+      <c r="E4" s="23">
+        <v>9.1550964703973614E-2</v>
+      </c>
+      <c r="F4" s="23">
+        <v>8.3921717645309146E-2</v>
+      </c>
+      <c r="G4" s="23">
+        <v>0.11443870587996702</v>
+      </c>
+      <c r="H4" s="23">
+        <v>0.15258494117328936</v>
+      </c>
+      <c r="I4" s="23">
+        <v>2.3022050968037222E-2</v>
+      </c>
+      <c r="J4" s="23">
+        <v>2.3022050968037222E-2</v>
+      </c>
+      <c r="K4" s="23">
+        <v>2.7626461161644664E-2</v>
+      </c>
+      <c r="L4" s="23">
+        <v>2.5324256064840945E-2</v>
+      </c>
+      <c r="M4" s="23">
+        <v>3.4533076452055833E-2</v>
+      </c>
+      <c r="N4" s="23">
+        <v>4.6044101936074444E-2</v>
+      </c>
+      <c r="O4" s="23">
+        <v>7.6292470586644678E-2</v>
+      </c>
+      <c r="P4" s="23">
+        <v>7.6292470586644678E-2</v>
+      </c>
+      <c r="Q4" s="23">
+        <v>9.1550964703973614E-2</v>
+      </c>
+      <c r="R4" s="23">
+        <v>8.3921717645309146E-2</v>
+      </c>
+      <c r="S4" s="23">
+        <v>0.12588257646796372</v>
+      </c>
+      <c r="T4" s="23">
+        <v>0.15258494117328936</v>
+      </c>
+      <c r="U4" s="23">
+        <v>2.3022050968037222E-2</v>
+      </c>
+      <c r="V4" s="23">
+        <v>2.3022050968037222E-2</v>
+      </c>
+      <c r="W4" s="23">
+        <v>2.7626461161644664E-2</v>
+      </c>
+      <c r="X4" s="23">
+        <v>2.5324256064840945E-2</v>
+      </c>
+      <c r="Y4" s="23">
+        <v>3.7986384097261419E-2</v>
+      </c>
+      <c r="Z4" s="23">
+        <v>4.6044101936074444E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26">
+      <c r="B5" s="21">
+        <v>8</v>
+      </c>
+      <c r="C5" s="23">
+        <v>7.6292470586644678E-2</v>
+      </c>
+      <c r="D5" s="23">
+        <v>7.6292470586644678E-2</v>
+      </c>
+      <c r="E5" s="23">
+        <v>9.1550964703973614E-2</v>
+      </c>
+      <c r="F5" s="23">
+        <v>8.3921717645309146E-2</v>
+      </c>
+      <c r="G5" s="23">
+        <v>0.11443870587996702</v>
+      </c>
+      <c r="H5" s="23">
+        <v>0.15258494117328936</v>
+      </c>
+      <c r="I5" s="23">
+        <v>2.3022050968037222E-2</v>
+      </c>
+      <c r="J5" s="23">
+        <v>2.3022050968037222E-2</v>
+      </c>
+      <c r="K5" s="23">
+        <v>2.7626461161644664E-2</v>
+      </c>
+      <c r="L5" s="23">
+        <v>2.5324256064840945E-2</v>
+      </c>
+      <c r="M5" s="23">
+        <v>3.4533076452055833E-2</v>
+      </c>
+      <c r="N5" s="23">
+        <v>4.6044101936074444E-2</v>
+      </c>
+      <c r="O5" s="23">
+        <v>7.6292470586644678E-2</v>
+      </c>
+      <c r="P5" s="23">
+        <v>7.6292470586644678E-2</v>
+      </c>
+      <c r="Q5" s="23">
+        <v>9.1550964703973614E-2</v>
+      </c>
+      <c r="R5" s="23">
+        <v>8.3921717645309146E-2</v>
+      </c>
+      <c r="S5" s="23">
+        <v>0.12588257646796372</v>
+      </c>
+      <c r="T5" s="23">
+        <v>0.15258494117328936</v>
+      </c>
+      <c r="U5" s="23">
+        <v>2.3022050968037222E-2</v>
+      </c>
+      <c r="V5" s="23">
+        <v>2.3022050968037222E-2</v>
+      </c>
+      <c r="W5" s="23">
+        <v>2.7626461161644664E-2</v>
+      </c>
+      <c r="X5" s="23">
+        <v>2.5324256064840945E-2</v>
+      </c>
+      <c r="Y5" s="23">
+        <v>3.7986384097261419E-2</v>
+      </c>
+      <c r="Z5" s="23">
+        <v>4.6044101936074444E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26">
+      <c r="B6" s="21">
+        <v>9</v>
+      </c>
+      <c r="C6" s="23">
+        <v>7.6292470586644678E-2</v>
+      </c>
+      <c r="D6" s="23">
+        <v>7.6292470586644678E-2</v>
+      </c>
+      <c r="E6" s="23">
+        <v>9.1550964703973614E-2</v>
+      </c>
+      <c r="F6" s="23">
+        <v>8.3921717645309146E-2</v>
+      </c>
+      <c r="G6" s="23">
+        <v>0.11443870587996702</v>
+      </c>
+      <c r="H6" s="23">
+        <v>0.15258494117328936</v>
+      </c>
+      <c r="I6" s="23">
+        <v>2.3022050968037222E-2</v>
+      </c>
+      <c r="J6" s="23">
+        <v>2.3022050968037222E-2</v>
+      </c>
+      <c r="K6" s="23">
+        <v>2.7626461161644664E-2</v>
+      </c>
+      <c r="L6" s="23">
+        <v>2.5324256064840945E-2</v>
+      </c>
+      <c r="M6" s="23">
+        <v>3.4533076452055833E-2</v>
+      </c>
+      <c r="N6" s="23">
+        <v>4.6044101936074444E-2</v>
+      </c>
+      <c r="O6" s="23">
+        <v>7.6292470586644678E-2</v>
+      </c>
+      <c r="P6" s="23">
+        <v>7.6292470586644678E-2</v>
+      </c>
+      <c r="Q6" s="23">
+        <v>9.1550964703973614E-2</v>
+      </c>
+      <c r="R6" s="23">
+        <v>8.3921717645309146E-2</v>
+      </c>
+      <c r="S6" s="23">
+        <v>0.12588257646796372</v>
+      </c>
+      <c r="T6" s="23">
+        <v>0.15258494117328936</v>
+      </c>
+      <c r="U6" s="23">
+        <v>2.3022050968037222E-2</v>
+      </c>
+      <c r="V6" s="23">
+        <v>2.3022050968037222E-2</v>
+      </c>
+      <c r="W6" s="23">
+        <v>2.7626461161644664E-2</v>
+      </c>
+      <c r="X6" s="23">
+        <v>2.5324256064840945E-2</v>
+      </c>
+      <c r="Y6" s="23">
+        <v>3.7986384097261419E-2</v>
+      </c>
+      <c r="Z6" s="23">
+        <v>4.6044101936074444E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26">
+      <c r="B7" s="21">
+        <v>10</v>
+      </c>
+      <c r="C7" s="23">
+        <v>7.6292470586644678E-2</v>
+      </c>
+      <c r="D7" s="23">
+        <v>7.6292470586644678E-2</v>
+      </c>
+      <c r="E7" s="23">
+        <v>9.1550964703973614E-2</v>
+      </c>
+      <c r="F7" s="23">
+        <v>8.3921717645309146E-2</v>
+      </c>
+      <c r="G7" s="23">
+        <v>0.11443870587996702</v>
+      </c>
+      <c r="H7" s="23">
+        <v>0.15258494117328936</v>
+      </c>
+      <c r="I7" s="23">
+        <v>2.3022050968037222E-2</v>
+      </c>
+      <c r="J7" s="23">
+        <v>2.3022050968037222E-2</v>
+      </c>
+      <c r="K7" s="23">
+        <v>2.7626461161644664E-2</v>
+      </c>
+      <c r="L7" s="23">
+        <v>2.5324256064840945E-2</v>
+      </c>
+      <c r="M7" s="23">
+        <v>3.4533076452055833E-2</v>
+      </c>
+      <c r="N7" s="23">
+        <v>4.6044101936074444E-2</v>
+      </c>
+      <c r="O7" s="23">
+        <v>7.6292470586644678E-2</v>
+      </c>
+      <c r="P7" s="23">
+        <v>7.6292470586644678E-2</v>
+      </c>
+      <c r="Q7" s="23">
+        <v>9.1550964703973614E-2</v>
+      </c>
+      <c r="R7" s="23">
+        <v>8.3921717645309146E-2</v>
+      </c>
+      <c r="S7" s="23">
+        <v>0.12588257646796372</v>
+      </c>
+      <c r="T7" s="23">
+        <v>0.15258494117328936</v>
+      </c>
+      <c r="U7" s="23">
+        <v>2.3022050968037222E-2</v>
+      </c>
+      <c r="V7" s="23">
+        <v>2.3022050968037222E-2</v>
+      </c>
+      <c r="W7" s="23">
+        <v>2.7626461161644664E-2</v>
+      </c>
+      <c r="X7" s="23">
+        <v>2.5324256064840945E-2</v>
+      </c>
+      <c r="Y7" s="23">
+        <v>3.7986384097261419E-2</v>
+      </c>
+      <c r="Z7" s="23">
+        <v>4.6044101936074444E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26">
+      <c r="B8" s="21">
+        <v>11</v>
+      </c>
+      <c r="C8" s="23">
+        <v>7.6292470586644678E-2</v>
+      </c>
+      <c r="D8" s="23">
+        <v>7.6292470586644678E-2</v>
+      </c>
+      <c r="E8" s="23">
+        <v>9.1550964703973614E-2</v>
+      </c>
+      <c r="F8" s="23">
+        <v>8.3921717645309146E-2</v>
+      </c>
+      <c r="G8" s="23">
+        <v>0.11443870587996702</v>
+      </c>
+      <c r="H8" s="23">
+        <v>0.15258494117328936</v>
+      </c>
+      <c r="I8" s="23">
+        <v>2.3022050968037222E-2</v>
+      </c>
+      <c r="J8" s="23">
+        <v>2.3022050968037222E-2</v>
+      </c>
+      <c r="K8" s="23">
+        <v>2.7626461161644664E-2</v>
+      </c>
+      <c r="L8" s="23">
+        <v>2.5324256064840945E-2</v>
+      </c>
+      <c r="M8" s="23">
+        <v>3.4533076452055833E-2</v>
+      </c>
+      <c r="N8" s="23">
+        <v>4.6044101936074444E-2</v>
+      </c>
+      <c r="O8" s="23">
+        <v>7.6292470586644678E-2</v>
+      </c>
+      <c r="P8" s="23">
+        <v>7.6292470586644678E-2</v>
+      </c>
+      <c r="Q8" s="23">
+        <v>9.1550964703973614E-2</v>
+      </c>
+      <c r="R8" s="23">
+        <v>8.3921717645309146E-2</v>
+      </c>
+      <c r="S8" s="23">
+        <v>0.12588257646796372</v>
+      </c>
+      <c r="T8" s="23">
+        <v>0.15258494117328936</v>
+      </c>
+      <c r="U8" s="23">
+        <v>2.3022050968037222E-2</v>
+      </c>
+      <c r="V8" s="23">
+        <v>2.3022050968037222E-2</v>
+      </c>
+      <c r="W8" s="23">
+        <v>2.7626461161644664E-2</v>
+      </c>
+      <c r="X8" s="23">
+        <v>2.5324256064840945E-2</v>
+      </c>
+      <c r="Y8" s="23">
+        <v>3.7986384097261419E-2</v>
+      </c>
+      <c r="Z8" s="23">
+        <v>4.6044101936074444E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26">
+      <c r="B9" s="21">
+        <v>12</v>
+      </c>
+      <c r="C9" s="23">
+        <v>7.6292470586644678E-2</v>
+      </c>
+      <c r="D9" s="23">
+        <v>7.6292470586644678E-2</v>
+      </c>
+      <c r="E9" s="23">
+        <v>9.1550964703973614E-2</v>
+      </c>
+      <c r="F9" s="23">
+        <v>8.3921717645309146E-2</v>
+      </c>
+      <c r="G9" s="23">
+        <v>0.11443870587996702</v>
+      </c>
+      <c r="H9" s="23">
+        <v>0.15258494117328936</v>
+      </c>
+      <c r="I9" s="23">
+        <v>2.3022050968037222E-2</v>
+      </c>
+      <c r="J9" s="23">
+        <v>2.3022050968037222E-2</v>
+      </c>
+      <c r="K9" s="23">
+        <v>2.7626461161644664E-2</v>
+      </c>
+      <c r="L9" s="23">
+        <v>2.5324256064840945E-2</v>
+      </c>
+      <c r="M9" s="23">
+        <v>3.4533076452055833E-2</v>
+      </c>
+      <c r="N9" s="23">
+        <v>4.6044101936074444E-2</v>
+      </c>
+      <c r="O9" s="23">
+        <v>7.6292470586644678E-2</v>
+      </c>
+      <c r="P9" s="23">
+        <v>7.6292470586644678E-2</v>
+      </c>
+      <c r="Q9" s="23">
+        <v>9.1550964703973614E-2</v>
+      </c>
+      <c r="R9" s="23">
+        <v>8.3921717645309146E-2</v>
+      </c>
+      <c r="S9" s="23">
+        <v>0.12588257646796372</v>
+      </c>
+      <c r="T9" s="23">
+        <v>0.15258494117328936</v>
+      </c>
+      <c r="U9" s="23">
+        <v>2.3022050968037222E-2</v>
+      </c>
+      <c r="V9" s="23">
+        <v>2.3022050968037222E-2</v>
+      </c>
+      <c r="W9" s="23">
+        <v>2.7626461161644664E-2</v>
+      </c>
+      <c r="X9" s="23">
+        <v>2.5324256064840945E-2</v>
+      </c>
+      <c r="Y9" s="23">
+        <v>3.7986384097261419E-2</v>
+      </c>
+      <c r="Z9" s="23">
+        <v>4.6044101936074444E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26">
+      <c r="B10" s="21">
+        <v>13</v>
+      </c>
+      <c r="C10" s="23">
+        <v>6.1033976469315743E-2</v>
+      </c>
+      <c r="D10" s="23">
+        <v>6.1033976469315743E-2</v>
+      </c>
+      <c r="E10" s="23">
+        <v>7.3240771763178891E-2</v>
+      </c>
+      <c r="F10" s="23">
+        <v>6.7137374116247317E-2</v>
+      </c>
+      <c r="G10" s="23">
+        <v>9.1550964703973614E-2</v>
+      </c>
+      <c r="H10" s="23">
+        <v>0.12206795293863149</v>
+      </c>
+      <c r="I10" s="23">
+        <v>1.841764077442978E-2</v>
+      </c>
+      <c r="J10" s="23">
+        <v>1.841764077442978E-2</v>
+      </c>
+      <c r="K10" s="23">
+        <v>2.2101168929315736E-2</v>
+      </c>
+      <c r="L10" s="23">
+        <v>2.0259404851872758E-2</v>
+      </c>
+      <c r="M10" s="23">
+        <v>2.7626461161644668E-2</v>
+      </c>
+      <c r="N10" s="23">
+        <v>3.6835281548859559E-2</v>
+      </c>
+      <c r="O10" s="23">
+        <v>6.1033976469315743E-2</v>
+      </c>
+      <c r="P10" s="23">
+        <v>6.1033976469315743E-2</v>
+      </c>
+      <c r="Q10" s="23">
+        <v>7.3240771763178891E-2</v>
+      </c>
+      <c r="R10" s="23">
+        <v>6.7137374116247317E-2</v>
+      </c>
+      <c r="S10" s="23">
+        <v>0.10070606117437098</v>
+      </c>
+      <c r="T10" s="23">
+        <v>0.12206795293863149</v>
+      </c>
+      <c r="U10" s="23">
+        <v>1.841764077442978E-2</v>
+      </c>
+      <c r="V10" s="23">
+        <v>1.841764077442978E-2</v>
+      </c>
+      <c r="W10" s="23">
+        <v>2.2101168929315736E-2</v>
+      </c>
+      <c r="X10" s="23">
+        <v>2.0259404851872758E-2</v>
+      </c>
+      <c r="Y10" s="23">
+        <v>3.0389107277809135E-2</v>
+      </c>
+      <c r="Z10" s="23">
+        <v>3.6835281548859559E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26">
+      <c r="B11" s="21">
+        <v>14</v>
+      </c>
+      <c r="C11" s="23">
+        <v>6.1033976469315743E-2</v>
+      </c>
+      <c r="D11" s="23">
+        <v>6.1033976469315743E-2</v>
+      </c>
+      <c r="E11" s="23">
+        <v>7.3240771763178891E-2</v>
+      </c>
+      <c r="F11" s="23">
+        <v>6.7137374116247317E-2</v>
+      </c>
+      <c r="G11" s="23">
+        <v>9.1550964703973614E-2</v>
+      </c>
+      <c r="H11" s="23">
+        <v>0.12206795293863149</v>
+      </c>
+      <c r="I11" s="23">
+        <v>1.841764077442978E-2</v>
+      </c>
+      <c r="J11" s="23">
+        <v>1.841764077442978E-2</v>
+      </c>
+      <c r="K11" s="23">
+        <v>2.2101168929315736E-2</v>
+      </c>
+      <c r="L11" s="23">
+        <v>2.0259404851872758E-2</v>
+      </c>
+      <c r="M11" s="23">
+        <v>2.7626461161644668E-2</v>
+      </c>
+      <c r="N11" s="23">
+        <v>3.6835281548859559E-2</v>
+      </c>
+      <c r="O11" s="23">
+        <v>6.1033976469315743E-2</v>
+      </c>
+      <c r="P11" s="23">
+        <v>6.1033976469315743E-2</v>
+      </c>
+      <c r="Q11" s="23">
+        <v>7.3240771763178891E-2</v>
+      </c>
+      <c r="R11" s="23">
+        <v>6.7137374116247317E-2</v>
+      </c>
+      <c r="S11" s="23">
+        <v>0.10070606117437098</v>
+      </c>
+      <c r="T11" s="23">
+        <v>0.12206795293863149</v>
+      </c>
+      <c r="U11" s="23">
+        <v>1.841764077442978E-2</v>
+      </c>
+      <c r="V11" s="23">
+        <v>1.841764077442978E-2</v>
+      </c>
+      <c r="W11" s="23">
+        <v>2.2101168929315736E-2</v>
+      </c>
+      <c r="X11" s="23">
+        <v>2.0259404851872758E-2</v>
+      </c>
+      <c r="Y11" s="23">
+        <v>3.0389107277809135E-2</v>
+      </c>
+      <c r="Z11" s="23">
+        <v>3.6835281548859559E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26">
+      <c r="B12" s="21">
+        <v>15</v>
+      </c>
+      <c r="C12" s="23">
+        <v>6.1033976469315743E-2</v>
+      </c>
+      <c r="D12" s="23">
+        <v>6.1033976469315743E-2</v>
+      </c>
+      <c r="E12" s="23">
+        <v>7.3240771763178891E-2</v>
+      </c>
+      <c r="F12" s="23">
+        <v>6.7137374116247317E-2</v>
+      </c>
+      <c r="G12" s="23">
+        <v>9.1550964703973614E-2</v>
+      </c>
+      <c r="H12" s="23">
+        <v>0.12206795293863149</v>
+      </c>
+      <c r="I12" s="23">
+        <v>1.841764077442978E-2</v>
+      </c>
+      <c r="J12" s="23">
+        <v>1.841764077442978E-2</v>
+      </c>
+      <c r="K12" s="23">
+        <v>2.2101168929315736E-2</v>
+      </c>
+      <c r="L12" s="23">
+        <v>2.0259404851872758E-2</v>
+      </c>
+      <c r="M12" s="23">
+        <v>2.7626461161644668E-2</v>
+      </c>
+      <c r="N12" s="23">
+        <v>3.6835281548859559E-2</v>
+      </c>
+      <c r="O12" s="23">
+        <v>6.1033976469315743E-2</v>
+      </c>
+      <c r="P12" s="23">
+        <v>6.1033976469315743E-2</v>
+      </c>
+      <c r="Q12" s="23">
+        <v>7.3240771763178891E-2</v>
+      </c>
+      <c r="R12" s="23">
+        <v>6.7137374116247317E-2</v>
+      </c>
+      <c r="S12" s="23">
+        <v>0.10070606117437098</v>
+      </c>
+      <c r="T12" s="23">
+        <v>0.12206795293863149</v>
+      </c>
+      <c r="U12" s="23">
+        <v>1.841764077442978E-2</v>
+      </c>
+      <c r="V12" s="23">
+        <v>1.841764077442978E-2</v>
+      </c>
+      <c r="W12" s="23">
+        <v>2.2101168929315736E-2</v>
+      </c>
+      <c r="X12" s="23">
+        <v>2.0259404851872758E-2</v>
+      </c>
+      <c r="Y12" s="23">
+        <v>3.0389107277809135E-2</v>
+      </c>
+      <c r="Z12" s="23">
+        <v>3.6835281548859559E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26">
+      <c r="B13" s="21">
+        <v>16</v>
+      </c>
+      <c r="C13" s="23">
+        <v>0.11443870587996702</v>
+      </c>
+      <c r="D13" s="23">
+        <v>0.11443870587996702</v>
+      </c>
+      <c r="E13" s="23">
+        <v>0.13732644705596042</v>
+      </c>
+      <c r="F13" s="23">
+        <v>0.12588257646796372</v>
+      </c>
+      <c r="G13" s="23">
+        <v>0.17165805881995053</v>
+      </c>
+      <c r="H13" s="23">
+        <v>0.22887741175993404</v>
+      </c>
+      <c r="I13" s="23">
+        <v>2.7626461161644664E-2</v>
+      </c>
+      <c r="J13" s="23">
+        <v>2.7626461161644664E-2</v>
+      </c>
+      <c r="K13" s="23">
+        <v>3.3151753393973596E-2</v>
+      </c>
+      <c r="L13" s="23">
+        <v>3.0389107277809132E-2</v>
+      </c>
+      <c r="M13" s="23">
+        <v>4.1439691742466998E-2</v>
+      </c>
+      <c r="N13" s="23">
+        <v>5.5252922323289329E-2</v>
+      </c>
+      <c r="O13" s="23">
+        <v>0.11443870587996702</v>
+      </c>
+      <c r="P13" s="23">
+        <v>0.11443870587996702</v>
+      </c>
+      <c r="Q13" s="23">
+        <v>0.13732644705596042</v>
+      </c>
+      <c r="R13" s="23">
+        <v>0.12588257646796372</v>
+      </c>
+      <c r="S13" s="23">
+        <v>0.18882386470194557</v>
+      </c>
+      <c r="T13" s="23">
+        <v>0.22887741175993404</v>
+      </c>
+      <c r="U13" s="23">
+        <v>2.7626461161644664E-2</v>
+      </c>
+      <c r="V13" s="23">
+        <v>2.7626461161644664E-2</v>
+      </c>
+      <c r="W13" s="23">
+        <v>3.3151753393973596E-2</v>
+      </c>
+      <c r="X13" s="23">
+        <v>3.0389107277809132E-2</v>
+      </c>
+      <c r="Y13" s="23">
+        <v>4.5583660916713696E-2</v>
+      </c>
+      <c r="Z13" s="23">
+        <v>5.5252922323289329E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26">
+      <c r="B14" s="21">
+        <v>17</v>
+      </c>
+      <c r="C14" s="23">
+        <v>0.11443870587996702</v>
+      </c>
+      <c r="D14" s="23">
+        <v>0.11443870587996702</v>
+      </c>
+      <c r="E14" s="23">
+        <v>0.13732644705596042</v>
+      </c>
+      <c r="F14" s="23">
+        <v>0.12588257646796372</v>
+      </c>
+      <c r="G14" s="23">
+        <v>0.17165805881995053</v>
+      </c>
+      <c r="H14" s="23">
+        <v>0.22887741175993404</v>
+      </c>
+      <c r="I14" s="23">
+        <v>2.7626461161644664E-2</v>
+      </c>
+      <c r="J14" s="23">
+        <v>2.7626461161644664E-2</v>
+      </c>
+      <c r="K14" s="23">
+        <v>3.3151753393973596E-2</v>
+      </c>
+      <c r="L14" s="23">
+        <v>3.0389107277809132E-2</v>
+      </c>
+      <c r="M14" s="23">
+        <v>4.1439691742466998E-2</v>
+      </c>
+      <c r="N14" s="23">
+        <v>5.5252922323289329E-2</v>
+      </c>
+      <c r="O14" s="23">
+        <v>0.11443870587996702</v>
+      </c>
+      <c r="P14" s="23">
+        <v>0.11443870587996702</v>
+      </c>
+      <c r="Q14" s="23">
+        <v>0.13732644705596042</v>
+      </c>
+      <c r="R14" s="23">
+        <v>0.12588257646796372</v>
+      </c>
+      <c r="S14" s="23">
+        <v>0.18882386470194557</v>
+      </c>
+      <c r="T14" s="23">
+        <v>0.22887741175993404</v>
+      </c>
+      <c r="U14" s="23">
+        <v>2.7626461161644664E-2</v>
+      </c>
+      <c r="V14" s="23">
+        <v>2.7626461161644664E-2</v>
+      </c>
+      <c r="W14" s="23">
+        <v>3.3151753393973596E-2</v>
+      </c>
+      <c r="X14" s="23">
+        <v>3.0389107277809132E-2</v>
+      </c>
+      <c r="Y14" s="23">
+        <v>4.5583660916713696E-2</v>
+      </c>
+      <c r="Z14" s="23">
+        <v>5.5252922323289329E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26">
+      <c r="B15" s="20"/>
+      <c r="C15" s="20"/>
+      <c r="D15" s="20"/>
+      <c r="E15" s="20"/>
+      <c r="F15" s="20"/>
+      <c r="G15" s="20"/>
+      <c r="H15" s="20"/>
+      <c r="I15" s="20"/>
+      <c r="J15" s="20"/>
+      <c r="K15" s="20"/>
+      <c r="L15" s="20"/>
+      <c r="M15" s="20"/>
+      <c r="N15" s="20"/>
+      <c r="O15" s="20"/>
+      <c r="P15" s="20"/>
+      <c r="Q15" s="20"/>
+      <c r="R15" s="20"/>
+      <c r="S15" s="20"/>
+      <c r="T15" s="20"/>
+      <c r="U15" s="20"/>
+      <c r="V15" s="20"/>
+      <c r="W15" s="20"/>
+      <c r="X15" s="20"/>
+      <c r="Y15" s="20"/>
+      <c r="Z15" s="20"/>
+    </row>
+    <row r="16" spans="1:26">
+      <c r="A16" t="s">
+        <v>54</v>
+      </c>
+      <c r="B16" s="20"/>
+      <c r="C16" s="20"/>
+      <c r="D16" s="20"/>
+      <c r="E16" s="20"/>
+      <c r="F16" s="20"/>
+      <c r="G16" s="20"/>
+      <c r="H16" s="20"/>
+      <c r="I16" s="20"/>
+      <c r="J16" s="20"/>
+      <c r="K16" s="20"/>
+      <c r="L16" s="20"/>
+      <c r="M16" s="20"/>
+      <c r="N16" s="20"/>
+      <c r="O16" s="20"/>
+      <c r="P16" s="20"/>
+      <c r="Q16" s="20"/>
+      <c r="R16" s="20"/>
+      <c r="S16" s="20"/>
+      <c r="T16" s="20"/>
+      <c r="U16" s="20"/>
+      <c r="V16" s="20"/>
+      <c r="W16" s="20"/>
+      <c r="X16" s="20"/>
+      <c r="Y16" s="20"/>
+      <c r="Z16" s="20"/>
+    </row>
+    <row r="17" spans="1:26">
+      <c r="B17" s="21"/>
+      <c r="C17" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="D17" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="E17" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="F17" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="G17" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="H17" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="I17" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="J17" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="K17" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="L17" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="M17" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="N17" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="O17" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="P17" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q17" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="R17" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="S17" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="T17" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="U17" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="V17" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="W17" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="X17" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="Y17" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z17" s="21" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="18" spans="1:26">
+      <c r="B18" s="21">
+        <v>6</v>
+      </c>
+      <c r="C18" s="22">
+        <f>ROUND(C3, 5)</f>
+        <v>0.15257999999999999</v>
+      </c>
+      <c r="D18" s="22">
+        <f t="shared" ref="D18:Z29" si="0">ROUND(D3, 5)</f>
+        <v>0.15257999999999999</v>
+      </c>
+      <c r="E18" s="22">
+        <f t="shared" si="0"/>
+        <v>0.18310000000000001</v>
+      </c>
+      <c r="F18" s="22">
+        <f t="shared" si="0"/>
+        <v>0.16783999999999999</v>
+      </c>
+      <c r="G18" s="22">
+        <f t="shared" si="0"/>
+        <v>0.22888</v>
+      </c>
+      <c r="H18" s="22">
+        <f t="shared" si="0"/>
+        <v>0.30517</v>
+      </c>
+      <c r="I18" s="22">
+        <f t="shared" si="0"/>
+        <v>4.6039999999999998E-2</v>
+      </c>
+      <c r="J18" s="22">
+        <f t="shared" si="0"/>
+        <v>4.6039999999999998E-2</v>
+      </c>
+      <c r="K18" s="22">
+        <f t="shared" si="0"/>
+        <v>5.525E-2</v>
+      </c>
+      <c r="L18" s="22">
+        <f t="shared" si="0"/>
+        <v>5.0650000000000001E-2</v>
+      </c>
+      <c r="M18" s="22">
+        <f t="shared" si="0"/>
+        <v>6.9070000000000006E-2</v>
+      </c>
+      <c r="N18" s="22">
+        <f t="shared" si="0"/>
+        <v>9.2090000000000005E-2</v>
+      </c>
+      <c r="O18" s="22">
+        <f t="shared" si="0"/>
+        <v>0.15257999999999999</v>
+      </c>
+      <c r="P18" s="22">
+        <f t="shared" si="0"/>
+        <v>0.15257999999999999</v>
+      </c>
+      <c r="Q18" s="22">
+        <f t="shared" si="0"/>
+        <v>0.18310000000000001</v>
+      </c>
+      <c r="R18" s="22">
+        <f t="shared" si="0"/>
+        <v>0.16783999999999999</v>
+      </c>
+      <c r="S18" s="22">
+        <f t="shared" si="0"/>
+        <v>0.25176999999999999</v>
+      </c>
+      <c r="T18" s="22">
+        <f t="shared" si="0"/>
+        <v>0.30517</v>
+      </c>
+      <c r="U18" s="22">
+        <f t="shared" si="0"/>
+        <v>4.6039999999999998E-2</v>
+      </c>
+      <c r="V18" s="22">
+        <f t="shared" si="0"/>
+        <v>4.6039999999999998E-2</v>
+      </c>
+      <c r="W18" s="22">
+        <f t="shared" si="0"/>
+        <v>5.525E-2</v>
+      </c>
+      <c r="X18" s="22">
+        <f t="shared" si="0"/>
+        <v>5.0650000000000001E-2</v>
+      </c>
+      <c r="Y18" s="22">
+        <f t="shared" si="0"/>
+        <v>7.5969999999999996E-2</v>
+      </c>
+      <c r="Z18" s="22">
+        <f t="shared" si="0"/>
+        <v>9.2090000000000005E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:26">
+      <c r="B19" s="21">
+        <v>7</v>
+      </c>
+      <c r="C19" s="22">
+        <f t="shared" ref="C19:R29" si="1">ROUND(C4, 5)</f>
+        <v>7.6289999999999997E-2</v>
+      </c>
+      <c r="D19" s="22">
+        <f t="shared" si="1"/>
+        <v>7.6289999999999997E-2</v>
+      </c>
+      <c r="E19" s="22">
+        <f t="shared" si="1"/>
+        <v>9.1550000000000006E-2</v>
+      </c>
+      <c r="F19" s="22">
+        <f t="shared" si="1"/>
+        <v>8.3919999999999995E-2</v>
+      </c>
+      <c r="G19" s="22">
+        <f t="shared" si="1"/>
+        <v>0.11444</v>
+      </c>
+      <c r="H19" s="22">
+        <f t="shared" si="1"/>
+        <v>0.15257999999999999</v>
+      </c>
+      <c r="I19" s="22">
+        <f t="shared" si="1"/>
+        <v>2.3019999999999999E-2</v>
+      </c>
+      <c r="J19" s="22">
+        <f t="shared" si="1"/>
+        <v>2.3019999999999999E-2</v>
+      </c>
+      <c r="K19" s="22">
+        <f t="shared" si="1"/>
+        <v>2.7629999999999998E-2</v>
+      </c>
+      <c r="L19" s="22">
+        <f t="shared" si="1"/>
+        <v>2.5319999999999999E-2</v>
+      </c>
+      <c r="M19" s="22">
+        <f t="shared" si="1"/>
+        <v>3.4529999999999998E-2</v>
+      </c>
+      <c r="N19" s="22">
+        <f t="shared" si="1"/>
+        <v>4.6039999999999998E-2</v>
+      </c>
+      <c r="O19" s="22">
+        <f t="shared" si="1"/>
+        <v>7.6289999999999997E-2</v>
+      </c>
+      <c r="P19" s="22">
+        <f t="shared" si="1"/>
+        <v>7.6289999999999997E-2</v>
+      </c>
+      <c r="Q19" s="22">
+        <f t="shared" si="1"/>
+        <v>9.1550000000000006E-2</v>
+      </c>
+      <c r="R19" s="22">
+        <f t="shared" si="1"/>
+        <v>8.3919999999999995E-2</v>
+      </c>
+      <c r="S19" s="22">
+        <f t="shared" si="0"/>
+        <v>0.12587999999999999</v>
+      </c>
+      <c r="T19" s="22">
+        <f t="shared" si="0"/>
+        <v>0.15257999999999999</v>
+      </c>
+      <c r="U19" s="22">
+        <f t="shared" si="0"/>
+        <v>2.3019999999999999E-2</v>
+      </c>
+      <c r="V19" s="22">
+        <f t="shared" si="0"/>
+        <v>2.3019999999999999E-2</v>
+      </c>
+      <c r="W19" s="22">
+        <f t="shared" si="0"/>
+        <v>2.7629999999999998E-2</v>
+      </c>
+      <c r="X19" s="22">
+        <f t="shared" si="0"/>
+        <v>2.5319999999999999E-2</v>
+      </c>
+      <c r="Y19" s="22">
+        <f t="shared" si="0"/>
+        <v>3.7990000000000003E-2</v>
+      </c>
+      <c r="Z19" s="22">
+        <f t="shared" si="0"/>
+        <v>4.6039999999999998E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:26">
+      <c r="B20" s="21">
+        <v>8</v>
+      </c>
+      <c r="C20" s="22">
+        <f t="shared" si="1"/>
+        <v>7.6289999999999997E-2</v>
+      </c>
+      <c r="D20" s="22">
+        <f t="shared" si="0"/>
+        <v>7.6289999999999997E-2</v>
+      </c>
+      <c r="E20" s="22">
+        <f t="shared" si="0"/>
+        <v>9.1550000000000006E-2</v>
+      </c>
+      <c r="F20" s="22">
+        <f t="shared" si="0"/>
+        <v>8.3919999999999995E-2</v>
+      </c>
+      <c r="G20" s="22">
+        <f t="shared" si="0"/>
+        <v>0.11444</v>
+      </c>
+      <c r="H20" s="22">
+        <f t="shared" si="0"/>
+        <v>0.15257999999999999</v>
+      </c>
+      <c r="I20" s="22">
+        <f t="shared" si="0"/>
+        <v>2.3019999999999999E-2</v>
+      </c>
+      <c r="J20" s="22">
+        <f t="shared" si="0"/>
+        <v>2.3019999999999999E-2</v>
+      </c>
+      <c r="K20" s="22">
+        <f t="shared" si="0"/>
+        <v>2.7629999999999998E-2</v>
+      </c>
+      <c r="L20" s="22">
+        <f t="shared" si="0"/>
+        <v>2.5319999999999999E-2</v>
+      </c>
+      <c r="M20" s="22">
+        <f t="shared" si="0"/>
+        <v>3.4529999999999998E-2</v>
+      </c>
+      <c r="N20" s="22">
+        <f t="shared" si="0"/>
+        <v>4.6039999999999998E-2</v>
+      </c>
+      <c r="O20" s="22">
+        <f t="shared" si="0"/>
+        <v>7.6289999999999997E-2</v>
+      </c>
+      <c r="P20" s="22">
+        <f t="shared" si="0"/>
+        <v>7.6289999999999997E-2</v>
+      </c>
+      <c r="Q20" s="22">
+        <f t="shared" si="0"/>
+        <v>9.1550000000000006E-2</v>
+      </c>
+      <c r="R20" s="22">
+        <f t="shared" si="0"/>
+        <v>8.3919999999999995E-2</v>
+      </c>
+      <c r="S20" s="22">
+        <f t="shared" si="0"/>
+        <v>0.12587999999999999</v>
+      </c>
+      <c r="T20" s="22">
+        <f t="shared" si="0"/>
+        <v>0.15257999999999999</v>
+      </c>
+      <c r="U20" s="22">
+        <f t="shared" si="0"/>
+        <v>2.3019999999999999E-2</v>
+      </c>
+      <c r="V20" s="22">
+        <f t="shared" si="0"/>
+        <v>2.3019999999999999E-2</v>
+      </c>
+      <c r="W20" s="22">
+        <f t="shared" si="0"/>
+        <v>2.7629999999999998E-2</v>
+      </c>
+      <c r="X20" s="22">
+        <f t="shared" si="0"/>
+        <v>2.5319999999999999E-2</v>
+      </c>
+      <c r="Y20" s="22">
+        <f t="shared" si="0"/>
+        <v>3.7990000000000003E-2</v>
+      </c>
+      <c r="Z20" s="22">
+        <f t="shared" si="0"/>
+        <v>4.6039999999999998E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:26">
+      <c r="B21" s="21">
+        <v>9</v>
+      </c>
+      <c r="C21" s="22">
+        <f t="shared" si="1"/>
+        <v>7.6289999999999997E-2</v>
+      </c>
+      <c r="D21" s="22">
+        <f t="shared" si="0"/>
+        <v>7.6289999999999997E-2</v>
+      </c>
+      <c r="E21" s="22">
+        <f t="shared" si="0"/>
+        <v>9.1550000000000006E-2</v>
+      </c>
+      <c r="F21" s="22">
+        <f t="shared" si="0"/>
+        <v>8.3919999999999995E-2</v>
+      </c>
+      <c r="G21" s="22">
+        <f t="shared" si="0"/>
+        <v>0.11444</v>
+      </c>
+      <c r="H21" s="22">
+        <f t="shared" si="0"/>
+        <v>0.15257999999999999</v>
+      </c>
+      <c r="I21" s="22">
+        <f t="shared" si="0"/>
+        <v>2.3019999999999999E-2</v>
+      </c>
+      <c r="J21" s="22">
+        <f t="shared" si="0"/>
+        <v>2.3019999999999999E-2</v>
+      </c>
+      <c r="K21" s="22">
+        <f t="shared" si="0"/>
+        <v>2.7629999999999998E-2</v>
+      </c>
+      <c r="L21" s="22">
+        <f t="shared" si="0"/>
+        <v>2.5319999999999999E-2</v>
+      </c>
+      <c r="M21" s="22">
+        <f t="shared" si="0"/>
+        <v>3.4529999999999998E-2</v>
+      </c>
+      <c r="N21" s="22">
+        <f t="shared" si="0"/>
+        <v>4.6039999999999998E-2</v>
+      </c>
+      <c r="O21" s="22">
+        <f t="shared" si="0"/>
+        <v>7.6289999999999997E-2</v>
+      </c>
+      <c r="P21" s="22">
+        <f t="shared" si="0"/>
+        <v>7.6289999999999997E-2</v>
+      </c>
+      <c r="Q21" s="22">
+        <f t="shared" si="0"/>
+        <v>9.1550000000000006E-2</v>
+      </c>
+      <c r="R21" s="22">
+        <f t="shared" si="0"/>
+        <v>8.3919999999999995E-2</v>
+      </c>
+      <c r="S21" s="22">
+        <f t="shared" si="0"/>
+        <v>0.12587999999999999</v>
+      </c>
+      <c r="T21" s="22">
+        <f t="shared" si="0"/>
+        <v>0.15257999999999999</v>
+      </c>
+      <c r="U21" s="22">
+        <f t="shared" si="0"/>
+        <v>2.3019999999999999E-2</v>
+      </c>
+      <c r="V21" s="22">
+        <f t="shared" si="0"/>
+        <v>2.3019999999999999E-2</v>
+      </c>
+      <c r="W21" s="22">
+        <f t="shared" si="0"/>
+        <v>2.7629999999999998E-2</v>
+      </c>
+      <c r="X21" s="22">
+        <f t="shared" si="0"/>
+        <v>2.5319999999999999E-2</v>
+      </c>
+      <c r="Y21" s="22">
+        <f t="shared" si="0"/>
+        <v>3.7990000000000003E-2</v>
+      </c>
+      <c r="Z21" s="22">
+        <f t="shared" si="0"/>
+        <v>4.6039999999999998E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:26">
+      <c r="B22" s="21">
+        <v>10</v>
+      </c>
+      <c r="C22" s="22">
+        <f t="shared" si="1"/>
+        <v>7.6289999999999997E-2</v>
+      </c>
+      <c r="D22" s="22">
+        <f t="shared" si="0"/>
+        <v>7.6289999999999997E-2</v>
+      </c>
+      <c r="E22" s="22">
+        <f t="shared" si="0"/>
+        <v>9.1550000000000006E-2</v>
+      </c>
+      <c r="F22" s="22">
+        <f t="shared" si="0"/>
+        <v>8.3919999999999995E-2</v>
+      </c>
+      <c r="G22" s="22">
+        <f t="shared" si="0"/>
+        <v>0.11444</v>
+      </c>
+      <c r="H22" s="22">
+        <f t="shared" si="0"/>
+        <v>0.15257999999999999</v>
+      </c>
+      <c r="I22" s="22">
+        <f t="shared" si="0"/>
+        <v>2.3019999999999999E-2</v>
+      </c>
+      <c r="J22" s="22">
+        <f t="shared" si="0"/>
+        <v>2.3019999999999999E-2</v>
+      </c>
+      <c r="K22" s="22">
+        <f t="shared" si="0"/>
+        <v>2.7629999999999998E-2</v>
+      </c>
+      <c r="L22" s="22">
+        <f t="shared" si="0"/>
+        <v>2.5319999999999999E-2</v>
+      </c>
+      <c r="M22" s="22">
+        <f t="shared" si="0"/>
+        <v>3.4529999999999998E-2</v>
+      </c>
+      <c r="N22" s="22">
+        <f t="shared" si="0"/>
+        <v>4.6039999999999998E-2</v>
+      </c>
+      <c r="O22" s="22">
+        <f t="shared" si="0"/>
+        <v>7.6289999999999997E-2</v>
+      </c>
+      <c r="P22" s="22">
+        <f t="shared" si="0"/>
+        <v>7.6289999999999997E-2</v>
+      </c>
+      <c r="Q22" s="22">
+        <f t="shared" si="0"/>
+        <v>9.1550000000000006E-2</v>
+      </c>
+      <c r="R22" s="22">
+        <f t="shared" si="0"/>
+        <v>8.3919999999999995E-2</v>
+      </c>
+      <c r="S22" s="22">
+        <f t="shared" si="0"/>
+        <v>0.12587999999999999</v>
+      </c>
+      <c r="T22" s="22">
+        <f t="shared" si="0"/>
+        <v>0.15257999999999999</v>
+      </c>
+      <c r="U22" s="22">
+        <f t="shared" si="0"/>
+        <v>2.3019999999999999E-2</v>
+      </c>
+      <c r="V22" s="22">
+        <f t="shared" si="0"/>
+        <v>2.3019999999999999E-2</v>
+      </c>
+      <c r="W22" s="22">
+        <f t="shared" si="0"/>
+        <v>2.7629999999999998E-2</v>
+      </c>
+      <c r="X22" s="22">
+        <f t="shared" si="0"/>
+        <v>2.5319999999999999E-2</v>
+      </c>
+      <c r="Y22" s="22">
+        <f t="shared" si="0"/>
+        <v>3.7990000000000003E-2</v>
+      </c>
+      <c r="Z22" s="22">
+        <f t="shared" si="0"/>
+        <v>4.6039999999999998E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:26">
+      <c r="B23" s="21">
+        <v>11</v>
+      </c>
+      <c r="C23" s="22">
+        <f t="shared" si="1"/>
+        <v>7.6289999999999997E-2</v>
+      </c>
+      <c r="D23" s="22">
+        <f t="shared" si="0"/>
+        <v>7.6289999999999997E-2</v>
+      </c>
+      <c r="E23" s="22">
+        <f t="shared" si="0"/>
+        <v>9.1550000000000006E-2</v>
+      </c>
+      <c r="F23" s="22">
+        <f t="shared" si="0"/>
+        <v>8.3919999999999995E-2</v>
+      </c>
+      <c r="G23" s="22">
+        <f t="shared" si="0"/>
+        <v>0.11444</v>
+      </c>
+      <c r="H23" s="22">
+        <f t="shared" si="0"/>
+        <v>0.15257999999999999</v>
+      </c>
+      <c r="I23" s="22">
+        <f t="shared" si="0"/>
+        <v>2.3019999999999999E-2</v>
+      </c>
+      <c r="J23" s="22">
+        <f t="shared" si="0"/>
+        <v>2.3019999999999999E-2</v>
+      </c>
+      <c r="K23" s="22">
+        <f t="shared" si="0"/>
+        <v>2.7629999999999998E-2</v>
+      </c>
+      <c r="L23" s="22">
+        <f t="shared" si="0"/>
+        <v>2.5319999999999999E-2</v>
+      </c>
+      <c r="M23" s="22">
+        <f t="shared" si="0"/>
+        <v>3.4529999999999998E-2</v>
+      </c>
+      <c r="N23" s="22">
+        <f t="shared" si="0"/>
+        <v>4.6039999999999998E-2</v>
+      </c>
+      <c r="O23" s="22">
+        <f t="shared" si="0"/>
+        <v>7.6289999999999997E-2</v>
+      </c>
+      <c r="P23" s="22">
+        <f t="shared" si="0"/>
+        <v>7.6289999999999997E-2</v>
+      </c>
+      <c r="Q23" s="22">
+        <f t="shared" si="0"/>
+        <v>9.1550000000000006E-2</v>
+      </c>
+      <c r="R23" s="22">
+        <f t="shared" si="0"/>
+        <v>8.3919999999999995E-2</v>
+      </c>
+      <c r="S23" s="22">
+        <f t="shared" si="0"/>
+        <v>0.12587999999999999</v>
+      </c>
+      <c r="T23" s="22">
+        <f t="shared" si="0"/>
+        <v>0.15257999999999999</v>
+      </c>
+      <c r="U23" s="22">
+        <f t="shared" si="0"/>
+        <v>2.3019999999999999E-2</v>
+      </c>
+      <c r="V23" s="22">
+        <f t="shared" si="0"/>
+        <v>2.3019999999999999E-2</v>
+      </c>
+      <c r="W23" s="22">
+        <f t="shared" si="0"/>
+        <v>2.7629999999999998E-2</v>
+      </c>
+      <c r="X23" s="22">
+        <f t="shared" si="0"/>
+        <v>2.5319999999999999E-2</v>
+      </c>
+      <c r="Y23" s="22">
+        <f t="shared" si="0"/>
+        <v>3.7990000000000003E-2</v>
+      </c>
+      <c r="Z23" s="22">
+        <f t="shared" si="0"/>
+        <v>4.6039999999999998E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:26">
+      <c r="B24" s="21">
+        <v>12</v>
+      </c>
+      <c r="C24" s="22">
+        <f t="shared" si="1"/>
+        <v>7.6289999999999997E-2</v>
+      </c>
+      <c r="D24" s="22">
+        <f t="shared" si="0"/>
+        <v>7.6289999999999997E-2</v>
+      </c>
+      <c r="E24" s="22">
+        <f t="shared" si="0"/>
+        <v>9.1550000000000006E-2</v>
+      </c>
+      <c r="F24" s="22">
+        <f t="shared" si="0"/>
+        <v>8.3919999999999995E-2</v>
+      </c>
+      <c r="G24" s="22">
+        <f t="shared" si="0"/>
+        <v>0.11444</v>
+      </c>
+      <c r="H24" s="22">
+        <f t="shared" si="0"/>
+        <v>0.15257999999999999</v>
+      </c>
+      <c r="I24" s="22">
+        <f t="shared" si="0"/>
+        <v>2.3019999999999999E-2</v>
+      </c>
+      <c r="J24" s="22">
+        <f t="shared" si="0"/>
+        <v>2.3019999999999999E-2</v>
+      </c>
+      <c r="K24" s="22">
+        <f t="shared" si="0"/>
+        <v>2.7629999999999998E-2</v>
+      </c>
+      <c r="L24" s="22">
+        <f t="shared" si="0"/>
+        <v>2.5319999999999999E-2</v>
+      </c>
+      <c r="M24" s="22">
+        <f t="shared" si="0"/>
+        <v>3.4529999999999998E-2</v>
+      </c>
+      <c r="N24" s="22">
+        <f t="shared" si="0"/>
+        <v>4.6039999999999998E-2</v>
+      </c>
+      <c r="O24" s="22">
+        <f t="shared" si="0"/>
+        <v>7.6289999999999997E-2</v>
+      </c>
+      <c r="P24" s="22">
+        <f t="shared" si="0"/>
+        <v>7.6289999999999997E-2</v>
+      </c>
+      <c r="Q24" s="22">
+        <f t="shared" si="0"/>
+        <v>9.1550000000000006E-2</v>
+      </c>
+      <c r="R24" s="22">
+        <f t="shared" si="0"/>
+        <v>8.3919999999999995E-2</v>
+      </c>
+      <c r="S24" s="22">
+        <f t="shared" si="0"/>
+        <v>0.12587999999999999</v>
+      </c>
+      <c r="T24" s="22">
+        <f t="shared" si="0"/>
+        <v>0.15257999999999999</v>
+      </c>
+      <c r="U24" s="22">
+        <f t="shared" si="0"/>
+        <v>2.3019999999999999E-2</v>
+      </c>
+      <c r="V24" s="22">
+        <f t="shared" si="0"/>
+        <v>2.3019999999999999E-2</v>
+      </c>
+      <c r="W24" s="22">
+        <f t="shared" si="0"/>
+        <v>2.7629999999999998E-2</v>
+      </c>
+      <c r="X24" s="22">
+        <f t="shared" si="0"/>
+        <v>2.5319999999999999E-2</v>
+      </c>
+      <c r="Y24" s="22">
+        <f t="shared" si="0"/>
+        <v>3.7990000000000003E-2</v>
+      </c>
+      <c r="Z24" s="22">
+        <f t="shared" si="0"/>
+        <v>4.6039999999999998E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:26">
+      <c r="B25" s="21">
+        <v>13</v>
+      </c>
+      <c r="C25" s="22">
+        <f t="shared" si="1"/>
+        <v>6.1030000000000001E-2</v>
+      </c>
+      <c r="D25" s="22">
+        <f t="shared" si="0"/>
+        <v>6.1030000000000001E-2</v>
+      </c>
+      <c r="E25" s="22">
+        <f t="shared" si="0"/>
+        <v>7.324E-2</v>
+      </c>
+      <c r="F25" s="22">
+        <f t="shared" si="0"/>
+        <v>6.7140000000000005E-2</v>
+      </c>
+      <c r="G25" s="22">
+        <f t="shared" si="0"/>
+        <v>9.1550000000000006E-2</v>
+      </c>
+      <c r="H25" s="22">
+        <f t="shared" si="0"/>
+        <v>0.12207</v>
+      </c>
+      <c r="I25" s="22">
+        <f t="shared" si="0"/>
+        <v>1.8419999999999999E-2</v>
+      </c>
+      <c r="J25" s="22">
+        <f t="shared" si="0"/>
+        <v>1.8419999999999999E-2</v>
+      </c>
+      <c r="K25" s="22">
+        <f t="shared" si="0"/>
+        <v>2.2100000000000002E-2</v>
+      </c>
+      <c r="L25" s="22">
+        <f t="shared" si="0"/>
+        <v>2.026E-2</v>
+      </c>
+      <c r="M25" s="22">
+        <f t="shared" si="0"/>
+        <v>2.7629999999999998E-2</v>
+      </c>
+      <c r="N25" s="22">
+        <f t="shared" si="0"/>
+        <v>3.6839999999999998E-2</v>
+      </c>
+      <c r="O25" s="22">
+        <f t="shared" si="0"/>
+        <v>6.1030000000000001E-2</v>
+      </c>
+      <c r="P25" s="22">
+        <f t="shared" si="0"/>
+        <v>6.1030000000000001E-2</v>
+      </c>
+      <c r="Q25" s="22">
+        <f t="shared" si="0"/>
+        <v>7.324E-2</v>
+      </c>
+      <c r="R25" s="22">
+        <f t="shared" si="0"/>
+        <v>6.7140000000000005E-2</v>
+      </c>
+      <c r="S25" s="22">
+        <f t="shared" si="0"/>
+        <v>0.10070999999999999</v>
+      </c>
+      <c r="T25" s="22">
+        <f t="shared" si="0"/>
+        <v>0.12207</v>
+      </c>
+      <c r="U25" s="22">
+        <f t="shared" si="0"/>
+        <v>1.8419999999999999E-2</v>
+      </c>
+      <c r="V25" s="22">
+        <f t="shared" si="0"/>
+        <v>1.8419999999999999E-2</v>
+      </c>
+      <c r="W25" s="22">
+        <f t="shared" si="0"/>
+        <v>2.2100000000000002E-2</v>
+      </c>
+      <c r="X25" s="22">
+        <f t="shared" si="0"/>
+        <v>2.026E-2</v>
+      </c>
+      <c r="Y25" s="22">
+        <f t="shared" si="0"/>
+        <v>3.039E-2</v>
+      </c>
+      <c r="Z25" s="22">
+        <f t="shared" si="0"/>
+        <v>3.6839999999999998E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:26">
+      <c r="B26" s="21">
+        <v>14</v>
+      </c>
+      <c r="C26" s="22">
+        <f t="shared" si="1"/>
+        <v>6.1030000000000001E-2</v>
+      </c>
+      <c r="D26" s="22">
+        <f t="shared" si="0"/>
+        <v>6.1030000000000001E-2</v>
+      </c>
+      <c r="E26" s="22">
+        <f t="shared" si="0"/>
+        <v>7.324E-2</v>
+      </c>
+      <c r="F26" s="22">
+        <f t="shared" si="0"/>
+        <v>6.7140000000000005E-2</v>
+      </c>
+      <c r="G26" s="22">
+        <f t="shared" si="0"/>
+        <v>9.1550000000000006E-2</v>
+      </c>
+      <c r="H26" s="22">
+        <f t="shared" si="0"/>
+        <v>0.12207</v>
+      </c>
+      <c r="I26" s="22">
+        <f t="shared" si="0"/>
+        <v>1.8419999999999999E-2</v>
+      </c>
+      <c r="J26" s="22">
+        <f t="shared" si="0"/>
+        <v>1.8419999999999999E-2</v>
+      </c>
+      <c r="K26" s="22">
+        <f t="shared" si="0"/>
+        <v>2.2100000000000002E-2</v>
+      </c>
+      <c r="L26" s="22">
+        <f t="shared" si="0"/>
+        <v>2.026E-2</v>
+      </c>
+      <c r="M26" s="22">
+        <f t="shared" si="0"/>
+        <v>2.7629999999999998E-2</v>
+      </c>
+      <c r="N26" s="22">
+        <f t="shared" si="0"/>
+        <v>3.6839999999999998E-2</v>
+      </c>
+      <c r="O26" s="22">
+        <f t="shared" si="0"/>
+        <v>6.1030000000000001E-2</v>
+      </c>
+      <c r="P26" s="22">
+        <f t="shared" si="0"/>
+        <v>6.1030000000000001E-2</v>
+      </c>
+      <c r="Q26" s="22">
+        <f t="shared" si="0"/>
+        <v>7.324E-2</v>
+      </c>
+      <c r="R26" s="22">
+        <f t="shared" si="0"/>
+        <v>6.7140000000000005E-2</v>
+      </c>
+      <c r="S26" s="22">
+        <f t="shared" si="0"/>
+        <v>0.10070999999999999</v>
+      </c>
+      <c r="T26" s="22">
+        <f t="shared" si="0"/>
+        <v>0.12207</v>
+      </c>
+      <c r="U26" s="22">
+        <f t="shared" si="0"/>
+        <v>1.8419999999999999E-2</v>
+      </c>
+      <c r="V26" s="22">
+        <f t="shared" si="0"/>
+        <v>1.8419999999999999E-2</v>
+      </c>
+      <c r="W26" s="22">
+        <f t="shared" si="0"/>
+        <v>2.2100000000000002E-2</v>
+      </c>
+      <c r="X26" s="22">
+        <f t="shared" si="0"/>
+        <v>2.026E-2</v>
+      </c>
+      <c r="Y26" s="22">
+        <f t="shared" si="0"/>
+        <v>3.039E-2</v>
+      </c>
+      <c r="Z26" s="22">
+        <f t="shared" si="0"/>
+        <v>3.6839999999999998E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:26">
+      <c r="B27" s="21">
+        <v>15</v>
+      </c>
+      <c r="C27" s="22">
+        <f t="shared" si="1"/>
+        <v>6.1030000000000001E-2</v>
+      </c>
+      <c r="D27" s="22">
+        <f t="shared" si="0"/>
+        <v>6.1030000000000001E-2</v>
+      </c>
+      <c r="E27" s="22">
+        <f t="shared" si="0"/>
+        <v>7.324E-2</v>
+      </c>
+      <c r="F27" s="22">
+        <f t="shared" si="0"/>
+        <v>6.7140000000000005E-2</v>
+      </c>
+      <c r="G27" s="22">
+        <f t="shared" si="0"/>
+        <v>9.1550000000000006E-2</v>
+      </c>
+      <c r="H27" s="22">
+        <f t="shared" si="0"/>
+        <v>0.12207</v>
+      </c>
+      <c r="I27" s="22">
+        <f t="shared" si="0"/>
+        <v>1.8419999999999999E-2</v>
+      </c>
+      <c r="J27" s="22">
+        <f t="shared" si="0"/>
+        <v>1.8419999999999999E-2</v>
+      </c>
+      <c r="K27" s="22">
+        <f t="shared" si="0"/>
+        <v>2.2100000000000002E-2</v>
+      </c>
+      <c r="L27" s="22">
+        <f t="shared" si="0"/>
+        <v>2.026E-2</v>
+      </c>
+      <c r="M27" s="22">
+        <f t="shared" si="0"/>
+        <v>2.7629999999999998E-2</v>
+      </c>
+      <c r="N27" s="22">
+        <f t="shared" si="0"/>
+        <v>3.6839999999999998E-2</v>
+      </c>
+      <c r="O27" s="22">
+        <f t="shared" si="0"/>
+        <v>6.1030000000000001E-2</v>
+      </c>
+      <c r="P27" s="22">
+        <f t="shared" si="0"/>
+        <v>6.1030000000000001E-2</v>
+      </c>
+      <c r="Q27" s="22">
+        <f t="shared" si="0"/>
+        <v>7.324E-2</v>
+      </c>
+      <c r="R27" s="22">
+        <f t="shared" si="0"/>
+        <v>6.7140000000000005E-2</v>
+      </c>
+      <c r="S27" s="22">
+        <f t="shared" si="0"/>
+        <v>0.10070999999999999</v>
+      </c>
+      <c r="T27" s="22">
+        <f t="shared" si="0"/>
+        <v>0.12207</v>
+      </c>
+      <c r="U27" s="22">
+        <f t="shared" si="0"/>
+        <v>1.8419999999999999E-2</v>
+      </c>
+      <c r="V27" s="22">
+        <f t="shared" si="0"/>
+        <v>1.8419999999999999E-2</v>
+      </c>
+      <c r="W27" s="22">
+        <f t="shared" si="0"/>
+        <v>2.2100000000000002E-2</v>
+      </c>
+      <c r="X27" s="22">
+        <f t="shared" si="0"/>
+        <v>2.026E-2</v>
+      </c>
+      <c r="Y27" s="22">
+        <f t="shared" si="0"/>
+        <v>3.039E-2</v>
+      </c>
+      <c r="Z27" s="22">
+        <f t="shared" si="0"/>
+        <v>3.6839999999999998E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:26">
+      <c r="B28" s="21">
+        <v>16</v>
+      </c>
+      <c r="C28" s="22">
+        <f t="shared" si="1"/>
+        <v>0.11444</v>
+      </c>
+      <c r="D28" s="22">
+        <f t="shared" si="0"/>
+        <v>0.11444</v>
+      </c>
+      <c r="E28" s="22">
+        <f t="shared" si="0"/>
+        <v>0.13733000000000001</v>
+      </c>
+      <c r="F28" s="22">
+        <f t="shared" si="0"/>
+        <v>0.12587999999999999</v>
+      </c>
+      <c r="G28" s="22">
+        <f t="shared" si="0"/>
+        <v>0.17166000000000001</v>
+      </c>
+      <c r="H28" s="22">
+        <f t="shared" si="0"/>
+        <v>0.22888</v>
+      </c>
+      <c r="I28" s="22">
+        <f t="shared" si="0"/>
+        <v>2.7629999999999998E-2</v>
+      </c>
+      <c r="J28" s="22">
+        <f t="shared" si="0"/>
+        <v>2.7629999999999998E-2</v>
+      </c>
+      <c r="K28" s="22">
+        <f t="shared" si="0"/>
+        <v>3.3149999999999999E-2</v>
+      </c>
+      <c r="L28" s="22">
+        <f t="shared" si="0"/>
+        <v>3.039E-2</v>
+      </c>
+      <c r="M28" s="22">
+        <f t="shared" si="0"/>
+        <v>4.1439999999999998E-2</v>
+      </c>
+      <c r="N28" s="22">
+        <f t="shared" si="0"/>
+        <v>5.525E-2</v>
+      </c>
+      <c r="O28" s="22">
+        <f t="shared" si="0"/>
+        <v>0.11444</v>
+      </c>
+      <c r="P28" s="22">
+        <f t="shared" si="0"/>
+        <v>0.11444</v>
+      </c>
+      <c r="Q28" s="22">
+        <f t="shared" si="0"/>
+        <v>0.13733000000000001</v>
+      </c>
+      <c r="R28" s="22">
+        <f t="shared" si="0"/>
+        <v>0.12587999999999999</v>
+      </c>
+      <c r="S28" s="22">
+        <f t="shared" si="0"/>
+        <v>0.18881999999999999</v>
+      </c>
+      <c r="T28" s="22">
+        <f t="shared" si="0"/>
+        <v>0.22888</v>
+      </c>
+      <c r="U28" s="22">
+        <f t="shared" si="0"/>
+        <v>2.7629999999999998E-2</v>
+      </c>
+      <c r="V28" s="22">
+        <f t="shared" si="0"/>
+        <v>2.7629999999999998E-2</v>
+      </c>
+      <c r="W28" s="22">
+        <f t="shared" si="0"/>
+        <v>3.3149999999999999E-2</v>
+      </c>
+      <c r="X28" s="22">
+        <f t="shared" si="0"/>
+        <v>3.039E-2</v>
+      </c>
+      <c r="Y28" s="22">
+        <f t="shared" si="0"/>
+        <v>4.5580000000000002E-2</v>
+      </c>
+      <c r="Z28" s="22">
+        <f t="shared" si="0"/>
+        <v>5.525E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:26">
+      <c r="B29" s="21">
+        <v>17</v>
+      </c>
+      <c r="C29" s="22">
+        <f t="shared" si="1"/>
+        <v>0.11444</v>
+      </c>
+      <c r="D29" s="22">
+        <f t="shared" si="0"/>
+        <v>0.11444</v>
+      </c>
+      <c r="E29" s="22">
+        <f t="shared" si="0"/>
+        <v>0.13733000000000001</v>
+      </c>
+      <c r="F29" s="22">
+        <f t="shared" si="0"/>
+        <v>0.12587999999999999</v>
+      </c>
+      <c r="G29" s="22">
+        <f t="shared" si="0"/>
+        <v>0.17166000000000001</v>
+      </c>
+      <c r="H29" s="22">
+        <f t="shared" si="0"/>
+        <v>0.22888</v>
+      </c>
+      <c r="I29" s="22">
+        <f t="shared" si="0"/>
+        <v>2.7629999999999998E-2</v>
+      </c>
+      <c r="J29" s="22">
+        <f t="shared" si="0"/>
+        <v>2.7629999999999998E-2</v>
+      </c>
+      <c r="K29" s="22">
+        <f t="shared" si="0"/>
+        <v>3.3149999999999999E-2</v>
+      </c>
+      <c r="L29" s="22">
+        <f t="shared" si="0"/>
+        <v>3.039E-2</v>
+      </c>
+      <c r="M29" s="22">
+        <f t="shared" si="0"/>
+        <v>4.1439999999999998E-2</v>
+      </c>
+      <c r="N29" s="22">
+        <f t="shared" si="0"/>
+        <v>5.525E-2</v>
+      </c>
+      <c r="O29" s="22">
+        <f t="shared" si="0"/>
+        <v>0.11444</v>
+      </c>
+      <c r="P29" s="22">
+        <f t="shared" si="0"/>
+        <v>0.11444</v>
+      </c>
+      <c r="Q29" s="22">
+        <f t="shared" si="0"/>
+        <v>0.13733000000000001</v>
+      </c>
+      <c r="R29" s="22">
+        <f t="shared" si="0"/>
+        <v>0.12587999999999999</v>
+      </c>
+      <c r="S29" s="22">
+        <f t="shared" si="0"/>
+        <v>0.18881999999999999</v>
+      </c>
+      <c r="T29" s="22">
+        <f t="shared" si="0"/>
+        <v>0.22888</v>
+      </c>
+      <c r="U29" s="22">
+        <f t="shared" ref="U29:Z29" si="2">ROUND(U14, 5)</f>
+        <v>2.7629999999999998E-2</v>
+      </c>
+      <c r="V29" s="22">
+        <f t="shared" si="2"/>
+        <v>2.7629999999999998E-2</v>
+      </c>
+      <c r="W29" s="22">
+        <f t="shared" si="2"/>
+        <v>3.3149999999999999E-2</v>
+      </c>
+      <c r="X29" s="22">
+        <f t="shared" si="2"/>
+        <v>3.039E-2</v>
+      </c>
+      <c r="Y29" s="22">
+        <f t="shared" si="2"/>
+        <v>4.5580000000000002E-2</v>
+      </c>
+      <c r="Z29" s="22">
+        <f t="shared" si="2"/>
+        <v>5.525E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:26">
+      <c r="A31" t="s">
+        <v>55</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/data_prep/input_data.xlsx
+++ b/data_prep/input_data.xlsx
@@ -4,16 +4,17 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="180" windowWidth="12435" windowHeight="10485" activeTab="3"/>
+    <workbookView xWindow="360" yWindow="180" windowWidth="12435" windowHeight="10485" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Introduction" sheetId="4" r:id="rId1"/>
     <sheet name="FertilityMotherRates" sheetId="1" r:id="rId2"/>
     <sheet name="FertilityMotherDieaseMultiplier" sheetId="2" r:id="rId3"/>
     <sheet name="Dropout" sheetId="3" r:id="rId4"/>
+    <sheet name="Abuse" sheetId="5" r:id="rId5"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId5"/>
+    <externalReference r:id="rId6"/>
   </externalReferences>
   <definedNames>
     <definedName name="CurrYear">[1]Results!$B$3</definedName>
@@ -23,7 +24,7 @@
     <definedName name="StartYear">'[1]Assumptions - Asian'!$C$38</definedName>
     <definedName name="STDFert_Black">'[1]Assumptions - Black'!$E$10</definedName>
   </definedNames>
-  <calcPr calcId="145621" calcMode="manual"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -52,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="57">
   <si>
     <t>Age</t>
   </si>
@@ -221,12 +222,15 @@
   <si>
     <t>Now just copy and paste</t>
   </si>
+  <si>
+    <t>Round</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="20">
+  <numFmts count="21">
     <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="0.0000"/>
     <numFmt numFmtId="166" formatCode="0.000"/>
@@ -247,6 +251,7 @@
     <numFmt numFmtId="181" formatCode="_ * #,##0_)\ _F_ ;_ * \(#,##0\)\ _F_ ;_ * &quot;-&quot;_)\ _F_ ;_ @_ "/>
     <numFmt numFmtId="182" formatCode="0.00000"/>
     <numFmt numFmtId="183" formatCode="0.000000"/>
+    <numFmt numFmtId="184" formatCode="0.0000000"/>
   </numFmts>
   <fonts count="12">
     <font>
@@ -493,7 +498,7 @@
     <xf numFmtId="10" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFont="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="174" fontId="2" fillId="0" borderId="4" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -526,6 +531,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="182" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="183" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="184" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="182" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="28">
     <cellStyle name="Bold 11" xfId="2"/>
@@ -13524,8 +13533,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="Q24" sqref="Q24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -15891,4 +15900,1439 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Z22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="U14" sqref="U14:Z20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="9.7109375" customWidth="1"/>
+    <col min="2" max="2" width="4.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="26" width="9.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:26">
+      <c r="A1" s="21" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:26">
+      <c r="B2" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="E2" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="F2" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="G2" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="H2" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="I2" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="J2" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="K2" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="L2" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="M2" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="N2" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="O2" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="P2" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q2" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="R2" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="S2" s="24" t="s">
+        <v>46</v>
+      </c>
+      <c r="T2" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="U2" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="V2" s="24" t="s">
+        <v>49</v>
+      </c>
+      <c r="W2" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="X2" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="Y2" s="24" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z2" s="24" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26">
+      <c r="B3" s="24">
+        <v>12</v>
+      </c>
+      <c r="C3" s="25">
+        <v>0.16307180676534344</v>
+      </c>
+      <c r="D3" s="25">
+        <v>0.16307180676534344</v>
+      </c>
+      <c r="E3" s="25">
+        <v>0.13072932384869618</v>
+      </c>
+      <c r="F3" s="25">
+        <v>5.2291729539478471E-2</v>
+      </c>
+      <c r="G3" s="25">
+        <v>0.26145864769739235</v>
+      </c>
+      <c r="H3" s="25">
+        <v>0.17744400283664125</v>
+      </c>
+      <c r="I3" s="25">
+        <v>9.8772891706703572E-2</v>
+      </c>
+      <c r="J3" s="25">
+        <v>9.8772891706703572E-2</v>
+      </c>
+      <c r="K3" s="25">
+        <v>8.5899252191051073E-2</v>
+      </c>
+      <c r="L3" s="25">
+        <v>3.4359700876420429E-2</v>
+      </c>
+      <c r="M3" s="25">
+        <v>0.17179850438210215</v>
+      </c>
+      <c r="N3" s="25">
+        <v>0.10894909707638729</v>
+      </c>
+      <c r="O3" s="25">
+        <v>0.14897768395188157</v>
+      </c>
+      <c r="P3" s="25">
+        <v>0.14897768395188157</v>
+      </c>
+      <c r="Q3" s="25">
+        <v>0.12154009378198873</v>
+      </c>
+      <c r="R3" s="25">
+        <v>4.8616037512795494E-2</v>
+      </c>
+      <c r="S3" s="25">
+        <v>0.24308018756397745</v>
+      </c>
+      <c r="T3" s="25">
+        <v>0.16258672319912484</v>
+      </c>
+      <c r="U3" s="25">
+        <v>8.9105865327346642E-2</v>
+      </c>
+      <c r="V3" s="25">
+        <v>8.9105865327346642E-2</v>
+      </c>
+      <c r="W3" s="25">
+        <v>7.84742577709161E-2</v>
+      </c>
+      <c r="X3" s="25">
+        <v>3.1389703108366439E-2</v>
+      </c>
+      <c r="Y3" s="25">
+        <v>0.1569485155418322</v>
+      </c>
+      <c r="Z3" s="25">
+        <v>9.8490122438172858E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26">
+      <c r="B4" s="24">
+        <v>13</v>
+      </c>
+      <c r="C4" s="25">
+        <v>0.15476874565542947</v>
+      </c>
+      <c r="D4" s="25">
+        <v>0.15476874565542947</v>
+      </c>
+      <c r="E4" s="25">
+        <v>0.1056793417694364</v>
+      </c>
+      <c r="F4" s="25">
+        <v>4.2271736707774565E-2</v>
+      </c>
+      <c r="G4" s="25">
+        <v>0.2113586835388728</v>
+      </c>
+      <c r="H4" s="25">
+        <v>0.16295294111665809</v>
+      </c>
+      <c r="I4" s="25">
+        <v>9.3048386115668652E-2</v>
+      </c>
+      <c r="J4" s="25">
+        <v>9.3048386115668652E-2</v>
+      </c>
+      <c r="K4" s="25">
+        <v>6.6920502824186823E-2</v>
+      </c>
+      <c r="L4" s="25">
+        <v>2.6768201129674731E-2</v>
+      </c>
+      <c r="M4" s="25">
+        <v>0.13384100564837365</v>
+      </c>
+      <c r="N4" s="25">
+        <v>9.8690335626198764E-2</v>
+      </c>
+      <c r="O4" s="25">
+        <v>0.14116085995706734</v>
+      </c>
+      <c r="P4" s="25">
+        <v>0.14116085995706734</v>
+      </c>
+      <c r="Q4" s="25">
+        <v>9.7475410264491677E-2</v>
+      </c>
+      <c r="R4" s="25">
+        <v>3.8990164105796671E-2</v>
+      </c>
+      <c r="S4" s="25">
+        <v>0.19495082052898335</v>
+      </c>
+      <c r="T4" s="25">
+        <v>0.14886559805028127</v>
+      </c>
+      <c r="U4" s="25">
+        <v>8.3848229374629157E-2</v>
+      </c>
+      <c r="V4" s="25">
+        <v>8.3848229374629157E-2</v>
+      </c>
+      <c r="W4" s="25">
+        <v>6.0785956059629019E-2</v>
+      </c>
+      <c r="X4" s="25">
+        <v>2.4314382423851609E-2</v>
+      </c>
+      <c r="Y4" s="25">
+        <v>0.12157191211925804</v>
+      </c>
+      <c r="Z4" s="25">
+        <v>8.9029958841739892E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26">
+      <c r="B5" s="24">
+        <v>14</v>
+      </c>
+      <c r="C5" s="25">
+        <v>0.14674672948278772</v>
+      </c>
+      <c r="D5" s="25">
+        <v>0.14674672948278772</v>
+      </c>
+      <c r="E5" s="25">
+        <v>0.10086536902687784</v>
+      </c>
+      <c r="F5" s="25">
+        <v>4.0346147610751143E-2</v>
+      </c>
+      <c r="G5" s="25">
+        <v>0.20173073805375569</v>
+      </c>
+      <c r="H5" s="25">
+        <v>0.15465379387387357</v>
+      </c>
+      <c r="I5" s="25">
+        <v>8.7597868656478298E-2</v>
+      </c>
+      <c r="J5" s="25">
+        <v>8.7597868656478298E-2</v>
+      </c>
+      <c r="K5" s="25">
+        <v>6.3297994302197153E-2</v>
+      </c>
+      <c r="L5" s="25">
+        <v>2.5319197720878862E-2</v>
+      </c>
+      <c r="M5" s="25">
+        <v>0.12659598860439431</v>
+      </c>
+      <c r="N5" s="25">
+        <v>9.2969730172366247E-2</v>
+      </c>
+      <c r="O5" s="25">
+        <v>0.13363292946931341</v>
+      </c>
+      <c r="P5" s="25">
+        <v>0.13363292946931341</v>
+      </c>
+      <c r="Q5" s="25">
+        <v>9.2856760534044819E-2</v>
+      </c>
+      <c r="R5" s="25">
+        <v>3.7142704213617928E-2</v>
+      </c>
+      <c r="S5" s="25">
+        <v>0.18571352106808964</v>
+      </c>
+      <c r="T5" s="25">
+        <v>0.1410528197860248</v>
+      </c>
+      <c r="U5" s="25">
+        <v>7.8853113814680936E-2</v>
+      </c>
+      <c r="V5" s="25">
+        <v>7.8853113814680936E-2</v>
+      </c>
+      <c r="W5" s="25">
+        <v>5.7413936562265566E-2</v>
+      </c>
+      <c r="X5" s="25">
+        <v>2.2965574624906226E-2</v>
+      </c>
+      <c r="Y5" s="25">
+        <v>0.11482787312453113</v>
+      </c>
+      <c r="Z5" s="25">
+        <v>8.3776069929760111E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26">
+      <c r="B6" s="24">
+        <v>15</v>
+      </c>
+      <c r="C6" s="25">
+        <v>0.13901096144251407</v>
+      </c>
+      <c r="D6" s="25">
+        <v>0.13901096144251407</v>
+      </c>
+      <c r="E6" s="25">
+        <v>9.6162276113920267E-2</v>
+      </c>
+      <c r="F6" s="25">
+        <v>3.8464910445568108E-2</v>
+      </c>
+      <c r="G6" s="25">
+        <v>0.19232455222784053</v>
+      </c>
+      <c r="H6" s="25">
+        <v>0.14663577747516895</v>
+      </c>
+      <c r="I6" s="25">
+        <v>8.2414909883604531E-2</v>
+      </c>
+      <c r="J6" s="25">
+        <v>8.2414909883604531E-2</v>
+      </c>
+      <c r="K6" s="25">
+        <v>5.9821378094913079E-2</v>
+      </c>
+      <c r="L6" s="25">
+        <v>2.3928551237965234E-2</v>
+      </c>
+      <c r="M6" s="25">
+        <v>0.11964275618982616</v>
+      </c>
+      <c r="N6" s="25">
+        <v>8.7523027495796449E-2</v>
+      </c>
+      <c r="O6" s="25">
+        <v>0.12639612937655792</v>
+      </c>
+      <c r="P6" s="25">
+        <v>0.12639612937655792</v>
+      </c>
+      <c r="Q6" s="25">
+        <v>8.8361596078842808E-2</v>
+      </c>
+      <c r="R6" s="25">
+        <v>3.5344638431537123E-2</v>
+      </c>
+      <c r="S6" s="25">
+        <v>0.17672319215768562</v>
+      </c>
+      <c r="T6" s="25">
+        <v>0.13352897804587982</v>
+      </c>
+      <c r="U6" s="25">
+        <v>7.4113010649329958E-2</v>
+      </c>
+      <c r="V6" s="25">
+        <v>7.4113010649329958E-2</v>
+      </c>
+      <c r="W6" s="25">
+        <v>5.4186723869276837E-2</v>
+      </c>
+      <c r="X6" s="25">
+        <v>2.1674689547710735E-2</v>
+      </c>
+      <c r="Y6" s="25">
+        <v>0.10837344773855367</v>
+      </c>
+      <c r="Z6" s="25">
+        <v>7.8784599462691673E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26">
+      <c r="B7" s="24">
+        <v>16</v>
+      </c>
+      <c r="C7" s="25">
+        <v>0.13156488380755332</v>
+      </c>
+      <c r="D7" s="25">
+        <v>0.13156488380755332</v>
+      </c>
+      <c r="E7" s="25">
+        <v>9.1577745876671515E-2</v>
+      </c>
+      <c r="F7" s="25">
+        <v>3.6631098350668606E-2</v>
+      </c>
+      <c r="G7" s="25">
+        <v>0.18315549175334303</v>
+      </c>
+      <c r="H7" s="25">
+        <v>0.13890406970561381</v>
+      </c>
+      <c r="I7" s="25">
+        <v>7.7492410914695414E-2</v>
+      </c>
+      <c r="J7" s="25">
+        <v>7.7492410914695414E-2</v>
+      </c>
+      <c r="K7" s="25">
+        <v>5.6490266344464773E-2</v>
+      </c>
+      <c r="L7" s="25">
+        <v>2.2596106537785911E-2</v>
+      </c>
+      <c r="M7" s="25">
+        <v>0.11298053268892955</v>
+      </c>
+      <c r="N7" s="25">
+        <v>8.2343787890275549E-2</v>
+      </c>
+      <c r="O7" s="25">
+        <v>0.1194511116221357</v>
+      </c>
+      <c r="P7" s="25">
+        <v>0.1194511116221357</v>
+      </c>
+      <c r="Q7" s="25">
+        <v>8.3995929717148254E-2</v>
+      </c>
+      <c r="R7" s="25">
+        <v>3.3598371886859303E-2</v>
+      </c>
+      <c r="S7" s="25">
+        <v>0.16799185943429651</v>
+      </c>
+      <c r="T7" s="25">
+        <v>0.12629628662193804</v>
+      </c>
+      <c r="U7" s="25">
+        <v>6.9619936817004791E-2</v>
+      </c>
+      <c r="V7" s="25">
+        <v>6.9619936817004791E-2</v>
+      </c>
+      <c r="W7" s="25">
+        <v>5.1102813474708825E-2</v>
+      </c>
+      <c r="X7" s="25">
+        <v>2.0441125389883533E-2</v>
+      </c>
+      <c r="Y7" s="25">
+        <v>0.10220562694941765</v>
+      </c>
+      <c r="Z7" s="25">
+        <v>7.4048032000090941E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26">
+      <c r="B8" s="24">
+        <v>17</v>
+      </c>
+      <c r="C8" s="25">
+        <v>0.12441027564447105</v>
+      </c>
+      <c r="D8" s="25">
+        <v>0.12441027564447105</v>
+      </c>
+      <c r="E8" s="25">
+        <v>8.7118493806469313E-2</v>
+      </c>
+      <c r="F8" s="25">
+        <v>3.4847397522587725E-2</v>
+      </c>
+      <c r="G8" s="25">
+        <v>0.17423698761293863</v>
+      </c>
+      <c r="H8" s="25">
+        <v>0.13146208870041753</v>
+      </c>
+      <c r="I8" s="25">
+        <v>7.2822719051762075E-2</v>
+      </c>
+      <c r="J8" s="25">
+        <v>7.2822719051762075E-2</v>
+      </c>
+      <c r="K8" s="25">
+        <v>5.3303598192003615E-2</v>
+      </c>
+      <c r="L8" s="25">
+        <v>2.1321439276801447E-2</v>
+      </c>
+      <c r="M8" s="25">
+        <v>0.10660719638400723</v>
+      </c>
+      <c r="N8" s="25">
+        <v>7.7424903885994656E-2</v>
+      </c>
+      <c r="O8" s="25">
+        <v>0.11279706084017188</v>
+      </c>
+      <c r="P8" s="25">
+        <v>0.11279706084017188</v>
+      </c>
+      <c r="Q8" s="25">
+        <v>7.9764796415437683E-2</v>
+      </c>
+      <c r="R8" s="25">
+        <v>3.1905918566175077E-2</v>
+      </c>
+      <c r="S8" s="25">
+        <v>0.15952959283087537</v>
+      </c>
+      <c r="T8" s="25">
+        <v>0.11935537595382818</v>
+      </c>
+      <c r="U8" s="25">
+        <v>6.5365537276762919E-2</v>
+      </c>
+      <c r="V8" s="25">
+        <v>6.5365537276762919E-2</v>
+      </c>
+      <c r="W8" s="25">
+        <v>4.8160139434376685E-2</v>
+      </c>
+      <c r="X8" s="25">
+        <v>1.9264055773750677E-2</v>
+      </c>
+      <c r="Y8" s="25">
+        <v>9.632027886875337E-2</v>
+      </c>
+      <c r="Z8" s="25">
+        <v>6.9558378543980864E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26">
+      <c r="B9" s="24">
+        <v>18</v>
+      </c>
+      <c r="C9" s="25">
+        <v>0.11754736329804087</v>
+      </c>
+      <c r="D9" s="25">
+        <v>0.11754736329804087</v>
+      </c>
+      <c r="E9" s="25">
+        <v>8.2790256755520236E-2</v>
+      </c>
+      <c r="F9" s="25">
+        <v>3.3116102702208099E-2</v>
+      </c>
+      <c r="G9" s="25">
+        <v>0.16558051351104047</v>
+      </c>
+      <c r="H9" s="25">
+        <v>0.12431159086366882</v>
+      </c>
+      <c r="I9" s="25">
+        <v>6.8397736362632119E-2</v>
+      </c>
+      <c r="J9" s="25">
+        <v>6.8397736362632119E-2</v>
+      </c>
+      <c r="K9" s="25">
+        <v>5.0259704349536631E-2</v>
+      </c>
+      <c r="L9" s="25">
+        <v>2.0103881739814655E-2</v>
+      </c>
+      <c r="M9" s="25">
+        <v>0.10051940869907326</v>
+      </c>
+      <c r="N9" s="25">
+        <v>7.2758715777634986E-2</v>
+      </c>
+      <c r="O9" s="25">
+        <v>0.10643181925352328</v>
+      </c>
+      <c r="P9" s="25">
+        <v>0.10643181925352328</v>
+      </c>
+      <c r="Q9" s="25">
+        <v>7.5672265882885476E-2</v>
+      </c>
+      <c r="R9" s="25">
+        <v>3.0268906353154192E-2</v>
+      </c>
+      <c r="S9" s="25">
+        <v>0.15134453176577095</v>
+      </c>
+      <c r="T9" s="25">
+        <v>0.11270541088783727</v>
+      </c>
+      <c r="U9" s="25">
+        <v>6.1341180025162804E-2</v>
+      </c>
+      <c r="V9" s="25">
+        <v>6.1341180025162804E-2</v>
+      </c>
+      <c r="W9" s="25">
+        <v>4.5356139694650306E-2</v>
+      </c>
+      <c r="X9" s="25">
+        <v>1.8142455877860123E-2</v>
+      </c>
+      <c r="Y9" s="25">
+        <v>9.0712279389300612E-2</v>
+      </c>
+      <c r="Z9" s="25">
+        <v>6.5307279512189356E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26">
+      <c r="A11" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26">
+      <c r="B13" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="C13" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="D13" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="E13" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="F13" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="G13" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="H13" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="I13" s="26" t="s">
+        <v>36</v>
+      </c>
+      <c r="J13" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="K13" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="L13" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="M13" s="26" t="s">
+        <v>40</v>
+      </c>
+      <c r="N13" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="O13" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="P13" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q13" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="R13" s="26" t="s">
+        <v>45</v>
+      </c>
+      <c r="S13" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="T13" s="26" t="s">
+        <v>47</v>
+      </c>
+      <c r="U13" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="V13" s="26" t="s">
+        <v>49</v>
+      </c>
+      <c r="W13" s="26" t="s">
+        <v>50</v>
+      </c>
+      <c r="X13" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="Y13" s="26" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z13" s="26" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26">
+      <c r="B14" s="26">
+        <v>12</v>
+      </c>
+      <c r="C14" s="27">
+        <f>ROUND(C3,5)</f>
+        <v>0.16306999999999999</v>
+      </c>
+      <c r="D14" s="27">
+        <f t="shared" ref="D14:Z20" si="0">ROUND(D3,5)</f>
+        <v>0.16306999999999999</v>
+      </c>
+      <c r="E14" s="27">
+        <f t="shared" si="0"/>
+        <v>0.13073000000000001</v>
+      </c>
+      <c r="F14" s="27">
+        <f t="shared" si="0"/>
+        <v>5.2290000000000003E-2</v>
+      </c>
+      <c r="G14" s="27">
+        <f t="shared" si="0"/>
+        <v>0.26146000000000003</v>
+      </c>
+      <c r="H14" s="27">
+        <f t="shared" si="0"/>
+        <v>0.17743999999999999</v>
+      </c>
+      <c r="I14" s="27">
+        <f t="shared" si="0"/>
+        <v>9.8769999999999997E-2</v>
+      </c>
+      <c r="J14" s="27">
+        <f t="shared" si="0"/>
+        <v>9.8769999999999997E-2</v>
+      </c>
+      <c r="K14" s="27">
+        <f t="shared" si="0"/>
+        <v>8.5900000000000004E-2</v>
+      </c>
+      <c r="L14" s="27">
+        <f t="shared" si="0"/>
+        <v>3.4360000000000002E-2</v>
+      </c>
+      <c r="M14" s="27">
+        <f t="shared" si="0"/>
+        <v>0.17180000000000001</v>
+      </c>
+      <c r="N14" s="27">
+        <f t="shared" si="0"/>
+        <v>0.10895000000000001</v>
+      </c>
+      <c r="O14" s="27">
+        <f t="shared" si="0"/>
+        <v>0.14898</v>
+      </c>
+      <c r="P14" s="27">
+        <f t="shared" si="0"/>
+        <v>0.14898</v>
+      </c>
+      <c r="Q14" s="27">
+        <f t="shared" si="0"/>
+        <v>0.12154</v>
+      </c>
+      <c r="R14" s="27">
+        <f t="shared" si="0"/>
+        <v>4.8619999999999997E-2</v>
+      </c>
+      <c r="S14" s="27">
+        <f t="shared" si="0"/>
+        <v>0.24307999999999999</v>
+      </c>
+      <c r="T14" s="27">
+        <f t="shared" si="0"/>
+        <v>0.16259000000000001</v>
+      </c>
+      <c r="U14" s="27">
+        <f t="shared" si="0"/>
+        <v>8.9109999999999995E-2</v>
+      </c>
+      <c r="V14" s="27">
+        <f t="shared" si="0"/>
+        <v>8.9109999999999995E-2</v>
+      </c>
+      <c r="W14" s="27">
+        <f t="shared" si="0"/>
+        <v>7.8469999999999998E-2</v>
+      </c>
+      <c r="X14" s="27">
+        <f t="shared" si="0"/>
+        <v>3.1390000000000001E-2</v>
+      </c>
+      <c r="Y14" s="27">
+        <f t="shared" si="0"/>
+        <v>0.15695000000000001</v>
+      </c>
+      <c r="Z14" s="27">
+        <f t="shared" si="0"/>
+        <v>9.8489999999999994E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26">
+      <c r="B15" s="26">
+        <v>13</v>
+      </c>
+      <c r="C15" s="27">
+        <f t="shared" ref="C15:R20" si="1">ROUND(C4,5)</f>
+        <v>0.15476999999999999</v>
+      </c>
+      <c r="D15" s="27">
+        <f t="shared" si="1"/>
+        <v>0.15476999999999999</v>
+      </c>
+      <c r="E15" s="27">
+        <f t="shared" si="1"/>
+        <v>0.10568</v>
+      </c>
+      <c r="F15" s="27">
+        <f t="shared" si="1"/>
+        <v>4.2270000000000002E-2</v>
+      </c>
+      <c r="G15" s="27">
+        <f t="shared" si="1"/>
+        <v>0.21135999999999999</v>
+      </c>
+      <c r="H15" s="27">
+        <f t="shared" si="1"/>
+        <v>0.16295000000000001</v>
+      </c>
+      <c r="I15" s="27">
+        <f t="shared" si="1"/>
+        <v>9.3049999999999994E-2</v>
+      </c>
+      <c r="J15" s="27">
+        <f t="shared" si="1"/>
+        <v>9.3049999999999994E-2</v>
+      </c>
+      <c r="K15" s="27">
+        <f t="shared" si="1"/>
+        <v>6.6919999999999993E-2</v>
+      </c>
+      <c r="L15" s="27">
+        <f t="shared" si="1"/>
+        <v>2.6769999999999999E-2</v>
+      </c>
+      <c r="M15" s="27">
+        <f t="shared" si="1"/>
+        <v>0.13383999999999999</v>
+      </c>
+      <c r="N15" s="27">
+        <f t="shared" si="1"/>
+        <v>9.869E-2</v>
+      </c>
+      <c r="O15" s="27">
+        <f t="shared" si="1"/>
+        <v>0.14116000000000001</v>
+      </c>
+      <c r="P15" s="27">
+        <f t="shared" si="1"/>
+        <v>0.14116000000000001</v>
+      </c>
+      <c r="Q15" s="27">
+        <f t="shared" si="1"/>
+        <v>9.7479999999999997E-2</v>
+      </c>
+      <c r="R15" s="27">
+        <f t="shared" si="1"/>
+        <v>3.8989999999999997E-2</v>
+      </c>
+      <c r="S15" s="27">
+        <f t="shared" si="0"/>
+        <v>0.19495000000000001</v>
+      </c>
+      <c r="T15" s="27">
+        <f t="shared" si="0"/>
+        <v>0.14887</v>
+      </c>
+      <c r="U15" s="27">
+        <f t="shared" si="0"/>
+        <v>8.3849999999999994E-2</v>
+      </c>
+      <c r="V15" s="27">
+        <f t="shared" si="0"/>
+        <v>8.3849999999999994E-2</v>
+      </c>
+      <c r="W15" s="27">
+        <f t="shared" si="0"/>
+        <v>6.0789999999999997E-2</v>
+      </c>
+      <c r="X15" s="27">
+        <f t="shared" si="0"/>
+        <v>2.4309999999999998E-2</v>
+      </c>
+      <c r="Y15" s="27">
+        <f t="shared" si="0"/>
+        <v>0.12157</v>
+      </c>
+      <c r="Z15" s="27">
+        <f t="shared" si="0"/>
+        <v>8.9029999999999998E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26">
+      <c r="B16" s="26">
+        <v>14</v>
+      </c>
+      <c r="C16" s="27">
+        <f t="shared" si="1"/>
+        <v>0.14674999999999999</v>
+      </c>
+      <c r="D16" s="27">
+        <f t="shared" si="0"/>
+        <v>0.14674999999999999</v>
+      </c>
+      <c r="E16" s="27">
+        <f t="shared" si="0"/>
+        <v>0.10087</v>
+      </c>
+      <c r="F16" s="27">
+        <f t="shared" si="0"/>
+        <v>4.0349999999999997E-2</v>
+      </c>
+      <c r="G16" s="27">
+        <f t="shared" si="0"/>
+        <v>0.20172999999999999</v>
+      </c>
+      <c r="H16" s="27">
+        <f t="shared" si="0"/>
+        <v>0.15465000000000001</v>
+      </c>
+      <c r="I16" s="27">
+        <f t="shared" si="0"/>
+        <v>8.7599999999999997E-2</v>
+      </c>
+      <c r="J16" s="27">
+        <f t="shared" si="0"/>
+        <v>8.7599999999999997E-2</v>
+      </c>
+      <c r="K16" s="27">
+        <f t="shared" si="0"/>
+        <v>6.3299999999999995E-2</v>
+      </c>
+      <c r="L16" s="27">
+        <f t="shared" si="0"/>
+        <v>2.5319999999999999E-2</v>
+      </c>
+      <c r="M16" s="27">
+        <f t="shared" si="0"/>
+        <v>0.12659999999999999</v>
+      </c>
+      <c r="N16" s="27">
+        <f t="shared" si="0"/>
+        <v>9.2969999999999997E-2</v>
+      </c>
+      <c r="O16" s="27">
+        <f t="shared" si="0"/>
+        <v>0.13363</v>
+      </c>
+      <c r="P16" s="27">
+        <f t="shared" si="0"/>
+        <v>0.13363</v>
+      </c>
+      <c r="Q16" s="27">
+        <f t="shared" si="0"/>
+        <v>9.2859999999999998E-2</v>
+      </c>
+      <c r="R16" s="27">
+        <f t="shared" si="0"/>
+        <v>3.7139999999999999E-2</v>
+      </c>
+      <c r="S16" s="27">
+        <f t="shared" si="0"/>
+        <v>0.18570999999999999</v>
+      </c>
+      <c r="T16" s="27">
+        <f t="shared" si="0"/>
+        <v>0.14105000000000001</v>
+      </c>
+      <c r="U16" s="27">
+        <f t="shared" si="0"/>
+        <v>7.8850000000000003E-2</v>
+      </c>
+      <c r="V16" s="27">
+        <f t="shared" si="0"/>
+        <v>7.8850000000000003E-2</v>
+      </c>
+      <c r="W16" s="27">
+        <f t="shared" si="0"/>
+        <v>5.7410000000000003E-2</v>
+      </c>
+      <c r="X16" s="27">
+        <f t="shared" si="0"/>
+        <v>2.2970000000000001E-2</v>
+      </c>
+      <c r="Y16" s="27">
+        <f t="shared" si="0"/>
+        <v>0.11483</v>
+      </c>
+      <c r="Z16" s="27">
+        <f t="shared" si="0"/>
+        <v>8.3779999999999993E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:26">
+      <c r="B17" s="26">
+        <v>15</v>
+      </c>
+      <c r="C17" s="27">
+        <f t="shared" si="1"/>
+        <v>0.13900999999999999</v>
+      </c>
+      <c r="D17" s="27">
+        <f t="shared" si="0"/>
+        <v>0.13900999999999999</v>
+      </c>
+      <c r="E17" s="27">
+        <f t="shared" si="0"/>
+        <v>9.6159999999999995E-2</v>
+      </c>
+      <c r="F17" s="27">
+        <f t="shared" si="0"/>
+        <v>3.8460000000000001E-2</v>
+      </c>
+      <c r="G17" s="27">
+        <f t="shared" si="0"/>
+        <v>0.19231999999999999</v>
+      </c>
+      <c r="H17" s="27">
+        <f t="shared" si="0"/>
+        <v>0.14663999999999999</v>
+      </c>
+      <c r="I17" s="27">
+        <f t="shared" si="0"/>
+        <v>8.2409999999999997E-2</v>
+      </c>
+      <c r="J17" s="27">
+        <f t="shared" si="0"/>
+        <v>8.2409999999999997E-2</v>
+      </c>
+      <c r="K17" s="27">
+        <f t="shared" si="0"/>
+        <v>5.9819999999999998E-2</v>
+      </c>
+      <c r="L17" s="27">
+        <f t="shared" si="0"/>
+        <v>2.393E-2</v>
+      </c>
+      <c r="M17" s="27">
+        <f t="shared" si="0"/>
+        <v>0.11964</v>
+      </c>
+      <c r="N17" s="27">
+        <f t="shared" si="0"/>
+        <v>8.7520000000000001E-2</v>
+      </c>
+      <c r="O17" s="27">
+        <f t="shared" si="0"/>
+        <v>0.12640000000000001</v>
+      </c>
+      <c r="P17" s="27">
+        <f t="shared" si="0"/>
+        <v>0.12640000000000001</v>
+      </c>
+      <c r="Q17" s="27">
+        <f t="shared" si="0"/>
+        <v>8.8359999999999994E-2</v>
+      </c>
+      <c r="R17" s="27">
+        <f t="shared" si="0"/>
+        <v>3.5340000000000003E-2</v>
+      </c>
+      <c r="S17" s="27">
+        <f t="shared" si="0"/>
+        <v>0.17671999999999999</v>
+      </c>
+      <c r="T17" s="27">
+        <f t="shared" si="0"/>
+        <v>0.13353000000000001</v>
+      </c>
+      <c r="U17" s="27">
+        <f t="shared" si="0"/>
+        <v>7.4109999999999995E-2</v>
+      </c>
+      <c r="V17" s="27">
+        <f t="shared" si="0"/>
+        <v>7.4109999999999995E-2</v>
+      </c>
+      <c r="W17" s="27">
+        <f t="shared" si="0"/>
+        <v>5.4190000000000002E-2</v>
+      </c>
+      <c r="X17" s="27">
+        <f t="shared" si="0"/>
+        <v>2.1669999999999998E-2</v>
+      </c>
+      <c r="Y17" s="27">
+        <f t="shared" si="0"/>
+        <v>0.10836999999999999</v>
+      </c>
+      <c r="Z17" s="27">
+        <f t="shared" si="0"/>
+        <v>7.8780000000000003E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:26">
+      <c r="B18" s="26">
+        <v>16</v>
+      </c>
+      <c r="C18" s="27">
+        <f t="shared" si="1"/>
+        <v>0.13156000000000001</v>
+      </c>
+      <c r="D18" s="27">
+        <f t="shared" si="0"/>
+        <v>0.13156000000000001</v>
+      </c>
+      <c r="E18" s="27">
+        <f t="shared" si="0"/>
+        <v>9.1579999999999995E-2</v>
+      </c>
+      <c r="F18" s="27">
+        <f t="shared" si="0"/>
+        <v>3.6630000000000003E-2</v>
+      </c>
+      <c r="G18" s="27">
+        <f t="shared" si="0"/>
+        <v>0.18315999999999999</v>
+      </c>
+      <c r="H18" s="27">
+        <f t="shared" si="0"/>
+        <v>0.1389</v>
+      </c>
+      <c r="I18" s="27">
+        <f t="shared" si="0"/>
+        <v>7.7490000000000003E-2</v>
+      </c>
+      <c r="J18" s="27">
+        <f t="shared" si="0"/>
+        <v>7.7490000000000003E-2</v>
+      </c>
+      <c r="K18" s="27">
+        <f t="shared" si="0"/>
+        <v>5.6489999999999999E-2</v>
+      </c>
+      <c r="L18" s="27">
+        <f t="shared" si="0"/>
+        <v>2.2599999999999999E-2</v>
+      </c>
+      <c r="M18" s="27">
+        <f t="shared" si="0"/>
+        <v>0.11298</v>
+      </c>
+      <c r="N18" s="27">
+        <f t="shared" si="0"/>
+        <v>8.2339999999999997E-2</v>
+      </c>
+      <c r="O18" s="27">
+        <f t="shared" si="0"/>
+        <v>0.11945</v>
+      </c>
+      <c r="P18" s="27">
+        <f t="shared" si="0"/>
+        <v>0.11945</v>
+      </c>
+      <c r="Q18" s="27">
+        <f t="shared" si="0"/>
+        <v>8.4000000000000005E-2</v>
+      </c>
+      <c r="R18" s="27">
+        <f t="shared" si="0"/>
+        <v>3.3599999999999998E-2</v>
+      </c>
+      <c r="S18" s="27">
+        <f t="shared" si="0"/>
+        <v>0.16799</v>
+      </c>
+      <c r="T18" s="27">
+        <f t="shared" si="0"/>
+        <v>0.1263</v>
+      </c>
+      <c r="U18" s="27">
+        <f t="shared" si="0"/>
+        <v>6.9620000000000001E-2</v>
+      </c>
+      <c r="V18" s="27">
+        <f t="shared" si="0"/>
+        <v>6.9620000000000001E-2</v>
+      </c>
+      <c r="W18" s="27">
+        <f t="shared" si="0"/>
+        <v>5.11E-2</v>
+      </c>
+      <c r="X18" s="27">
+        <f t="shared" si="0"/>
+        <v>2.044E-2</v>
+      </c>
+      <c r="Y18" s="27">
+        <f t="shared" si="0"/>
+        <v>0.10221</v>
+      </c>
+      <c r="Z18" s="27">
+        <f t="shared" si="0"/>
+        <v>7.4050000000000005E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:26">
+      <c r="B19" s="26">
+        <v>17</v>
+      </c>
+      <c r="C19" s="27">
+        <f t="shared" si="1"/>
+        <v>0.12441000000000001</v>
+      </c>
+      <c r="D19" s="27">
+        <f t="shared" si="0"/>
+        <v>0.12441000000000001</v>
+      </c>
+      <c r="E19" s="27">
+        <f t="shared" si="0"/>
+        <v>8.7120000000000003E-2</v>
+      </c>
+      <c r="F19" s="27">
+        <f t="shared" si="0"/>
+        <v>3.4849999999999999E-2</v>
+      </c>
+      <c r="G19" s="27">
+        <f t="shared" si="0"/>
+        <v>0.17424000000000001</v>
+      </c>
+      <c r="H19" s="27">
+        <f t="shared" si="0"/>
+        <v>0.13145999999999999</v>
+      </c>
+      <c r="I19" s="27">
+        <f t="shared" si="0"/>
+        <v>7.2819999999999996E-2</v>
+      </c>
+      <c r="J19" s="27">
+        <f t="shared" si="0"/>
+        <v>7.2819999999999996E-2</v>
+      </c>
+      <c r="K19" s="27">
+        <f t="shared" si="0"/>
+        <v>5.33E-2</v>
+      </c>
+      <c r="L19" s="27">
+        <f t="shared" si="0"/>
+        <v>2.1319999999999999E-2</v>
+      </c>
+      <c r="M19" s="27">
+        <f t="shared" si="0"/>
+        <v>0.10661</v>
+      </c>
+      <c r="N19" s="27">
+        <f t="shared" si="0"/>
+        <v>7.7420000000000003E-2</v>
+      </c>
+      <c r="O19" s="27">
+        <f t="shared" si="0"/>
+        <v>0.1128</v>
+      </c>
+      <c r="P19" s="27">
+        <f t="shared" si="0"/>
+        <v>0.1128</v>
+      </c>
+      <c r="Q19" s="27">
+        <f t="shared" si="0"/>
+        <v>7.9759999999999998E-2</v>
+      </c>
+      <c r="R19" s="27">
+        <f t="shared" si="0"/>
+        <v>3.1910000000000001E-2</v>
+      </c>
+      <c r="S19" s="27">
+        <f t="shared" si="0"/>
+        <v>0.15953000000000001</v>
+      </c>
+      <c r="T19" s="27">
+        <f t="shared" si="0"/>
+        <v>0.11935999999999999</v>
+      </c>
+      <c r="U19" s="27">
+        <f t="shared" si="0"/>
+        <v>6.5369999999999998E-2</v>
+      </c>
+      <c r="V19" s="27">
+        <f t="shared" si="0"/>
+        <v>6.5369999999999998E-2</v>
+      </c>
+      <c r="W19" s="27">
+        <f t="shared" si="0"/>
+        <v>4.8160000000000001E-2</v>
+      </c>
+      <c r="X19" s="27">
+        <f t="shared" si="0"/>
+        <v>1.9259999999999999E-2</v>
+      </c>
+      <c r="Y19" s="27">
+        <f t="shared" si="0"/>
+        <v>9.6320000000000003E-2</v>
+      </c>
+      <c r="Z19" s="27">
+        <f t="shared" si="0"/>
+        <v>6.9559999999999997E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:26">
+      <c r="B20" s="26">
+        <v>18</v>
+      </c>
+      <c r="C20" s="27">
+        <f t="shared" si="1"/>
+        <v>0.11755</v>
+      </c>
+      <c r="D20" s="27">
+        <f t="shared" si="0"/>
+        <v>0.11755</v>
+      </c>
+      <c r="E20" s="27">
+        <f t="shared" si="0"/>
+        <v>8.2790000000000002E-2</v>
+      </c>
+      <c r="F20" s="27">
+        <f t="shared" si="0"/>
+        <v>3.3119999999999997E-2</v>
+      </c>
+      <c r="G20" s="27">
+        <f t="shared" si="0"/>
+        <v>0.16558</v>
+      </c>
+      <c r="H20" s="27">
+        <f t="shared" si="0"/>
+        <v>0.12431</v>
+      </c>
+      <c r="I20" s="27">
+        <f t="shared" si="0"/>
+        <v>6.8400000000000002E-2</v>
+      </c>
+      <c r="J20" s="27">
+        <f t="shared" si="0"/>
+        <v>6.8400000000000002E-2</v>
+      </c>
+      <c r="K20" s="27">
+        <f t="shared" si="0"/>
+        <v>5.0259999999999999E-2</v>
+      </c>
+      <c r="L20" s="27">
+        <f t="shared" si="0"/>
+        <v>2.01E-2</v>
+      </c>
+      <c r="M20" s="27">
+        <f t="shared" si="0"/>
+        <v>0.10052</v>
+      </c>
+      <c r="N20" s="27">
+        <f t="shared" si="0"/>
+        <v>7.2760000000000005E-2</v>
+      </c>
+      <c r="O20" s="27">
+        <f t="shared" si="0"/>
+        <v>0.10643</v>
+      </c>
+      <c r="P20" s="27">
+        <f t="shared" si="0"/>
+        <v>0.10643</v>
+      </c>
+      <c r="Q20" s="27">
+        <f t="shared" si="0"/>
+        <v>7.5670000000000001E-2</v>
+      </c>
+      <c r="R20" s="27">
+        <f t="shared" si="0"/>
+        <v>3.0269999999999998E-2</v>
+      </c>
+      <c r="S20" s="27">
+        <f t="shared" si="0"/>
+        <v>0.15134</v>
+      </c>
+      <c r="T20" s="27">
+        <f t="shared" si="0"/>
+        <v>0.11271</v>
+      </c>
+      <c r="U20" s="27">
+        <f t="shared" si="0"/>
+        <v>6.1339999999999999E-2</v>
+      </c>
+      <c r="V20" s="27">
+        <f t="shared" si="0"/>
+        <v>6.1339999999999999E-2</v>
+      </c>
+      <c r="W20" s="27">
+        <f t="shared" si="0"/>
+        <v>4.5359999999999998E-2</v>
+      </c>
+      <c r="X20" s="27">
+        <f t="shared" si="0"/>
+        <v>1.814E-2</v>
+      </c>
+      <c r="Y20" s="27">
+        <f t="shared" si="0"/>
+        <v>9.0709999999999999E-2</v>
+      </c>
+      <c r="Z20" s="27">
+        <f t="shared" si="0"/>
+        <v>6.5310000000000007E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:26">
+      <c r="A22" t="s">
+        <v>55</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/data_prep/input_data.xlsx
+++ b/data_prep/input_data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="180" windowWidth="12435" windowHeight="10485" activeTab="4"/>
+    <workbookView xWindow="360" yWindow="180" windowWidth="12435" windowHeight="10485" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Introduction" sheetId="4" r:id="rId1"/>
@@ -12,9 +12,10 @@
     <sheet name="FertilityMotherDieaseMultiplier" sheetId="2" r:id="rId3"/>
     <sheet name="Dropout" sheetId="3" r:id="rId4"/>
     <sheet name="Abuse" sheetId="5" r:id="rId5"/>
+    <sheet name="Abused Depression" sheetId="6" r:id="rId6"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId6"/>
+    <externalReference r:id="rId7"/>
   </externalReferences>
   <definedNames>
     <definedName name="CurrYear">[1]Results!$B$3</definedName>
@@ -53,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="57">
   <si>
     <t>Age</t>
   </si>
@@ -498,7 +499,7 @@
     <xf numFmtId="10" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFont="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="174" fontId="2" fillId="0" borderId="4" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -535,6 +536,8 @@
     <xf numFmtId="184" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="182" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="28">
     <cellStyle name="Bold 11" xfId="2"/>
@@ -15906,8 +15909,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="U14" sqref="U14:Z20"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -17335,4 +17338,1459 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Z22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I37" sqref="I37"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:26">
+      <c r="A1" s="26" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:26">
+      <c r="A2" s="26"/>
+      <c r="B2" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="E2" s="28" t="s">
+        <v>32</v>
+      </c>
+      <c r="F2" s="28" t="s">
+        <v>33</v>
+      </c>
+      <c r="G2" s="28" t="s">
+        <v>34</v>
+      </c>
+      <c r="H2" s="28" t="s">
+        <v>35</v>
+      </c>
+      <c r="I2" s="28" t="s">
+        <v>36</v>
+      </c>
+      <c r="J2" s="28" t="s">
+        <v>37</v>
+      </c>
+      <c r="K2" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="L2" s="28" t="s">
+        <v>39</v>
+      </c>
+      <c r="M2" s="28" t="s">
+        <v>40</v>
+      </c>
+      <c r="N2" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="O2" s="28" t="s">
+        <v>42</v>
+      </c>
+      <c r="P2" s="28" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q2" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="R2" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="S2" s="28" t="s">
+        <v>46</v>
+      </c>
+      <c r="T2" s="28" t="s">
+        <v>47</v>
+      </c>
+      <c r="U2" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="V2" s="28" t="s">
+        <v>49</v>
+      </c>
+      <c r="W2" s="28" t="s">
+        <v>50</v>
+      </c>
+      <c r="X2" s="28" t="s">
+        <v>51</v>
+      </c>
+      <c r="Y2" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z2" s="28" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26">
+      <c r="A3" s="26"/>
+      <c r="B3" s="28">
+        <v>12</v>
+      </c>
+      <c r="C3" s="23">
+        <v>0.13072032357909907</v>
+      </c>
+      <c r="D3" s="23">
+        <v>0.13072032357909907</v>
+      </c>
+      <c r="E3" s="23">
+        <v>8.7781920090155188E-2</v>
+      </c>
+      <c r="F3" s="23">
+        <v>3.5112768036062079E-2</v>
+      </c>
+      <c r="G3" s="23">
+        <v>0.17556384018031038</v>
+      </c>
+      <c r="H3" s="23">
+        <v>0.19002206560710103</v>
+      </c>
+      <c r="I3" s="23">
+        <v>5.9635640495214338E-2</v>
+      </c>
+      <c r="J3" s="23">
+        <v>5.9635640495214338E-2</v>
+      </c>
+      <c r="K3" s="23">
+        <v>4.1293421303029307E-2</v>
+      </c>
+      <c r="L3" s="23">
+        <v>1.6517368521211724E-2</v>
+      </c>
+      <c r="M3" s="23">
+        <v>8.2586842606058614E-2</v>
+      </c>
+      <c r="N3" s="23">
+        <v>9.027636511993109E-2</v>
+      </c>
+      <c r="O3" s="23">
+        <v>8.8609827724222198E-2</v>
+      </c>
+      <c r="P3" s="23">
+        <v>8.8609827724222198E-2</v>
+      </c>
+      <c r="Q3" s="23">
+        <v>6.0588804753311985E-2</v>
+      </c>
+      <c r="R3" s="23">
+        <v>2.4235521901324796E-2</v>
+      </c>
+      <c r="S3" s="23">
+        <v>0.12117760950662397</v>
+      </c>
+      <c r="T3" s="23">
+        <v>0.13191776806942238</v>
+      </c>
+      <c r="U3" s="23">
+        <v>3.9258168697638492E-2</v>
+      </c>
+      <c r="V3" s="23">
+        <v>3.9258168697638492E-2</v>
+      </c>
+      <c r="W3" s="23">
+        <v>2.7427136262616711E-2</v>
+      </c>
+      <c r="X3" s="23">
+        <v>1.0970854505046685E-2</v>
+      </c>
+      <c r="Y3" s="23">
+        <v>5.4854272525233422E-2</v>
+      </c>
+      <c r="Z3" s="23">
+        <v>6.0138786840652658E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26">
+      <c r="A4" s="26"/>
+      <c r="B4" s="28">
+        <v>13</v>
+      </c>
+      <c r="C4" s="23">
+        <v>0.14826936823900039</v>
+      </c>
+      <c r="D4" s="23">
+        <v>0.14826936823900039</v>
+      </c>
+      <c r="E4" s="23">
+        <v>9.6584553235701504E-2</v>
+      </c>
+      <c r="F4" s="23">
+        <v>3.8633821294280606E-2</v>
+      </c>
+      <c r="G4" s="23">
+        <v>0.19316910647140301</v>
+      </c>
+      <c r="H4" s="23">
+        <v>0.20749853238479582</v>
+      </c>
+      <c r="I4" s="23">
+        <v>6.8489779559944258E-2</v>
+      </c>
+      <c r="J4" s="23">
+        <v>6.8489779559944258E-2</v>
+      </c>
+      <c r="K4" s="23">
+        <v>4.6094105663264641E-2</v>
+      </c>
+      <c r="L4" s="23">
+        <v>1.8437642265305858E-2</v>
+      </c>
+      <c r="M4" s="23">
+        <v>9.2188211326529282E-2</v>
+      </c>
+      <c r="N4" s="23">
+        <v>0.10008586033603298</v>
+      </c>
+      <c r="O4" s="23">
+        <v>0.10124841846462271</v>
+      </c>
+      <c r="P4" s="23">
+        <v>0.10124841846462271</v>
+      </c>
+      <c r="Q4" s="23">
+        <v>6.7226009388458755E-2</v>
+      </c>
+      <c r="R4" s="23">
+        <v>2.6890403755383502E-2</v>
+      </c>
+      <c r="S4" s="23">
+        <v>0.13445201877691751</v>
+      </c>
+      <c r="T4" s="23">
+        <v>0.14532003544507888</v>
+      </c>
+      <c r="U4" s="23">
+        <v>4.5822291862324768E-2</v>
+      </c>
+      <c r="V4" s="23">
+        <v>4.5822291862324768E-2</v>
+      </c>
+      <c r="W4" s="23">
+        <v>3.1816237516487322E-2</v>
+      </c>
+      <c r="X4" s="23">
+        <v>1.272649500659493E-2</v>
+      </c>
+      <c r="Y4" s="23">
+        <v>6.3632475032974645E-2</v>
+      </c>
+      <c r="Z4" s="23">
+        <v>6.9647157565001047E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26">
+      <c r="A5" s="26"/>
+      <c r="B5" s="28">
+        <v>14</v>
+      </c>
+      <c r="C5" s="23">
+        <v>0.16766160955157292</v>
+      </c>
+      <c r="D5" s="23">
+        <v>0.16766160955157292</v>
+      </c>
+      <c r="E5" s="23">
+        <v>0.10837134869662345</v>
+      </c>
+      <c r="F5" s="23">
+        <v>4.3348539478649382E-2</v>
+      </c>
+      <c r="G5" s="23">
+        <v>0.21674269739324689</v>
+      </c>
+      <c r="H5" s="23">
+        <v>0.23224687387015924</v>
+      </c>
+      <c r="I5" s="23">
+        <v>7.8535874423254479E-2</v>
+      </c>
+      <c r="J5" s="23">
+        <v>7.8535874423254479E-2</v>
+      </c>
+      <c r="K5" s="23">
+        <v>5.2635544194574398E-2</v>
+      </c>
+      <c r="L5" s="23">
+        <v>2.1054217677829761E-2</v>
+      </c>
+      <c r="M5" s="23">
+        <v>0.1052710883891488</v>
+      </c>
+      <c r="N5" s="23">
+        <v>0.11413144566820385</v>
+      </c>
+      <c r="O5" s="23">
+        <v>0.11543364732735795</v>
+      </c>
+      <c r="P5" s="23">
+        <v>0.11543364732735795</v>
+      </c>
+      <c r="Q5" s="23">
+        <v>7.6201467871442996E-2</v>
+      </c>
+      <c r="R5" s="23">
+        <v>3.0480587148577199E-2</v>
+      </c>
+      <c r="S5" s="23">
+        <v>0.15240293574288599</v>
+      </c>
+      <c r="T5" s="23">
+        <v>0.16441078039090012</v>
+      </c>
+      <c r="U5" s="23">
+        <v>5.332907393622692E-2</v>
+      </c>
+      <c r="V5" s="23">
+        <v>5.332907393622692E-2</v>
+      </c>
+      <c r="W5" s="23">
+        <v>3.6809012415341527E-2</v>
+      </c>
+      <c r="X5" s="23">
+        <v>1.4723604966136611E-2</v>
+      </c>
+      <c r="Y5" s="23">
+        <v>7.3618024830683054E-2</v>
+      </c>
+      <c r="Z5" s="23">
+        <v>8.0443889665049603E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26">
+      <c r="A6" s="26"/>
+      <c r="B6" s="28">
+        <v>15</v>
+      </c>
+      <c r="C6" s="23">
+        <v>0.18895348428302433</v>
+      </c>
+      <c r="D6" s="23">
+        <v>0.18895348428302433</v>
+      </c>
+      <c r="E6" s="23">
+        <v>0.12110418052669357</v>
+      </c>
+      <c r="F6" s="23">
+        <v>4.8441672210677432E-2</v>
+      </c>
+      <c r="G6" s="23">
+        <v>0.24220836105338714</v>
+      </c>
+      <c r="H6" s="23">
+        <v>0.25884472561381183</v>
+      </c>
+      <c r="I6" s="23">
+        <v>8.9896510804592988E-2</v>
+      </c>
+      <c r="J6" s="23">
+        <v>8.9896510804592988E-2</v>
+      </c>
+      <c r="K6" s="23">
+        <v>5.9967709986047536E-2</v>
+      </c>
+      <c r="L6" s="23">
+        <v>2.3987083994419015E-2</v>
+      </c>
+      <c r="M6" s="23">
+        <v>0.11993541997209507</v>
+      </c>
+      <c r="N6" s="23">
+        <v>0.12982872201365486</v>
+      </c>
+      <c r="O6" s="23">
+        <v>0.13128015246148522</v>
+      </c>
+      <c r="P6" s="23">
+        <v>0.13128015246148522</v>
+      </c>
+      <c r="Q6" s="23">
+        <v>8.6106063047996562E-2</v>
+      </c>
+      <c r="R6" s="23">
+        <v>3.4442425219198623E-2</v>
+      </c>
+      <c r="S6" s="23">
+        <v>0.17221212609599312</v>
+      </c>
+      <c r="T6" s="23">
+        <v>0.18539419793419482</v>
+      </c>
+      <c r="U6" s="23">
+        <v>6.189465567146632E-2</v>
+      </c>
+      <c r="V6" s="23">
+        <v>6.189465567146632E-2</v>
+      </c>
+      <c r="W6" s="23">
+        <v>4.2471577296019893E-2</v>
+      </c>
+      <c r="X6" s="23">
+        <v>1.6988630918407958E-2</v>
+      </c>
+      <c r="Y6" s="23">
+        <v>8.4943154592039785E-2</v>
+      </c>
+      <c r="Z6" s="23">
+        <v>9.266408977527113E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26">
+      <c r="A7" s="26"/>
+      <c r="B7" s="28">
+        <v>16</v>
+      </c>
+      <c r="C7" s="23">
+        <v>0.21216686250271777</v>
+      </c>
+      <c r="D7" s="23">
+        <v>0.21216686250271777</v>
+      </c>
+      <c r="E7" s="23">
+        <v>0.13474352577547533</v>
+      </c>
+      <c r="F7" s="23">
+        <v>5.389741031019013E-2</v>
+      </c>
+      <c r="G7" s="23">
+        <v>0.26948705155095065</v>
+      </c>
+      <c r="H7" s="23">
+        <v>0.2871797599944742</v>
+      </c>
+      <c r="I7" s="23">
+        <v>0.10269543582069027</v>
+      </c>
+      <c r="J7" s="23">
+        <v>0.10269543582069027</v>
+      </c>
+      <c r="K7" s="23">
+        <v>6.8146365011634014E-2</v>
+      </c>
+      <c r="L7" s="23">
+        <v>2.7258546004653605E-2</v>
+      </c>
+      <c r="M7" s="23">
+        <v>0.13629273002326803</v>
+      </c>
+      <c r="N7" s="23">
+        <v>0.14728095246135559</v>
+      </c>
+      <c r="O7" s="23">
+        <v>0.14888982889461763</v>
+      </c>
+      <c r="P7" s="23">
+        <v>0.14888982889461763</v>
+      </c>
+      <c r="Q7" s="23">
+        <v>9.6964524654654896E-2</v>
+      </c>
+      <c r="R7" s="23">
+        <v>3.8785809861861961E-2</v>
+      </c>
+      <c r="S7" s="23">
+        <v>0.19392904930930979</v>
+      </c>
+      <c r="T7" s="23">
+        <v>0.2082982549266541</v>
+      </c>
+      <c r="U7" s="23">
+        <v>7.1643399983750369E-2</v>
+      </c>
+      <c r="V7" s="23">
+        <v>7.1643399983750369E-2</v>
+      </c>
+      <c r="W7" s="23">
+        <v>4.8872104639166122E-2</v>
+      </c>
+      <c r="X7" s="23">
+        <v>1.9548841855666452E-2</v>
+      </c>
+      <c r="Y7" s="23">
+        <v>9.7744209278332245E-2</v>
+      </c>
+      <c r="Z7" s="23">
+        <v>0.1064450605052412</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26">
+      <c r="A8" s="26"/>
+      <c r="B8" s="28">
+        <v>17</v>
+      </c>
+      <c r="C8" s="23">
+        <v>0.23728141398439886</v>
+      </c>
+      <c r="D8" s="23">
+        <v>0.23728141398439886</v>
+      </c>
+      <c r="E8" s="23">
+        <v>0.14922260757988282</v>
+      </c>
+      <c r="F8" s="23">
+        <v>5.9689043031953132E-2</v>
+      </c>
+      <c r="G8" s="23">
+        <v>0.29844521515976563</v>
+      </c>
+      <c r="H8" s="23">
+        <v>0.31708368915278728</v>
+      </c>
+      <c r="I8" s="23">
+        <v>0.11705373594432186</v>
+      </c>
+      <c r="J8" s="23">
+        <v>0.11705373594432186</v>
+      </c>
+      <c r="K8" s="23">
+        <v>7.721994858392113E-2</v>
+      </c>
+      <c r="L8" s="23">
+        <v>3.0887979433568455E-2</v>
+      </c>
+      <c r="M8" s="23">
+        <v>0.15443989716784226</v>
+      </c>
+      <c r="N8" s="23">
+        <v>0.16657252414397133</v>
+      </c>
+      <c r="O8" s="23">
+        <v>0.16834507260725676</v>
+      </c>
+      <c r="P8" s="23">
+        <v>0.16834507260725676</v>
+      </c>
+      <c r="Q8" s="23">
+        <v>0.10878343347914121</v>
+      </c>
+      <c r="R8" s="23">
+        <v>4.3513373391656486E-2</v>
+      </c>
+      <c r="S8" s="23">
+        <v>0.21756686695828242</v>
+      </c>
+      <c r="T8" s="23">
+        <v>0.23310990551610464</v>
+      </c>
+      <c r="U8" s="23">
+        <v>8.2706478261945063E-2</v>
+      </c>
+      <c r="V8" s="23">
+        <v>8.2706478261945063E-2</v>
+      </c>
+      <c r="W8" s="23">
+        <v>5.6079173180596985E-2</v>
+      </c>
+      <c r="X8" s="23">
+        <v>2.2431669272238795E-2</v>
+      </c>
+      <c r="Y8" s="23">
+        <v>0.11215834636119397</v>
+      </c>
+      <c r="Z8" s="23">
+        <v>0.12192234785265216</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26">
+      <c r="A9" s="26"/>
+      <c r="B9" s="28">
+        <v>18</v>
+      </c>
+      <c r="C9" s="23">
+        <v>0.2642279024146969</v>
+      </c>
+      <c r="D9" s="23">
+        <v>0.2642279024146969</v>
+      </c>
+      <c r="E9" s="23">
+        <v>0.16444652392789583</v>
+      </c>
+      <c r="F9" s="23">
+        <v>6.5778609571158331E-2</v>
+      </c>
+      <c r="G9" s="23">
+        <v>0.32889304785579165</v>
+      </c>
+      <c r="H9" s="23">
+        <v>0.34833259726949661</v>
+      </c>
+      <c r="I9" s="23">
+        <v>0.1330849768166428</v>
+      </c>
+      <c r="J9" s="23">
+        <v>0.1330849768166428</v>
+      </c>
+      <c r="K9" s="23">
+        <v>8.7226075452098414E-2</v>
+      </c>
+      <c r="L9" s="23">
+        <v>3.4890430180839364E-2</v>
+      </c>
+      <c r="M9" s="23">
+        <v>0.17445215090419683</v>
+      </c>
+      <c r="N9" s="23">
+        <v>0.1877615070306955</v>
+      </c>
+      <c r="O9" s="23">
+        <v>0.18970128807672451</v>
+      </c>
+      <c r="P9" s="23">
+        <v>0.18970128807672451</v>
+      </c>
+      <c r="Q9" s="23">
+        <v>0.12154747348797017</v>
+      </c>
+      <c r="R9" s="23">
+        <v>4.8618989395188071E-2</v>
+      </c>
+      <c r="S9" s="23">
+        <v>0.24309494697594033</v>
+      </c>
+      <c r="T9" s="23">
+        <v>0.25976818131547708</v>
+      </c>
+      <c r="U9" s="23">
+        <v>9.5219683807686056E-2</v>
+      </c>
+      <c r="V9" s="23">
+        <v>9.5219683807686056E-2</v>
+      </c>
+      <c r="W9" s="23">
+        <v>6.4159579280315654E-2</v>
+      </c>
+      <c r="X9" s="23">
+        <v>2.5663831712126262E-2</v>
+      </c>
+      <c r="Y9" s="23">
+        <v>0.12831915856063131</v>
+      </c>
+      <c r="Z9" s="23">
+        <v>0.13922465565303327</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26">
+      <c r="A10" s="26"/>
+    </row>
+    <row r="11" spans="1:26">
+      <c r="A11" s="26" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26">
+      <c r="A12" s="26"/>
+      <c r="B12" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="C12" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="D12" s="29" t="s">
+        <v>31</v>
+      </c>
+      <c r="E12" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="F12" s="29" t="s">
+        <v>33</v>
+      </c>
+      <c r="G12" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="H12" s="29" t="s">
+        <v>35</v>
+      </c>
+      <c r="I12" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="J12" s="29" t="s">
+        <v>37</v>
+      </c>
+      <c r="K12" s="29" t="s">
+        <v>38</v>
+      </c>
+      <c r="L12" s="29" t="s">
+        <v>39</v>
+      </c>
+      <c r="M12" s="29" t="s">
+        <v>40</v>
+      </c>
+      <c r="N12" s="29" t="s">
+        <v>41</v>
+      </c>
+      <c r="O12" s="29" t="s">
+        <v>42</v>
+      </c>
+      <c r="P12" s="29" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q12" s="29" t="s">
+        <v>44</v>
+      </c>
+      <c r="R12" s="29" t="s">
+        <v>45</v>
+      </c>
+      <c r="S12" s="29" t="s">
+        <v>46</v>
+      </c>
+      <c r="T12" s="29" t="s">
+        <v>47</v>
+      </c>
+      <c r="U12" s="29" t="s">
+        <v>48</v>
+      </c>
+      <c r="V12" s="29" t="s">
+        <v>49</v>
+      </c>
+      <c r="W12" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="X12" s="29" t="s">
+        <v>51</v>
+      </c>
+      <c r="Y12" s="29" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z12" s="29" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26">
+      <c r="A13" s="26"/>
+      <c r="B13" s="29">
+        <v>12</v>
+      </c>
+      <c r="C13" s="23">
+        <f>ROUND(C3,5)</f>
+        <v>0.13072</v>
+      </c>
+      <c r="D13" s="23">
+        <f t="shared" ref="D13:Z19" si="0">ROUND(D3,5)</f>
+        <v>0.13072</v>
+      </c>
+      <c r="E13" s="23">
+        <f t="shared" si="0"/>
+        <v>8.7779999999999997E-2</v>
+      </c>
+      <c r="F13" s="23">
+        <f t="shared" si="0"/>
+        <v>3.5110000000000002E-2</v>
+      </c>
+      <c r="G13" s="23">
+        <f t="shared" si="0"/>
+        <v>0.17555999999999999</v>
+      </c>
+      <c r="H13" s="23">
+        <f t="shared" si="0"/>
+        <v>0.19001999999999999</v>
+      </c>
+      <c r="I13" s="23">
+        <f t="shared" si="0"/>
+        <v>5.9639999999999999E-2</v>
+      </c>
+      <c r="J13" s="23">
+        <f t="shared" si="0"/>
+        <v>5.9639999999999999E-2</v>
+      </c>
+      <c r="K13" s="23">
+        <f t="shared" si="0"/>
+        <v>4.129E-2</v>
+      </c>
+      <c r="L13" s="23">
+        <f t="shared" si="0"/>
+        <v>1.652E-2</v>
+      </c>
+      <c r="M13" s="23">
+        <f t="shared" si="0"/>
+        <v>8.2589999999999997E-2</v>
+      </c>
+      <c r="N13" s="23">
+        <f t="shared" si="0"/>
+        <v>9.0279999999999999E-2</v>
+      </c>
+      <c r="O13" s="23">
+        <f t="shared" si="0"/>
+        <v>8.8609999999999994E-2</v>
+      </c>
+      <c r="P13" s="23">
+        <f t="shared" si="0"/>
+        <v>8.8609999999999994E-2</v>
+      </c>
+      <c r="Q13" s="23">
+        <f t="shared" si="0"/>
+        <v>6.0589999999999998E-2</v>
+      </c>
+      <c r="R13" s="23">
+        <f t="shared" si="0"/>
+        <v>2.4240000000000001E-2</v>
+      </c>
+      <c r="S13" s="23">
+        <f t="shared" si="0"/>
+        <v>0.12118</v>
+      </c>
+      <c r="T13" s="23">
+        <f t="shared" si="0"/>
+        <v>0.13192000000000001</v>
+      </c>
+      <c r="U13" s="23">
+        <f t="shared" si="0"/>
+        <v>3.9260000000000003E-2</v>
+      </c>
+      <c r="V13" s="23">
+        <f t="shared" si="0"/>
+        <v>3.9260000000000003E-2</v>
+      </c>
+      <c r="W13" s="23">
+        <f t="shared" si="0"/>
+        <v>2.743E-2</v>
+      </c>
+      <c r="X13" s="23">
+        <f t="shared" si="0"/>
+        <v>1.0970000000000001E-2</v>
+      </c>
+      <c r="Y13" s="23">
+        <f t="shared" si="0"/>
+        <v>5.4850000000000003E-2</v>
+      </c>
+      <c r="Z13" s="23">
+        <f t="shared" si="0"/>
+        <v>6.0139999999999999E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26">
+      <c r="A14" s="26"/>
+      <c r="B14" s="29">
+        <v>13</v>
+      </c>
+      <c r="C14" s="23">
+        <f t="shared" ref="C14:R19" si="1">ROUND(C4,5)</f>
+        <v>0.14827000000000001</v>
+      </c>
+      <c r="D14" s="23">
+        <f t="shared" si="1"/>
+        <v>0.14827000000000001</v>
+      </c>
+      <c r="E14" s="23">
+        <f t="shared" si="1"/>
+        <v>9.6579999999999999E-2</v>
+      </c>
+      <c r="F14" s="23">
+        <f t="shared" si="1"/>
+        <v>3.8629999999999998E-2</v>
+      </c>
+      <c r="G14" s="23">
+        <f t="shared" si="1"/>
+        <v>0.19317000000000001</v>
+      </c>
+      <c r="H14" s="23">
+        <f t="shared" si="1"/>
+        <v>0.20749999999999999</v>
+      </c>
+      <c r="I14" s="23">
+        <f t="shared" si="1"/>
+        <v>6.8489999999999995E-2</v>
+      </c>
+      <c r="J14" s="23">
+        <f t="shared" si="1"/>
+        <v>6.8489999999999995E-2</v>
+      </c>
+      <c r="K14" s="23">
+        <f t="shared" si="1"/>
+        <v>4.6089999999999999E-2</v>
+      </c>
+      <c r="L14" s="23">
+        <f t="shared" si="1"/>
+        <v>1.8440000000000002E-2</v>
+      </c>
+      <c r="M14" s="23">
+        <f t="shared" si="1"/>
+        <v>9.2189999999999994E-2</v>
+      </c>
+      <c r="N14" s="23">
+        <f t="shared" si="1"/>
+        <v>0.10009</v>
+      </c>
+      <c r="O14" s="23">
+        <f t="shared" si="1"/>
+        <v>0.10125000000000001</v>
+      </c>
+      <c r="P14" s="23">
+        <f t="shared" si="1"/>
+        <v>0.10125000000000001</v>
+      </c>
+      <c r="Q14" s="23">
+        <f t="shared" si="1"/>
+        <v>6.7229999999999998E-2</v>
+      </c>
+      <c r="R14" s="23">
+        <f t="shared" si="1"/>
+        <v>2.6890000000000001E-2</v>
+      </c>
+      <c r="S14" s="23">
+        <f t="shared" si="0"/>
+        <v>0.13444999999999999</v>
+      </c>
+      <c r="T14" s="23">
+        <f t="shared" si="0"/>
+        <v>0.14532</v>
+      </c>
+      <c r="U14" s="23">
+        <f t="shared" si="0"/>
+        <v>4.582E-2</v>
+      </c>
+      <c r="V14" s="23">
+        <f t="shared" si="0"/>
+        <v>4.582E-2</v>
+      </c>
+      <c r="W14" s="23">
+        <f t="shared" si="0"/>
+        <v>3.1820000000000001E-2</v>
+      </c>
+      <c r="X14" s="23">
+        <f t="shared" si="0"/>
+        <v>1.273E-2</v>
+      </c>
+      <c r="Y14" s="23">
+        <f t="shared" si="0"/>
+        <v>6.3630000000000006E-2</v>
+      </c>
+      <c r="Z14" s="23">
+        <f t="shared" si="0"/>
+        <v>6.9650000000000004E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26">
+      <c r="A15" s="26"/>
+      <c r="B15" s="29">
+        <v>14</v>
+      </c>
+      <c r="C15" s="23">
+        <f t="shared" si="1"/>
+        <v>0.16766</v>
+      </c>
+      <c r="D15" s="23">
+        <f t="shared" si="0"/>
+        <v>0.16766</v>
+      </c>
+      <c r="E15" s="23">
+        <f t="shared" si="0"/>
+        <v>0.10836999999999999</v>
+      </c>
+      <c r="F15" s="23">
+        <f t="shared" si="0"/>
+        <v>4.335E-2</v>
+      </c>
+      <c r="G15" s="23">
+        <f t="shared" si="0"/>
+        <v>0.21673999999999999</v>
+      </c>
+      <c r="H15" s="23">
+        <f t="shared" si="0"/>
+        <v>0.23225000000000001</v>
+      </c>
+      <c r="I15" s="23">
+        <f t="shared" si="0"/>
+        <v>7.8539999999999999E-2</v>
+      </c>
+      <c r="J15" s="23">
+        <f t="shared" si="0"/>
+        <v>7.8539999999999999E-2</v>
+      </c>
+      <c r="K15" s="23">
+        <f t="shared" si="0"/>
+        <v>5.2639999999999999E-2</v>
+      </c>
+      <c r="L15" s="23">
+        <f t="shared" si="0"/>
+        <v>2.1049999999999999E-2</v>
+      </c>
+      <c r="M15" s="23">
+        <f t="shared" si="0"/>
+        <v>0.10527</v>
+      </c>
+      <c r="N15" s="23">
+        <f t="shared" si="0"/>
+        <v>0.11413</v>
+      </c>
+      <c r="O15" s="23">
+        <f t="shared" si="0"/>
+        <v>0.11543</v>
+      </c>
+      <c r="P15" s="23">
+        <f t="shared" si="0"/>
+        <v>0.11543</v>
+      </c>
+      <c r="Q15" s="23">
+        <f t="shared" si="0"/>
+        <v>7.6200000000000004E-2</v>
+      </c>
+      <c r="R15" s="23">
+        <f t="shared" si="0"/>
+        <v>3.048E-2</v>
+      </c>
+      <c r="S15" s="23">
+        <f t="shared" si="0"/>
+        <v>0.15240000000000001</v>
+      </c>
+      <c r="T15" s="23">
+        <f t="shared" si="0"/>
+        <v>0.16441</v>
+      </c>
+      <c r="U15" s="23">
+        <f t="shared" si="0"/>
+        <v>5.3330000000000002E-2</v>
+      </c>
+      <c r="V15" s="23">
+        <f t="shared" si="0"/>
+        <v>5.3330000000000002E-2</v>
+      </c>
+      <c r="W15" s="23">
+        <f t="shared" si="0"/>
+        <v>3.6810000000000002E-2</v>
+      </c>
+      <c r="X15" s="23">
+        <f t="shared" si="0"/>
+        <v>1.472E-2</v>
+      </c>
+      <c r="Y15" s="23">
+        <f t="shared" si="0"/>
+        <v>7.3620000000000005E-2</v>
+      </c>
+      <c r="Z15" s="23">
+        <f t="shared" si="0"/>
+        <v>8.0439999999999998E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26">
+      <c r="A16" s="26"/>
+      <c r="B16" s="29">
+        <v>15</v>
+      </c>
+      <c r="C16" s="23">
+        <f t="shared" si="1"/>
+        <v>0.18895000000000001</v>
+      </c>
+      <c r="D16" s="23">
+        <f t="shared" si="0"/>
+        <v>0.18895000000000001</v>
+      </c>
+      <c r="E16" s="23">
+        <f t="shared" si="0"/>
+        <v>0.1211</v>
+      </c>
+      <c r="F16" s="23">
+        <f t="shared" si="0"/>
+        <v>4.8439999999999997E-2</v>
+      </c>
+      <c r="G16" s="23">
+        <f t="shared" si="0"/>
+        <v>0.24221000000000001</v>
+      </c>
+      <c r="H16" s="23">
+        <f t="shared" si="0"/>
+        <v>0.25884000000000001</v>
+      </c>
+      <c r="I16" s="23">
+        <f t="shared" si="0"/>
+        <v>8.9899999999999994E-2</v>
+      </c>
+      <c r="J16" s="23">
+        <f t="shared" si="0"/>
+        <v>8.9899999999999994E-2</v>
+      </c>
+      <c r="K16" s="23">
+        <f t="shared" si="0"/>
+        <v>5.9970000000000002E-2</v>
+      </c>
+      <c r="L16" s="23">
+        <f t="shared" si="0"/>
+        <v>2.3990000000000001E-2</v>
+      </c>
+      <c r="M16" s="23">
+        <f t="shared" si="0"/>
+        <v>0.11994</v>
+      </c>
+      <c r="N16" s="23">
+        <f t="shared" si="0"/>
+        <v>0.12983</v>
+      </c>
+      <c r="O16" s="23">
+        <f t="shared" si="0"/>
+        <v>0.13128000000000001</v>
+      </c>
+      <c r="P16" s="23">
+        <f t="shared" si="0"/>
+        <v>0.13128000000000001</v>
+      </c>
+      <c r="Q16" s="23">
+        <f t="shared" si="0"/>
+        <v>8.6110000000000006E-2</v>
+      </c>
+      <c r="R16" s="23">
+        <f t="shared" si="0"/>
+        <v>3.4439999999999998E-2</v>
+      </c>
+      <c r="S16" s="23">
+        <f t="shared" si="0"/>
+        <v>0.17221</v>
+      </c>
+      <c r="T16" s="23">
+        <f t="shared" si="0"/>
+        <v>0.18539</v>
+      </c>
+      <c r="U16" s="23">
+        <f t="shared" si="0"/>
+        <v>6.1890000000000001E-2</v>
+      </c>
+      <c r="V16" s="23">
+        <f t="shared" si="0"/>
+        <v>6.1890000000000001E-2</v>
+      </c>
+      <c r="W16" s="23">
+        <f t="shared" si="0"/>
+        <v>4.2470000000000001E-2</v>
+      </c>
+      <c r="X16" s="23">
+        <f t="shared" si="0"/>
+        <v>1.6990000000000002E-2</v>
+      </c>
+      <c r="Y16" s="23">
+        <f t="shared" si="0"/>
+        <v>8.4940000000000002E-2</v>
+      </c>
+      <c r="Z16" s="23">
+        <f t="shared" si="0"/>
+        <v>9.2660000000000006E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:26">
+      <c r="A17" s="26"/>
+      <c r="B17" s="29">
+        <v>16</v>
+      </c>
+      <c r="C17" s="23">
+        <f t="shared" si="1"/>
+        <v>0.21217</v>
+      </c>
+      <c r="D17" s="23">
+        <f t="shared" si="0"/>
+        <v>0.21217</v>
+      </c>
+      <c r="E17" s="23">
+        <f t="shared" si="0"/>
+        <v>0.13474</v>
+      </c>
+      <c r="F17" s="23">
+        <f t="shared" si="0"/>
+        <v>5.3900000000000003E-2</v>
+      </c>
+      <c r="G17" s="23">
+        <f t="shared" si="0"/>
+        <v>0.26949000000000001</v>
+      </c>
+      <c r="H17" s="23">
+        <f t="shared" si="0"/>
+        <v>0.28717999999999999</v>
+      </c>
+      <c r="I17" s="23">
+        <f t="shared" si="0"/>
+        <v>0.1027</v>
+      </c>
+      <c r="J17" s="23">
+        <f t="shared" si="0"/>
+        <v>0.1027</v>
+      </c>
+      <c r="K17" s="23">
+        <f t="shared" si="0"/>
+        <v>6.8150000000000002E-2</v>
+      </c>
+      <c r="L17" s="23">
+        <f t="shared" si="0"/>
+        <v>2.726E-2</v>
+      </c>
+      <c r="M17" s="23">
+        <f t="shared" si="0"/>
+        <v>0.13628999999999999</v>
+      </c>
+      <c r="N17" s="23">
+        <f t="shared" si="0"/>
+        <v>0.14727999999999999</v>
+      </c>
+      <c r="O17" s="23">
+        <f t="shared" si="0"/>
+        <v>0.14888999999999999</v>
+      </c>
+      <c r="P17" s="23">
+        <f t="shared" si="0"/>
+        <v>0.14888999999999999</v>
+      </c>
+      <c r="Q17" s="23">
+        <f t="shared" si="0"/>
+        <v>9.6960000000000005E-2</v>
+      </c>
+      <c r="R17" s="23">
+        <f t="shared" si="0"/>
+        <v>3.8789999999999998E-2</v>
+      </c>
+      <c r="S17" s="23">
+        <f t="shared" si="0"/>
+        <v>0.19392999999999999</v>
+      </c>
+      <c r="T17" s="23">
+        <f t="shared" si="0"/>
+        <v>0.20830000000000001</v>
+      </c>
+      <c r="U17" s="23">
+        <f t="shared" si="0"/>
+        <v>7.1639999999999995E-2</v>
+      </c>
+      <c r="V17" s="23">
+        <f t="shared" si="0"/>
+        <v>7.1639999999999995E-2</v>
+      </c>
+      <c r="W17" s="23">
+        <f t="shared" si="0"/>
+        <v>4.8869999999999997E-2</v>
+      </c>
+      <c r="X17" s="23">
+        <f t="shared" si="0"/>
+        <v>1.9550000000000001E-2</v>
+      </c>
+      <c r="Y17" s="23">
+        <f t="shared" si="0"/>
+        <v>9.7739999999999994E-2</v>
+      </c>
+      <c r="Z17" s="23">
+        <f t="shared" si="0"/>
+        <v>0.10645</v>
+      </c>
+    </row>
+    <row r="18" spans="1:26">
+      <c r="A18" s="26"/>
+      <c r="B18" s="29">
+        <v>17</v>
+      </c>
+      <c r="C18" s="23">
+        <f t="shared" si="1"/>
+        <v>0.23727999999999999</v>
+      </c>
+      <c r="D18" s="23">
+        <f t="shared" si="0"/>
+        <v>0.23727999999999999</v>
+      </c>
+      <c r="E18" s="23">
+        <f t="shared" si="0"/>
+        <v>0.14921999999999999</v>
+      </c>
+      <c r="F18" s="23">
+        <f t="shared" si="0"/>
+        <v>5.969E-2</v>
+      </c>
+      <c r="G18" s="23">
+        <f t="shared" si="0"/>
+        <v>0.29844999999999999</v>
+      </c>
+      <c r="H18" s="23">
+        <f t="shared" si="0"/>
+        <v>0.31707999999999997</v>
+      </c>
+      <c r="I18" s="23">
+        <f t="shared" si="0"/>
+        <v>0.11705</v>
+      </c>
+      <c r="J18" s="23">
+        <f t="shared" si="0"/>
+        <v>0.11705</v>
+      </c>
+      <c r="K18" s="23">
+        <f t="shared" si="0"/>
+        <v>7.7219999999999997E-2</v>
+      </c>
+      <c r="L18" s="23">
+        <f t="shared" si="0"/>
+        <v>3.0890000000000001E-2</v>
+      </c>
+      <c r="M18" s="23">
+        <f t="shared" si="0"/>
+        <v>0.15443999999999999</v>
+      </c>
+      <c r="N18" s="23">
+        <f t="shared" si="0"/>
+        <v>0.16657</v>
+      </c>
+      <c r="O18" s="23">
+        <f t="shared" si="0"/>
+        <v>0.16835</v>
+      </c>
+      <c r="P18" s="23">
+        <f t="shared" si="0"/>
+        <v>0.16835</v>
+      </c>
+      <c r="Q18" s="23">
+        <f t="shared" si="0"/>
+        <v>0.10878</v>
+      </c>
+      <c r="R18" s="23">
+        <f t="shared" si="0"/>
+        <v>4.351E-2</v>
+      </c>
+      <c r="S18" s="23">
+        <f t="shared" si="0"/>
+        <v>0.21757000000000001</v>
+      </c>
+      <c r="T18" s="23">
+        <f t="shared" si="0"/>
+        <v>0.23311000000000001</v>
+      </c>
+      <c r="U18" s="23">
+        <f t="shared" si="0"/>
+        <v>8.2710000000000006E-2</v>
+      </c>
+      <c r="V18" s="23">
+        <f t="shared" si="0"/>
+        <v>8.2710000000000006E-2</v>
+      </c>
+      <c r="W18" s="23">
+        <f t="shared" si="0"/>
+        <v>5.6079999999999998E-2</v>
+      </c>
+      <c r="X18" s="23">
+        <f t="shared" si="0"/>
+        <v>2.2429999999999999E-2</v>
+      </c>
+      <c r="Y18" s="23">
+        <f t="shared" si="0"/>
+        <v>0.11216</v>
+      </c>
+      <c r="Z18" s="23">
+        <f t="shared" si="0"/>
+        <v>0.12192</v>
+      </c>
+    </row>
+    <row r="19" spans="1:26">
+      <c r="A19" s="26"/>
+      <c r="B19" s="29">
+        <v>18</v>
+      </c>
+      <c r="C19" s="23">
+        <f t="shared" si="1"/>
+        <v>0.26423000000000002</v>
+      </c>
+      <c r="D19" s="23">
+        <f t="shared" si="0"/>
+        <v>0.26423000000000002</v>
+      </c>
+      <c r="E19" s="23">
+        <f t="shared" si="0"/>
+        <v>0.16445000000000001</v>
+      </c>
+      <c r="F19" s="23">
+        <f t="shared" si="0"/>
+        <v>6.5780000000000005E-2</v>
+      </c>
+      <c r="G19" s="23">
+        <f t="shared" si="0"/>
+        <v>0.32889000000000002</v>
+      </c>
+      <c r="H19" s="23">
+        <f t="shared" si="0"/>
+        <v>0.34832999999999997</v>
+      </c>
+      <c r="I19" s="23">
+        <f t="shared" si="0"/>
+        <v>0.13308</v>
+      </c>
+      <c r="J19" s="23">
+        <f t="shared" si="0"/>
+        <v>0.13308</v>
+      </c>
+      <c r="K19" s="23">
+        <f t="shared" si="0"/>
+        <v>8.7230000000000002E-2</v>
+      </c>
+      <c r="L19" s="23">
+        <f t="shared" si="0"/>
+        <v>3.4889999999999997E-2</v>
+      </c>
+      <c r="M19" s="23">
+        <f t="shared" si="0"/>
+        <v>0.17444999999999999</v>
+      </c>
+      <c r="N19" s="23">
+        <f t="shared" si="0"/>
+        <v>0.18776000000000001</v>
+      </c>
+      <c r="O19" s="23">
+        <f t="shared" si="0"/>
+        <v>0.18970000000000001</v>
+      </c>
+      <c r="P19" s="23">
+        <f t="shared" si="0"/>
+        <v>0.18970000000000001</v>
+      </c>
+      <c r="Q19" s="23">
+        <f t="shared" si="0"/>
+        <v>0.12155000000000001</v>
+      </c>
+      <c r="R19" s="23">
+        <f t="shared" si="0"/>
+        <v>4.8619999999999997E-2</v>
+      </c>
+      <c r="S19" s="23">
+        <f t="shared" si="0"/>
+        <v>0.24309</v>
+      </c>
+      <c r="T19" s="23">
+        <f t="shared" si="0"/>
+        <v>0.25977</v>
+      </c>
+      <c r="U19" s="23">
+        <f t="shared" si="0"/>
+        <v>9.5219999999999999E-2</v>
+      </c>
+      <c r="V19" s="23">
+        <f t="shared" si="0"/>
+        <v>9.5219999999999999E-2</v>
+      </c>
+      <c r="W19" s="23">
+        <f t="shared" si="0"/>
+        <v>6.4159999999999995E-2</v>
+      </c>
+      <c r="X19" s="23">
+        <f t="shared" si="0"/>
+        <v>2.5659999999999999E-2</v>
+      </c>
+      <c r="Y19" s="23">
+        <f t="shared" si="0"/>
+        <v>0.12831999999999999</v>
+      </c>
+      <c r="Z19" s="23">
+        <f t="shared" si="0"/>
+        <v>0.13922000000000001</v>
+      </c>
+    </row>
+    <row r="20" spans="1:26">
+      <c r="A20" s="26"/>
+    </row>
+    <row r="21" spans="1:26">
+      <c r="A21" s="26"/>
+    </row>
+    <row r="22" spans="1:26">
+      <c r="A22" s="26" t="s">
+        <v>55</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/data_prep/input_data.xlsx
+++ b/data_prep/input_data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="180" windowWidth="12435" windowHeight="10485" activeTab="5"/>
+    <workbookView xWindow="360" yWindow="180" windowWidth="12435" windowHeight="10485" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Introduction" sheetId="4" r:id="rId1"/>
@@ -12,10 +12,11 @@
     <sheet name="FertilityMotherDieaseMultiplier" sheetId="2" r:id="rId3"/>
     <sheet name="Dropout" sheetId="3" r:id="rId4"/>
     <sheet name="Abuse" sheetId="5" r:id="rId5"/>
-    <sheet name="Abused Depression" sheetId="6" r:id="rId6"/>
+    <sheet name="Not Abused Depression" sheetId="6" r:id="rId6"/>
+    <sheet name="Abused Depression" sheetId="7" r:id="rId7"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId7"/>
+    <externalReference r:id="rId8"/>
   </externalReferences>
   <definedNames>
     <definedName name="CurrYear">[1]Results!$B$3</definedName>
@@ -54,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="57">
   <si>
     <t>Age</t>
   </si>
@@ -499,7 +500,7 @@
     <xf numFmtId="10" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFont="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="174" fontId="2" fillId="0" borderId="4" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -537,6 +538,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="182" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="28">
@@ -17344,8 +17348,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I37" sqref="I37"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -18793,4 +18797,1459 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Z22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="U13" sqref="U13:Z19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:26">
+      <c r="A1" s="29" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:26">
+      <c r="A2" s="29"/>
+      <c r="B2" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2" s="30" t="s">
+        <v>31</v>
+      </c>
+      <c r="E2" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="F2" s="30" t="s">
+        <v>33</v>
+      </c>
+      <c r="G2" s="30" t="s">
+        <v>34</v>
+      </c>
+      <c r="H2" s="30" t="s">
+        <v>35</v>
+      </c>
+      <c r="I2" s="30" t="s">
+        <v>36</v>
+      </c>
+      <c r="J2" s="30" t="s">
+        <v>37</v>
+      </c>
+      <c r="K2" s="30" t="s">
+        <v>38</v>
+      </c>
+      <c r="L2" s="30" t="s">
+        <v>39</v>
+      </c>
+      <c r="M2" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="N2" s="30" t="s">
+        <v>41</v>
+      </c>
+      <c r="O2" s="30" t="s">
+        <v>42</v>
+      </c>
+      <c r="P2" s="30" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q2" s="30" t="s">
+        <v>44</v>
+      </c>
+      <c r="R2" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="S2" s="30" t="s">
+        <v>46</v>
+      </c>
+      <c r="T2" s="30" t="s">
+        <v>47</v>
+      </c>
+      <c r="U2" s="30" t="s">
+        <v>48</v>
+      </c>
+      <c r="V2" s="30" t="s">
+        <v>49</v>
+      </c>
+      <c r="W2" s="30" t="s">
+        <v>50</v>
+      </c>
+      <c r="X2" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="Y2" s="30" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z2" s="30" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26">
+      <c r="A3" s="29"/>
+      <c r="B3" s="30">
+        <v>12</v>
+      </c>
+      <c r="C3" s="31">
+        <v>0.29550584974001159</v>
+      </c>
+      <c r="D3" s="31">
+        <v>0.29550584974001159</v>
+      </c>
+      <c r="E3" s="31">
+        <v>0.18447309438766898</v>
+      </c>
+      <c r="F3" s="31">
+        <v>7.3789237755067599E-2</v>
+      </c>
+      <c r="G3" s="31">
+        <v>0.36894618877533797</v>
+      </c>
+      <c r="H3" s="31">
+        <v>0.39087881343329189</v>
+      </c>
+      <c r="I3" s="31">
+        <v>0.15115219942802108</v>
+      </c>
+      <c r="J3" s="31">
+        <v>0.15115219942802108</v>
+      </c>
+      <c r="K3" s="31">
+        <v>9.9606279074667695E-2</v>
+      </c>
+      <c r="L3" s="31">
+        <v>3.9842511629867079E-2</v>
+      </c>
+      <c r="M3" s="31">
+        <v>0.19921255814933539</v>
+      </c>
+      <c r="N3" s="31">
+        <v>0.21460746499850836</v>
+      </c>
+      <c r="O3" s="31">
+        <v>0.2140482687790832</v>
+      </c>
+      <c r="P3" s="31">
+        <v>0.2140482687790832</v>
+      </c>
+      <c r="Q3" s="31">
+        <v>0.13773069646100677</v>
+      </c>
+      <c r="R3" s="31">
+        <v>5.5092278584402715E-2</v>
+      </c>
+      <c r="S3" s="31">
+        <v>0.27546139292201355</v>
+      </c>
+      <c r="T3" s="31">
+        <v>0.29453229660845154</v>
+      </c>
+      <c r="U3" s="31">
+        <v>0.1030604304862867</v>
+      </c>
+      <c r="V3" s="31">
+        <v>0.1030604304862867</v>
+      </c>
+      <c r="W3" s="31">
+        <v>6.9184594675518768E-2</v>
+      </c>
+      <c r="X3" s="31">
+        <v>2.767383787020751E-2</v>
+      </c>
+      <c r="Y3" s="31">
+        <v>0.13836918935103754</v>
+      </c>
+      <c r="Z3" s="31">
+        <v>0.14995774555657526</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26">
+      <c r="A4" s="29"/>
+      <c r="B4" s="30">
+        <v>13</v>
+      </c>
+      <c r="C4" s="31">
+        <v>0.30992924849221043</v>
+      </c>
+      <c r="D4" s="31">
+        <v>0.30992924849221043</v>
+      </c>
+      <c r="E4" s="31">
+        <v>0.1895566420334292</v>
+      </c>
+      <c r="F4" s="31">
+        <v>7.5822656813371692E-2</v>
+      </c>
+      <c r="G4" s="31">
+        <v>0.3791132840668584</v>
+      </c>
+      <c r="H4" s="31">
+        <v>0.39944588176607454</v>
+      </c>
+      <c r="I4" s="31">
+        <v>0.16187209217418533</v>
+      </c>
+      <c r="J4" s="31">
+        <v>0.16187209217418533</v>
+      </c>
+      <c r="K4" s="31">
+        <v>0.10487158957596845</v>
+      </c>
+      <c r="L4" s="31">
+        <v>4.1948635830387382E-2</v>
+      </c>
+      <c r="M4" s="31">
+        <v>0.20974317915193691</v>
+      </c>
+      <c r="N4" s="31">
+        <v>0.22491130127072356</v>
+      </c>
+      <c r="O4" s="31">
+        <v>0.2271126340374299</v>
+      </c>
+      <c r="P4" s="31">
+        <v>0.2271126340374299</v>
+      </c>
+      <c r="Q4" s="31">
+        <v>0.14339429832113498</v>
+      </c>
+      <c r="R4" s="31">
+        <v>5.7357719328453995E-2</v>
+      </c>
+      <c r="S4" s="31">
+        <v>0.28678859664226997</v>
+      </c>
+      <c r="T4" s="31">
+        <v>0.30506801857525023</v>
+      </c>
+      <c r="U4" s="31">
+        <v>0.11812734210692455</v>
+      </c>
+      <c r="V4" s="31">
+        <v>0.11812734210692455</v>
+      </c>
+      <c r="W4" s="31">
+        <v>7.8759319788092377E-2</v>
+      </c>
+      <c r="X4" s="31">
+        <v>3.1503727915236951E-2</v>
+      </c>
+      <c r="Y4" s="31">
+        <v>0.15751863957618475</v>
+      </c>
+      <c r="Z4" s="31">
+        <v>0.17035204037908908</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26">
+      <c r="A5" s="29"/>
+      <c r="B5" s="30">
+        <v>14</v>
+      </c>
+      <c r="C5" s="31">
+        <v>0.34088517030620885</v>
+      </c>
+      <c r="D5" s="31">
+        <v>0.34088517030620885</v>
+      </c>
+      <c r="E5" s="31">
+        <v>0.20607734542577039</v>
+      </c>
+      <c r="F5" s="31">
+        <v>8.2430938170308166E-2</v>
+      </c>
+      <c r="G5" s="31">
+        <v>0.41215469085154077</v>
+      </c>
+      <c r="H5" s="31">
+        <v>0.43278738883748519</v>
+      </c>
+      <c r="I5" s="31">
+        <v>0.1826118330759173</v>
+      </c>
+      <c r="J5" s="31">
+        <v>0.1826118330759173</v>
+      </c>
+      <c r="K5" s="31">
+        <v>0.11733430654736889</v>
+      </c>
+      <c r="L5" s="31">
+        <v>4.6933722618947557E-2</v>
+      </c>
+      <c r="M5" s="31">
+        <v>0.23466861309473777</v>
+      </c>
+      <c r="N5" s="31">
+        <v>0.25098451361873508</v>
+      </c>
+      <c r="O5" s="31">
+        <v>0.25334536391786272</v>
+      </c>
+      <c r="P5" s="31">
+        <v>0.25334536391786272</v>
+      </c>
+      <c r="Q5" s="31">
+        <v>0.15833641389671313</v>
+      </c>
+      <c r="R5" s="31">
+        <v>6.333456555868526E-2</v>
+      </c>
+      <c r="S5" s="31">
+        <v>0.31667282779342626</v>
+      </c>
+      <c r="T5" s="31">
+        <v>0.33581456139269328</v>
+      </c>
+      <c r="U5" s="31">
+        <v>0.13498996822169568</v>
+      </c>
+      <c r="V5" s="31">
+        <v>0.13498996822169568</v>
+      </c>
+      <c r="W5" s="31">
+        <v>8.9350007571831425E-2</v>
+      </c>
+      <c r="X5" s="31">
+        <v>3.5740003028732571E-2</v>
+      </c>
+      <c r="Y5" s="31">
+        <v>0.17870001514366285</v>
+      </c>
+      <c r="Z5" s="31">
+        <v>0.1928241918647402</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26">
+      <c r="A6" s="29"/>
+      <c r="B6" s="30">
+        <v>15</v>
+      </c>
+      <c r="C6" s="31">
+        <v>0.37297959555570837</v>
+      </c>
+      <c r="D6" s="31">
+        <v>0.37297959555570837</v>
+      </c>
+      <c r="E6" s="31">
+        <v>0.22280641298931159</v>
+      </c>
+      <c r="F6" s="31">
+        <v>8.9122565195724646E-2</v>
+      </c>
+      <c r="G6" s="31">
+        <v>0.44561282597862317</v>
+      </c>
+      <c r="H6" s="31">
+        <v>0.46631966818466064</v>
+      </c>
+      <c r="I6" s="31">
+        <v>0.20527077203822922</v>
+      </c>
+      <c r="J6" s="31">
+        <v>0.20527077203822922</v>
+      </c>
+      <c r="K6" s="31">
+        <v>0.13071766373990495</v>
+      </c>
+      <c r="L6" s="31">
+        <v>5.2287065495961987E-2</v>
+      </c>
+      <c r="M6" s="31">
+        <v>0.26143532747980991</v>
+      </c>
+      <c r="N6" s="31">
+        <v>0.2788329969838958</v>
+      </c>
+      <c r="O6" s="31">
+        <v>0.28134234111565104</v>
+      </c>
+      <c r="P6" s="31">
+        <v>0.28134234111565104</v>
+      </c>
+      <c r="Q6" s="31">
+        <v>0.17395269912062988</v>
+      </c>
+      <c r="R6" s="31">
+        <v>6.9581079648251956E-2</v>
+      </c>
+      <c r="S6" s="31">
+        <v>0.34790539824125977</v>
+      </c>
+      <c r="T6" s="31">
+        <v>0.36774544154318123</v>
+      </c>
+      <c r="U6" s="31">
+        <v>0.15376761844856132</v>
+      </c>
+      <c r="V6" s="31">
+        <v>0.15376761844856132</v>
+      </c>
+      <c r="W6" s="31">
+        <v>0.10099071173125469</v>
+      </c>
+      <c r="X6" s="31">
+        <v>4.039628469250188E-2</v>
+      </c>
+      <c r="Y6" s="31">
+        <v>0.20198142346250939</v>
+      </c>
+      <c r="Z6" s="31">
+        <v>0.2174205760205149</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26">
+      <c r="A7" s="29"/>
+      <c r="B7" s="30">
+        <v>16</v>
+      </c>
+      <c r="C7" s="31">
+        <v>0.40590286485032145</v>
+      </c>
+      <c r="D7" s="31">
+        <v>0.40590286485032145</v>
+      </c>
+      <c r="E7" s="31">
+        <v>0.23955994039648146</v>
+      </c>
+      <c r="F7" s="31">
+        <v>9.5823976158592589E-2</v>
+      </c>
+      <c r="G7" s="31">
+        <v>0.47911988079296292</v>
+      </c>
+      <c r="H7" s="31">
+        <v>0.49967163505930923</v>
+      </c>
+      <c r="I7" s="31">
+        <v>0.22984150185422531</v>
+      </c>
+      <c r="J7" s="31">
+        <v>0.22984150185422531</v>
+      </c>
+      <c r="K7" s="31">
+        <v>0.14496290751763549</v>
+      </c>
+      <c r="L7" s="31">
+        <v>5.7985163007054197E-2</v>
+      </c>
+      <c r="M7" s="31">
+        <v>0.28992581503527098</v>
+      </c>
+      <c r="N7" s="31">
+        <v>0.30830473406242848</v>
+      </c>
+      <c r="O7" s="31">
+        <v>0.31094663185899651</v>
+      </c>
+      <c r="P7" s="31">
+        <v>0.31094663185899651</v>
+      </c>
+      <c r="Q7" s="31">
+        <v>0.19010575385890205</v>
+      </c>
+      <c r="R7" s="31">
+        <v>7.6042301543560828E-2</v>
+      </c>
+      <c r="S7" s="31">
+        <v>0.3802115077178041</v>
+      </c>
+      <c r="T7" s="31">
+        <v>0.400557726583739</v>
+      </c>
+      <c r="U7" s="31">
+        <v>0.17456098946800941</v>
+      </c>
+      <c r="V7" s="31">
+        <v>0.17456098946800941</v>
+      </c>
+      <c r="W7" s="31">
+        <v>0.11369705502458326</v>
+      </c>
+      <c r="X7" s="31">
+        <v>4.5478822009833303E-2</v>
+      </c>
+      <c r="Y7" s="31">
+        <v>0.22739411004916651</v>
+      </c>
+      <c r="Z7" s="31">
+        <v>0.2441453798977363</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26">
+      <c r="A8" s="29"/>
+      <c r="B8" s="30">
+        <v>17</v>
+      </c>
+      <c r="C8" s="31">
+        <v>0.43931041752524763</v>
+      </c>
+      <c r="D8" s="31">
+        <v>0.43931041752524763</v>
+      </c>
+      <c r="E8" s="31">
+        <v>0.25615293729640171</v>
+      </c>
+      <c r="F8" s="31">
+        <v>0.10246117491856069</v>
+      </c>
+      <c r="G8" s="31">
+        <v>0.51230587459280341</v>
+      </c>
+      <c r="H8" s="31">
+        <v>0.53248010431806703</v>
+      </c>
+      <c r="I8" s="31">
+        <v>0.25626950146858768</v>
+      </c>
+      <c r="J8" s="31">
+        <v>0.25626950146858768</v>
+      </c>
+      <c r="K8" s="31">
+        <v>0.1599832457702407</v>
+      </c>
+      <c r="L8" s="31">
+        <v>6.3993298308096289E-2</v>
+      </c>
+      <c r="M8" s="31">
+        <v>0.3199664915404814</v>
+      </c>
+      <c r="N8" s="31">
+        <v>0.3391916149673575</v>
+      </c>
+      <c r="O8" s="31">
+        <v>0.34194531751522267</v>
+      </c>
+      <c r="P8" s="31">
+        <v>0.34194531751522267</v>
+      </c>
+      <c r="Q8" s="31">
+        <v>0.20663635589135371</v>
+      </c>
+      <c r="R8" s="31">
+        <v>8.2654542356541488E-2</v>
+      </c>
+      <c r="S8" s="31">
+        <v>0.41327271178270741</v>
+      </c>
+      <c r="T8" s="31">
+        <v>0.43391160779937243</v>
+      </c>
+      <c r="U8" s="31">
+        <v>0.19744414348984035</v>
+      </c>
+      <c r="V8" s="31">
+        <v>0.19744414348984035</v>
+      </c>
+      <c r="W8" s="31">
+        <v>0.12746196303048396</v>
+      </c>
+      <c r="X8" s="31">
+        <v>5.0984785212193587E-2</v>
+      </c>
+      <c r="Y8" s="31">
+        <v>0.25492392606096792</v>
+      </c>
+      <c r="Z8" s="31">
+        <v>0.27295251423225325</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26">
+      <c r="A9" s="29"/>
+      <c r="B9" s="30">
+        <v>18</v>
+      </c>
+      <c r="C9" s="31">
+        <v>0.47283666905654426</v>
+      </c>
+      <c r="D9" s="31">
+        <v>0.47283666905654426</v>
+      </c>
+      <c r="E9" s="31">
+        <v>0.2724074242967654</v>
+      </c>
+      <c r="F9" s="31">
+        <v>0.10896296971870617</v>
+      </c>
+      <c r="G9" s="31">
+        <v>0.5448148485935308</v>
+      </c>
+      <c r="H9" s="31">
+        <v>0.56440535977475093</v>
+      </c>
+      <c r="I9" s="31">
+        <v>0.28444759676866466</v>
+      </c>
+      <c r="J9" s="31">
+        <v>0.28444759676866466</v>
+      </c>
+      <c r="K9" s="31">
+        <v>0.17566418191339275</v>
+      </c>
+      <c r="L9" s="31">
+        <v>7.0265672765357098E-2</v>
+      </c>
+      <c r="M9" s="31">
+        <v>0.35132836382678551</v>
+      </c>
+      <c r="N9" s="31">
+        <v>0.37123241188241834</v>
+      </c>
+      <c r="O9" s="31">
+        <v>0.37407280623808481</v>
+      </c>
+      <c r="P9" s="31">
+        <v>0.37407280623808481</v>
+      </c>
+      <c r="Q9" s="31">
+        <v>0.22336925491177653</v>
+      </c>
+      <c r="R9" s="31">
+        <v>8.9347701964710619E-2</v>
+      </c>
+      <c r="S9" s="31">
+        <v>0.44673850982355306</v>
+      </c>
+      <c r="T9" s="31">
+        <v>0.46744385435332725</v>
+      </c>
+      <c r="U9" s="31">
+        <v>0.22245591706785262</v>
+      </c>
+      <c r="V9" s="31">
+        <v>0.22245591706785262</v>
+      </c>
+      <c r="W9" s="31">
+        <v>0.14225184079766034</v>
+      </c>
+      <c r="X9" s="31">
+        <v>5.6900736319064144E-2</v>
+      </c>
+      <c r="Y9" s="31">
+        <v>0.28450368159532069</v>
+      </c>
+      <c r="Z9" s="31">
+        <v>0.30373896298734987</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26">
+      <c r="A10" s="29"/>
+    </row>
+    <row r="11" spans="1:26">
+      <c r="A11" s="29" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26">
+      <c r="A12" s="29"/>
+      <c r="B12" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="C12" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="D12" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="E12" s="32" t="s">
+        <v>32</v>
+      </c>
+      <c r="F12" s="32" t="s">
+        <v>33</v>
+      </c>
+      <c r="G12" s="32" t="s">
+        <v>34</v>
+      </c>
+      <c r="H12" s="32" t="s">
+        <v>35</v>
+      </c>
+      <c r="I12" s="32" t="s">
+        <v>36</v>
+      </c>
+      <c r="J12" s="32" t="s">
+        <v>37</v>
+      </c>
+      <c r="K12" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="L12" s="32" t="s">
+        <v>39</v>
+      </c>
+      <c r="M12" s="32" t="s">
+        <v>40</v>
+      </c>
+      <c r="N12" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="O12" s="32" t="s">
+        <v>42</v>
+      </c>
+      <c r="P12" s="32" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q12" s="32" t="s">
+        <v>44</v>
+      </c>
+      <c r="R12" s="32" t="s">
+        <v>45</v>
+      </c>
+      <c r="S12" s="32" t="s">
+        <v>46</v>
+      </c>
+      <c r="T12" s="32" t="s">
+        <v>47</v>
+      </c>
+      <c r="U12" s="32" t="s">
+        <v>48</v>
+      </c>
+      <c r="V12" s="32" t="s">
+        <v>49</v>
+      </c>
+      <c r="W12" s="32" t="s">
+        <v>50</v>
+      </c>
+      <c r="X12" s="32" t="s">
+        <v>51</v>
+      </c>
+      <c r="Y12" s="32" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z12" s="32" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26">
+      <c r="A13" s="29"/>
+      <c r="B13" s="32">
+        <v>12</v>
+      </c>
+      <c r="C13" s="23">
+        <f>ROUND(C3,5)</f>
+        <v>0.29550999999999999</v>
+      </c>
+      <c r="D13" s="23">
+        <f t="shared" ref="D13:Z19" si="0">ROUND(D3,5)</f>
+        <v>0.29550999999999999</v>
+      </c>
+      <c r="E13" s="23">
+        <f t="shared" si="0"/>
+        <v>0.18447</v>
+      </c>
+      <c r="F13" s="23">
+        <f t="shared" si="0"/>
+        <v>7.3789999999999994E-2</v>
+      </c>
+      <c r="G13" s="23">
+        <f t="shared" si="0"/>
+        <v>0.36895</v>
+      </c>
+      <c r="H13" s="23">
+        <f t="shared" si="0"/>
+        <v>0.39088000000000001</v>
+      </c>
+      <c r="I13" s="23">
+        <f t="shared" si="0"/>
+        <v>0.15115000000000001</v>
+      </c>
+      <c r="J13" s="23">
+        <f t="shared" si="0"/>
+        <v>0.15115000000000001</v>
+      </c>
+      <c r="K13" s="23">
+        <f t="shared" si="0"/>
+        <v>9.9610000000000004E-2</v>
+      </c>
+      <c r="L13" s="23">
+        <f t="shared" si="0"/>
+        <v>3.984E-2</v>
+      </c>
+      <c r="M13" s="23">
+        <f t="shared" si="0"/>
+        <v>0.19921</v>
+      </c>
+      <c r="N13" s="23">
+        <f t="shared" si="0"/>
+        <v>0.21461</v>
+      </c>
+      <c r="O13" s="23">
+        <f t="shared" si="0"/>
+        <v>0.21404999999999999</v>
+      </c>
+      <c r="P13" s="23">
+        <f t="shared" si="0"/>
+        <v>0.21404999999999999</v>
+      </c>
+      <c r="Q13" s="23">
+        <f t="shared" si="0"/>
+        <v>0.13772999999999999</v>
+      </c>
+      <c r="R13" s="23">
+        <f t="shared" si="0"/>
+        <v>5.509E-2</v>
+      </c>
+      <c r="S13" s="23">
+        <f t="shared" si="0"/>
+        <v>0.27545999999999998</v>
+      </c>
+      <c r="T13" s="23">
+        <f t="shared" si="0"/>
+        <v>0.29453000000000001</v>
+      </c>
+      <c r="U13" s="23">
+        <f t="shared" si="0"/>
+        <v>0.10306</v>
+      </c>
+      <c r="V13" s="23">
+        <f t="shared" si="0"/>
+        <v>0.10306</v>
+      </c>
+      <c r="W13" s="23">
+        <f t="shared" si="0"/>
+        <v>6.9180000000000005E-2</v>
+      </c>
+      <c r="X13" s="23">
+        <f t="shared" si="0"/>
+        <v>2.767E-2</v>
+      </c>
+      <c r="Y13" s="23">
+        <f t="shared" si="0"/>
+        <v>0.13836999999999999</v>
+      </c>
+      <c r="Z13" s="23">
+        <f t="shared" si="0"/>
+        <v>0.14996000000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26">
+      <c r="A14" s="29"/>
+      <c r="B14" s="32">
+        <v>13</v>
+      </c>
+      <c r="C14" s="23">
+        <f t="shared" ref="C14:R19" si="1">ROUND(C4,5)</f>
+        <v>0.30992999999999998</v>
+      </c>
+      <c r="D14" s="23">
+        <f t="shared" si="1"/>
+        <v>0.30992999999999998</v>
+      </c>
+      <c r="E14" s="23">
+        <f t="shared" si="1"/>
+        <v>0.18956000000000001</v>
+      </c>
+      <c r="F14" s="23">
+        <f t="shared" si="1"/>
+        <v>7.5819999999999999E-2</v>
+      </c>
+      <c r="G14" s="23">
+        <f t="shared" si="1"/>
+        <v>0.37911</v>
+      </c>
+      <c r="H14" s="23">
+        <f t="shared" si="1"/>
+        <v>0.39945000000000003</v>
+      </c>
+      <c r="I14" s="23">
+        <f t="shared" si="1"/>
+        <v>0.16187000000000001</v>
+      </c>
+      <c r="J14" s="23">
+        <f t="shared" si="1"/>
+        <v>0.16187000000000001</v>
+      </c>
+      <c r="K14" s="23">
+        <f t="shared" si="1"/>
+        <v>0.10487</v>
+      </c>
+      <c r="L14" s="23">
+        <f t="shared" si="1"/>
+        <v>4.1950000000000001E-2</v>
+      </c>
+      <c r="M14" s="23">
+        <f t="shared" si="1"/>
+        <v>0.20974000000000001</v>
+      </c>
+      <c r="N14" s="23">
+        <f t="shared" si="1"/>
+        <v>0.22491</v>
+      </c>
+      <c r="O14" s="23">
+        <f t="shared" si="1"/>
+        <v>0.22711000000000001</v>
+      </c>
+      <c r="P14" s="23">
+        <f t="shared" si="1"/>
+        <v>0.22711000000000001</v>
+      </c>
+      <c r="Q14" s="23">
+        <f t="shared" si="1"/>
+        <v>0.14338999999999999</v>
+      </c>
+      <c r="R14" s="23">
+        <f t="shared" si="1"/>
+        <v>5.7360000000000001E-2</v>
+      </c>
+      <c r="S14" s="23">
+        <f t="shared" si="0"/>
+        <v>0.28678999999999999</v>
+      </c>
+      <c r="T14" s="23">
+        <f t="shared" si="0"/>
+        <v>0.30507000000000001</v>
+      </c>
+      <c r="U14" s="23">
+        <f t="shared" si="0"/>
+        <v>0.11813</v>
+      </c>
+      <c r="V14" s="23">
+        <f t="shared" si="0"/>
+        <v>0.11813</v>
+      </c>
+      <c r="W14" s="23">
+        <f t="shared" si="0"/>
+        <v>7.8759999999999997E-2</v>
+      </c>
+      <c r="X14" s="23">
+        <f t="shared" si="0"/>
+        <v>3.15E-2</v>
+      </c>
+      <c r="Y14" s="23">
+        <f t="shared" si="0"/>
+        <v>0.15751999999999999</v>
+      </c>
+      <c r="Z14" s="23">
+        <f t="shared" si="0"/>
+        <v>0.17035</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26">
+      <c r="A15" s="29"/>
+      <c r="B15" s="32">
+        <v>14</v>
+      </c>
+      <c r="C15" s="23">
+        <f t="shared" si="1"/>
+        <v>0.34089000000000003</v>
+      </c>
+      <c r="D15" s="23">
+        <f t="shared" si="0"/>
+        <v>0.34089000000000003</v>
+      </c>
+      <c r="E15" s="23">
+        <f t="shared" si="0"/>
+        <v>0.20608000000000001</v>
+      </c>
+      <c r="F15" s="23">
+        <f t="shared" si="0"/>
+        <v>8.2430000000000003E-2</v>
+      </c>
+      <c r="G15" s="23">
+        <f t="shared" si="0"/>
+        <v>0.41215000000000002</v>
+      </c>
+      <c r="H15" s="23">
+        <f t="shared" si="0"/>
+        <v>0.43279000000000001</v>
+      </c>
+      <c r="I15" s="23">
+        <f t="shared" si="0"/>
+        <v>0.18260999999999999</v>
+      </c>
+      <c r="J15" s="23">
+        <f t="shared" si="0"/>
+        <v>0.18260999999999999</v>
+      </c>
+      <c r="K15" s="23">
+        <f t="shared" si="0"/>
+        <v>0.11733</v>
+      </c>
+      <c r="L15" s="23">
+        <f t="shared" si="0"/>
+        <v>4.6929999999999999E-2</v>
+      </c>
+      <c r="M15" s="23">
+        <f t="shared" si="0"/>
+        <v>0.23466999999999999</v>
+      </c>
+      <c r="N15" s="23">
+        <f t="shared" si="0"/>
+        <v>0.25097999999999998</v>
+      </c>
+      <c r="O15" s="23">
+        <f t="shared" si="0"/>
+        <v>0.25335000000000002</v>
+      </c>
+      <c r="P15" s="23">
+        <f t="shared" si="0"/>
+        <v>0.25335000000000002</v>
+      </c>
+      <c r="Q15" s="23">
+        <f t="shared" si="0"/>
+        <v>0.15834000000000001</v>
+      </c>
+      <c r="R15" s="23">
+        <f t="shared" si="0"/>
+        <v>6.3329999999999997E-2</v>
+      </c>
+      <c r="S15" s="23">
+        <f t="shared" si="0"/>
+        <v>0.31667000000000001</v>
+      </c>
+      <c r="T15" s="23">
+        <f t="shared" si="0"/>
+        <v>0.33581</v>
+      </c>
+      <c r="U15" s="23">
+        <f t="shared" si="0"/>
+        <v>0.13499</v>
+      </c>
+      <c r="V15" s="23">
+        <f t="shared" si="0"/>
+        <v>0.13499</v>
+      </c>
+      <c r="W15" s="23">
+        <f t="shared" si="0"/>
+        <v>8.9349999999999999E-2</v>
+      </c>
+      <c r="X15" s="23">
+        <f t="shared" si="0"/>
+        <v>3.5740000000000001E-2</v>
+      </c>
+      <c r="Y15" s="23">
+        <f t="shared" si="0"/>
+        <v>0.1787</v>
+      </c>
+      <c r="Z15" s="23">
+        <f t="shared" si="0"/>
+        <v>0.19281999999999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26">
+      <c r="A16" s="29"/>
+      <c r="B16" s="32">
+        <v>15</v>
+      </c>
+      <c r="C16" s="23">
+        <f t="shared" si="1"/>
+        <v>0.37297999999999998</v>
+      </c>
+      <c r="D16" s="23">
+        <f t="shared" si="0"/>
+        <v>0.37297999999999998</v>
+      </c>
+      <c r="E16" s="23">
+        <f t="shared" si="0"/>
+        <v>0.22281000000000001</v>
+      </c>
+      <c r="F16" s="23">
+        <f t="shared" si="0"/>
+        <v>8.9120000000000005E-2</v>
+      </c>
+      <c r="G16" s="23">
+        <f t="shared" si="0"/>
+        <v>0.44561000000000001</v>
+      </c>
+      <c r="H16" s="23">
+        <f t="shared" si="0"/>
+        <v>0.46632000000000001</v>
+      </c>
+      <c r="I16" s="23">
+        <f t="shared" si="0"/>
+        <v>0.20527000000000001</v>
+      </c>
+      <c r="J16" s="23">
+        <f t="shared" si="0"/>
+        <v>0.20527000000000001</v>
+      </c>
+      <c r="K16" s="23">
+        <f t="shared" si="0"/>
+        <v>0.13072</v>
+      </c>
+      <c r="L16" s="23">
+        <f t="shared" si="0"/>
+        <v>5.2290000000000003E-2</v>
+      </c>
+      <c r="M16" s="23">
+        <f t="shared" si="0"/>
+        <v>0.26144000000000001</v>
+      </c>
+      <c r="N16" s="23">
+        <f t="shared" si="0"/>
+        <v>0.27883000000000002</v>
+      </c>
+      <c r="O16" s="23">
+        <f t="shared" si="0"/>
+        <v>0.28133999999999998</v>
+      </c>
+      <c r="P16" s="23">
+        <f t="shared" si="0"/>
+        <v>0.28133999999999998</v>
+      </c>
+      <c r="Q16" s="23">
+        <f t="shared" si="0"/>
+        <v>0.17394999999999999</v>
+      </c>
+      <c r="R16" s="23">
+        <f t="shared" si="0"/>
+        <v>6.9580000000000003E-2</v>
+      </c>
+      <c r="S16" s="23">
+        <f t="shared" si="0"/>
+        <v>0.34791</v>
+      </c>
+      <c r="T16" s="23">
+        <f t="shared" si="0"/>
+        <v>0.36775000000000002</v>
+      </c>
+      <c r="U16" s="23">
+        <f t="shared" si="0"/>
+        <v>0.15376999999999999</v>
+      </c>
+      <c r="V16" s="23">
+        <f t="shared" si="0"/>
+        <v>0.15376999999999999</v>
+      </c>
+      <c r="W16" s="23">
+        <f t="shared" si="0"/>
+        <v>0.10099</v>
+      </c>
+      <c r="X16" s="23">
+        <f t="shared" si="0"/>
+        <v>4.0399999999999998E-2</v>
+      </c>
+      <c r="Y16" s="23">
+        <f t="shared" si="0"/>
+        <v>0.20197999999999999</v>
+      </c>
+      <c r="Z16" s="23">
+        <f t="shared" si="0"/>
+        <v>0.21742</v>
+      </c>
+    </row>
+    <row r="17" spans="1:26">
+      <c r="A17" s="29"/>
+      <c r="B17" s="32">
+        <v>16</v>
+      </c>
+      <c r="C17" s="23">
+        <f t="shared" si="1"/>
+        <v>0.40589999999999998</v>
+      </c>
+      <c r="D17" s="23">
+        <f t="shared" si="0"/>
+        <v>0.40589999999999998</v>
+      </c>
+      <c r="E17" s="23">
+        <f t="shared" si="0"/>
+        <v>0.23956</v>
+      </c>
+      <c r="F17" s="23">
+        <f t="shared" si="0"/>
+        <v>9.5820000000000002E-2</v>
+      </c>
+      <c r="G17" s="23">
+        <f t="shared" si="0"/>
+        <v>0.47911999999999999</v>
+      </c>
+      <c r="H17" s="23">
+        <f t="shared" si="0"/>
+        <v>0.49967</v>
+      </c>
+      <c r="I17" s="23">
+        <f t="shared" si="0"/>
+        <v>0.22983999999999999</v>
+      </c>
+      <c r="J17" s="23">
+        <f t="shared" si="0"/>
+        <v>0.22983999999999999</v>
+      </c>
+      <c r="K17" s="23">
+        <f t="shared" si="0"/>
+        <v>0.14496000000000001</v>
+      </c>
+      <c r="L17" s="23">
+        <f t="shared" si="0"/>
+        <v>5.799E-2</v>
+      </c>
+      <c r="M17" s="23">
+        <f t="shared" si="0"/>
+        <v>0.28993000000000002</v>
+      </c>
+      <c r="N17" s="23">
+        <f t="shared" si="0"/>
+        <v>0.30830000000000002</v>
+      </c>
+      <c r="O17" s="23">
+        <f t="shared" si="0"/>
+        <v>0.31095</v>
+      </c>
+      <c r="P17" s="23">
+        <f t="shared" si="0"/>
+        <v>0.31095</v>
+      </c>
+      <c r="Q17" s="23">
+        <f t="shared" si="0"/>
+        <v>0.19011</v>
+      </c>
+      <c r="R17" s="23">
+        <f t="shared" si="0"/>
+        <v>7.6039999999999996E-2</v>
+      </c>
+      <c r="S17" s="23">
+        <f t="shared" si="0"/>
+        <v>0.38020999999999999</v>
+      </c>
+      <c r="T17" s="23">
+        <f t="shared" si="0"/>
+        <v>0.40056000000000003</v>
+      </c>
+      <c r="U17" s="23">
+        <f t="shared" si="0"/>
+        <v>0.17455999999999999</v>
+      </c>
+      <c r="V17" s="23">
+        <f t="shared" si="0"/>
+        <v>0.17455999999999999</v>
+      </c>
+      <c r="W17" s="23">
+        <f t="shared" si="0"/>
+        <v>0.1137</v>
+      </c>
+      <c r="X17" s="23">
+        <f t="shared" si="0"/>
+        <v>4.548E-2</v>
+      </c>
+      <c r="Y17" s="23">
+        <f t="shared" si="0"/>
+        <v>0.22739000000000001</v>
+      </c>
+      <c r="Z17" s="23">
+        <f t="shared" si="0"/>
+        <v>0.24415000000000001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:26">
+      <c r="A18" s="29"/>
+      <c r="B18" s="32">
+        <v>17</v>
+      </c>
+      <c r="C18" s="23">
+        <f t="shared" si="1"/>
+        <v>0.43930999999999998</v>
+      </c>
+      <c r="D18" s="23">
+        <f t="shared" si="0"/>
+        <v>0.43930999999999998</v>
+      </c>
+      <c r="E18" s="23">
+        <f t="shared" si="0"/>
+        <v>0.25614999999999999</v>
+      </c>
+      <c r="F18" s="23">
+        <f t="shared" si="0"/>
+        <v>0.10246</v>
+      </c>
+      <c r="G18" s="23">
+        <f t="shared" si="0"/>
+        <v>0.51231000000000004</v>
+      </c>
+      <c r="H18" s="23">
+        <f t="shared" si="0"/>
+        <v>0.53247999999999995</v>
+      </c>
+      <c r="I18" s="23">
+        <f t="shared" si="0"/>
+        <v>0.25627</v>
+      </c>
+      <c r="J18" s="23">
+        <f t="shared" si="0"/>
+        <v>0.25627</v>
+      </c>
+      <c r="K18" s="23">
+        <f t="shared" si="0"/>
+        <v>0.15998000000000001</v>
+      </c>
+      <c r="L18" s="23">
+        <f t="shared" si="0"/>
+        <v>6.3990000000000005E-2</v>
+      </c>
+      <c r="M18" s="23">
+        <f t="shared" si="0"/>
+        <v>0.31996999999999998</v>
+      </c>
+      <c r="N18" s="23">
+        <f t="shared" si="0"/>
+        <v>0.33918999999999999</v>
+      </c>
+      <c r="O18" s="23">
+        <f t="shared" si="0"/>
+        <v>0.34194999999999998</v>
+      </c>
+      <c r="P18" s="23">
+        <f t="shared" si="0"/>
+        <v>0.34194999999999998</v>
+      </c>
+      <c r="Q18" s="23">
+        <f t="shared" si="0"/>
+        <v>0.20663999999999999</v>
+      </c>
+      <c r="R18" s="23">
+        <f t="shared" si="0"/>
+        <v>8.2650000000000001E-2</v>
+      </c>
+      <c r="S18" s="23">
+        <f t="shared" si="0"/>
+        <v>0.41327000000000003</v>
+      </c>
+      <c r="T18" s="23">
+        <f t="shared" si="0"/>
+        <v>0.43391000000000002</v>
+      </c>
+      <c r="U18" s="23">
+        <f t="shared" si="0"/>
+        <v>0.19744</v>
+      </c>
+      <c r="V18" s="23">
+        <f t="shared" si="0"/>
+        <v>0.19744</v>
+      </c>
+      <c r="W18" s="23">
+        <f t="shared" si="0"/>
+        <v>0.12745999999999999</v>
+      </c>
+      <c r="X18" s="23">
+        <f t="shared" si="0"/>
+        <v>5.0979999999999998E-2</v>
+      </c>
+      <c r="Y18" s="23">
+        <f t="shared" si="0"/>
+        <v>0.25491999999999998</v>
+      </c>
+      <c r="Z18" s="23">
+        <f t="shared" si="0"/>
+        <v>0.27295000000000003</v>
+      </c>
+    </row>
+    <row r="19" spans="1:26">
+      <c r="A19" s="29"/>
+      <c r="B19" s="32">
+        <v>18</v>
+      </c>
+      <c r="C19" s="23">
+        <f t="shared" si="1"/>
+        <v>0.47283999999999998</v>
+      </c>
+      <c r="D19" s="23">
+        <f t="shared" si="0"/>
+        <v>0.47283999999999998</v>
+      </c>
+      <c r="E19" s="23">
+        <f t="shared" si="0"/>
+        <v>0.27240999999999999</v>
+      </c>
+      <c r="F19" s="23">
+        <f t="shared" si="0"/>
+        <v>0.10896</v>
+      </c>
+      <c r="G19" s="23">
+        <f t="shared" si="0"/>
+        <v>0.54481000000000002</v>
+      </c>
+      <c r="H19" s="23">
+        <f t="shared" si="0"/>
+        <v>0.56440999999999997</v>
+      </c>
+      <c r="I19" s="23">
+        <f t="shared" si="0"/>
+        <v>0.28444999999999998</v>
+      </c>
+      <c r="J19" s="23">
+        <f t="shared" si="0"/>
+        <v>0.28444999999999998</v>
+      </c>
+      <c r="K19" s="23">
+        <f t="shared" si="0"/>
+        <v>0.17566000000000001</v>
+      </c>
+      <c r="L19" s="23">
+        <f t="shared" si="0"/>
+        <v>7.0269999999999999E-2</v>
+      </c>
+      <c r="M19" s="23">
+        <f t="shared" si="0"/>
+        <v>0.35132999999999998</v>
+      </c>
+      <c r="N19" s="23">
+        <f t="shared" si="0"/>
+        <v>0.37123</v>
+      </c>
+      <c r="O19" s="23">
+        <f t="shared" si="0"/>
+        <v>0.37407000000000001</v>
+      </c>
+      <c r="P19" s="23">
+        <f t="shared" si="0"/>
+        <v>0.37407000000000001</v>
+      </c>
+      <c r="Q19" s="23">
+        <f t="shared" si="0"/>
+        <v>0.22337000000000001</v>
+      </c>
+      <c r="R19" s="23">
+        <f t="shared" si="0"/>
+        <v>8.9349999999999999E-2</v>
+      </c>
+      <c r="S19" s="23">
+        <f t="shared" si="0"/>
+        <v>0.44674000000000003</v>
+      </c>
+      <c r="T19" s="23">
+        <f t="shared" si="0"/>
+        <v>0.46744000000000002</v>
+      </c>
+      <c r="U19" s="23">
+        <f t="shared" si="0"/>
+        <v>0.22245999999999999</v>
+      </c>
+      <c r="V19" s="23">
+        <f t="shared" si="0"/>
+        <v>0.22245999999999999</v>
+      </c>
+      <c r="W19" s="23">
+        <f t="shared" si="0"/>
+        <v>0.14224999999999999</v>
+      </c>
+      <c r="X19" s="23">
+        <f t="shared" si="0"/>
+        <v>5.6899999999999999E-2</v>
+      </c>
+      <c r="Y19" s="23">
+        <f t="shared" si="0"/>
+        <v>0.28449999999999998</v>
+      </c>
+      <c r="Z19" s="23">
+        <f t="shared" si="0"/>
+        <v>0.30374000000000001</v>
+      </c>
+    </row>
+    <row r="20" spans="1:26">
+      <c r="A20" s="29"/>
+    </row>
+    <row r="21" spans="1:26">
+      <c r="A21" s="29"/>
+    </row>
+    <row r="22" spans="1:26">
+      <c r="A22" s="29" t="s">
+        <v>55</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/data_prep/input_data.xlsx
+++ b/data_prep/input_data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="180" windowWidth="12435" windowHeight="10485" activeTab="6"/>
+    <workbookView xWindow="360" yWindow="180" windowWidth="12435" windowHeight="10485" firstSheet="2" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Introduction" sheetId="4" r:id="rId1"/>
@@ -14,9 +14,11 @@
     <sheet name="Abuse" sheetId="5" r:id="rId5"/>
     <sheet name="Not Abused Depression" sheetId="6" r:id="rId6"/>
     <sheet name="Abused Depression" sheetId="7" r:id="rId7"/>
+    <sheet name="Not Abused Condom Rates" sheetId="8" r:id="rId8"/>
+    <sheet name="Abused Condom Rates" sheetId="9" r:id="rId9"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId8"/>
+    <externalReference r:id="rId10"/>
   </externalReferences>
   <definedNames>
     <definedName name="CurrYear">[1]Results!$B$3</definedName>
@@ -55,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="72">
   <si>
     <t>Age</t>
   </si>
@@ -226,6 +228,51 @@
   </si>
   <si>
     <t>Round</t>
+  </si>
+  <si>
+    <t>SES</t>
+  </si>
+  <si>
+    <t>HIGH</t>
+  </si>
+  <si>
+    <t>LOW</t>
+  </si>
+  <si>
+    <t>f.X0</t>
+  </si>
+  <si>
+    <t>f.X1</t>
+  </si>
+  <si>
+    <t>f.X2</t>
+  </si>
+  <si>
+    <t>f.X3</t>
+  </si>
+  <si>
+    <t>f.X4</t>
+  </si>
+  <si>
+    <t>f.X5</t>
+  </si>
+  <si>
+    <t>m.X0</t>
+  </si>
+  <si>
+    <t>m.X1</t>
+  </si>
+  <si>
+    <t>m.X2</t>
+  </si>
+  <si>
+    <t>m.X3</t>
+  </si>
+  <si>
+    <t>m.X4</t>
+  </si>
+  <si>
+    <t>m.X5</t>
   </si>
 </sst>
 </file>
@@ -500,7 +547,7 @@
     <xf numFmtId="10" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFont="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="174" fontId="2" fillId="0" borderId="4" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -542,6 +589,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="28">
     <cellStyle name="Bold 11" xfId="2"/>
@@ -18803,8 +18855,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="U13" sqref="U13:Z19"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -20252,4 +20304,685 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Z11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:26">
+      <c r="A1" s="32" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:26">
+      <c r="A2" s="32"/>
+      <c r="B2" s="33" t="s">
+        <v>57</v>
+      </c>
+      <c r="C2" s="33" t="s">
+        <v>60</v>
+      </c>
+      <c r="D2" s="33" t="s">
+        <v>61</v>
+      </c>
+      <c r="E2" s="33" t="s">
+        <v>62</v>
+      </c>
+      <c r="F2" s="33" t="s">
+        <v>63</v>
+      </c>
+      <c r="G2" s="33" t="s">
+        <v>64</v>
+      </c>
+      <c r="H2" s="33" t="s">
+        <v>65</v>
+      </c>
+      <c r="I2" s="33" t="s">
+        <v>66</v>
+      </c>
+      <c r="J2" s="33" t="s">
+        <v>67</v>
+      </c>
+      <c r="K2" s="33" t="s">
+        <v>68</v>
+      </c>
+      <c r="L2" s="33" t="s">
+        <v>69</v>
+      </c>
+      <c r="M2" s="33" t="s">
+        <v>70</v>
+      </c>
+      <c r="N2" s="33" t="s">
+        <v>71</v>
+      </c>
+      <c r="O2" s="33"/>
+      <c r="P2" s="33"/>
+      <c r="Q2" s="33"/>
+      <c r="R2" s="33"/>
+      <c r="S2" s="33"/>
+      <c r="T2" s="33"/>
+      <c r="U2" s="33"/>
+      <c r="V2" s="33"/>
+      <c r="W2" s="33"/>
+      <c r="X2" s="33"/>
+      <c r="Y2" s="33"/>
+      <c r="Z2" s="33"/>
+    </row>
+    <row r="3" spans="1:26">
+      <c r="A3" s="32"/>
+      <c r="B3" s="33" t="s">
+        <v>58</v>
+      </c>
+      <c r="C3" s="34">
+        <v>0.3872230784500168</v>
+      </c>
+      <c r="D3" s="34">
+        <v>0.3872230784500168</v>
+      </c>
+      <c r="E3" s="34">
+        <v>0.3872230784500168</v>
+      </c>
+      <c r="F3" s="34">
+        <v>0.3872230784500168</v>
+      </c>
+      <c r="G3" s="34">
+        <v>0.3872230784500168</v>
+      </c>
+      <c r="H3" s="34">
+        <v>0.3872230784500168</v>
+      </c>
+      <c r="I3" s="34">
+        <v>0.4248242725493126</v>
+      </c>
+      <c r="J3" s="34">
+        <v>0.4248242725493126</v>
+      </c>
+      <c r="K3" s="34">
+        <v>0.4248242725493126</v>
+      </c>
+      <c r="L3" s="34">
+        <v>0.4248242725493126</v>
+      </c>
+      <c r="M3" s="34">
+        <v>0.4248242725493126</v>
+      </c>
+      <c r="N3" s="34">
+        <v>0.4248242725493126</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26">
+      <c r="A4" s="32"/>
+      <c r="B4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C4" s="34">
+        <v>0.46530584250501056</v>
+      </c>
+      <c r="D4" s="34">
+        <v>0.46530584250501056</v>
+      </c>
+      <c r="E4" s="34">
+        <v>0.46530584250501056</v>
+      </c>
+      <c r="F4" s="34">
+        <v>0.46530584250501056</v>
+      </c>
+      <c r="G4" s="34">
+        <v>0.46530584250501056</v>
+      </c>
+      <c r="H4" s="34">
+        <v>0.46530584250501056</v>
+      </c>
+      <c r="I4" s="34">
+        <v>0.50424989764879125</v>
+      </c>
+      <c r="J4" s="34">
+        <v>0.50424989764879125</v>
+      </c>
+      <c r="K4" s="34">
+        <v>0.50424989764879125</v>
+      </c>
+      <c r="L4" s="34">
+        <v>0.50424989764879125</v>
+      </c>
+      <c r="M4" s="34">
+        <v>0.50424989764879125</v>
+      </c>
+      <c r="N4" s="34">
+        <v>0.50424989764879125</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26" s="35" customFormat="1"/>
+    <row r="6" spans="1:26">
+      <c r="A6" s="32" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26">
+      <c r="A7" s="32"/>
+      <c r="B7" s="35" t="s">
+        <v>57</v>
+      </c>
+      <c r="C7" s="35" t="s">
+        <v>60</v>
+      </c>
+      <c r="D7" s="35" t="s">
+        <v>61</v>
+      </c>
+      <c r="E7" s="35" t="s">
+        <v>62</v>
+      </c>
+      <c r="F7" s="35" t="s">
+        <v>63</v>
+      </c>
+      <c r="G7" s="35" t="s">
+        <v>64</v>
+      </c>
+      <c r="H7" s="35" t="s">
+        <v>65</v>
+      </c>
+      <c r="I7" s="35" t="s">
+        <v>66</v>
+      </c>
+      <c r="J7" s="35" t="s">
+        <v>67</v>
+      </c>
+      <c r="K7" s="35" t="s">
+        <v>68</v>
+      </c>
+      <c r="L7" s="35" t="s">
+        <v>69</v>
+      </c>
+      <c r="M7" s="35" t="s">
+        <v>70</v>
+      </c>
+      <c r="N7" s="35" t="s">
+        <v>71</v>
+      </c>
+      <c r="O7" s="35"/>
+      <c r="P7" s="35"/>
+      <c r="Q7" s="35"/>
+      <c r="R7" s="35"/>
+      <c r="S7" s="35"/>
+      <c r="T7" s="35"/>
+      <c r="U7" s="35"/>
+      <c r="V7" s="35"/>
+      <c r="W7" s="35"/>
+      <c r="X7" s="35"/>
+      <c r="Y7" s="35"/>
+      <c r="Z7" s="35"/>
+    </row>
+    <row r="8" spans="1:26">
+      <c r="A8" s="32"/>
+      <c r="B8" s="35" t="s">
+        <v>58</v>
+      </c>
+      <c r="C8" s="23">
+        <f>ROUND(C3,5)</f>
+        <v>0.38722000000000001</v>
+      </c>
+      <c r="D8" s="23">
+        <f t="shared" ref="D8:N8" si="0">ROUND(D3,5)</f>
+        <v>0.38722000000000001</v>
+      </c>
+      <c r="E8" s="23">
+        <f t="shared" si="0"/>
+        <v>0.38722000000000001</v>
+      </c>
+      <c r="F8" s="23">
+        <f t="shared" si="0"/>
+        <v>0.38722000000000001</v>
+      </c>
+      <c r="G8" s="23">
+        <f t="shared" si="0"/>
+        <v>0.38722000000000001</v>
+      </c>
+      <c r="H8" s="23">
+        <f t="shared" si="0"/>
+        <v>0.38722000000000001</v>
+      </c>
+      <c r="I8" s="23">
+        <f t="shared" si="0"/>
+        <v>0.42481999999999998</v>
+      </c>
+      <c r="J8" s="23">
+        <f t="shared" si="0"/>
+        <v>0.42481999999999998</v>
+      </c>
+      <c r="K8" s="23">
+        <f t="shared" si="0"/>
+        <v>0.42481999999999998</v>
+      </c>
+      <c r="L8" s="23">
+        <f t="shared" si="0"/>
+        <v>0.42481999999999998</v>
+      </c>
+      <c r="M8" s="23">
+        <f t="shared" si="0"/>
+        <v>0.42481999999999998</v>
+      </c>
+      <c r="N8" s="23">
+        <f t="shared" si="0"/>
+        <v>0.42481999999999998</v>
+      </c>
+      <c r="O8" s="23"/>
+      <c r="P8" s="23"/>
+      <c r="Q8" s="23"/>
+      <c r="R8" s="23"/>
+      <c r="S8" s="23"/>
+      <c r="T8" s="23"/>
+      <c r="U8" s="23"/>
+      <c r="V8" s="23"/>
+      <c r="W8" s="23"/>
+      <c r="X8" s="23"/>
+      <c r="Y8" s="23"/>
+      <c r="Z8" s="23"/>
+    </row>
+    <row r="9" spans="1:26" s="35" customFormat="1">
+      <c r="B9" s="35" t="s">
+        <v>59</v>
+      </c>
+      <c r="C9" s="23">
+        <f>ROUND(C4,5)</f>
+        <v>0.46531</v>
+      </c>
+      <c r="D9" s="23">
+        <f t="shared" ref="D9:N9" si="1">ROUND(D4,5)</f>
+        <v>0.46531</v>
+      </c>
+      <c r="E9" s="23">
+        <f t="shared" si="1"/>
+        <v>0.46531</v>
+      </c>
+      <c r="F9" s="23">
+        <f t="shared" si="1"/>
+        <v>0.46531</v>
+      </c>
+      <c r="G9" s="23">
+        <f t="shared" si="1"/>
+        <v>0.46531</v>
+      </c>
+      <c r="H9" s="23">
+        <f t="shared" si="1"/>
+        <v>0.46531</v>
+      </c>
+      <c r="I9" s="23">
+        <f t="shared" si="1"/>
+        <v>0.50424999999999998</v>
+      </c>
+      <c r="J9" s="23">
+        <f t="shared" si="1"/>
+        <v>0.50424999999999998</v>
+      </c>
+      <c r="K9" s="23">
+        <f t="shared" si="1"/>
+        <v>0.50424999999999998</v>
+      </c>
+      <c r="L9" s="23">
+        <f t="shared" si="1"/>
+        <v>0.50424999999999998</v>
+      </c>
+      <c r="M9" s="23">
+        <f t="shared" si="1"/>
+        <v>0.50424999999999998</v>
+      </c>
+      <c r="N9" s="23">
+        <f t="shared" si="1"/>
+        <v>0.50424999999999998</v>
+      </c>
+      <c r="O9" s="23"/>
+      <c r="P9" s="23"/>
+      <c r="Q9" s="23"/>
+      <c r="R9" s="23"/>
+      <c r="S9" s="23"/>
+      <c r="T9" s="23"/>
+      <c r="U9" s="23"/>
+      <c r="V9" s="23"/>
+      <c r="W9" s="23"/>
+      <c r="X9" s="23"/>
+      <c r="Y9" s="23"/>
+      <c r="Z9" s="23"/>
+    </row>
+    <row r="10" spans="1:26">
+      <c r="A10" s="32"/>
+    </row>
+    <row r="11" spans="1:26">
+      <c r="A11" s="32" t="s">
+        <v>55</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Z11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8:H9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:26">
+      <c r="A1" s="36" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:26">
+      <c r="A2" s="36"/>
+      <c r="B2" s="36" t="s">
+        <v>57</v>
+      </c>
+      <c r="C2" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2" s="36" t="s">
+        <v>31</v>
+      </c>
+      <c r="E2" s="36" t="s">
+        <v>32</v>
+      </c>
+      <c r="F2" s="36" t="s">
+        <v>33</v>
+      </c>
+      <c r="G2" s="36" t="s">
+        <v>34</v>
+      </c>
+      <c r="H2" s="36" t="s">
+        <v>35</v>
+      </c>
+      <c r="I2" s="36" t="s">
+        <v>36</v>
+      </c>
+      <c r="J2" s="36" t="s">
+        <v>37</v>
+      </c>
+      <c r="K2" s="36" t="s">
+        <v>38</v>
+      </c>
+      <c r="L2" s="36" t="s">
+        <v>39</v>
+      </c>
+      <c r="M2" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="N2" s="36" t="s">
+        <v>41</v>
+      </c>
+      <c r="O2" s="36"/>
+      <c r="P2" s="36"/>
+      <c r="Q2" s="36"/>
+      <c r="R2" s="36"/>
+      <c r="S2" s="36"/>
+      <c r="T2" s="36"/>
+      <c r="U2" s="36"/>
+      <c r="V2" s="36"/>
+      <c r="W2" s="36"/>
+      <c r="X2" s="36"/>
+      <c r="Y2" s="36"/>
+      <c r="Z2" s="36"/>
+    </row>
+    <row r="3" spans="1:26">
+      <c r="A3" s="36"/>
+      <c r="B3" s="36" t="s">
+        <v>58</v>
+      </c>
+      <c r="C3" s="37">
+        <v>0.27249512024599126</v>
+      </c>
+      <c r="D3" s="37">
+        <v>0.27249512024599126</v>
+      </c>
+      <c r="E3" s="37">
+        <v>0.27249512024599126</v>
+      </c>
+      <c r="F3" s="37">
+        <v>0.27249512024599126</v>
+      </c>
+      <c r="G3" s="37">
+        <v>0.27249512024599126</v>
+      </c>
+      <c r="H3" s="37">
+        <v>0.27249512024599126</v>
+      </c>
+      <c r="I3" s="37">
+        <v>0.30449151282646025</v>
+      </c>
+      <c r="J3" s="37">
+        <v>0.30449151282646025</v>
+      </c>
+      <c r="K3" s="37">
+        <v>0.30449151282646025</v>
+      </c>
+      <c r="L3" s="37">
+        <v>0.30449151282646025</v>
+      </c>
+      <c r="M3" s="37">
+        <v>0.30449151282646025</v>
+      </c>
+      <c r="N3" s="37">
+        <v>0.30449151282646025</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26">
+      <c r="A4" s="36"/>
+      <c r="B4" s="36" t="s">
+        <v>59</v>
+      </c>
+      <c r="C4" s="37">
+        <v>0.34029048249791771</v>
+      </c>
+      <c r="D4" s="37">
+        <v>0.34029048249791771</v>
+      </c>
+      <c r="E4" s="37">
+        <v>0.34029048249791771</v>
+      </c>
+      <c r="F4" s="37">
+        <v>0.34029048249791771</v>
+      </c>
+      <c r="G4" s="37">
+        <v>0.34029048249791771</v>
+      </c>
+      <c r="H4" s="37">
+        <v>0.34029048249791771</v>
+      </c>
+      <c r="I4" s="37">
+        <v>0.37613168601042085</v>
+      </c>
+      <c r="J4" s="37">
+        <v>0.37613168601042085</v>
+      </c>
+      <c r="K4" s="37">
+        <v>0.37613168601042085</v>
+      </c>
+      <c r="L4" s="37">
+        <v>0.37613168601042085</v>
+      </c>
+      <c r="M4" s="37">
+        <v>0.37613168601042085</v>
+      </c>
+      <c r="N4" s="37">
+        <v>0.37613168601042085</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26">
+      <c r="A5" s="36"/>
+    </row>
+    <row r="6" spans="1:26">
+      <c r="A6" s="36" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26">
+      <c r="A7" s="36"/>
+      <c r="B7" s="36" t="s">
+        <v>57</v>
+      </c>
+      <c r="C7" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" s="36" t="s">
+        <v>31</v>
+      </c>
+      <c r="E7" s="36" t="s">
+        <v>32</v>
+      </c>
+      <c r="F7" s="36" t="s">
+        <v>33</v>
+      </c>
+      <c r="G7" s="36" t="s">
+        <v>34</v>
+      </c>
+      <c r="H7" s="36" t="s">
+        <v>35</v>
+      </c>
+      <c r="I7" s="36" t="s">
+        <v>36</v>
+      </c>
+      <c r="J7" s="36" t="s">
+        <v>37</v>
+      </c>
+      <c r="K7" s="36" t="s">
+        <v>38</v>
+      </c>
+      <c r="L7" s="36" t="s">
+        <v>39</v>
+      </c>
+      <c r="M7" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="N7" s="36" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26">
+      <c r="A8" s="36"/>
+      <c r="B8" s="36" t="s">
+        <v>58</v>
+      </c>
+      <c r="C8" s="23">
+        <f>ROUND(C3,5)</f>
+        <v>0.27250000000000002</v>
+      </c>
+      <c r="D8" s="23">
+        <f t="shared" ref="D8:N8" si="0">ROUND(D3,5)</f>
+        <v>0.27250000000000002</v>
+      </c>
+      <c r="E8" s="23">
+        <f t="shared" si="0"/>
+        <v>0.27250000000000002</v>
+      </c>
+      <c r="F8" s="23">
+        <f t="shared" si="0"/>
+        <v>0.27250000000000002</v>
+      </c>
+      <c r="G8" s="23">
+        <f t="shared" si="0"/>
+        <v>0.27250000000000002</v>
+      </c>
+      <c r="H8" s="23">
+        <f t="shared" si="0"/>
+        <v>0.27250000000000002</v>
+      </c>
+      <c r="I8" s="23">
+        <f t="shared" si="0"/>
+        <v>0.30448999999999998</v>
+      </c>
+      <c r="J8" s="23">
+        <f t="shared" si="0"/>
+        <v>0.30448999999999998</v>
+      </c>
+      <c r="K8" s="23">
+        <f t="shared" si="0"/>
+        <v>0.30448999999999998</v>
+      </c>
+      <c r="L8" s="23">
+        <f t="shared" si="0"/>
+        <v>0.30448999999999998</v>
+      </c>
+      <c r="M8" s="23">
+        <f t="shared" si="0"/>
+        <v>0.30448999999999998</v>
+      </c>
+      <c r="N8" s="23">
+        <f t="shared" si="0"/>
+        <v>0.30448999999999998</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26">
+      <c r="A9" s="36"/>
+      <c r="B9" s="36" t="s">
+        <v>59</v>
+      </c>
+      <c r="C9" s="23">
+        <f>ROUND(C4,5)</f>
+        <v>0.34028999999999998</v>
+      </c>
+      <c r="D9" s="23">
+        <f t="shared" ref="D9:N9" si="1">ROUND(D4,5)</f>
+        <v>0.34028999999999998</v>
+      </c>
+      <c r="E9" s="23">
+        <f t="shared" si="1"/>
+        <v>0.34028999999999998</v>
+      </c>
+      <c r="F9" s="23">
+        <f t="shared" si="1"/>
+        <v>0.34028999999999998</v>
+      </c>
+      <c r="G9" s="23">
+        <f t="shared" si="1"/>
+        <v>0.34028999999999998</v>
+      </c>
+      <c r="H9" s="23">
+        <f t="shared" si="1"/>
+        <v>0.34028999999999998</v>
+      </c>
+      <c r="I9" s="23">
+        <f t="shared" si="1"/>
+        <v>0.37613000000000002</v>
+      </c>
+      <c r="J9" s="23">
+        <f t="shared" si="1"/>
+        <v>0.37613000000000002</v>
+      </c>
+      <c r="K9" s="23">
+        <f t="shared" si="1"/>
+        <v>0.37613000000000002</v>
+      </c>
+      <c r="L9" s="23">
+        <f t="shared" si="1"/>
+        <v>0.37613000000000002</v>
+      </c>
+      <c r="M9" s="23">
+        <f t="shared" si="1"/>
+        <v>0.37613000000000002</v>
+      </c>
+      <c r="N9" s="23">
+        <f t="shared" si="1"/>
+        <v>0.37613000000000002</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26">
+      <c r="A10" s="36"/>
+    </row>
+    <row r="11" spans="1:26">
+      <c r="A11" s="36" t="s">
+        <v>55</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/data_prep/input_data.xlsx
+++ b/data_prep/input_data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="180" windowWidth="12435" windowHeight="10485" firstSheet="2" activeTab="8"/>
+    <workbookView xWindow="360" yWindow="180" windowWidth="12435" windowHeight="10485" firstSheet="3" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="Introduction" sheetId="4" r:id="rId1"/>
@@ -16,9 +16,11 @@
     <sheet name="Abused Depression" sheetId="7" r:id="rId7"/>
     <sheet name="Not Abused Condom Rates" sheetId="8" r:id="rId8"/>
     <sheet name="Abused Condom Rates" sheetId="9" r:id="rId9"/>
+    <sheet name="Not Abused Debut" sheetId="10" r:id="rId10"/>
+    <sheet name="Abused Debut" sheetId="11" r:id="rId11"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId10"/>
+    <externalReference r:id="rId12"/>
   </externalReferences>
   <definedNames>
     <definedName name="CurrYear">[1]Results!$B$3</definedName>
@@ -57,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="72">
   <si>
     <t>Age</t>
   </si>
@@ -547,7 +549,7 @@
     <xf numFmtId="10" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFont="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="174" fontId="2" fillId="0" borderId="4" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -594,6 +596,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="28">
     <cellStyle name="Bold 11" xfId="2"/>
@@ -1395,6 +1400,1447 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Z20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:26">
+      <c r="A1" s="36" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:26">
+      <c r="A2" s="36"/>
+      <c r="B2" s="38" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="38" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2" s="38" t="s">
+        <v>31</v>
+      </c>
+      <c r="E2" s="38" t="s">
+        <v>32</v>
+      </c>
+      <c r="F2" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="G2" s="38" t="s">
+        <v>34</v>
+      </c>
+      <c r="H2" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="I2" s="38" t="s">
+        <v>36</v>
+      </c>
+      <c r="J2" s="38" t="s">
+        <v>37</v>
+      </c>
+      <c r="K2" s="38" t="s">
+        <v>38</v>
+      </c>
+      <c r="L2" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="M2" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="N2" s="38" t="s">
+        <v>41</v>
+      </c>
+      <c r="O2" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="P2" s="38" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q2" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="R2" s="38" t="s">
+        <v>45</v>
+      </c>
+      <c r="S2" s="38" t="s">
+        <v>46</v>
+      </c>
+      <c r="T2" s="38" t="s">
+        <v>47</v>
+      </c>
+      <c r="U2" s="38" t="s">
+        <v>48</v>
+      </c>
+      <c r="V2" s="38" t="s">
+        <v>49</v>
+      </c>
+      <c r="W2" s="38" t="s">
+        <v>50</v>
+      </c>
+      <c r="X2" s="38" t="s">
+        <v>51</v>
+      </c>
+      <c r="Y2" s="38" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z2" s="38" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26">
+      <c r="A3" s="36"/>
+      <c r="B3" s="38">
+        <v>13</v>
+      </c>
+      <c r="C3" s="23">
+        <v>3.409219227467352E-2</v>
+      </c>
+      <c r="D3" s="23">
+        <v>3.409219227467352E-2</v>
+      </c>
+      <c r="E3" s="23">
+        <v>2.0466978028009713E-2</v>
+      </c>
+      <c r="F3" s="23">
+        <v>8.1867912112038848E-3</v>
+      </c>
+      <c r="G3" s="23">
+        <v>4.0933956056019426E-2</v>
+      </c>
+      <c r="H3" s="23">
+        <v>3.4723429533357553E-2</v>
+      </c>
+      <c r="I3" s="23">
+        <v>3.8530970774725296E-2</v>
+      </c>
+      <c r="J3" s="23">
+        <v>3.8530970774725296E-2</v>
+      </c>
+      <c r="K3" s="23">
+        <v>2.3110450364287813E-2</v>
+      </c>
+      <c r="L3" s="23">
+        <v>9.2441801457151251E-3</v>
+      </c>
+      <c r="M3" s="23">
+        <v>4.6220900728575626E-2</v>
+      </c>
+      <c r="N3" s="23">
+        <v>3.9241055741568859E-2</v>
+      </c>
+      <c r="O3" s="23">
+        <v>8.9643139931506508E-2</v>
+      </c>
+      <c r="P3" s="23">
+        <v>8.9643139931506508E-2</v>
+      </c>
+      <c r="Q3" s="23">
+        <v>5.3202503998716094E-2</v>
+      </c>
+      <c r="R3" s="23">
+        <v>2.128100159948644E-2</v>
+      </c>
+      <c r="S3" s="23">
+        <v>0.10640500799743219</v>
+      </c>
+      <c r="T3" s="23">
+        <v>9.1205814451810446E-2</v>
+      </c>
+      <c r="U3" s="23">
+        <v>0.10056160845706009</v>
+      </c>
+      <c r="V3" s="23">
+        <v>0.10056160845706009</v>
+      </c>
+      <c r="W3" s="23">
+        <v>5.9548984205744247E-2</v>
+      </c>
+      <c r="X3" s="23">
+        <v>2.3819593682297701E-2</v>
+      </c>
+      <c r="Y3" s="23">
+        <v>0.11909796841148849</v>
+      </c>
+      <c r="Z3" s="23">
+        <v>0.10229322865649333</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26">
+      <c r="B4" s="38">
+        <v>14</v>
+      </c>
+      <c r="C4" s="23">
+        <v>1.1908785249521138E-2</v>
+      </c>
+      <c r="D4" s="23">
+        <v>1.1908785249521138E-2</v>
+      </c>
+      <c r="E4" s="23">
+        <v>7.0811837968055048E-3</v>
+      </c>
+      <c r="F4" s="23">
+        <v>2.8324735187222026E-3</v>
+      </c>
+      <c r="G4" s="23">
+        <v>1.416236759361101E-2</v>
+      </c>
+      <c r="H4" s="23">
+        <v>1.2118590369800647E-2</v>
+      </c>
+      <c r="I4" s="23">
+        <v>1.3375977201265044E-2</v>
+      </c>
+      <c r="J4" s="23">
+        <v>1.3375977201265044E-2</v>
+      </c>
+      <c r="K4" s="23">
+        <v>7.9365602598665715E-3</v>
+      </c>
+      <c r="L4" s="23">
+        <v>3.17462410394663E-3</v>
+      </c>
+      <c r="M4" s="23">
+        <v>1.5873120519733143E-2</v>
+      </c>
+      <c r="N4" s="23">
+        <v>1.360893240786918E-2</v>
+      </c>
+      <c r="O4" s="23">
+        <v>2.8931258503432339E-2</v>
+      </c>
+      <c r="P4" s="23">
+        <v>2.8931258503432339E-2</v>
+      </c>
+      <c r="Q4" s="23">
+        <v>1.6754762917791252E-2</v>
+      </c>
+      <c r="R4" s="23">
+        <v>6.7019051671164988E-3</v>
+      </c>
+      <c r="S4" s="23">
+        <v>3.3509525835582504E-2</v>
+      </c>
+      <c r="T4" s="23">
+        <v>2.9368795213074311E-2</v>
+      </c>
+      <c r="U4" s="23">
+        <v>3.1942169375229881E-2</v>
+      </c>
+      <c r="V4" s="23">
+        <v>3.1942169375229881E-2</v>
+      </c>
+      <c r="W4" s="23">
+        <v>1.8404713356731668E-2</v>
+      </c>
+      <c r="X4" s="23">
+        <v>7.3618853426926679E-3</v>
+      </c>
+      <c r="Y4" s="23">
+        <v>3.6809426713463336E-2</v>
+      </c>
+      <c r="Z4" s="23">
+        <v>3.2409823295534837E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26">
+      <c r="B5" s="38">
+        <v>15</v>
+      </c>
+      <c r="C5" s="23">
+        <v>1.5802488739393883E-2</v>
+      </c>
+      <c r="D5" s="23">
+        <v>1.5802488739393883E-2</v>
+      </c>
+      <c r="E5" s="23">
+        <v>9.3426614764174146E-3</v>
+      </c>
+      <c r="F5" s="23">
+        <v>3.7370645905669669E-3</v>
+      </c>
+      <c r="G5" s="23">
+        <v>1.8685322952834829E-2</v>
+      </c>
+      <c r="H5" s="23">
+        <v>1.6072354222944812E-2</v>
+      </c>
+      <c r="I5" s="23">
+        <v>1.7683341467696803E-2</v>
+      </c>
+      <c r="J5" s="23">
+        <v>1.7683341467696803E-2</v>
+      </c>
+      <c r="K5" s="23">
+        <v>1.0425098064409919E-2</v>
+      </c>
+      <c r="L5" s="23">
+        <v>4.1700392257639669E-3</v>
+      </c>
+      <c r="M5" s="23">
+        <v>2.0850196128819838E-2</v>
+      </c>
+      <c r="N5" s="23">
+        <v>1.7980609091881906E-2</v>
+      </c>
+      <c r="O5" s="23">
+        <v>3.6676126782527421E-2</v>
+      </c>
+      <c r="P5" s="23">
+        <v>3.6676126782527421E-2</v>
+      </c>
+      <c r="Q5" s="23">
+        <v>2.0957580919364352E-2</v>
+      </c>
+      <c r="R5" s="23">
+        <v>8.3830323677457387E-3</v>
+      </c>
+      <c r="S5" s="23">
+        <v>4.1915161838728704E-2</v>
+      </c>
+      <c r="T5" s="23">
+        <v>3.7184077354085188E-2</v>
+      </c>
+      <c r="U5" s="23">
+        <v>4.014070826591945E-2</v>
+      </c>
+      <c r="V5" s="23">
+        <v>4.014070826591945E-2</v>
+      </c>
+      <c r="W5" s="23">
+        <v>2.2791924985128498E-2</v>
+      </c>
+      <c r="X5" s="23">
+        <v>9.1167699940514005E-3</v>
+      </c>
+      <c r="Y5" s="23">
+        <v>4.5583849970256995E-2</v>
+      </c>
+      <c r="Z5" s="23">
+        <v>4.0672266081934388E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26">
+      <c r="A10" s="36" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26">
+      <c r="B11" s="39" t="s">
+        <v>0</v>
+      </c>
+      <c r="C11" s="39" t="s">
+        <v>30</v>
+      </c>
+      <c r="D11" s="39" t="s">
+        <v>31</v>
+      </c>
+      <c r="E11" s="39" t="s">
+        <v>32</v>
+      </c>
+      <c r="F11" s="39" t="s">
+        <v>33</v>
+      </c>
+      <c r="G11" s="39" t="s">
+        <v>34</v>
+      </c>
+      <c r="H11" s="39" t="s">
+        <v>35</v>
+      </c>
+      <c r="I11" s="39" t="s">
+        <v>36</v>
+      </c>
+      <c r="J11" s="39" t="s">
+        <v>37</v>
+      </c>
+      <c r="K11" s="39" t="s">
+        <v>38</v>
+      </c>
+      <c r="L11" s="39" t="s">
+        <v>39</v>
+      </c>
+      <c r="M11" s="39" t="s">
+        <v>40</v>
+      </c>
+      <c r="N11" s="39" t="s">
+        <v>41</v>
+      </c>
+      <c r="O11" s="39" t="s">
+        <v>42</v>
+      </c>
+      <c r="P11" s="39" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q11" s="39" t="s">
+        <v>44</v>
+      </c>
+      <c r="R11" s="39" t="s">
+        <v>45</v>
+      </c>
+      <c r="S11" s="39" t="s">
+        <v>46</v>
+      </c>
+      <c r="T11" s="39" t="s">
+        <v>47</v>
+      </c>
+      <c r="U11" s="39" t="s">
+        <v>48</v>
+      </c>
+      <c r="V11" s="39" t="s">
+        <v>49</v>
+      </c>
+      <c r="W11" s="39" t="s">
+        <v>50</v>
+      </c>
+      <c r="X11" s="39" t="s">
+        <v>51</v>
+      </c>
+      <c r="Y11" s="39" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z11" s="39" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26">
+      <c r="B12" s="39">
+        <v>13</v>
+      </c>
+      <c r="C12" s="23">
+        <f>ROUND(C3,5)</f>
+        <v>3.4090000000000002E-2</v>
+      </c>
+      <c r="D12" s="23">
+        <f t="shared" ref="D12:Z12" si="0">ROUND(D3,5)</f>
+        <v>3.4090000000000002E-2</v>
+      </c>
+      <c r="E12" s="23">
+        <f t="shared" si="0"/>
+        <v>2.0469999999999999E-2</v>
+      </c>
+      <c r="F12" s="23">
+        <f t="shared" si="0"/>
+        <v>8.1899999999999994E-3</v>
+      </c>
+      <c r="G12" s="23">
+        <f t="shared" si="0"/>
+        <v>4.0930000000000001E-2</v>
+      </c>
+      <c r="H12" s="23">
+        <f t="shared" si="0"/>
+        <v>3.4720000000000001E-2</v>
+      </c>
+      <c r="I12" s="23">
+        <f t="shared" si="0"/>
+        <v>3.8530000000000002E-2</v>
+      </c>
+      <c r="J12" s="23">
+        <f t="shared" si="0"/>
+        <v>3.8530000000000002E-2</v>
+      </c>
+      <c r="K12" s="23">
+        <f t="shared" si="0"/>
+        <v>2.3109999999999999E-2</v>
+      </c>
+      <c r="L12" s="23">
+        <f t="shared" si="0"/>
+        <v>9.2399999999999999E-3</v>
+      </c>
+      <c r="M12" s="23">
+        <f t="shared" si="0"/>
+        <v>4.6219999999999997E-2</v>
+      </c>
+      <c r="N12" s="23">
+        <f t="shared" si="0"/>
+        <v>3.9239999999999997E-2</v>
+      </c>
+      <c r="O12" s="23">
+        <f t="shared" si="0"/>
+        <v>8.9639999999999997E-2</v>
+      </c>
+      <c r="P12" s="23">
+        <f t="shared" si="0"/>
+        <v>8.9639999999999997E-2</v>
+      </c>
+      <c r="Q12" s="23">
+        <f t="shared" si="0"/>
+        <v>5.3199999999999997E-2</v>
+      </c>
+      <c r="R12" s="23">
+        <f t="shared" si="0"/>
+        <v>2.128E-2</v>
+      </c>
+      <c r="S12" s="23">
+        <f t="shared" si="0"/>
+        <v>0.10641</v>
+      </c>
+      <c r="T12" s="23">
+        <f t="shared" si="0"/>
+        <v>9.1209999999999999E-2</v>
+      </c>
+      <c r="U12" s="23">
+        <f t="shared" si="0"/>
+        <v>0.10056</v>
+      </c>
+      <c r="V12" s="23">
+        <f t="shared" si="0"/>
+        <v>0.10056</v>
+      </c>
+      <c r="W12" s="23">
+        <f t="shared" si="0"/>
+        <v>5.9549999999999999E-2</v>
+      </c>
+      <c r="X12" s="23">
+        <f t="shared" si="0"/>
+        <v>2.3820000000000001E-2</v>
+      </c>
+      <c r="Y12" s="23">
+        <f t="shared" si="0"/>
+        <v>0.1191</v>
+      </c>
+      <c r="Z12" s="23">
+        <f t="shared" si="0"/>
+        <v>0.10229000000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26">
+      <c r="B13" s="39">
+        <v>14</v>
+      </c>
+      <c r="C13" s="23">
+        <f t="shared" ref="C13:Z13" si="1">ROUND(C4,5)</f>
+        <v>1.191E-2</v>
+      </c>
+      <c r="D13" s="23">
+        <f t="shared" si="1"/>
+        <v>1.191E-2</v>
+      </c>
+      <c r="E13" s="23">
+        <f t="shared" si="1"/>
+        <v>7.0800000000000004E-3</v>
+      </c>
+      <c r="F13" s="23">
+        <f t="shared" si="1"/>
+        <v>2.8300000000000001E-3</v>
+      </c>
+      <c r="G13" s="23">
+        <f t="shared" si="1"/>
+        <v>1.4160000000000001E-2</v>
+      </c>
+      <c r="H13" s="23">
+        <f t="shared" si="1"/>
+        <v>1.2120000000000001E-2</v>
+      </c>
+      <c r="I13" s="23">
+        <f t="shared" si="1"/>
+        <v>1.338E-2</v>
+      </c>
+      <c r="J13" s="23">
+        <f t="shared" si="1"/>
+        <v>1.338E-2</v>
+      </c>
+      <c r="K13" s="23">
+        <f t="shared" si="1"/>
+        <v>7.9399999999999991E-3</v>
+      </c>
+      <c r="L13" s="23">
+        <f t="shared" si="1"/>
+        <v>3.1700000000000001E-3</v>
+      </c>
+      <c r="M13" s="23">
+        <f t="shared" si="1"/>
+        <v>1.5869999999999999E-2</v>
+      </c>
+      <c r="N13" s="23">
+        <f t="shared" si="1"/>
+        <v>1.3610000000000001E-2</v>
+      </c>
+      <c r="O13" s="23">
+        <f t="shared" si="1"/>
+        <v>2.8930000000000001E-2</v>
+      </c>
+      <c r="P13" s="23">
+        <f t="shared" si="1"/>
+        <v>2.8930000000000001E-2</v>
+      </c>
+      <c r="Q13" s="23">
+        <f t="shared" si="1"/>
+        <v>1.6750000000000001E-2</v>
+      </c>
+      <c r="R13" s="23">
+        <f t="shared" si="1"/>
+        <v>6.7000000000000002E-3</v>
+      </c>
+      <c r="S13" s="23">
+        <f t="shared" si="1"/>
+        <v>3.3509999999999998E-2</v>
+      </c>
+      <c r="T13" s="23">
+        <f t="shared" si="1"/>
+        <v>2.937E-2</v>
+      </c>
+      <c r="U13" s="23">
+        <f t="shared" si="1"/>
+        <v>3.1940000000000003E-2</v>
+      </c>
+      <c r="V13" s="23">
+        <f t="shared" si="1"/>
+        <v>3.1940000000000003E-2</v>
+      </c>
+      <c r="W13" s="23">
+        <f t="shared" si="1"/>
+        <v>1.84E-2</v>
+      </c>
+      <c r="X13" s="23">
+        <f t="shared" si="1"/>
+        <v>7.3600000000000002E-3</v>
+      </c>
+      <c r="Y13" s="23">
+        <f t="shared" si="1"/>
+        <v>3.6810000000000002E-2</v>
+      </c>
+      <c r="Z13" s="23">
+        <f t="shared" si="1"/>
+        <v>3.2410000000000001E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26">
+      <c r="B14" s="39">
+        <v>15</v>
+      </c>
+      <c r="C14" s="23">
+        <f t="shared" ref="C14:Z14" si="2">ROUND(C5,5)</f>
+        <v>1.5800000000000002E-2</v>
+      </c>
+      <c r="D14" s="23">
+        <f t="shared" si="2"/>
+        <v>1.5800000000000002E-2</v>
+      </c>
+      <c r="E14" s="23">
+        <f t="shared" si="2"/>
+        <v>9.3399999999999993E-3</v>
+      </c>
+      <c r="F14" s="23">
+        <f t="shared" si="2"/>
+        <v>3.7399999999999998E-3</v>
+      </c>
+      <c r="G14" s="23">
+        <f t="shared" si="2"/>
+        <v>1.8689999999999998E-2</v>
+      </c>
+      <c r="H14" s="23">
+        <f t="shared" si="2"/>
+        <v>1.6070000000000001E-2</v>
+      </c>
+      <c r="I14" s="23">
+        <f t="shared" si="2"/>
+        <v>1.7680000000000001E-2</v>
+      </c>
+      <c r="J14" s="23">
+        <f t="shared" si="2"/>
+        <v>1.7680000000000001E-2</v>
+      </c>
+      <c r="K14" s="23">
+        <f t="shared" si="2"/>
+        <v>1.043E-2</v>
+      </c>
+      <c r="L14" s="23">
+        <f t="shared" si="2"/>
+        <v>4.1700000000000001E-3</v>
+      </c>
+      <c r="M14" s="23">
+        <f t="shared" si="2"/>
+        <v>2.085E-2</v>
+      </c>
+      <c r="N14" s="23">
+        <f t="shared" si="2"/>
+        <v>1.7979999999999999E-2</v>
+      </c>
+      <c r="O14" s="23">
+        <f t="shared" si="2"/>
+        <v>3.6679999999999997E-2</v>
+      </c>
+      <c r="P14" s="23">
+        <f t="shared" si="2"/>
+        <v>3.6679999999999997E-2</v>
+      </c>
+      <c r="Q14" s="23">
+        <f t="shared" si="2"/>
+        <v>2.0959999999999999E-2</v>
+      </c>
+      <c r="R14" s="23">
+        <f t="shared" si="2"/>
+        <v>8.3800000000000003E-3</v>
+      </c>
+      <c r="S14" s="23">
+        <f t="shared" si="2"/>
+        <v>4.1919999999999999E-2</v>
+      </c>
+      <c r="T14" s="23">
+        <f t="shared" si="2"/>
+        <v>3.7179999999999998E-2</v>
+      </c>
+      <c r="U14" s="23">
+        <f t="shared" si="2"/>
+        <v>4.0140000000000002E-2</v>
+      </c>
+      <c r="V14" s="23">
+        <f t="shared" si="2"/>
+        <v>4.0140000000000002E-2</v>
+      </c>
+      <c r="W14" s="23">
+        <f t="shared" si="2"/>
+        <v>2.2790000000000001E-2</v>
+      </c>
+      <c r="X14" s="23">
+        <f t="shared" si="2"/>
+        <v>9.1199999999999996E-3</v>
+      </c>
+      <c r="Y14" s="23">
+        <f t="shared" si="2"/>
+        <v>4.5580000000000002E-2</v>
+      </c>
+      <c r="Z14" s="23">
+        <f t="shared" si="2"/>
+        <v>4.0669999999999998E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" s="36" t="s">
+        <v>55</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Z20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3:Z5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="16384" width="9.140625" style="39"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:26">
+      <c r="A1" s="39" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:26">
+      <c r="B2" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="40" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2" s="40" t="s">
+        <v>31</v>
+      </c>
+      <c r="E2" s="40" t="s">
+        <v>32</v>
+      </c>
+      <c r="F2" s="40" t="s">
+        <v>33</v>
+      </c>
+      <c r="G2" s="40" t="s">
+        <v>34</v>
+      </c>
+      <c r="H2" s="40" t="s">
+        <v>35</v>
+      </c>
+      <c r="I2" s="40" t="s">
+        <v>36</v>
+      </c>
+      <c r="J2" s="40" t="s">
+        <v>37</v>
+      </c>
+      <c r="K2" s="40" t="s">
+        <v>38</v>
+      </c>
+      <c r="L2" s="40" t="s">
+        <v>39</v>
+      </c>
+      <c r="M2" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="N2" s="40" t="s">
+        <v>41</v>
+      </c>
+      <c r="O2" s="40" t="s">
+        <v>42</v>
+      </c>
+      <c r="P2" s="40" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q2" s="40" t="s">
+        <v>44</v>
+      </c>
+      <c r="R2" s="40" t="s">
+        <v>45</v>
+      </c>
+      <c r="S2" s="40" t="s">
+        <v>46</v>
+      </c>
+      <c r="T2" s="40" t="s">
+        <v>47</v>
+      </c>
+      <c r="U2" s="40" t="s">
+        <v>48</v>
+      </c>
+      <c r="V2" s="40" t="s">
+        <v>49</v>
+      </c>
+      <c r="W2" s="40" t="s">
+        <v>50</v>
+      </c>
+      <c r="X2" s="40" t="s">
+        <v>51</v>
+      </c>
+      <c r="Y2" s="40" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z2" s="40" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26">
+      <c r="B3" s="40">
+        <v>13</v>
+      </c>
+      <c r="C3" s="23">
+        <v>5.3403329799824227E-2</v>
+      </c>
+      <c r="D3" s="23">
+        <v>5.3403329799824227E-2</v>
+      </c>
+      <c r="E3" s="23">
+        <v>3.1932147751673079E-2</v>
+      </c>
+      <c r="F3" s="23">
+        <v>1.2772859100669233E-2</v>
+      </c>
+      <c r="G3" s="23">
+        <v>6.3864295503346158E-2</v>
+      </c>
+      <c r="H3" s="23">
+        <v>5.4371996995758107E-2</v>
+      </c>
+      <c r="I3" s="23">
+        <v>5.3403329799824227E-2</v>
+      </c>
+      <c r="J3" s="23">
+        <v>5.3403329799824227E-2</v>
+      </c>
+      <c r="K3" s="23">
+        <v>3.5945436605017998E-2</v>
+      </c>
+      <c r="L3" s="23">
+        <v>1.43781746420072E-2</v>
+      </c>
+      <c r="M3" s="23">
+        <v>7.1890873210035997E-2</v>
+      </c>
+      <c r="N3" s="23">
+        <v>0.15407385387469932</v>
+      </c>
+      <c r="O3" s="23">
+        <v>0.1359903512204356</v>
+      </c>
+      <c r="P3" s="23">
+        <v>0.1359903512204356</v>
+      </c>
+      <c r="Q3" s="23">
+        <v>7.9948140361099845E-2</v>
+      </c>
+      <c r="R3" s="23">
+        <v>3.1979256144439937E-2</v>
+      </c>
+      <c r="S3" s="23">
+        <v>0.15989628072219969</v>
+      </c>
+      <c r="T3" s="23">
+        <v>0.1382382731724941</v>
+      </c>
+      <c r="U3" s="23">
+        <v>0.15161373035576886</v>
+      </c>
+      <c r="V3" s="23">
+        <v>0.15161373035576886</v>
+      </c>
+      <c r="W3" s="23">
+        <v>8.8850625174313455E-2</v>
+      </c>
+      <c r="X3" s="23">
+        <v>3.5540250069725381E-2</v>
+      </c>
+      <c r="Y3" s="23">
+        <v>0.17770125034862691</v>
+      </c>
+      <c r="Z3" s="23">
+        <v>0.15407385387469932</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26">
+      <c r="B4" s="40">
+        <v>14</v>
+      </c>
+      <c r="C4" s="23">
+        <v>1.8154643812736536E-2</v>
+      </c>
+      <c r="D4" s="23">
+        <v>1.8154643812736536E-2</v>
+      </c>
+      <c r="E4" s="23">
+        <v>1.0695296583093421E-2</v>
+      </c>
+      <c r="F4" s="23">
+        <v>4.2781186332373679E-3</v>
+      </c>
+      <c r="G4" s="23">
+        <v>2.1390593166186841E-2</v>
+      </c>
+      <c r="H4" s="23">
+        <v>1.8458609239168977E-2</v>
+      </c>
+      <c r="I4" s="23">
+        <v>1.8154643812736536E-2</v>
+      </c>
+      <c r="J4" s="23">
+        <v>1.8154643812736536E-2</v>
+      </c>
+      <c r="K4" s="23">
+        <v>1.1902091189944085E-2</v>
+      </c>
+      <c r="L4" s="23">
+        <v>4.760836475977635E-3</v>
+      </c>
+      <c r="M4" s="23">
+        <v>2.380418237988817E-2</v>
+      </c>
+      <c r="N4" s="23">
+        <v>4.5174306657326468E-2</v>
+      </c>
+      <c r="O4" s="23">
+        <v>4.0981458556913097E-2</v>
+      </c>
+      <c r="P4" s="23">
+        <v>4.0981458556913097E-2</v>
+      </c>
+      <c r="Q4" s="23">
+        <v>2.3232493578632704E-2</v>
+      </c>
+      <c r="R4" s="23">
+        <v>9.2929974314530858E-3</v>
+      </c>
+      <c r="S4" s="23">
+        <v>4.6464987157265408E-2</v>
+      </c>
+      <c r="T4" s="23">
+        <v>4.1517945226252378E-2</v>
+      </c>
+      <c r="U4" s="23">
+        <v>4.4620326010010342E-2</v>
+      </c>
+      <c r="V4" s="23">
+        <v>4.4620326010010342E-2</v>
+      </c>
+      <c r="W4" s="23">
+        <v>2.5117600112294775E-2</v>
+      </c>
+      <c r="X4" s="23">
+        <v>1.0047040044917917E-2</v>
+      </c>
+      <c r="Y4" s="23">
+        <v>5.0235200224589549E-2</v>
+      </c>
+      <c r="Z4" s="23">
+        <v>4.5174306657326468E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26">
+      <c r="B5" s="40">
+        <v>15</v>
+      </c>
+      <c r="C5" s="23">
+        <v>2.3705268239493482E-2</v>
+      </c>
+      <c r="D5" s="23">
+        <v>2.3705268239493482E-2</v>
+      </c>
+      <c r="E5" s="23">
+        <v>1.3845356862020493E-2</v>
+      </c>
+      <c r="F5" s="23">
+        <v>5.5381427448081971E-3</v>
+      </c>
+      <c r="G5" s="23">
+        <v>2.7690713724040986E-2</v>
+      </c>
+      <c r="H5" s="23">
+        <v>2.4082851103374076E-2</v>
+      </c>
+      <c r="I5" s="23">
+        <v>2.3705268239493482E-2</v>
+      </c>
+      <c r="J5" s="23">
+        <v>2.3705268239493482E-2</v>
+      </c>
+      <c r="K5" s="23">
+        <v>1.5306722831069375E-2</v>
+      </c>
+      <c r="L5" s="23">
+        <v>6.1226891324277499E-3</v>
+      </c>
+      <c r="M5" s="23">
+        <v>3.061344566213875E-2</v>
+      </c>
+      <c r="N5" s="23">
+        <v>5.444714348891147E-2</v>
+      </c>
+      <c r="O5" s="23">
+        <v>5.0085930825912756E-2</v>
+      </c>
+      <c r="P5" s="23">
+        <v>5.0085930825912756E-2</v>
+      </c>
+      <c r="Q5" s="23">
+        <v>2.7877315464450089E-2</v>
+      </c>
+      <c r="R5" s="23">
+        <v>1.1150926185780036E-2</v>
+      </c>
+      <c r="S5" s="23">
+        <v>5.5754630928900178E-2</v>
+      </c>
+      <c r="T5" s="23">
+        <v>5.0653351570318417E-2</v>
+      </c>
+      <c r="U5" s="23">
+        <v>5.3880765331910302E-2</v>
+      </c>
+      <c r="V5" s="23">
+        <v>5.3880765331910302E-2</v>
+      </c>
+      <c r="W5" s="23">
+        <v>2.97364114096446E-2</v>
+      </c>
+      <c r="X5" s="23">
+        <v>1.1894564563857839E-2</v>
+      </c>
+      <c r="Y5" s="23">
+        <v>5.9472822819289201E-2</v>
+      </c>
+      <c r="Z5" s="23">
+        <v>5.444714348891147E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26">
+      <c r="A10" s="39" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26">
+      <c r="B11" s="39" t="s">
+        <v>0</v>
+      </c>
+      <c r="C11" s="39" t="s">
+        <v>30</v>
+      </c>
+      <c r="D11" s="39" t="s">
+        <v>31</v>
+      </c>
+      <c r="E11" s="39" t="s">
+        <v>32</v>
+      </c>
+      <c r="F11" s="39" t="s">
+        <v>33</v>
+      </c>
+      <c r="G11" s="39" t="s">
+        <v>34</v>
+      </c>
+      <c r="H11" s="39" t="s">
+        <v>35</v>
+      </c>
+      <c r="I11" s="39" t="s">
+        <v>36</v>
+      </c>
+      <c r="J11" s="39" t="s">
+        <v>37</v>
+      </c>
+      <c r="K11" s="39" t="s">
+        <v>38</v>
+      </c>
+      <c r="L11" s="39" t="s">
+        <v>39</v>
+      </c>
+      <c r="M11" s="39" t="s">
+        <v>40</v>
+      </c>
+      <c r="N11" s="39" t="s">
+        <v>41</v>
+      </c>
+      <c r="O11" s="39" t="s">
+        <v>42</v>
+      </c>
+      <c r="P11" s="39" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q11" s="39" t="s">
+        <v>44</v>
+      </c>
+      <c r="R11" s="39" t="s">
+        <v>45</v>
+      </c>
+      <c r="S11" s="39" t="s">
+        <v>46</v>
+      </c>
+      <c r="T11" s="39" t="s">
+        <v>47</v>
+      </c>
+      <c r="U11" s="39" t="s">
+        <v>48</v>
+      </c>
+      <c r="V11" s="39" t="s">
+        <v>49</v>
+      </c>
+      <c r="W11" s="39" t="s">
+        <v>50</v>
+      </c>
+      <c r="X11" s="39" t="s">
+        <v>51</v>
+      </c>
+      <c r="Y11" s="39" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z11" s="39" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26">
+      <c r="B12" s="39">
+        <v>13</v>
+      </c>
+      <c r="C12" s="23">
+        <f>ROUND(C3,5)</f>
+        <v>5.3400000000000003E-2</v>
+      </c>
+      <c r="D12" s="23">
+        <f t="shared" ref="D12:Z12" si="0">ROUND(D3,5)</f>
+        <v>5.3400000000000003E-2</v>
+      </c>
+      <c r="E12" s="23">
+        <f t="shared" si="0"/>
+        <v>3.193E-2</v>
+      </c>
+      <c r="F12" s="23">
+        <f t="shared" si="0"/>
+        <v>1.277E-2</v>
+      </c>
+      <c r="G12" s="23">
+        <f t="shared" si="0"/>
+        <v>6.386E-2</v>
+      </c>
+      <c r="H12" s="23">
+        <f t="shared" si="0"/>
+        <v>5.4370000000000002E-2</v>
+      </c>
+      <c r="I12" s="23">
+        <f t="shared" si="0"/>
+        <v>5.3400000000000003E-2</v>
+      </c>
+      <c r="J12" s="23">
+        <f t="shared" si="0"/>
+        <v>5.3400000000000003E-2</v>
+      </c>
+      <c r="K12" s="23">
+        <f t="shared" si="0"/>
+        <v>3.5950000000000003E-2</v>
+      </c>
+      <c r="L12" s="23">
+        <f t="shared" si="0"/>
+        <v>1.438E-2</v>
+      </c>
+      <c r="M12" s="23">
+        <f t="shared" si="0"/>
+        <v>7.1889999999999996E-2</v>
+      </c>
+      <c r="N12" s="23">
+        <f t="shared" si="0"/>
+        <v>0.15407000000000001</v>
+      </c>
+      <c r="O12" s="23">
+        <f t="shared" si="0"/>
+        <v>0.13599</v>
+      </c>
+      <c r="P12" s="23">
+        <f t="shared" si="0"/>
+        <v>0.13599</v>
+      </c>
+      <c r="Q12" s="23">
+        <f t="shared" si="0"/>
+        <v>7.9949999999999993E-2</v>
+      </c>
+      <c r="R12" s="23">
+        <f t="shared" si="0"/>
+        <v>3.1980000000000001E-2</v>
+      </c>
+      <c r="S12" s="23">
+        <f t="shared" si="0"/>
+        <v>0.15989999999999999</v>
+      </c>
+      <c r="T12" s="23">
+        <f t="shared" si="0"/>
+        <v>0.13824</v>
+      </c>
+      <c r="U12" s="23">
+        <f t="shared" si="0"/>
+        <v>0.15160999999999999</v>
+      </c>
+      <c r="V12" s="23">
+        <f t="shared" si="0"/>
+        <v>0.15160999999999999</v>
+      </c>
+      <c r="W12" s="23">
+        <f t="shared" si="0"/>
+        <v>8.8849999999999998E-2</v>
+      </c>
+      <c r="X12" s="23">
+        <f t="shared" si="0"/>
+        <v>3.5540000000000002E-2</v>
+      </c>
+      <c r="Y12" s="23">
+        <f t="shared" si="0"/>
+        <v>0.1777</v>
+      </c>
+      <c r="Z12" s="23">
+        <f t="shared" si="0"/>
+        <v>0.15407000000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26">
+      <c r="B13" s="39">
+        <v>14</v>
+      </c>
+      <c r="C13" s="23">
+        <f t="shared" ref="C13:Z14" si="1">ROUND(C4,5)</f>
+        <v>1.8149999999999999E-2</v>
+      </c>
+      <c r="D13" s="23">
+        <f t="shared" si="1"/>
+        <v>1.8149999999999999E-2</v>
+      </c>
+      <c r="E13" s="23">
+        <f t="shared" si="1"/>
+        <v>1.0699999999999999E-2</v>
+      </c>
+      <c r="F13" s="23">
+        <f t="shared" si="1"/>
+        <v>4.28E-3</v>
+      </c>
+      <c r="G13" s="23">
+        <f t="shared" si="1"/>
+        <v>2.1389999999999999E-2</v>
+      </c>
+      <c r="H13" s="23">
+        <f t="shared" si="1"/>
+        <v>1.8460000000000001E-2</v>
+      </c>
+      <c r="I13" s="23">
+        <f t="shared" si="1"/>
+        <v>1.8149999999999999E-2</v>
+      </c>
+      <c r="J13" s="23">
+        <f t="shared" si="1"/>
+        <v>1.8149999999999999E-2</v>
+      </c>
+      <c r="K13" s="23">
+        <f t="shared" si="1"/>
+        <v>1.1900000000000001E-2</v>
+      </c>
+      <c r="L13" s="23">
+        <f t="shared" si="1"/>
+        <v>4.7600000000000003E-3</v>
+      </c>
+      <c r="M13" s="23">
+        <f t="shared" si="1"/>
+        <v>2.3800000000000002E-2</v>
+      </c>
+      <c r="N13" s="23">
+        <f t="shared" si="1"/>
+        <v>4.5170000000000002E-2</v>
+      </c>
+      <c r="O13" s="23">
+        <f t="shared" si="1"/>
+        <v>4.0980000000000003E-2</v>
+      </c>
+      <c r="P13" s="23">
+        <f t="shared" si="1"/>
+        <v>4.0980000000000003E-2</v>
+      </c>
+      <c r="Q13" s="23">
+        <f t="shared" si="1"/>
+        <v>2.3230000000000001E-2</v>
+      </c>
+      <c r="R13" s="23">
+        <f t="shared" si="1"/>
+        <v>9.2899999999999996E-3</v>
+      </c>
+      <c r="S13" s="23">
+        <f t="shared" si="1"/>
+        <v>4.6460000000000001E-2</v>
+      </c>
+      <c r="T13" s="23">
+        <f t="shared" si="1"/>
+        <v>4.1520000000000001E-2</v>
+      </c>
+      <c r="U13" s="23">
+        <f t="shared" si="1"/>
+        <v>4.462E-2</v>
+      </c>
+      <c r="V13" s="23">
+        <f t="shared" si="1"/>
+        <v>4.462E-2</v>
+      </c>
+      <c r="W13" s="23">
+        <f t="shared" si="1"/>
+        <v>2.512E-2</v>
+      </c>
+      <c r="X13" s="23">
+        <f t="shared" si="1"/>
+        <v>1.005E-2</v>
+      </c>
+      <c r="Y13" s="23">
+        <f t="shared" si="1"/>
+        <v>5.024E-2</v>
+      </c>
+      <c r="Z13" s="23">
+        <f t="shared" si="1"/>
+        <v>4.5170000000000002E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26">
+      <c r="B14" s="39">
+        <v>15</v>
+      </c>
+      <c r="C14" s="23">
+        <f t="shared" si="1"/>
+        <v>2.3709999999999998E-2</v>
+      </c>
+      <c r="D14" s="23">
+        <f t="shared" si="1"/>
+        <v>2.3709999999999998E-2</v>
+      </c>
+      <c r="E14" s="23">
+        <f t="shared" si="1"/>
+        <v>1.3849999999999999E-2</v>
+      </c>
+      <c r="F14" s="23">
+        <f t="shared" si="1"/>
+        <v>5.5399999999999998E-3</v>
+      </c>
+      <c r="G14" s="23">
+        <f t="shared" si="1"/>
+        <v>2.7689999999999999E-2</v>
+      </c>
+      <c r="H14" s="23">
+        <f t="shared" si="1"/>
+        <v>2.4080000000000001E-2</v>
+      </c>
+      <c r="I14" s="23">
+        <f t="shared" si="1"/>
+        <v>2.3709999999999998E-2</v>
+      </c>
+      <c r="J14" s="23">
+        <f t="shared" si="1"/>
+        <v>2.3709999999999998E-2</v>
+      </c>
+      <c r="K14" s="23">
+        <f t="shared" si="1"/>
+        <v>1.5310000000000001E-2</v>
+      </c>
+      <c r="L14" s="23">
+        <f t="shared" si="1"/>
+        <v>6.1199999999999996E-3</v>
+      </c>
+      <c r="M14" s="23">
+        <f t="shared" si="1"/>
+        <v>3.0609999999999998E-2</v>
+      </c>
+      <c r="N14" s="23">
+        <f t="shared" si="1"/>
+        <v>5.4449999999999998E-2</v>
+      </c>
+      <c r="O14" s="23">
+        <f t="shared" si="1"/>
+        <v>5.0090000000000003E-2</v>
+      </c>
+      <c r="P14" s="23">
+        <f t="shared" si="1"/>
+        <v>5.0090000000000003E-2</v>
+      </c>
+      <c r="Q14" s="23">
+        <f t="shared" si="1"/>
+        <v>2.7879999999999999E-2</v>
+      </c>
+      <c r="R14" s="23">
+        <f t="shared" si="1"/>
+        <v>1.115E-2</v>
+      </c>
+      <c r="S14" s="23">
+        <f t="shared" si="1"/>
+        <v>5.5750000000000001E-2</v>
+      </c>
+      <c r="T14" s="23">
+        <f t="shared" si="1"/>
+        <v>5.0650000000000001E-2</v>
+      </c>
+      <c r="U14" s="23">
+        <f t="shared" si="1"/>
+        <v>5.3879999999999997E-2</v>
+      </c>
+      <c r="V14" s="23">
+        <f t="shared" si="1"/>
+        <v>5.3879999999999997E-2</v>
+      </c>
+      <c r="W14" s="23">
+        <f t="shared" si="1"/>
+        <v>2.9739999999999999E-2</v>
+      </c>
+      <c r="X14" s="23">
+        <f t="shared" si="1"/>
+        <v>1.189E-2</v>
+      </c>
+      <c r="Y14" s="23">
+        <f t="shared" si="1"/>
+        <v>5.9470000000000002E-2</v>
+      </c>
+      <c r="Z14" s="23">
+        <f t="shared" si="1"/>
+        <v>5.4449999999999998E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" s="39" t="s">
+        <v>55</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X182"/>
@@ -20667,8 +22113,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8:H9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/data_prep/input_data.xlsx
+++ b/data_prep/input_data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="180" windowWidth="12435" windowHeight="10485" firstSheet="3" activeTab="10"/>
+    <workbookView xWindow="360" yWindow="180" windowWidth="12435" windowHeight="10485" tabRatio="868" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Introduction" sheetId="4" r:id="rId1"/>
@@ -281,7 +281,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="21">
+  <numFmts count="20">
     <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="0.0000"/>
     <numFmt numFmtId="166" formatCode="0.000"/>
@@ -302,7 +302,6 @@
     <numFmt numFmtId="181" formatCode="_ * #,##0_)\ _F_ ;_ * \(#,##0\)\ _F_ ;_ * &quot;-&quot;_)\ _F_ ;_ @_ "/>
     <numFmt numFmtId="182" formatCode="0.00000"/>
     <numFmt numFmtId="183" formatCode="0.000000"/>
-    <numFmt numFmtId="184" formatCode="0.0000000"/>
   </numFmts>
   <fonts count="12">
     <font>
@@ -549,7 +548,7 @@
     <xf numFmtId="10" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFont="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="174" fontId="2" fillId="0" borderId="4" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -583,22 +582,29 @@
     <xf numFmtId="182" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="183" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="184" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="182" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="28">
     <cellStyle name="Bold 11" xfId="2"/>
@@ -1405,410 +1411,410 @@
   <dimension ref="A1:Z20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:26">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="33" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:26">
-      <c r="A2" s="36"/>
-      <c r="B2" s="38" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="38" t="s">
+      <c r="A2" s="33"/>
+      <c r="B2" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="35" t="s">
         <v>30</v>
       </c>
-      <c r="D2" s="38" t="s">
+      <c r="D2" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="E2" s="38" t="s">
+      <c r="E2" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="F2" s="38" t="s">
+      <c r="F2" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="G2" s="38" t="s">
+      <c r="G2" s="35" t="s">
         <v>34</v>
       </c>
-      <c r="H2" s="38" t="s">
+      <c r="H2" s="35" t="s">
         <v>35</v>
       </c>
-      <c r="I2" s="38" t="s">
+      <c r="I2" s="35" t="s">
         <v>36</v>
       </c>
-      <c r="J2" s="38" t="s">
+      <c r="J2" s="35" t="s">
         <v>37</v>
       </c>
-      <c r="K2" s="38" t="s">
+      <c r="K2" s="35" t="s">
         <v>38</v>
       </c>
-      <c r="L2" s="38" t="s">
+      <c r="L2" s="35" t="s">
         <v>39</v>
       </c>
-      <c r="M2" s="38" t="s">
+      <c r="M2" s="35" t="s">
         <v>40</v>
       </c>
-      <c r="N2" s="38" t="s">
+      <c r="N2" s="35" t="s">
         <v>41</v>
       </c>
-      <c r="O2" s="38" t="s">
+      <c r="O2" s="35" t="s">
         <v>42</v>
       </c>
-      <c r="P2" s="38" t="s">
+      <c r="P2" s="35" t="s">
         <v>43</v>
       </c>
-      <c r="Q2" s="38" t="s">
+      <c r="Q2" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="R2" s="38" t="s">
+      <c r="R2" s="35" t="s">
         <v>45</v>
       </c>
-      <c r="S2" s="38" t="s">
+      <c r="S2" s="35" t="s">
         <v>46</v>
       </c>
-      <c r="T2" s="38" t="s">
+      <c r="T2" s="35" t="s">
         <v>47</v>
       </c>
-      <c r="U2" s="38" t="s">
+      <c r="U2" s="35" t="s">
         <v>48</v>
       </c>
-      <c r="V2" s="38" t="s">
+      <c r="V2" s="35" t="s">
         <v>49</v>
       </c>
-      <c r="W2" s="38" t="s">
+      <c r="W2" s="35" t="s">
         <v>50</v>
       </c>
-      <c r="X2" s="38" t="s">
+      <c r="X2" s="35" t="s">
         <v>51</v>
       </c>
-      <c r="Y2" s="38" t="s">
+      <c r="Y2" s="35" t="s">
         <v>52</v>
       </c>
-      <c r="Z2" s="38" t="s">
+      <c r="Z2" s="35" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="3" spans="1:26">
-      <c r="A3" s="36"/>
-      <c r="B3" s="38">
+      <c r="A3" s="33"/>
+      <c r="B3" s="35">
         <v>13</v>
       </c>
-      <c r="C3" s="23">
+      <c r="C3" s="42">
         <v>3.409219227467352E-2</v>
       </c>
-      <c r="D3" s="23">
+      <c r="D3" s="42">
         <v>3.409219227467352E-2</v>
       </c>
-      <c r="E3" s="23">
-        <v>2.0466978028009713E-2</v>
-      </c>
-      <c r="F3" s="23">
-        <v>8.1867912112038848E-3</v>
-      </c>
-      <c r="G3" s="23">
+      <c r="E3" s="42">
+        <v>3.7513074165346473E-2</v>
+      </c>
+      <c r="F3" s="42">
+        <v>3.5460545030942703E-2</v>
+      </c>
+      <c r="G3" s="42">
         <v>4.0933956056019426E-2</v>
       </c>
-      <c r="H3" s="23">
+      <c r="H3" s="42">
         <v>3.4723429533357553E-2</v>
       </c>
-      <c r="I3" s="23">
+      <c r="I3" s="42">
         <v>3.8530970774725296E-2</v>
       </c>
-      <c r="J3" s="23">
+      <c r="J3" s="42">
         <v>3.8530970774725296E-2</v>
       </c>
-      <c r="K3" s="23">
-        <v>2.3110450364287813E-2</v>
-      </c>
-      <c r="L3" s="23">
-        <v>9.2441801457151251E-3</v>
-      </c>
-      <c r="M3" s="23">
+      <c r="K3" s="42">
+        <v>4.2375935751650461E-2</v>
+      </c>
+      <c r="L3" s="42">
+        <v>4.0068956765495364E-2</v>
+      </c>
+      <c r="M3" s="42">
         <v>4.6220900728575626E-2</v>
       </c>
-      <c r="N3" s="23">
+      <c r="N3" s="42">
         <v>3.9241055741568859E-2</v>
       </c>
-      <c r="O3" s="23">
+      <c r="O3" s="42">
         <v>8.9643139931506508E-2</v>
       </c>
-      <c r="P3" s="23">
+      <c r="P3" s="42">
         <v>8.9643139931506508E-2</v>
       </c>
-      <c r="Q3" s="23">
-        <v>5.3202503998716094E-2</v>
-      </c>
-      <c r="R3" s="23">
-        <v>2.128100159948644E-2</v>
-      </c>
-      <c r="S3" s="23">
+      <c r="Q3" s="42">
+        <v>9.8024073964469355E-2</v>
+      </c>
+      <c r="R3" s="42">
+        <v>9.2995513544691641E-2</v>
+      </c>
+      <c r="S3" s="42">
         <v>0.10640500799743219</v>
       </c>
-      <c r="T3" s="23">
+      <c r="T3" s="42">
         <v>9.1205814451810446E-2</v>
       </c>
-      <c r="U3" s="23">
+      <c r="U3" s="42">
         <v>0.10056160845706009</v>
       </c>
-      <c r="V3" s="23">
+      <c r="V3" s="42">
         <v>0.10056160845706009</v>
       </c>
-      <c r="W3" s="23">
-        <v>5.9548984205744247E-2</v>
-      </c>
-      <c r="X3" s="23">
-        <v>2.3819593682297701E-2</v>
-      </c>
-      <c r="Y3" s="23">
+      <c r="W3" s="42">
+        <v>0.10982978843427429</v>
+      </c>
+      <c r="X3" s="42">
+        <v>0.10426888044794577</v>
+      </c>
+      <c r="Y3" s="42">
         <v>0.11909796841148849</v>
       </c>
-      <c r="Z3" s="23">
+      <c r="Z3" s="42">
         <v>0.10229322865649333</v>
       </c>
     </row>
     <row r="4" spans="1:26">
-      <c r="B4" s="38">
+      <c r="B4" s="35">
         <v>14</v>
       </c>
-      <c r="C4" s="23">
+      <c r="C4" s="42">
         <v>1.1908785249521138E-2</v>
       </c>
-      <c r="D4" s="23">
+      <c r="D4" s="42">
         <v>1.1908785249521138E-2</v>
       </c>
-      <c r="E4" s="23">
-        <v>7.0811837968055048E-3</v>
-      </c>
-      <c r="F4" s="23">
-        <v>2.8324735187222026E-3</v>
-      </c>
-      <c r="G4" s="23">
+      <c r="E4" s="42">
+        <v>1.3035576421566074E-2</v>
+      </c>
+      <c r="F4" s="42">
+        <v>1.2359501718339112E-2</v>
+      </c>
+      <c r="G4" s="42">
         <v>1.416236759361101E-2</v>
       </c>
-      <c r="H4" s="23">
+      <c r="H4" s="42">
         <v>1.2118590369800647E-2</v>
       </c>
-      <c r="I4" s="23">
+      <c r="I4" s="42">
         <v>1.3375977201265044E-2</v>
       </c>
-      <c r="J4" s="23">
+      <c r="J4" s="42">
         <v>1.3375977201265044E-2</v>
       </c>
-      <c r="K4" s="23">
-        <v>7.9365602598665715E-3</v>
-      </c>
-      <c r="L4" s="23">
-        <v>3.17462410394663E-3</v>
-      </c>
-      <c r="M4" s="23">
+      <c r="K4" s="42">
+        <v>1.4624548860499097E-2</v>
+      </c>
+      <c r="L4" s="42">
+        <v>1.3875405864958661E-2</v>
+      </c>
+      <c r="M4" s="42">
         <v>1.5873120519733143E-2</v>
       </c>
-      <c r="N4" s="23">
+      <c r="N4" s="42">
         <v>1.360893240786918E-2</v>
       </c>
-      <c r="O4" s="23">
+      <c r="O4" s="42">
         <v>2.8931258503432339E-2</v>
       </c>
-      <c r="P4" s="23">
+      <c r="P4" s="42">
         <v>2.8931258503432339E-2</v>
       </c>
-      <c r="Q4" s="23">
-        <v>1.6754762917791252E-2</v>
-      </c>
-      <c r="R4" s="23">
-        <v>6.7019051671164988E-3</v>
-      </c>
-      <c r="S4" s="23">
+      <c r="Q4" s="42">
+        <v>3.1220392169507422E-2</v>
+      </c>
+      <c r="R4" s="42">
+        <v>2.9846911969862375E-2</v>
+      </c>
+      <c r="S4" s="42">
         <v>3.3509525835582504E-2</v>
       </c>
-      <c r="T4" s="23">
+      <c r="T4" s="42">
         <v>2.9368795213074311E-2</v>
       </c>
-      <c r="U4" s="23">
+      <c r="U4" s="42">
         <v>3.1942169375229881E-2</v>
       </c>
-      <c r="V4" s="23">
+      <c r="V4" s="42">
         <v>3.1942169375229881E-2</v>
       </c>
-      <c r="W4" s="23">
-        <v>1.8404713356731668E-2</v>
-      </c>
-      <c r="X4" s="23">
-        <v>7.3618853426926679E-3</v>
-      </c>
-      <c r="Y4" s="23">
+      <c r="W4" s="42">
+        <v>3.4375798044346623E-2</v>
+      </c>
+      <c r="X4" s="42">
+        <v>3.2915620842876581E-2</v>
+      </c>
+      <c r="Y4" s="42">
         <v>3.6809426713463336E-2</v>
       </c>
-      <c r="Z4" s="23">
+      <c r="Z4" s="42">
         <v>3.2409823295534837E-2</v>
       </c>
     </row>
     <row r="5" spans="1:26">
-      <c r="B5" s="38">
+      <c r="B5" s="35">
         <v>15</v>
       </c>
-      <c r="C5" s="23">
+      <c r="C5" s="42">
         <v>1.5802488739393883E-2</v>
       </c>
-      <c r="D5" s="23">
+      <c r="D5" s="42">
         <v>1.5802488739393883E-2</v>
       </c>
-      <c r="E5" s="23">
-        <v>9.3426614764174146E-3</v>
-      </c>
-      <c r="F5" s="23">
-        <v>3.7370645905669669E-3</v>
-      </c>
-      <c r="G5" s="23">
+      <c r="E5" s="42">
+        <v>1.7243905846114349E-2</v>
+      </c>
+      <c r="F5" s="42">
+        <v>1.6379055582082074E-2</v>
+      </c>
+      <c r="G5" s="42">
         <v>1.8685322952834829E-2</v>
       </c>
-      <c r="H5" s="23">
+      <c r="H5" s="42">
         <v>1.6072354222944812E-2</v>
       </c>
-      <c r="I5" s="23">
+      <c r="I5" s="42">
         <v>1.7683341467696803E-2</v>
       </c>
-      <c r="J5" s="23">
+      <c r="J5" s="42">
         <v>1.7683341467696803E-2</v>
       </c>
-      <c r="K5" s="23">
-        <v>1.0425098064409919E-2</v>
-      </c>
-      <c r="L5" s="23">
-        <v>4.1700392257639669E-3</v>
-      </c>
-      <c r="M5" s="23">
+      <c r="K5" s="42">
+        <v>1.9266768798258324E-2</v>
+      </c>
+      <c r="L5" s="42">
+        <v>1.8316712399921407E-2</v>
+      </c>
+      <c r="M5" s="42">
         <v>2.0850196128819838E-2</v>
       </c>
-      <c r="N5" s="23">
+      <c r="N5" s="42">
         <v>1.7980609091881906E-2</v>
       </c>
-      <c r="O5" s="23">
+      <c r="O5" s="42">
         <v>3.6676126782527421E-2</v>
       </c>
-      <c r="P5" s="23">
+      <c r="P5" s="42">
         <v>3.6676126782527421E-2</v>
       </c>
-      <c r="Q5" s="23">
-        <v>2.0957580919364352E-2</v>
-      </c>
-      <c r="R5" s="23">
-        <v>8.3830323677457387E-3</v>
-      </c>
-      <c r="S5" s="23">
+      <c r="Q5" s="42">
+        <v>3.9295644310628042E-2</v>
+      </c>
+      <c r="R5" s="42">
+        <v>3.7723933793767678E-2</v>
+      </c>
+      <c r="S5" s="42">
         <v>4.1915161838728704E-2</v>
       </c>
-      <c r="T5" s="23">
+      <c r="T5" s="42">
         <v>3.7184077354085188E-2</v>
       </c>
-      <c r="U5" s="23">
+      <c r="U5" s="42">
         <v>4.014070826591945E-2</v>
       </c>
-      <c r="V5" s="23">
+      <c r="V5" s="42">
         <v>4.014070826591945E-2</v>
       </c>
-      <c r="W5" s="23">
-        <v>2.2791924985128498E-2</v>
-      </c>
-      <c r="X5" s="23">
-        <v>9.1167699940514005E-3</v>
-      </c>
-      <c r="Y5" s="23">
+      <c r="W5" s="42">
+        <v>4.2862279118088209E-2</v>
+      </c>
+      <c r="X5" s="42">
+        <v>4.1229336606786959E-2</v>
+      </c>
+      <c r="Y5" s="42">
         <v>4.5583849970256995E-2</v>
       </c>
-      <c r="Z5" s="23">
+      <c r="Z5" s="42">
         <v>4.0672266081934388E-2</v>
       </c>
     </row>
     <row r="10" spans="1:26">
-      <c r="A10" s="36" t="s">
+      <c r="A10" s="33" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="11" spans="1:26">
-      <c r="B11" s="39" t="s">
-        <v>0</v>
-      </c>
-      <c r="C11" s="39" t="s">
+      <c r="B11" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="C11" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="D11" s="39" t="s">
+      <c r="D11" s="36" t="s">
         <v>31</v>
       </c>
-      <c r="E11" s="39" t="s">
+      <c r="E11" s="36" t="s">
         <v>32</v>
       </c>
-      <c r="F11" s="39" t="s">
+      <c r="F11" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="G11" s="39" t="s">
+      <c r="G11" s="36" t="s">
         <v>34</v>
       </c>
-      <c r="H11" s="39" t="s">
+      <c r="H11" s="36" t="s">
         <v>35</v>
       </c>
-      <c r="I11" s="39" t="s">
+      <c r="I11" s="36" t="s">
         <v>36</v>
       </c>
-      <c r="J11" s="39" t="s">
+      <c r="J11" s="36" t="s">
         <v>37</v>
       </c>
-      <c r="K11" s="39" t="s">
+      <c r="K11" s="36" t="s">
         <v>38</v>
       </c>
-      <c r="L11" s="39" t="s">
+      <c r="L11" s="36" t="s">
         <v>39</v>
       </c>
-      <c r="M11" s="39" t="s">
+      <c r="M11" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="N11" s="39" t="s">
+      <c r="N11" s="36" t="s">
         <v>41</v>
       </c>
-      <c r="O11" s="39" t="s">
+      <c r="O11" s="36" t="s">
         <v>42</v>
       </c>
-      <c r="P11" s="39" t="s">
+      <c r="P11" s="36" t="s">
         <v>43</v>
       </c>
-      <c r="Q11" s="39" t="s">
+      <c r="Q11" s="36" t="s">
         <v>44</v>
       </c>
-      <c r="R11" s="39" t="s">
+      <c r="R11" s="36" t="s">
         <v>45</v>
       </c>
-      <c r="S11" s="39" t="s">
+      <c r="S11" s="36" t="s">
         <v>46</v>
       </c>
-      <c r="T11" s="39" t="s">
+      <c r="T11" s="36" t="s">
         <v>47</v>
       </c>
-      <c r="U11" s="39" t="s">
+      <c r="U11" s="36" t="s">
         <v>48</v>
       </c>
-      <c r="V11" s="39" t="s">
+      <c r="V11" s="36" t="s">
         <v>49</v>
       </c>
-      <c r="W11" s="39" t="s">
+      <c r="W11" s="36" t="s">
         <v>50</v>
       </c>
-      <c r="X11" s="39" t="s">
+      <c r="X11" s="36" t="s">
         <v>51</v>
       </c>
-      <c r="Y11" s="39" t="s">
+      <c r="Y11" s="36" t="s">
         <v>52</v>
       </c>
-      <c r="Z11" s="39" t="s">
+      <c r="Z11" s="36" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="12" spans="1:26">
-      <c r="B12" s="39">
+      <c r="B12" s="36">
         <v>13</v>
       </c>
       <c r="C12" s="23">
@@ -1821,11 +1827,11 @@
       </c>
       <c r="E12" s="23">
         <f t="shared" si="0"/>
-        <v>2.0469999999999999E-2</v>
+        <v>3.7510000000000002E-2</v>
       </c>
       <c r="F12" s="23">
         <f t="shared" si="0"/>
-        <v>8.1899999999999994E-3</v>
+        <v>3.5459999999999998E-2</v>
       </c>
       <c r="G12" s="23">
         <f t="shared" si="0"/>
@@ -1845,11 +1851,11 @@
       </c>
       <c r="K12" s="23">
         <f t="shared" si="0"/>
-        <v>2.3109999999999999E-2</v>
+        <v>4.2380000000000001E-2</v>
       </c>
       <c r="L12" s="23">
         <f t="shared" si="0"/>
-        <v>9.2399999999999999E-3</v>
+        <v>4.0070000000000001E-2</v>
       </c>
       <c r="M12" s="23">
         <f t="shared" si="0"/>
@@ -1869,11 +1875,11 @@
       </c>
       <c r="Q12" s="23">
         <f t="shared" si="0"/>
-        <v>5.3199999999999997E-2</v>
+        <v>9.8019999999999996E-2</v>
       </c>
       <c r="R12" s="23">
         <f t="shared" si="0"/>
-        <v>2.128E-2</v>
+        <v>9.2999999999999999E-2</v>
       </c>
       <c r="S12" s="23">
         <f t="shared" si="0"/>
@@ -1893,11 +1899,11 @@
       </c>
       <c r="W12" s="23">
         <f t="shared" si="0"/>
-        <v>5.9549999999999999E-2</v>
+        <v>0.10983</v>
       </c>
       <c r="X12" s="23">
         <f t="shared" si="0"/>
-        <v>2.3820000000000001E-2</v>
+        <v>0.10427</v>
       </c>
       <c r="Y12" s="23">
         <f t="shared" si="0"/>
@@ -1909,7 +1915,7 @@
       </c>
     </row>
     <row r="13" spans="1:26">
-      <c r="B13" s="39">
+      <c r="B13" s="36">
         <v>14</v>
       </c>
       <c r="C13" s="23">
@@ -1922,11 +1928,11 @@
       </c>
       <c r="E13" s="23">
         <f t="shared" si="1"/>
-        <v>7.0800000000000004E-3</v>
+        <v>1.304E-2</v>
       </c>
       <c r="F13" s="23">
         <f t="shared" si="1"/>
-        <v>2.8300000000000001E-3</v>
+        <v>1.2359999999999999E-2</v>
       </c>
       <c r="G13" s="23">
         <f t="shared" si="1"/>
@@ -1946,11 +1952,11 @@
       </c>
       <c r="K13" s="23">
         <f t="shared" si="1"/>
-        <v>7.9399999999999991E-3</v>
+        <v>1.4619999999999999E-2</v>
       </c>
       <c r="L13" s="23">
         <f t="shared" si="1"/>
-        <v>3.1700000000000001E-3</v>
+        <v>1.388E-2</v>
       </c>
       <c r="M13" s="23">
         <f t="shared" si="1"/>
@@ -1970,11 +1976,11 @@
       </c>
       <c r="Q13" s="23">
         <f t="shared" si="1"/>
-        <v>1.6750000000000001E-2</v>
+        <v>3.1220000000000001E-2</v>
       </c>
       <c r="R13" s="23">
         <f t="shared" si="1"/>
-        <v>6.7000000000000002E-3</v>
+        <v>2.9850000000000002E-2</v>
       </c>
       <c r="S13" s="23">
         <f t="shared" si="1"/>
@@ -1994,11 +2000,11 @@
       </c>
       <c r="W13" s="23">
         <f t="shared" si="1"/>
-        <v>1.84E-2</v>
+        <v>3.4380000000000001E-2</v>
       </c>
       <c r="X13" s="23">
         <f t="shared" si="1"/>
-        <v>7.3600000000000002E-3</v>
+        <v>3.2919999999999998E-2</v>
       </c>
       <c r="Y13" s="23">
         <f t="shared" si="1"/>
@@ -2010,7 +2016,7 @@
       </c>
     </row>
     <row r="14" spans="1:26">
-      <c r="B14" s="39">
+      <c r="B14" s="36">
         <v>15</v>
       </c>
       <c r="C14" s="23">
@@ -2023,11 +2029,11 @@
       </c>
       <c r="E14" s="23">
         <f t="shared" si="2"/>
-        <v>9.3399999999999993E-3</v>
+        <v>1.7239999999999998E-2</v>
       </c>
       <c r="F14" s="23">
         <f t="shared" si="2"/>
-        <v>3.7399999999999998E-3</v>
+        <v>1.6379999999999999E-2</v>
       </c>
       <c r="G14" s="23">
         <f t="shared" si="2"/>
@@ -2047,11 +2053,11 @@
       </c>
       <c r="K14" s="23">
         <f t="shared" si="2"/>
-        <v>1.043E-2</v>
+        <v>1.9269999999999999E-2</v>
       </c>
       <c r="L14" s="23">
         <f t="shared" si="2"/>
-        <v>4.1700000000000001E-3</v>
+        <v>1.8319999999999999E-2</v>
       </c>
       <c r="M14" s="23">
         <f t="shared" si="2"/>
@@ -2071,11 +2077,11 @@
       </c>
       <c r="Q14" s="23">
         <f t="shared" si="2"/>
-        <v>2.0959999999999999E-2</v>
+        <v>3.9300000000000002E-2</v>
       </c>
       <c r="R14" s="23">
         <f t="shared" si="2"/>
-        <v>8.3800000000000003E-3</v>
+        <v>3.7719999999999997E-2</v>
       </c>
       <c r="S14" s="23">
         <f t="shared" si="2"/>
@@ -2095,11 +2101,11 @@
       </c>
       <c r="W14" s="23">
         <f t="shared" si="2"/>
-        <v>2.2790000000000001E-2</v>
+        <v>4.2860000000000002E-2</v>
       </c>
       <c r="X14" s="23">
         <f t="shared" si="2"/>
-        <v>9.1199999999999996E-3</v>
+        <v>4.1230000000000003E-2</v>
       </c>
       <c r="Y14" s="23">
         <f t="shared" si="2"/>
@@ -2111,7 +2117,7 @@
       </c>
     </row>
     <row r="20" spans="1:1">
-      <c r="A20" s="36" t="s">
+      <c r="A20" s="33" t="s">
         <v>55</v>
       </c>
     </row>
@@ -2124,412 +2130,412 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:Z5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P8" sqref="P8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="16384" width="9.140625" style="39"/>
+    <col min="1" max="16384" width="9.140625" style="36"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="36" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:26">
-      <c r="B2" s="40" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="40" t="s">
+      <c r="B2" s="37" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="37" t="s">
         <v>30</v>
       </c>
-      <c r="D2" s="40" t="s">
+      <c r="D2" s="37" t="s">
         <v>31</v>
       </c>
-      <c r="E2" s="40" t="s">
+      <c r="E2" s="37" t="s">
         <v>32</v>
       </c>
-      <c r="F2" s="40" t="s">
+      <c r="F2" s="37" t="s">
         <v>33</v>
       </c>
-      <c r="G2" s="40" t="s">
+      <c r="G2" s="37" t="s">
         <v>34</v>
       </c>
-      <c r="H2" s="40" t="s">
+      <c r="H2" s="37" t="s">
         <v>35</v>
       </c>
-      <c r="I2" s="40" t="s">
+      <c r="I2" s="37" t="s">
         <v>36</v>
       </c>
-      <c r="J2" s="40" t="s">
+      <c r="J2" s="37" t="s">
         <v>37</v>
       </c>
-      <c r="K2" s="40" t="s">
+      <c r="K2" s="37" t="s">
         <v>38</v>
       </c>
-      <c r="L2" s="40" t="s">
+      <c r="L2" s="37" t="s">
         <v>39</v>
       </c>
-      <c r="M2" s="40" t="s">
+      <c r="M2" s="37" t="s">
         <v>40</v>
       </c>
-      <c r="N2" s="40" t="s">
+      <c r="N2" s="37" t="s">
         <v>41</v>
       </c>
-      <c r="O2" s="40" t="s">
+      <c r="O2" s="37" t="s">
         <v>42</v>
       </c>
-      <c r="P2" s="40" t="s">
+      <c r="P2" s="37" t="s">
         <v>43</v>
       </c>
-      <c r="Q2" s="40" t="s">
+      <c r="Q2" s="37" t="s">
         <v>44</v>
       </c>
-      <c r="R2" s="40" t="s">
+      <c r="R2" s="37" t="s">
         <v>45</v>
       </c>
-      <c r="S2" s="40" t="s">
+      <c r="S2" s="37" t="s">
         <v>46</v>
       </c>
-      <c r="T2" s="40" t="s">
+      <c r="T2" s="37" t="s">
         <v>47</v>
       </c>
-      <c r="U2" s="40" t="s">
+      <c r="U2" s="37" t="s">
         <v>48</v>
       </c>
-      <c r="V2" s="40" t="s">
+      <c r="V2" s="37" t="s">
         <v>49</v>
       </c>
-      <c r="W2" s="40" t="s">
+      <c r="W2" s="37" t="s">
         <v>50</v>
       </c>
-      <c r="X2" s="40" t="s">
+      <c r="X2" s="37" t="s">
         <v>51</v>
       </c>
-      <c r="Y2" s="40" t="s">
+      <c r="Y2" s="37" t="s">
         <v>52</v>
       </c>
-      <c r="Z2" s="40" t="s">
+      <c r="Z2" s="37" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="3" spans="1:26">
-      <c r="B3" s="40">
+      <c r="B3" s="37">
         <v>13</v>
       </c>
-      <c r="C3" s="23">
+      <c r="C3" s="43">
         <v>5.3403329799824227E-2</v>
       </c>
-      <c r="D3" s="23">
+      <c r="D3" s="43">
         <v>5.3403329799824227E-2</v>
       </c>
-      <c r="E3" s="23">
-        <v>3.1932147751673079E-2</v>
-      </c>
-      <c r="F3" s="23">
-        <v>1.2772859100669233E-2</v>
-      </c>
-      <c r="G3" s="23">
+      <c r="E3" s="43">
+        <v>5.8633812651585196E-2</v>
+      </c>
+      <c r="F3" s="43">
+        <v>5.5495522940528612E-2</v>
+      </c>
+      <c r="G3" s="43">
         <v>6.3864295503346158E-2</v>
       </c>
-      <c r="H3" s="23">
+      <c r="H3" s="43">
         <v>5.4371996995758107E-2</v>
       </c>
-      <c r="I3" s="23">
+      <c r="I3" s="43">
         <v>5.3403329799824227E-2</v>
       </c>
-      <c r="J3" s="23">
+      <c r="J3" s="43">
         <v>5.3403329799824227E-2</v>
       </c>
-      <c r="K3" s="23">
-        <v>3.5945436605017998E-2</v>
-      </c>
-      <c r="L3" s="23">
-        <v>1.43781746420072E-2</v>
-      </c>
-      <c r="M3" s="23">
+      <c r="K3" s="43">
+        <v>6.2647101504930108E-2</v>
+      </c>
+      <c r="L3" s="43">
+        <v>5.7100838481866582E-2</v>
+      </c>
+      <c r="M3" s="43">
         <v>7.1890873210035997E-2</v>
       </c>
-      <c r="N3" s="23">
+      <c r="N3" s="43">
         <v>0.15407385387469932</v>
       </c>
-      <c r="O3" s="23">
+      <c r="O3" s="43">
         <v>0.1359903512204356</v>
       </c>
-      <c r="P3" s="23">
+      <c r="P3" s="43">
         <v>0.1359903512204356</v>
       </c>
-      <c r="Q3" s="23">
-        <v>7.9948140361099845E-2</v>
-      </c>
-      <c r="R3" s="23">
-        <v>3.1979256144439937E-2</v>
-      </c>
-      <c r="S3" s="23">
+      <c r="Q3" s="43">
+        <v>0.14794331597131766</v>
+      </c>
+      <c r="R3" s="43">
+        <v>0.14077153712078841</v>
+      </c>
+      <c r="S3" s="43">
         <v>0.15989628072219969</v>
       </c>
-      <c r="T3" s="23">
+      <c r="T3" s="43">
         <v>0.1382382731724941</v>
       </c>
-      <c r="U3" s="23">
+      <c r="U3" s="43">
         <v>0.15161373035576886</v>
       </c>
-      <c r="V3" s="23">
+      <c r="V3" s="43">
         <v>0.15161373035576886</v>
       </c>
-      <c r="W3" s="23">
-        <v>8.8850625174313455E-2</v>
-      </c>
-      <c r="X3" s="23">
-        <v>3.5540250069725381E-2</v>
-      </c>
-      <c r="Y3" s="23">
+      <c r="W3" s="43">
+        <v>0.1646574903521979</v>
+      </c>
+      <c r="X3" s="43">
+        <v>0.15683123435434046</v>
+      </c>
+      <c r="Y3" s="43">
         <v>0.17770125034862691</v>
       </c>
-      <c r="Z3" s="23">
+      <c r="Z3" s="43">
         <v>0.15407385387469932</v>
       </c>
     </row>
     <row r="4" spans="1:26">
-      <c r="B4" s="40">
+      <c r="B4" s="37">
         <v>14</v>
       </c>
-      <c r="C4" s="23">
+      <c r="C4" s="43">
         <v>1.8154643812736536E-2</v>
       </c>
-      <c r="D4" s="23">
+      <c r="D4" s="43">
         <v>1.8154643812736536E-2</v>
       </c>
-      <c r="E4" s="23">
-        <v>1.0695296583093421E-2</v>
-      </c>
-      <c r="F4" s="23">
-        <v>4.2781186332373679E-3</v>
-      </c>
-      <c r="G4" s="23">
+      <c r="E4" s="43">
+        <v>1.9772618489461685E-2</v>
+      </c>
+      <c r="F4" s="43">
+        <v>1.8801833683426604E-2</v>
+      </c>
+      <c r="G4" s="43">
         <v>2.1390593166186841E-2</v>
       </c>
-      <c r="H4" s="23">
+      <c r="H4" s="43">
         <v>1.8458609239168977E-2</v>
       </c>
-      <c r="I4" s="23">
+      <c r="I4" s="43">
         <v>1.8154643812736536E-2</v>
       </c>
-      <c r="J4" s="23">
+      <c r="J4" s="43">
         <v>1.8154643812736536E-2</v>
       </c>
-      <c r="K4" s="23">
-        <v>1.1902091189944085E-2</v>
-      </c>
-      <c r="L4" s="23">
-        <v>4.760836475977635E-3</v>
-      </c>
-      <c r="M4" s="23">
+      <c r="K4" s="43">
+        <v>2.0979413096312349E-2</v>
+      </c>
+      <c r="L4" s="43">
+        <v>1.9284551526166864E-2</v>
+      </c>
+      <c r="M4" s="43">
         <v>2.380418237988817E-2</v>
       </c>
-      <c r="N4" s="23">
+      <c r="N4" s="43">
         <v>4.5174306657326468E-2</v>
       </c>
-      <c r="O4" s="23">
+      <c r="O4" s="43">
         <v>4.0981458556913097E-2</v>
       </c>
-      <c r="P4" s="23">
+      <c r="P4" s="43">
         <v>4.0981458556913097E-2</v>
       </c>
-      <c r="Q4" s="23">
-        <v>2.3232493578632704E-2</v>
-      </c>
-      <c r="R4" s="23">
-        <v>9.2929974314530858E-3</v>
-      </c>
-      <c r="S4" s="23">
+      <c r="Q4" s="43">
+        <v>4.3723222857089239E-2</v>
+      </c>
+      <c r="R4" s="43">
+        <v>4.2078164276983576E-2</v>
+      </c>
+      <c r="S4" s="43">
         <v>4.6464987157265408E-2</v>
       </c>
-      <c r="T4" s="23">
+      <c r="T4" s="43">
         <v>4.1517945226252378E-2</v>
       </c>
-      <c r="U4" s="23">
+      <c r="U4" s="43">
         <v>4.4620326010010342E-2</v>
       </c>
-      <c r="V4" s="23">
+      <c r="V4" s="43">
         <v>4.4620326010010342E-2</v>
       </c>
-      <c r="W4" s="23">
-        <v>2.5117600112294775E-2</v>
-      </c>
-      <c r="X4" s="23">
-        <v>1.0047040044917917E-2</v>
-      </c>
-      <c r="Y4" s="23">
+      <c r="W4" s="43">
+        <v>4.7427763117299931E-2</v>
+      </c>
+      <c r="X4" s="43">
+        <v>4.5743300852926189E-2</v>
+      </c>
+      <c r="Y4" s="43">
         <v>5.0235200224589549E-2</v>
       </c>
-      <c r="Z4" s="23">
+      <c r="Z4" s="43">
         <v>4.5174306657326468E-2</v>
       </c>
     </row>
     <row r="5" spans="1:26">
-      <c r="B5" s="40">
+      <c r="B5" s="37">
         <v>15</v>
       </c>
-      <c r="C5" s="23">
+      <c r="C5" s="43">
         <v>2.3705268239493482E-2</v>
       </c>
-      <c r="D5" s="23">
+      <c r="D5" s="43">
         <v>2.3705268239493482E-2</v>
       </c>
-      <c r="E5" s="23">
-        <v>1.3845356862020493E-2</v>
-      </c>
-      <c r="F5" s="23">
-        <v>5.5381427448081971E-3</v>
-      </c>
-      <c r="G5" s="23">
+      <c r="E5" s="43">
+        <v>2.5697990981767241E-2</v>
+      </c>
+      <c r="F5" s="43">
+        <v>2.4502357336402977E-2</v>
+      </c>
+      <c r="G5" s="43">
         <v>2.7690713724040986E-2</v>
       </c>
-      <c r="H5" s="23">
+      <c r="H5" s="43">
         <v>2.4082851103374076E-2</v>
       </c>
-      <c r="I5" s="23">
+      <c r="I5" s="43">
         <v>2.3705268239493482E-2</v>
       </c>
-      <c r="J5" s="23">
+      <c r="J5" s="43">
         <v>2.3705268239493482E-2</v>
       </c>
-      <c r="K5" s="23">
-        <v>1.5306722831069375E-2</v>
-      </c>
-      <c r="L5" s="23">
-        <v>6.1226891324277499E-3</v>
-      </c>
-      <c r="M5" s="23">
+      <c r="K5" s="43">
+        <v>2.7159356950816116E-2</v>
+      </c>
+      <c r="L5" s="43">
+        <v>2.508690372402253E-2</v>
+      </c>
+      <c r="M5" s="43">
         <v>3.061344566213875E-2</v>
       </c>
-      <c r="N5" s="23">
+      <c r="N5" s="43">
         <v>5.444714348891147E-2</v>
       </c>
-      <c r="O5" s="23">
+      <c r="O5" s="43">
         <v>5.0085930825912756E-2</v>
       </c>
-      <c r="P5" s="23">
+      <c r="P5" s="43">
         <v>5.0085930825912756E-2</v>
       </c>
-      <c r="Q5" s="23">
-        <v>2.7877315464450089E-2</v>
-      </c>
-      <c r="R5" s="23">
-        <v>1.1150926185780036E-2</v>
-      </c>
-      <c r="S5" s="23">
+      <c r="Q5" s="43">
+        <v>5.2920280877406467E-2</v>
+      </c>
+      <c r="R5" s="43">
+        <v>5.1219670846510218E-2</v>
+      </c>
+      <c r="S5" s="43">
         <v>5.5754630928900178E-2</v>
       </c>
-      <c r="T5" s="23">
+      <c r="T5" s="43">
         <v>5.0653351570318417E-2</v>
       </c>
-      <c r="U5" s="23">
+      <c r="U5" s="43">
         <v>5.3880765331910302E-2</v>
       </c>
-      <c r="V5" s="23">
+      <c r="V5" s="43">
         <v>5.3880765331910302E-2</v>
       </c>
-      <c r="W5" s="23">
-        <v>2.97364114096446E-2</v>
-      </c>
-      <c r="X5" s="23">
-        <v>1.1894564563857839E-2</v>
-      </c>
-      <c r="Y5" s="23">
+      <c r="W5" s="43">
+        <v>5.6676794075599751E-2</v>
+      </c>
+      <c r="X5" s="43">
+        <v>5.4999176829386098E-2</v>
+      </c>
+      <c r="Y5" s="43">
         <v>5.9472822819289201E-2</v>
       </c>
-      <c r="Z5" s="23">
+      <c r="Z5" s="43">
         <v>5.444714348891147E-2</v>
       </c>
     </row>
     <row r="10" spans="1:26">
-      <c r="A10" s="39" t="s">
+      <c r="A10" s="36" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="11" spans="1:26">
-      <c r="B11" s="39" t="s">
-        <v>0</v>
-      </c>
-      <c r="C11" s="39" t="s">
+      <c r="B11" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="C11" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="D11" s="39" t="s">
+      <c r="D11" s="36" t="s">
         <v>31</v>
       </c>
-      <c r="E11" s="39" t="s">
+      <c r="E11" s="36" t="s">
         <v>32</v>
       </c>
-      <c r="F11" s="39" t="s">
+      <c r="F11" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="G11" s="39" t="s">
+      <c r="G11" s="36" t="s">
         <v>34</v>
       </c>
-      <c r="H11" s="39" t="s">
+      <c r="H11" s="36" t="s">
         <v>35</v>
       </c>
-      <c r="I11" s="39" t="s">
+      <c r="I11" s="36" t="s">
         <v>36</v>
       </c>
-      <c r="J11" s="39" t="s">
+      <c r="J11" s="36" t="s">
         <v>37</v>
       </c>
-      <c r="K11" s="39" t="s">
+      <c r="K11" s="36" t="s">
         <v>38</v>
       </c>
-      <c r="L11" s="39" t="s">
+      <c r="L11" s="36" t="s">
         <v>39</v>
       </c>
-      <c r="M11" s="39" t="s">
+      <c r="M11" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="N11" s="39" t="s">
+      <c r="N11" s="36" t="s">
         <v>41</v>
       </c>
-      <c r="O11" s="39" t="s">
+      <c r="O11" s="36" t="s">
         <v>42</v>
       </c>
-      <c r="P11" s="39" t="s">
+      <c r="P11" s="36" t="s">
         <v>43</v>
       </c>
-      <c r="Q11" s="39" t="s">
+      <c r="Q11" s="36" t="s">
         <v>44</v>
       </c>
-      <c r="R11" s="39" t="s">
+      <c r="R11" s="36" t="s">
         <v>45</v>
       </c>
-      <c r="S11" s="39" t="s">
+      <c r="S11" s="36" t="s">
         <v>46</v>
       </c>
-      <c r="T11" s="39" t="s">
+      <c r="T11" s="36" t="s">
         <v>47</v>
       </c>
-      <c r="U11" s="39" t="s">
+      <c r="U11" s="36" t="s">
         <v>48</v>
       </c>
-      <c r="V11" s="39" t="s">
+      <c r="V11" s="36" t="s">
         <v>49</v>
       </c>
-      <c r="W11" s="39" t="s">
+      <c r="W11" s="36" t="s">
         <v>50</v>
       </c>
-      <c r="X11" s="39" t="s">
+      <c r="X11" s="36" t="s">
         <v>51</v>
       </c>
-      <c r="Y11" s="39" t="s">
+      <c r="Y11" s="36" t="s">
         <v>52</v>
       </c>
-      <c r="Z11" s="39" t="s">
+      <c r="Z11" s="36" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="12" spans="1:26">
-      <c r="B12" s="39">
+      <c r="B12" s="36">
         <v>13</v>
       </c>
       <c r="C12" s="23">
@@ -2542,11 +2548,11 @@
       </c>
       <c r="E12" s="23">
         <f t="shared" si="0"/>
-        <v>3.193E-2</v>
+        <v>5.8630000000000002E-2</v>
       </c>
       <c r="F12" s="23">
         <f t="shared" si="0"/>
-        <v>1.277E-2</v>
+        <v>5.5500000000000001E-2</v>
       </c>
       <c r="G12" s="23">
         <f t="shared" si="0"/>
@@ -2566,11 +2572,11 @@
       </c>
       <c r="K12" s="23">
         <f t="shared" si="0"/>
-        <v>3.5950000000000003E-2</v>
+        <v>6.2649999999999997E-2</v>
       </c>
       <c r="L12" s="23">
         <f t="shared" si="0"/>
-        <v>1.438E-2</v>
+        <v>5.7099999999999998E-2</v>
       </c>
       <c r="M12" s="23">
         <f t="shared" si="0"/>
@@ -2590,11 +2596,11 @@
       </c>
       <c r="Q12" s="23">
         <f t="shared" si="0"/>
-        <v>7.9949999999999993E-2</v>
+        <v>0.14793999999999999</v>
       </c>
       <c r="R12" s="23">
         <f t="shared" si="0"/>
-        <v>3.1980000000000001E-2</v>
+        <v>0.14077000000000001</v>
       </c>
       <c r="S12" s="23">
         <f t="shared" si="0"/>
@@ -2614,11 +2620,11 @@
       </c>
       <c r="W12" s="23">
         <f t="shared" si="0"/>
-        <v>8.8849999999999998E-2</v>
+        <v>0.16466</v>
       </c>
       <c r="X12" s="23">
         <f t="shared" si="0"/>
-        <v>3.5540000000000002E-2</v>
+        <v>0.15683</v>
       </c>
       <c r="Y12" s="23">
         <f t="shared" si="0"/>
@@ -2630,7 +2636,7 @@
       </c>
     </row>
     <row r="13" spans="1:26">
-      <c r="B13" s="39">
+      <c r="B13" s="36">
         <v>14</v>
       </c>
       <c r="C13" s="23">
@@ -2643,11 +2649,11 @@
       </c>
       <c r="E13" s="23">
         <f t="shared" si="1"/>
-        <v>1.0699999999999999E-2</v>
+        <v>1.9769999999999999E-2</v>
       </c>
       <c r="F13" s="23">
         <f t="shared" si="1"/>
-        <v>4.28E-3</v>
+        <v>1.8800000000000001E-2</v>
       </c>
       <c r="G13" s="23">
         <f t="shared" si="1"/>
@@ -2667,11 +2673,11 @@
       </c>
       <c r="K13" s="23">
         <f t="shared" si="1"/>
-        <v>1.1900000000000001E-2</v>
+        <v>2.0979999999999999E-2</v>
       </c>
       <c r="L13" s="23">
         <f t="shared" si="1"/>
-        <v>4.7600000000000003E-3</v>
+        <v>1.9279999999999999E-2</v>
       </c>
       <c r="M13" s="23">
         <f t="shared" si="1"/>
@@ -2691,11 +2697,11 @@
       </c>
       <c r="Q13" s="23">
         <f t="shared" si="1"/>
-        <v>2.3230000000000001E-2</v>
+        <v>4.3720000000000002E-2</v>
       </c>
       <c r="R13" s="23">
         <f t="shared" si="1"/>
-        <v>9.2899999999999996E-3</v>
+        <v>4.2079999999999999E-2</v>
       </c>
       <c r="S13" s="23">
         <f t="shared" si="1"/>
@@ -2715,11 +2721,11 @@
       </c>
       <c r="W13" s="23">
         <f t="shared" si="1"/>
-        <v>2.512E-2</v>
+        <v>4.743E-2</v>
       </c>
       <c r="X13" s="23">
         <f t="shared" si="1"/>
-        <v>1.005E-2</v>
+        <v>4.5740000000000003E-2</v>
       </c>
       <c r="Y13" s="23">
         <f t="shared" si="1"/>
@@ -2731,7 +2737,7 @@
       </c>
     </row>
     <row r="14" spans="1:26">
-      <c r="B14" s="39">
+      <c r="B14" s="36">
         <v>15</v>
       </c>
       <c r="C14" s="23">
@@ -2744,11 +2750,11 @@
       </c>
       <c r="E14" s="23">
         <f t="shared" si="1"/>
-        <v>1.3849999999999999E-2</v>
+        <v>2.5700000000000001E-2</v>
       </c>
       <c r="F14" s="23">
         <f t="shared" si="1"/>
-        <v>5.5399999999999998E-3</v>
+        <v>2.4500000000000001E-2</v>
       </c>
       <c r="G14" s="23">
         <f t="shared" si="1"/>
@@ -2768,11 +2774,11 @@
       </c>
       <c r="K14" s="23">
         <f t="shared" si="1"/>
-        <v>1.5310000000000001E-2</v>
+        <v>2.716E-2</v>
       </c>
       <c r="L14" s="23">
         <f t="shared" si="1"/>
-        <v>6.1199999999999996E-3</v>
+        <v>2.5090000000000001E-2</v>
       </c>
       <c r="M14" s="23">
         <f t="shared" si="1"/>
@@ -2792,11 +2798,11 @@
       </c>
       <c r="Q14" s="23">
         <f t="shared" si="1"/>
-        <v>2.7879999999999999E-2</v>
+        <v>5.2920000000000002E-2</v>
       </c>
       <c r="R14" s="23">
         <f t="shared" si="1"/>
-        <v>1.115E-2</v>
+        <v>5.1220000000000002E-2</v>
       </c>
       <c r="S14" s="23">
         <f t="shared" si="1"/>
@@ -2816,11 +2822,11 @@
       </c>
       <c r="W14" s="23">
         <f t="shared" si="1"/>
-        <v>2.9739999999999999E-2</v>
+        <v>5.6680000000000001E-2</v>
       </c>
       <c r="X14" s="23">
         <f t="shared" si="1"/>
-        <v>1.189E-2</v>
+        <v>5.5E-2</v>
       </c>
       <c r="Y14" s="23">
         <f t="shared" si="1"/>
@@ -2832,7 +2838,7 @@
       </c>
     </row>
     <row r="20" spans="1:1">
-      <c r="A20" s="39" t="s">
+      <c r="A20" s="36" t="s">
         <v>55</v>
       </c>
     </row>
@@ -15039,7 +15045,7 @@
   <dimension ref="A1:Z31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -15133,76 +15139,76 @@
       <c r="B3" s="21">
         <v>6</v>
       </c>
-      <c r="C3" s="23">
+      <c r="C3" s="41">
         <v>0.15258494117328936</v>
       </c>
-      <c r="D3" s="23">
+      <c r="D3" s="41">
         <v>0.15258494117328936</v>
       </c>
-      <c r="E3" s="23">
+      <c r="E3" s="41">
         <v>0.18310192940794723</v>
       </c>
-      <c r="F3" s="23">
+      <c r="F3" s="41">
         <v>0.16784343529061829</v>
       </c>
-      <c r="G3" s="23">
+      <c r="G3" s="41">
         <v>0.22887741175993404</v>
       </c>
-      <c r="H3" s="23">
+      <c r="H3" s="41">
         <v>0.30516988234657871</v>
       </c>
-      <c r="I3" s="23">
+      <c r="I3" s="41">
         <v>4.6044101936074444E-2</v>
       </c>
-      <c r="J3" s="23">
+      <c r="J3" s="41">
         <v>4.6044101936074444E-2</v>
       </c>
-      <c r="K3" s="23">
+      <c r="K3" s="41">
         <v>5.5252922323289329E-2</v>
       </c>
-      <c r="L3" s="23">
+      <c r="L3" s="41">
         <v>5.064851212968189E-2</v>
       </c>
-      <c r="M3" s="23">
+      <c r="M3" s="41">
         <v>6.9066152904111666E-2</v>
       </c>
-      <c r="N3" s="23">
+      <c r="N3" s="41">
         <v>9.2088203872148888E-2</v>
       </c>
-      <c r="O3" s="23">
+      <c r="O3" s="41">
         <v>0.15258494117328936</v>
       </c>
-      <c r="P3" s="23">
+      <c r="P3" s="41">
         <v>0.15258494117328936</v>
       </c>
-      <c r="Q3" s="23">
+      <c r="Q3" s="41">
         <v>0.18310192940794723</v>
       </c>
-      <c r="R3" s="23">
+      <c r="R3" s="41">
         <v>0.16784343529061829</v>
       </c>
-      <c r="S3" s="23">
+      <c r="S3" s="41">
         <v>0.25176515293592744</v>
       </c>
-      <c r="T3" s="23">
+      <c r="T3" s="41">
         <v>0.30516988234657871</v>
       </c>
-      <c r="U3" s="23">
+      <c r="U3" s="41">
         <v>4.6044101936074444E-2</v>
       </c>
-      <c r="V3" s="23">
+      <c r="V3" s="41">
         <v>4.6044101936074444E-2</v>
       </c>
-      <c r="W3" s="23">
+      <c r="W3" s="41">
         <v>5.5252922323289329E-2</v>
       </c>
-      <c r="X3" s="23">
+      <c r="X3" s="41">
         <v>5.064851212968189E-2</v>
       </c>
-      <c r="Y3" s="23">
+      <c r="Y3" s="41">
         <v>7.5972768194522838E-2</v>
       </c>
-      <c r="Z3" s="23">
+      <c r="Z3" s="41">
         <v>9.2088203872148888E-2</v>
       </c>
     </row>
@@ -15210,76 +15216,76 @@
       <c r="B4" s="21">
         <v>7</v>
       </c>
-      <c r="C4" s="23">
+      <c r="C4" s="41">
         <v>7.6292470586644678E-2</v>
       </c>
-      <c r="D4" s="23">
+      <c r="D4" s="41">
         <v>7.6292470586644678E-2</v>
       </c>
-      <c r="E4" s="23">
+      <c r="E4" s="41">
         <v>9.1550964703973614E-2</v>
       </c>
-      <c r="F4" s="23">
+      <c r="F4" s="41">
         <v>8.3921717645309146E-2</v>
       </c>
-      <c r="G4" s="23">
+      <c r="G4" s="41">
         <v>0.11443870587996702</v>
       </c>
-      <c r="H4" s="23">
+      <c r="H4" s="41">
         <v>0.15258494117328936</v>
       </c>
-      <c r="I4" s="23">
+      <c r="I4" s="41">
         <v>2.3022050968037222E-2</v>
       </c>
-      <c r="J4" s="23">
+      <c r="J4" s="41">
         <v>2.3022050968037222E-2</v>
       </c>
-      <c r="K4" s="23">
+      <c r="K4" s="41">
         <v>2.7626461161644664E-2</v>
       </c>
-      <c r="L4" s="23">
+      <c r="L4" s="41">
         <v>2.5324256064840945E-2</v>
       </c>
-      <c r="M4" s="23">
+      <c r="M4" s="41">
         <v>3.4533076452055833E-2</v>
       </c>
-      <c r="N4" s="23">
+      <c r="N4" s="41">
         <v>4.6044101936074444E-2</v>
       </c>
-      <c r="O4" s="23">
+      <c r="O4" s="41">
         <v>7.6292470586644678E-2</v>
       </c>
-      <c r="P4" s="23">
+      <c r="P4" s="41">
         <v>7.6292470586644678E-2</v>
       </c>
-      <c r="Q4" s="23">
+      <c r="Q4" s="41">
         <v>9.1550964703973614E-2</v>
       </c>
-      <c r="R4" s="23">
+      <c r="R4" s="41">
         <v>8.3921717645309146E-2</v>
       </c>
-      <c r="S4" s="23">
+      <c r="S4" s="41">
         <v>0.12588257646796372</v>
       </c>
-      <c r="T4" s="23">
+      <c r="T4" s="41">
         <v>0.15258494117328936</v>
       </c>
-      <c r="U4" s="23">
+      <c r="U4" s="41">
         <v>2.3022050968037222E-2</v>
       </c>
-      <c r="V4" s="23">
+      <c r="V4" s="41">
         <v>2.3022050968037222E-2</v>
       </c>
-      <c r="W4" s="23">
+      <c r="W4" s="41">
         <v>2.7626461161644664E-2</v>
       </c>
-      <c r="X4" s="23">
+      <c r="X4" s="41">
         <v>2.5324256064840945E-2</v>
       </c>
-      <c r="Y4" s="23">
+      <c r="Y4" s="41">
         <v>3.7986384097261419E-2</v>
       </c>
-      <c r="Z4" s="23">
+      <c r="Z4" s="41">
         <v>4.6044101936074444E-2</v>
       </c>
     </row>
@@ -15287,76 +15293,76 @@
       <c r="B5" s="21">
         <v>8</v>
       </c>
-      <c r="C5" s="23">
+      <c r="C5" s="41">
         <v>7.6292470586644678E-2</v>
       </c>
-      <c r="D5" s="23">
+      <c r="D5" s="41">
         <v>7.6292470586644678E-2</v>
       </c>
-      <c r="E5" s="23">
+      <c r="E5" s="41">
         <v>9.1550964703973614E-2</v>
       </c>
-      <c r="F5" s="23">
+      <c r="F5" s="41">
         <v>8.3921717645309146E-2</v>
       </c>
-      <c r="G5" s="23">
+      <c r="G5" s="41">
         <v>0.11443870587996702</v>
       </c>
-      <c r="H5" s="23">
+      <c r="H5" s="41">
         <v>0.15258494117328936</v>
       </c>
-      <c r="I5" s="23">
+      <c r="I5" s="41">
         <v>2.3022050968037222E-2</v>
       </c>
-      <c r="J5" s="23">
+      <c r="J5" s="41">
         <v>2.3022050968037222E-2</v>
       </c>
-      <c r="K5" s="23">
+      <c r="K5" s="41">
         <v>2.7626461161644664E-2</v>
       </c>
-      <c r="L5" s="23">
+      <c r="L5" s="41">
         <v>2.5324256064840945E-2</v>
       </c>
-      <c r="M5" s="23">
+      <c r="M5" s="41">
         <v>3.4533076452055833E-2</v>
       </c>
-      <c r="N5" s="23">
+      <c r="N5" s="41">
         <v>4.6044101936074444E-2</v>
       </c>
-      <c r="O5" s="23">
+      <c r="O5" s="41">
         <v>7.6292470586644678E-2</v>
       </c>
-      <c r="P5" s="23">
+      <c r="P5" s="41">
         <v>7.6292470586644678E-2</v>
       </c>
-      <c r="Q5" s="23">
+      <c r="Q5" s="41">
         <v>9.1550964703973614E-2</v>
       </c>
-      <c r="R5" s="23">
+      <c r="R5" s="41">
         <v>8.3921717645309146E-2</v>
       </c>
-      <c r="S5" s="23">
+      <c r="S5" s="41">
         <v>0.12588257646796372</v>
       </c>
-      <c r="T5" s="23">
+      <c r="T5" s="41">
         <v>0.15258494117328936</v>
       </c>
-      <c r="U5" s="23">
+      <c r="U5" s="41">
         <v>2.3022050968037222E-2</v>
       </c>
-      <c r="V5" s="23">
+      <c r="V5" s="41">
         <v>2.3022050968037222E-2</v>
       </c>
-      <c r="W5" s="23">
+      <c r="W5" s="41">
         <v>2.7626461161644664E-2</v>
       </c>
-      <c r="X5" s="23">
+      <c r="X5" s="41">
         <v>2.5324256064840945E-2</v>
       </c>
-      <c r="Y5" s="23">
+      <c r="Y5" s="41">
         <v>3.7986384097261419E-2</v>
       </c>
-      <c r="Z5" s="23">
+      <c r="Z5" s="41">
         <v>4.6044101936074444E-2</v>
       </c>
     </row>
@@ -15364,76 +15370,76 @@
       <c r="B6" s="21">
         <v>9</v>
       </c>
-      <c r="C6" s="23">
+      <c r="C6" s="41">
         <v>7.6292470586644678E-2</v>
       </c>
-      <c r="D6" s="23">
+      <c r="D6" s="41">
         <v>7.6292470586644678E-2</v>
       </c>
-      <c r="E6" s="23">
+      <c r="E6" s="41">
         <v>9.1550964703973614E-2</v>
       </c>
-      <c r="F6" s="23">
+      <c r="F6" s="41">
         <v>8.3921717645309146E-2</v>
       </c>
-      <c r="G6" s="23">
+      <c r="G6" s="41">
         <v>0.11443870587996702</v>
       </c>
-      <c r="H6" s="23">
+      <c r="H6" s="41">
         <v>0.15258494117328936</v>
       </c>
-      <c r="I6" s="23">
+      <c r="I6" s="41">
         <v>2.3022050968037222E-2</v>
       </c>
-      <c r="J6" s="23">
+      <c r="J6" s="41">
         <v>2.3022050968037222E-2</v>
       </c>
-      <c r="K6" s="23">
+      <c r="K6" s="41">
         <v>2.7626461161644664E-2</v>
       </c>
-      <c r="L6" s="23">
+      <c r="L6" s="41">
         <v>2.5324256064840945E-2</v>
       </c>
-      <c r="M6" s="23">
+      <c r="M6" s="41">
         <v>3.4533076452055833E-2</v>
       </c>
-      <c r="N6" s="23">
+      <c r="N6" s="41">
         <v>4.6044101936074444E-2</v>
       </c>
-      <c r="O6" s="23">
+      <c r="O6" s="41">
         <v>7.6292470586644678E-2</v>
       </c>
-      <c r="P6" s="23">
+      <c r="P6" s="41">
         <v>7.6292470586644678E-2</v>
       </c>
-      <c r="Q6" s="23">
+      <c r="Q6" s="41">
         <v>9.1550964703973614E-2</v>
       </c>
-      <c r="R6" s="23">
+      <c r="R6" s="41">
         <v>8.3921717645309146E-2</v>
       </c>
-      <c r="S6" s="23">
+      <c r="S6" s="41">
         <v>0.12588257646796372</v>
       </c>
-      <c r="T6" s="23">
+      <c r="T6" s="41">
         <v>0.15258494117328936</v>
       </c>
-      <c r="U6" s="23">
+      <c r="U6" s="41">
         <v>2.3022050968037222E-2</v>
       </c>
-      <c r="V6" s="23">
+      <c r="V6" s="41">
         <v>2.3022050968037222E-2</v>
       </c>
-      <c r="W6" s="23">
+      <c r="W6" s="41">
         <v>2.7626461161644664E-2</v>
       </c>
-      <c r="X6" s="23">
+      <c r="X6" s="41">
         <v>2.5324256064840945E-2</v>
       </c>
-      <c r="Y6" s="23">
+      <c r="Y6" s="41">
         <v>3.7986384097261419E-2</v>
       </c>
-      <c r="Z6" s="23">
+      <c r="Z6" s="41">
         <v>4.6044101936074444E-2</v>
       </c>
     </row>
@@ -15441,76 +15447,76 @@
       <c r="B7" s="21">
         <v>10</v>
       </c>
-      <c r="C7" s="23">
+      <c r="C7" s="41">
         <v>7.6292470586644678E-2</v>
       </c>
-      <c r="D7" s="23">
+      <c r="D7" s="41">
         <v>7.6292470586644678E-2</v>
       </c>
-      <c r="E7" s="23">
+      <c r="E7" s="41">
         <v>9.1550964703973614E-2</v>
       </c>
-      <c r="F7" s="23">
+      <c r="F7" s="41">
         <v>8.3921717645309146E-2</v>
       </c>
-      <c r="G7" s="23">
+      <c r="G7" s="41">
         <v>0.11443870587996702</v>
       </c>
-      <c r="H7" s="23">
+      <c r="H7" s="41">
         <v>0.15258494117328936</v>
       </c>
-      <c r="I7" s="23">
+      <c r="I7" s="41">
         <v>2.3022050968037222E-2</v>
       </c>
-      <c r="J7" s="23">
+      <c r="J7" s="41">
         <v>2.3022050968037222E-2</v>
       </c>
-      <c r="K7" s="23">
+      <c r="K7" s="41">
         <v>2.7626461161644664E-2</v>
       </c>
-      <c r="L7" s="23">
+      <c r="L7" s="41">
         <v>2.5324256064840945E-2</v>
       </c>
-      <c r="M7" s="23">
+      <c r="M7" s="41">
         <v>3.4533076452055833E-2</v>
       </c>
-      <c r="N7" s="23">
+      <c r="N7" s="41">
         <v>4.6044101936074444E-2</v>
       </c>
-      <c r="O7" s="23">
+      <c r="O7" s="41">
         <v>7.6292470586644678E-2</v>
       </c>
-      <c r="P7" s="23">
+      <c r="P7" s="41">
         <v>7.6292470586644678E-2</v>
       </c>
-      <c r="Q7" s="23">
+      <c r="Q7" s="41">
         <v>9.1550964703973614E-2</v>
       </c>
-      <c r="R7" s="23">
+      <c r="R7" s="41">
         <v>8.3921717645309146E-2</v>
       </c>
-      <c r="S7" s="23">
+      <c r="S7" s="41">
         <v>0.12588257646796372</v>
       </c>
-      <c r="T7" s="23">
+      <c r="T7" s="41">
         <v>0.15258494117328936</v>
       </c>
-      <c r="U7" s="23">
+      <c r="U7" s="41">
         <v>2.3022050968037222E-2</v>
       </c>
-      <c r="V7" s="23">
+      <c r="V7" s="41">
         <v>2.3022050968037222E-2</v>
       </c>
-      <c r="W7" s="23">
+      <c r="W7" s="41">
         <v>2.7626461161644664E-2</v>
       </c>
-      <c r="X7" s="23">
+      <c r="X7" s="41">
         <v>2.5324256064840945E-2</v>
       </c>
-      <c r="Y7" s="23">
+      <c r="Y7" s="41">
         <v>3.7986384097261419E-2</v>
       </c>
-      <c r="Z7" s="23">
+      <c r="Z7" s="41">
         <v>4.6044101936074444E-2</v>
       </c>
     </row>
@@ -15518,76 +15524,76 @@
       <c r="B8" s="21">
         <v>11</v>
       </c>
-      <c r="C8" s="23">
+      <c r="C8" s="41">
         <v>7.6292470586644678E-2</v>
       </c>
-      <c r="D8" s="23">
+      <c r="D8" s="41">
         <v>7.6292470586644678E-2</v>
       </c>
-      <c r="E8" s="23">
+      <c r="E8" s="41">
         <v>9.1550964703973614E-2</v>
       </c>
-      <c r="F8" s="23">
+      <c r="F8" s="41">
         <v>8.3921717645309146E-2</v>
       </c>
-      <c r="G8" s="23">
+      <c r="G8" s="41">
         <v>0.11443870587996702</v>
       </c>
-      <c r="H8" s="23">
+      <c r="H8" s="41">
         <v>0.15258494117328936</v>
       </c>
-      <c r="I8" s="23">
+      <c r="I8" s="41">
         <v>2.3022050968037222E-2</v>
       </c>
-      <c r="J8" s="23">
+      <c r="J8" s="41">
         <v>2.3022050968037222E-2</v>
       </c>
-      <c r="K8" s="23">
+      <c r="K8" s="41">
         <v>2.7626461161644664E-2</v>
       </c>
-      <c r="L8" s="23">
+      <c r="L8" s="41">
         <v>2.5324256064840945E-2</v>
       </c>
-      <c r="M8" s="23">
+      <c r="M8" s="41">
         <v>3.4533076452055833E-2</v>
       </c>
-      <c r="N8" s="23">
+      <c r="N8" s="41">
         <v>4.6044101936074444E-2</v>
       </c>
-      <c r="O8" s="23">
+      <c r="O8" s="41">
         <v>7.6292470586644678E-2</v>
       </c>
-      <c r="P8" s="23">
+      <c r="P8" s="41">
         <v>7.6292470586644678E-2</v>
       </c>
-      <c r="Q8" s="23">
+      <c r="Q8" s="41">
         <v>9.1550964703973614E-2</v>
       </c>
-      <c r="R8" s="23">
+      <c r="R8" s="41">
         <v>8.3921717645309146E-2</v>
       </c>
-      <c r="S8" s="23">
+      <c r="S8" s="41">
         <v>0.12588257646796372</v>
       </c>
-      <c r="T8" s="23">
+      <c r="T8" s="41">
         <v>0.15258494117328936</v>
       </c>
-      <c r="U8" s="23">
+      <c r="U8" s="41">
         <v>2.3022050968037222E-2</v>
       </c>
-      <c r="V8" s="23">
+      <c r="V8" s="41">
         <v>2.3022050968037222E-2</v>
       </c>
-      <c r="W8" s="23">
+      <c r="W8" s="41">
         <v>2.7626461161644664E-2</v>
       </c>
-      <c r="X8" s="23">
+      <c r="X8" s="41">
         <v>2.5324256064840945E-2</v>
       </c>
-      <c r="Y8" s="23">
+      <c r="Y8" s="41">
         <v>3.7986384097261419E-2</v>
       </c>
-      <c r="Z8" s="23">
+      <c r="Z8" s="41">
         <v>4.6044101936074444E-2</v>
       </c>
     </row>
@@ -15595,76 +15601,76 @@
       <c r="B9" s="21">
         <v>12</v>
       </c>
-      <c r="C9" s="23">
+      <c r="C9" s="41">
         <v>7.6292470586644678E-2</v>
       </c>
-      <c r="D9" s="23">
+      <c r="D9" s="41">
         <v>7.6292470586644678E-2</v>
       </c>
-      <c r="E9" s="23">
+      <c r="E9" s="41">
         <v>9.1550964703973614E-2</v>
       </c>
-      <c r="F9" s="23">
+      <c r="F9" s="41">
         <v>8.3921717645309146E-2</v>
       </c>
-      <c r="G9" s="23">
+      <c r="G9" s="41">
         <v>0.11443870587996702</v>
       </c>
-      <c r="H9" s="23">
+      <c r="H9" s="41">
         <v>0.15258494117328936</v>
       </c>
-      <c r="I9" s="23">
+      <c r="I9" s="41">
         <v>2.3022050968037222E-2</v>
       </c>
-      <c r="J9" s="23">
+      <c r="J9" s="41">
         <v>2.3022050968037222E-2</v>
       </c>
-      <c r="K9" s="23">
+      <c r="K9" s="41">
         <v>2.7626461161644664E-2</v>
       </c>
-      <c r="L9" s="23">
+      <c r="L9" s="41">
         <v>2.5324256064840945E-2</v>
       </c>
-      <c r="M9" s="23">
+      <c r="M9" s="41">
         <v>3.4533076452055833E-2</v>
       </c>
-      <c r="N9" s="23">
+      <c r="N9" s="41">
         <v>4.6044101936074444E-2</v>
       </c>
-      <c r="O9" s="23">
+      <c r="O9" s="41">
         <v>7.6292470586644678E-2</v>
       </c>
-      <c r="P9" s="23">
+      <c r="P9" s="41">
         <v>7.6292470586644678E-2</v>
       </c>
-      <c r="Q9" s="23">
+      <c r="Q9" s="41">
         <v>9.1550964703973614E-2</v>
       </c>
-      <c r="R9" s="23">
+      <c r="R9" s="41">
         <v>8.3921717645309146E-2</v>
       </c>
-      <c r="S9" s="23">
+      <c r="S9" s="41">
         <v>0.12588257646796372</v>
       </c>
-      <c r="T9" s="23">
+      <c r="T9" s="41">
         <v>0.15258494117328936</v>
       </c>
-      <c r="U9" s="23">
+      <c r="U9" s="41">
         <v>2.3022050968037222E-2</v>
       </c>
-      <c r="V9" s="23">
+      <c r="V9" s="41">
         <v>2.3022050968037222E-2</v>
       </c>
-      <c r="W9" s="23">
+      <c r="W9" s="41">
         <v>2.7626461161644664E-2</v>
       </c>
-      <c r="X9" s="23">
+      <c r="X9" s="41">
         <v>2.5324256064840945E-2</v>
       </c>
-      <c r="Y9" s="23">
+      <c r="Y9" s="41">
         <v>3.7986384097261419E-2</v>
       </c>
-      <c r="Z9" s="23">
+      <c r="Z9" s="41">
         <v>4.6044101936074444E-2</v>
       </c>
     </row>
@@ -15672,76 +15678,76 @@
       <c r="B10" s="21">
         <v>13</v>
       </c>
-      <c r="C10" s="23">
+      <c r="C10" s="41">
         <v>6.1033976469315743E-2</v>
       </c>
-      <c r="D10" s="23">
+      <c r="D10" s="41">
         <v>6.1033976469315743E-2</v>
       </c>
-      <c r="E10" s="23">
+      <c r="E10" s="41">
         <v>7.3240771763178891E-2</v>
       </c>
-      <c r="F10" s="23">
+      <c r="F10" s="41">
         <v>6.7137374116247317E-2</v>
       </c>
-      <c r="G10" s="23">
+      <c r="G10" s="41">
         <v>9.1550964703973614E-2</v>
       </c>
-      <c r="H10" s="23">
+      <c r="H10" s="41">
         <v>0.12206795293863149</v>
       </c>
-      <c r="I10" s="23">
+      <c r="I10" s="41">
         <v>1.841764077442978E-2</v>
       </c>
-      <c r="J10" s="23">
+      <c r="J10" s="41">
         <v>1.841764077442978E-2</v>
       </c>
-      <c r="K10" s="23">
+      <c r="K10" s="41">
         <v>2.2101168929315736E-2</v>
       </c>
-      <c r="L10" s="23">
+      <c r="L10" s="41">
         <v>2.0259404851872758E-2</v>
       </c>
-      <c r="M10" s="23">
+      <c r="M10" s="41">
         <v>2.7626461161644668E-2</v>
       </c>
-      <c r="N10" s="23">
+      <c r="N10" s="41">
         <v>3.6835281548859559E-2</v>
       </c>
-      <c r="O10" s="23">
+      <c r="O10" s="41">
         <v>6.1033976469315743E-2</v>
       </c>
-      <c r="P10" s="23">
+      <c r="P10" s="41">
         <v>6.1033976469315743E-2</v>
       </c>
-      <c r="Q10" s="23">
+      <c r="Q10" s="41">
         <v>7.3240771763178891E-2</v>
       </c>
-      <c r="R10" s="23">
+      <c r="R10" s="41">
         <v>6.7137374116247317E-2</v>
       </c>
-      <c r="S10" s="23">
+      <c r="S10" s="41">
         <v>0.10070606117437098</v>
       </c>
-      <c r="T10" s="23">
+      <c r="T10" s="41">
         <v>0.12206795293863149</v>
       </c>
-      <c r="U10" s="23">
+      <c r="U10" s="41">
         <v>1.841764077442978E-2</v>
       </c>
-      <c r="V10" s="23">
+      <c r="V10" s="41">
         <v>1.841764077442978E-2</v>
       </c>
-      <c r="W10" s="23">
+      <c r="W10" s="41">
         <v>2.2101168929315736E-2</v>
       </c>
-      <c r="X10" s="23">
+      <c r="X10" s="41">
         <v>2.0259404851872758E-2</v>
       </c>
-      <c r="Y10" s="23">
+      <c r="Y10" s="41">
         <v>3.0389107277809135E-2</v>
       </c>
-      <c r="Z10" s="23">
+      <c r="Z10" s="41">
         <v>3.6835281548859559E-2</v>
       </c>
     </row>
@@ -15749,76 +15755,76 @@
       <c r="B11" s="21">
         <v>14</v>
       </c>
-      <c r="C11" s="23">
+      <c r="C11" s="41">
         <v>6.1033976469315743E-2</v>
       </c>
-      <c r="D11" s="23">
+      <c r="D11" s="41">
         <v>6.1033976469315743E-2</v>
       </c>
-      <c r="E11" s="23">
+      <c r="E11" s="41">
         <v>7.3240771763178891E-2</v>
       </c>
-      <c r="F11" s="23">
+      <c r="F11" s="41">
         <v>6.7137374116247317E-2</v>
       </c>
-      <c r="G11" s="23">
+      <c r="G11" s="41">
         <v>9.1550964703973614E-2</v>
       </c>
-      <c r="H11" s="23">
+      <c r="H11" s="41">
         <v>0.12206795293863149</v>
       </c>
-      <c r="I11" s="23">
+      <c r="I11" s="41">
         <v>1.841764077442978E-2</v>
       </c>
-      <c r="J11" s="23">
+      <c r="J11" s="41">
         <v>1.841764077442978E-2</v>
       </c>
-      <c r="K11" s="23">
+      <c r="K11" s="41">
         <v>2.2101168929315736E-2</v>
       </c>
-      <c r="L11" s="23">
+      <c r="L11" s="41">
         <v>2.0259404851872758E-2</v>
       </c>
-      <c r="M11" s="23">
+      <c r="M11" s="41">
         <v>2.7626461161644668E-2</v>
       </c>
-      <c r="N11" s="23">
+      <c r="N11" s="41">
         <v>3.6835281548859559E-2</v>
       </c>
-      <c r="O11" s="23">
+      <c r="O11" s="41">
         <v>6.1033976469315743E-2</v>
       </c>
-      <c r="P11" s="23">
+      <c r="P11" s="41">
         <v>6.1033976469315743E-2</v>
       </c>
-      <c r="Q11" s="23">
+      <c r="Q11" s="41">
         <v>7.3240771763178891E-2</v>
       </c>
-      <c r="R11" s="23">
+      <c r="R11" s="41">
         <v>6.7137374116247317E-2</v>
       </c>
-      <c r="S11" s="23">
+      <c r="S11" s="41">
         <v>0.10070606117437098</v>
       </c>
-      <c r="T11" s="23">
+      <c r="T11" s="41">
         <v>0.12206795293863149</v>
       </c>
-      <c r="U11" s="23">
+      <c r="U11" s="41">
         <v>1.841764077442978E-2</v>
       </c>
-      <c r="V11" s="23">
+      <c r="V11" s="41">
         <v>1.841764077442978E-2</v>
       </c>
-      <c r="W11" s="23">
+      <c r="W11" s="41">
         <v>2.2101168929315736E-2</v>
       </c>
-      <c r="X11" s="23">
+      <c r="X11" s="41">
         <v>2.0259404851872758E-2</v>
       </c>
-      <c r="Y11" s="23">
+      <c r="Y11" s="41">
         <v>3.0389107277809135E-2</v>
       </c>
-      <c r="Z11" s="23">
+      <c r="Z11" s="41">
         <v>3.6835281548859559E-2</v>
       </c>
     </row>
@@ -15826,76 +15832,76 @@
       <c r="B12" s="21">
         <v>15</v>
       </c>
-      <c r="C12" s="23">
+      <c r="C12" s="41">
         <v>6.1033976469315743E-2</v>
       </c>
-      <c r="D12" s="23">
+      <c r="D12" s="41">
         <v>6.1033976469315743E-2</v>
       </c>
-      <c r="E12" s="23">
+      <c r="E12" s="41">
         <v>7.3240771763178891E-2</v>
       </c>
-      <c r="F12" s="23">
+      <c r="F12" s="41">
         <v>6.7137374116247317E-2</v>
       </c>
-      <c r="G12" s="23">
+      <c r="G12" s="41">
         <v>9.1550964703973614E-2</v>
       </c>
-      <c r="H12" s="23">
+      <c r="H12" s="41">
         <v>0.12206795293863149</v>
       </c>
-      <c r="I12" s="23">
+      <c r="I12" s="41">
         <v>1.841764077442978E-2</v>
       </c>
-      <c r="J12" s="23">
+      <c r="J12" s="41">
         <v>1.841764077442978E-2</v>
       </c>
-      <c r="K12" s="23">
+      <c r="K12" s="41">
         <v>2.2101168929315736E-2</v>
       </c>
-      <c r="L12" s="23">
+      <c r="L12" s="41">
         <v>2.0259404851872758E-2</v>
       </c>
-      <c r="M12" s="23">
+      <c r="M12" s="41">
         <v>2.7626461161644668E-2</v>
       </c>
-      <c r="N12" s="23">
+      <c r="N12" s="41">
         <v>3.6835281548859559E-2</v>
       </c>
-      <c r="O12" s="23">
+      <c r="O12" s="41">
         <v>6.1033976469315743E-2</v>
       </c>
-      <c r="P12" s="23">
+      <c r="P12" s="41">
         <v>6.1033976469315743E-2</v>
       </c>
-      <c r="Q12" s="23">
+      <c r="Q12" s="41">
         <v>7.3240771763178891E-2</v>
       </c>
-      <c r="R12" s="23">
+      <c r="R12" s="41">
         <v>6.7137374116247317E-2</v>
       </c>
-      <c r="S12" s="23">
+      <c r="S12" s="41">
         <v>0.10070606117437098</v>
       </c>
-      <c r="T12" s="23">
+      <c r="T12" s="41">
         <v>0.12206795293863149</v>
       </c>
-      <c r="U12" s="23">
+      <c r="U12" s="41">
         <v>1.841764077442978E-2</v>
       </c>
-      <c r="V12" s="23">
+      <c r="V12" s="41">
         <v>1.841764077442978E-2</v>
       </c>
-      <c r="W12" s="23">
+      <c r="W12" s="41">
         <v>2.2101168929315736E-2</v>
       </c>
-      <c r="X12" s="23">
+      <c r="X12" s="41">
         <v>2.0259404851872758E-2</v>
       </c>
-      <c r="Y12" s="23">
+      <c r="Y12" s="41">
         <v>3.0389107277809135E-2</v>
       </c>
-      <c r="Z12" s="23">
+      <c r="Z12" s="41">
         <v>3.6835281548859559E-2</v>
       </c>
     </row>
@@ -15903,76 +15909,76 @@
       <c r="B13" s="21">
         <v>16</v>
       </c>
-      <c r="C13" s="23">
+      <c r="C13" s="41">
         <v>0.11443870587996702</v>
       </c>
-      <c r="D13" s="23">
+      <c r="D13" s="41">
         <v>0.11443870587996702</v>
       </c>
-      <c r="E13" s="23">
+      <c r="E13" s="41">
         <v>0.13732644705596042</v>
       </c>
-      <c r="F13" s="23">
+      <c r="F13" s="41">
         <v>0.12588257646796372</v>
       </c>
-      <c r="G13" s="23">
+      <c r="G13" s="41">
         <v>0.17165805881995053</v>
       </c>
-      <c r="H13" s="23">
+      <c r="H13" s="41">
         <v>0.22887741175993404</v>
       </c>
-      <c r="I13" s="23">
+      <c r="I13" s="41">
         <v>2.7626461161644664E-2</v>
       </c>
-      <c r="J13" s="23">
+      <c r="J13" s="41">
         <v>2.7626461161644664E-2</v>
       </c>
-      <c r="K13" s="23">
+      <c r="K13" s="41">
         <v>3.3151753393973596E-2</v>
       </c>
-      <c r="L13" s="23">
+      <c r="L13" s="41">
         <v>3.0389107277809132E-2</v>
       </c>
-      <c r="M13" s="23">
+      <c r="M13" s="41">
         <v>4.1439691742466998E-2</v>
       </c>
-      <c r="N13" s="23">
+      <c r="N13" s="41">
         <v>5.5252922323289329E-2</v>
       </c>
-      <c r="O13" s="23">
+      <c r="O13" s="41">
         <v>0.11443870587996702</v>
       </c>
-      <c r="P13" s="23">
+      <c r="P13" s="41">
         <v>0.11443870587996702</v>
       </c>
-      <c r="Q13" s="23">
+      <c r="Q13" s="41">
         <v>0.13732644705596042</v>
       </c>
-      <c r="R13" s="23">
+      <c r="R13" s="41">
         <v>0.12588257646796372</v>
       </c>
-      <c r="S13" s="23">
+      <c r="S13" s="41">
         <v>0.18882386470194557</v>
       </c>
-      <c r="T13" s="23">
+      <c r="T13" s="41">
         <v>0.22887741175993404</v>
       </c>
-      <c r="U13" s="23">
+      <c r="U13" s="41">
         <v>2.7626461161644664E-2</v>
       </c>
-      <c r="V13" s="23">
+      <c r="V13" s="41">
         <v>2.7626461161644664E-2</v>
       </c>
-      <c r="W13" s="23">
+      <c r="W13" s="41">
         <v>3.3151753393973596E-2</v>
       </c>
-      <c r="X13" s="23">
+      <c r="X13" s="41">
         <v>3.0389107277809132E-2</v>
       </c>
-      <c r="Y13" s="23">
+      <c r="Y13" s="41">
         <v>4.5583660916713696E-2</v>
       </c>
-      <c r="Z13" s="23">
+      <c r="Z13" s="41">
         <v>5.5252922323289329E-2</v>
       </c>
     </row>
@@ -15980,76 +15986,76 @@
       <c r="B14" s="21">
         <v>17</v>
       </c>
-      <c r="C14" s="23">
+      <c r="C14" s="41">
         <v>0.11443870587996702</v>
       </c>
-      <c r="D14" s="23">
+      <c r="D14" s="41">
         <v>0.11443870587996702</v>
       </c>
-      <c r="E14" s="23">
+      <c r="E14" s="41">
         <v>0.13732644705596042</v>
       </c>
-      <c r="F14" s="23">
+      <c r="F14" s="41">
         <v>0.12588257646796372</v>
       </c>
-      <c r="G14" s="23">
+      <c r="G14" s="41">
         <v>0.17165805881995053</v>
       </c>
-      <c r="H14" s="23">
+      <c r="H14" s="41">
         <v>0.22887741175993404</v>
       </c>
-      <c r="I14" s="23">
+      <c r="I14" s="41">
         <v>2.7626461161644664E-2</v>
       </c>
-      <c r="J14" s="23">
+      <c r="J14" s="41">
         <v>2.7626461161644664E-2</v>
       </c>
-      <c r="K14" s="23">
+      <c r="K14" s="41">
         <v>3.3151753393973596E-2</v>
       </c>
-      <c r="L14" s="23">
+      <c r="L14" s="41">
         <v>3.0389107277809132E-2</v>
       </c>
-      <c r="M14" s="23">
+      <c r="M14" s="41">
         <v>4.1439691742466998E-2</v>
       </c>
-      <c r="N14" s="23">
+      <c r="N14" s="41">
         <v>5.5252922323289329E-2</v>
       </c>
-      <c r="O14" s="23">
+      <c r="O14" s="41">
         <v>0.11443870587996702</v>
       </c>
-      <c r="P14" s="23">
+      <c r="P14" s="41">
         <v>0.11443870587996702</v>
       </c>
-      <c r="Q14" s="23">
+      <c r="Q14" s="41">
         <v>0.13732644705596042</v>
       </c>
-      <c r="R14" s="23">
+      <c r="R14" s="41">
         <v>0.12588257646796372</v>
       </c>
-      <c r="S14" s="23">
+      <c r="S14" s="41">
         <v>0.18882386470194557</v>
       </c>
-      <c r="T14" s="23">
+      <c r="T14" s="41">
         <v>0.22887741175993404</v>
       </c>
-      <c r="U14" s="23">
+      <c r="U14" s="41">
         <v>2.7626461161644664E-2</v>
       </c>
-      <c r="V14" s="23">
+      <c r="V14" s="41">
         <v>2.7626461161644664E-2</v>
       </c>
-      <c r="W14" s="23">
+      <c r="W14" s="41">
         <v>3.3151753393973596E-2</v>
       </c>
-      <c r="X14" s="23">
+      <c r="X14" s="41">
         <v>3.0389107277809132E-2</v>
       </c>
-      <c r="Y14" s="23">
+      <c r="Y14" s="41">
         <v>4.5583660916713696E-2</v>
       </c>
-      <c r="Z14" s="23">
+      <c r="Z14" s="41">
         <v>5.5252922323289329E-2</v>
       </c>
     </row>
@@ -17412,7 +17418,7 @@
   <dimension ref="A1:Z22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A22"/>
+      <selection activeCell="L24" sqref="L24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -17508,76 +17514,76 @@
       <c r="B3" s="24">
         <v>12</v>
       </c>
-      <c r="C3" s="25">
+      <c r="C3" s="38">
         <v>0.16307180676534344</v>
       </c>
-      <c r="D3" s="25">
+      <c r="D3" s="38">
         <v>0.16307180676534344</v>
       </c>
-      <c r="E3" s="25">
-        <v>0.13072932384869618</v>
-      </c>
-      <c r="F3" s="25">
-        <v>5.2291729539478471E-2</v>
-      </c>
-      <c r="G3" s="25">
+      <c r="E3" s="38">
+        <v>0.2122652272313679</v>
+      </c>
+      <c r="F3" s="38">
+        <v>0.18274917495175322</v>
+      </c>
+      <c r="G3" s="38">
         <v>0.26145864769739235</v>
       </c>
-      <c r="H3" s="25">
+      <c r="H3" s="38">
         <v>0.17744400283664125</v>
       </c>
-      <c r="I3" s="25">
+      <c r="I3" s="38">
         <v>9.8772891706703572E-2</v>
       </c>
-      <c r="J3" s="25">
+      <c r="J3" s="38">
         <v>9.8772891706703572E-2</v>
       </c>
-      <c r="K3" s="25">
-        <v>8.5899252191051073E-2</v>
-      </c>
-      <c r="L3" s="25">
-        <v>3.4359700876420429E-2</v>
-      </c>
-      <c r="M3" s="25">
+      <c r="K3" s="38">
+        <v>0.13528569804440285</v>
+      </c>
+      <c r="L3" s="38">
+        <v>0.11337801424178329</v>
+      </c>
+      <c r="M3" s="38">
         <v>0.17179850438210215</v>
       </c>
-      <c r="N3" s="25">
+      <c r="N3" s="38">
         <v>0.10894909707638729</v>
       </c>
-      <c r="O3" s="25">
+      <c r="O3" s="38">
         <v>0.14897768395188157</v>
       </c>
-      <c r="P3" s="25">
+      <c r="P3" s="38">
         <v>0.14897768395188157</v>
       </c>
-      <c r="Q3" s="25">
-        <v>0.12154009378198873</v>
-      </c>
-      <c r="R3" s="25">
-        <v>4.8616037512795494E-2</v>
-      </c>
-      <c r="S3" s="25">
+      <c r="Q3" s="38">
+        <v>0.19602893575792951</v>
+      </c>
+      <c r="R3" s="38">
+        <v>0.16779818467430074</v>
+      </c>
+      <c r="S3" s="38">
         <v>0.24308018756397745</v>
       </c>
-      <c r="T3" s="25">
+      <c r="T3" s="38">
         <v>0.16258672319912484</v>
       </c>
-      <c r="U3" s="25">
+      <c r="U3" s="38">
         <v>8.9105865327346642E-2</v>
       </c>
-      <c r="V3" s="25">
+      <c r="V3" s="38">
         <v>8.9105865327346642E-2</v>
       </c>
-      <c r="W3" s="25">
-        <v>7.84742577709161E-2</v>
-      </c>
-      <c r="X3" s="25">
-        <v>3.1389703108366439E-2</v>
-      </c>
-      <c r="Y3" s="25">
+      <c r="W3" s="38">
+        <v>0.12302719043458943</v>
+      </c>
+      <c r="X3" s="38">
+        <v>0.10267439537024375</v>
+      </c>
+      <c r="Y3" s="38">
         <v>0.1569485155418322</v>
       </c>
-      <c r="Z3" s="25">
+      <c r="Z3" s="38">
         <v>9.8490122438172858E-2</v>
       </c>
     </row>
@@ -17585,76 +17591,76 @@
       <c r="B4" s="24">
         <v>13</v>
       </c>
-      <c r="C4" s="25">
+      <c r="C4" s="38">
         <v>0.15476874565542947</v>
       </c>
-      <c r="D4" s="25">
+      <c r="D4" s="38">
         <v>0.15476874565542947</v>
       </c>
-      <c r="E4" s="25">
-        <v>0.1056793417694364</v>
-      </c>
-      <c r="F4" s="25">
-        <v>4.2271736707774565E-2</v>
-      </c>
-      <c r="G4" s="25">
+      <c r="E4" s="38">
+        <v>0.18306371459715115</v>
+      </c>
+      <c r="F4" s="38">
+        <v>0.16608673323211814</v>
+      </c>
+      <c r="G4" s="38">
         <v>0.2113586835388728</v>
       </c>
-      <c r="H4" s="25">
+      <c r="H4" s="38">
         <v>0.16295294111665809</v>
       </c>
-      <c r="I4" s="25">
+      <c r="I4" s="38">
         <v>9.3048386115668652E-2</v>
       </c>
-      <c r="J4" s="25">
+      <c r="J4" s="38">
         <v>9.3048386115668652E-2</v>
       </c>
-      <c r="K4" s="25">
-        <v>6.6920502824186823E-2</v>
-      </c>
-      <c r="L4" s="25">
-        <v>2.6768201129674731E-2</v>
-      </c>
-      <c r="M4" s="25">
+      <c r="K4" s="38">
+        <v>0.11344469588202115</v>
+      </c>
+      <c r="L4" s="38">
+        <v>0.10120691002220965</v>
+      </c>
+      <c r="M4" s="38">
         <v>0.13384100564837365</v>
       </c>
-      <c r="N4" s="25">
+      <c r="N4" s="38">
         <v>9.8690335626198764E-2</v>
       </c>
-      <c r="O4" s="25">
+      <c r="O4" s="38">
         <v>0.14116085995706734</v>
       </c>
-      <c r="P4" s="25">
+      <c r="P4" s="38">
         <v>0.14116085995706734</v>
       </c>
-      <c r="Q4" s="25">
-        <v>9.7475410264491677E-2</v>
-      </c>
-      <c r="R4" s="25">
-        <v>3.8990164105796671E-2</v>
-      </c>
-      <c r="S4" s="25">
+      <c r="Q4" s="38">
+        <v>0.16805584024302533</v>
+      </c>
+      <c r="R4" s="38">
+        <v>0.15191885207145053</v>
+      </c>
+      <c r="S4" s="38">
         <v>0.19495082052898335</v>
       </c>
-      <c r="T4" s="25">
+      <c r="T4" s="38">
         <v>0.14886559805028127</v>
       </c>
-      <c r="U4" s="25">
+      <c r="U4" s="38">
         <v>8.3848229374629157E-2</v>
       </c>
-      <c r="V4" s="25">
+      <c r="V4" s="38">
         <v>8.3848229374629157E-2</v>
       </c>
-      <c r="W4" s="25">
-        <v>6.0785956059629019E-2</v>
-      </c>
-      <c r="X4" s="25">
-        <v>2.4314382423851609E-2</v>
-      </c>
-      <c r="Y4" s="25">
+      <c r="W4" s="38">
+        <v>0.1027100707469436</v>
+      </c>
+      <c r="X4" s="38">
+        <v>9.1392965923554934E-2</v>
+      </c>
+      <c r="Y4" s="38">
         <v>0.12157191211925804</v>
       </c>
-      <c r="Z4" s="25">
+      <c r="Z4" s="38">
         <v>8.9029958841739892E-2</v>
       </c>
     </row>
@@ -17662,76 +17668,76 @@
       <c r="B5" s="24">
         <v>14</v>
       </c>
-      <c r="C5" s="25">
+      <c r="C5" s="38">
         <v>0.14674672948278772</v>
       </c>
-      <c r="D5" s="25">
+      <c r="D5" s="38">
         <v>0.14674672948278772</v>
       </c>
-      <c r="E5" s="25">
-        <v>0.10086536902687784</v>
-      </c>
-      <c r="F5" s="25">
-        <v>4.0346147610751143E-2</v>
-      </c>
-      <c r="G5" s="25">
+      <c r="E5" s="38">
+        <v>0.1742387337682717</v>
+      </c>
+      <c r="F5" s="38">
+        <v>0.15774353119698131</v>
+      </c>
+      <c r="G5" s="38">
         <v>0.20173073805375569</v>
       </c>
-      <c r="H5" s="25">
+      <c r="H5" s="38">
         <v>0.15465379387387357</v>
       </c>
-      <c r="I5" s="25">
+      <c r="I5" s="38">
         <v>8.7597868656478298E-2</v>
       </c>
-      <c r="J5" s="25">
+      <c r="J5" s="38">
         <v>8.7597868656478298E-2</v>
       </c>
-      <c r="K5" s="25">
-        <v>6.3297994302197153E-2</v>
-      </c>
-      <c r="L5" s="25">
-        <v>2.5319197720878862E-2</v>
-      </c>
-      <c r="M5" s="25">
+      <c r="K5" s="38">
+        <v>0.10709692863043629</v>
+      </c>
+      <c r="L5" s="38">
+        <v>9.5397492646061496E-2</v>
+      </c>
+      <c r="M5" s="38">
         <v>0.12659598860439431</v>
       </c>
-      <c r="N5" s="25">
+      <c r="N5" s="38">
         <v>9.2969730172366247E-2</v>
       </c>
-      <c r="O5" s="25">
+      <c r="O5" s="38">
         <v>0.13363292946931341</v>
       </c>
-      <c r="P5" s="25">
+      <c r="P5" s="38">
         <v>0.13363292946931341</v>
       </c>
-      <c r="Q5" s="25">
-        <v>9.2856760534044819E-2</v>
-      </c>
-      <c r="R5" s="25">
-        <v>3.7142704213617928E-2</v>
-      </c>
-      <c r="S5" s="25">
+      <c r="Q5" s="38">
+        <v>0.15967322526870154</v>
+      </c>
+      <c r="R5" s="38">
+        <v>0.14404904778906866</v>
+      </c>
+      <c r="S5" s="38">
         <v>0.18571352106808964</v>
       </c>
-      <c r="T5" s="25">
+      <c r="T5" s="38">
         <v>0.1410528197860248</v>
       </c>
-      <c r="U5" s="25">
+      <c r="U5" s="38">
         <v>7.8853113814680936E-2</v>
       </c>
-      <c r="V5" s="25">
+      <c r="V5" s="38">
         <v>7.8853113814680936E-2</v>
       </c>
-      <c r="W5" s="25">
-        <v>5.7413936562265566E-2</v>
-      </c>
-      <c r="X5" s="25">
-        <v>2.2965574624906226E-2</v>
-      </c>
-      <c r="Y5" s="25">
+      <c r="W5" s="38">
+        <v>9.6840493469606034E-2</v>
+      </c>
+      <c r="X5" s="38">
+        <v>8.6048065676650978E-2</v>
+      </c>
+      <c r="Y5" s="38">
         <v>0.11482787312453113</v>
       </c>
-      <c r="Z5" s="25">
+      <c r="Z5" s="38">
         <v>8.3776069929760111E-2</v>
       </c>
     </row>
@@ -17739,76 +17745,76 @@
       <c r="B6" s="24">
         <v>15</v>
       </c>
-      <c r="C6" s="25">
+      <c r="C6" s="38">
         <v>0.13901096144251407</v>
       </c>
-      <c r="D6" s="25">
+      <c r="D6" s="38">
         <v>0.13901096144251407</v>
       </c>
-      <c r="E6" s="25">
-        <v>9.6162276113920267E-2</v>
-      </c>
-      <c r="F6" s="25">
-        <v>3.8464910445568108E-2</v>
-      </c>
-      <c r="G6" s="25">
+      <c r="E6" s="38">
+        <v>0.16566775683517732</v>
+      </c>
+      <c r="F6" s="38">
+        <v>0.14967367959957936</v>
+      </c>
+      <c r="G6" s="38">
         <v>0.19232455222784053</v>
       </c>
-      <c r="H6" s="25">
+      <c r="H6" s="38">
         <v>0.14663577747516895</v>
       </c>
-      <c r="I6" s="25">
+      <c r="I6" s="38">
         <v>8.2414909883604531E-2</v>
       </c>
-      <c r="J6" s="25">
+      <c r="J6" s="38">
         <v>8.2414909883604531E-2</v>
       </c>
-      <c r="K6" s="25">
-        <v>5.9821378094913079E-2</v>
-      </c>
-      <c r="L6" s="25">
-        <v>2.3928551237965234E-2</v>
-      </c>
-      <c r="M6" s="25">
+      <c r="K6" s="38">
+        <v>0.10102883303671534</v>
+      </c>
+      <c r="L6" s="38">
+        <v>8.9860479144848862E-2</v>
+      </c>
+      <c r="M6" s="38">
         <v>0.11964275618982616</v>
       </c>
-      <c r="N6" s="25">
+      <c r="N6" s="38">
         <v>8.7523027495796449E-2</v>
       </c>
-      <c r="O6" s="25">
+      <c r="O6" s="38">
         <v>0.12639612937655792</v>
       </c>
-      <c r="P6" s="25">
+      <c r="P6" s="38">
         <v>0.12639612937655792</v>
       </c>
-      <c r="Q6" s="25">
-        <v>8.8361596078842808E-2</v>
-      </c>
-      <c r="R6" s="25">
-        <v>3.5344638431537123E-2</v>
-      </c>
-      <c r="S6" s="25">
+      <c r="Q6" s="38">
+        <v>0.15155966076712177</v>
+      </c>
+      <c r="R6" s="38">
+        <v>0.13646154193278345</v>
+      </c>
+      <c r="S6" s="38">
         <v>0.17672319215768562</v>
       </c>
-      <c r="T6" s="25">
+      <c r="T6" s="38">
         <v>0.13352897804587982</v>
       </c>
-      <c r="U6" s="25">
+      <c r="U6" s="38">
         <v>7.4113010649329958E-2</v>
       </c>
-      <c r="V6" s="25">
+      <c r="V6" s="38">
         <v>7.4113010649329958E-2</v>
       </c>
-      <c r="W6" s="25">
-        <v>5.4186723869276837E-2</v>
-      </c>
-      <c r="X6" s="25">
-        <v>2.1674689547710735E-2</v>
-      </c>
-      <c r="Y6" s="25">
+      <c r="W6" s="38">
+        <v>9.1243229193941816E-2</v>
+      </c>
+      <c r="X6" s="38">
+        <v>8.0965098067174696E-2</v>
+      </c>
+      <c r="Y6" s="38">
         <v>0.10837344773855367</v>
       </c>
-      <c r="Z6" s="25">
+      <c r="Z6" s="38">
         <v>7.8784599462691673E-2</v>
       </c>
     </row>
@@ -17816,76 +17822,76 @@
       <c r="B7" s="24">
         <v>16</v>
       </c>
-      <c r="C7" s="25">
+      <c r="C7" s="38">
         <v>0.13156488380755332</v>
       </c>
-      <c r="D7" s="25">
+      <c r="D7" s="38">
         <v>0.13156488380755332</v>
       </c>
-      <c r="E7" s="25">
-        <v>9.1577745876671515E-2</v>
-      </c>
-      <c r="F7" s="25">
-        <v>3.6631098350668606E-2</v>
-      </c>
-      <c r="G7" s="25">
+      <c r="E7" s="38">
+        <v>0.15736018778044819</v>
+      </c>
+      <c r="F7" s="38">
+        <v>0.14188300539671125</v>
+      </c>
+      <c r="G7" s="38">
         <v>0.18315549175334303</v>
       </c>
-      <c r="H7" s="25">
+      <c r="H7" s="38">
         <v>0.13890406970561381</v>
       </c>
-      <c r="I7" s="25">
+      <c r="I7" s="38">
         <v>7.7492410914695414E-2</v>
       </c>
-      <c r="J7" s="25">
+      <c r="J7" s="38">
         <v>7.7492410914695414E-2</v>
       </c>
-      <c r="K7" s="25">
-        <v>5.6490266344464773E-2</v>
-      </c>
-      <c r="L7" s="25">
-        <v>2.2596106537785911E-2</v>
-      </c>
-      <c r="M7" s="25">
+      <c r="K7" s="38">
+        <v>9.5236471801812481E-2</v>
+      </c>
+      <c r="L7" s="38">
+        <v>8.4590035269542244E-2</v>
+      </c>
+      <c r="M7" s="38">
         <v>0.11298053268892955</v>
       </c>
-      <c r="N7" s="25">
+      <c r="N7" s="38">
         <v>8.2343787890275549E-2</v>
       </c>
-      <c r="O7" s="25">
+      <c r="O7" s="38">
         <v>0.1194511116221357</v>
       </c>
-      <c r="P7" s="25">
+      <c r="P7" s="38">
         <v>0.1194511116221357</v>
       </c>
-      <c r="Q7" s="25">
-        <v>8.3995929717148254E-2</v>
-      </c>
-      <c r="R7" s="25">
-        <v>3.3598371886859303E-2</v>
-      </c>
-      <c r="S7" s="25">
+      <c r="Q7" s="38">
+        <v>0.14372148552821612</v>
+      </c>
+      <c r="R7" s="38">
+        <v>0.12915926118456786</v>
+      </c>
+      <c r="S7" s="38">
         <v>0.16799185943429651</v>
       </c>
-      <c r="T7" s="25">
+      <c r="T7" s="38">
         <v>0.12629628662193804</v>
       </c>
-      <c r="U7" s="25">
+      <c r="U7" s="38">
         <v>6.9619936817004791E-2</v>
       </c>
-      <c r="V7" s="25">
+      <c r="V7" s="38">
         <v>6.9619936817004791E-2</v>
       </c>
-      <c r="W7" s="25">
-        <v>5.1102813474708825E-2</v>
-      </c>
-      <c r="X7" s="25">
-        <v>2.0441125389883533E-2</v>
-      </c>
-      <c r="Y7" s="25">
+      <c r="W7" s="38">
+        <v>8.591278188321122E-2</v>
+      </c>
+      <c r="X7" s="38">
+        <v>7.6137074843487362E-2</v>
+      </c>
+      <c r="Y7" s="38">
         <v>0.10220562694941765</v>
       </c>
-      <c r="Z7" s="25">
+      <c r="Z7" s="38">
         <v>7.4048032000090941E-2</v>
       </c>
     </row>
@@ -17893,76 +17899,76 @@
       <c r="B8" s="24">
         <v>17</v>
       </c>
-      <c r="C8" s="25">
+      <c r="C8" s="38">
         <v>0.12441027564447105</v>
       </c>
-      <c r="D8" s="25">
+      <c r="D8" s="38">
         <v>0.12441027564447105</v>
       </c>
-      <c r="E8" s="25">
-        <v>8.7118493806469313E-2</v>
-      </c>
-      <c r="F8" s="25">
-        <v>3.4847397522587725E-2</v>
-      </c>
-      <c r="G8" s="25">
+      <c r="E8" s="38">
+        <v>0.14932363162870482</v>
+      </c>
+      <c r="F8" s="38">
+        <v>0.13437561803816456</v>
+      </c>
+      <c r="G8" s="38">
         <v>0.17423698761293863</v>
       </c>
-      <c r="H8" s="25">
+      <c r="H8" s="38">
         <v>0.13146208870041753</v>
       </c>
-      <c r="I8" s="25">
+      <c r="I8" s="38">
         <v>7.2822719051762075E-2</v>
       </c>
-      <c r="J8" s="25">
+      <c r="J8" s="38">
         <v>7.2822719051762075E-2</v>
       </c>
-      <c r="K8" s="25">
-        <v>5.3303598192003615E-2</v>
-      </c>
-      <c r="L8" s="25">
-        <v>2.1321439276801447E-2</v>
-      </c>
-      <c r="M8" s="25">
+      <c r="K8" s="38">
+        <v>8.9714957717884652E-2</v>
+      </c>
+      <c r="L8" s="38">
+        <v>7.9579614518211106E-2</v>
+      </c>
+      <c r="M8" s="38">
         <v>0.10660719638400723</v>
       </c>
-      <c r="N8" s="25">
+      <c r="N8" s="38">
         <v>7.7424903885994656E-2</v>
       </c>
-      <c r="O8" s="25">
+      <c r="O8" s="38">
         <v>0.11279706084017188</v>
       </c>
-      <c r="P8" s="25">
+      <c r="P8" s="38">
         <v>0.11279706084017188</v>
       </c>
-      <c r="Q8" s="25">
-        <v>7.9764796415437683E-2</v>
-      </c>
-      <c r="R8" s="25">
-        <v>3.1905918566175077E-2</v>
-      </c>
-      <c r="S8" s="25">
+      <c r="Q8" s="38">
+        <v>0.13616332683552362</v>
+      </c>
+      <c r="R8" s="38">
+        <v>0.12214356723831257</v>
+      </c>
+      <c r="S8" s="38">
         <v>0.15952959283087537</v>
       </c>
-      <c r="T8" s="25">
+      <c r="T8" s="38">
         <v>0.11935537595382818</v>
       </c>
-      <c r="U8" s="25">
+      <c r="U8" s="38">
         <v>6.5365537276762919E-2</v>
       </c>
-      <c r="V8" s="25">
+      <c r="V8" s="38">
         <v>6.5365537276762919E-2</v>
       </c>
-      <c r="W8" s="25">
-        <v>4.8160139434376685E-2</v>
-      </c>
-      <c r="X8" s="25">
-        <v>1.9264055773750677E-2</v>
-      </c>
-      <c r="Y8" s="25">
+      <c r="W8" s="38">
+        <v>8.0842908072758152E-2</v>
+      </c>
+      <c r="X8" s="38">
+        <v>7.1556485595161007E-2</v>
+      </c>
+      <c r="Y8" s="38">
         <v>9.632027886875337E-2</v>
       </c>
-      <c r="Z8" s="25">
+      <c r="Z8" s="38">
         <v>6.9558378543980864E-2</v>
       </c>
     </row>
@@ -17970,76 +17976,76 @@
       <c r="B9" s="24">
         <v>18</v>
       </c>
-      <c r="C9" s="25">
+      <c r="C9" s="38">
         <v>0.11754736329804087</v>
       </c>
-      <c r="D9" s="25">
+      <c r="D9" s="38">
         <v>0.11754736329804087</v>
       </c>
-      <c r="E9" s="25">
-        <v>8.2790256755520236E-2</v>
-      </c>
-      <c r="F9" s="25">
-        <v>3.3116102702208099E-2</v>
-      </c>
-      <c r="G9" s="25">
+      <c r="E9" s="38">
+        <v>0.14156393840454068</v>
+      </c>
+      <c r="F9" s="38">
+        <v>0.12715399334064079</v>
+      </c>
+      <c r="G9" s="38">
         <v>0.16558051351104047</v>
       </c>
-      <c r="H9" s="25">
+      <c r="H9" s="38">
         <v>0.12431159086366882</v>
       </c>
-      <c r="I9" s="25">
+      <c r="I9" s="38">
         <v>6.8397736362632119E-2</v>
       </c>
-      <c r="J9" s="25">
+      <c r="J9" s="38">
         <v>6.8397736362632119E-2</v>
       </c>
-      <c r="K9" s="25">
-        <v>5.0259704349536631E-2</v>
-      </c>
-      <c r="L9" s="25">
-        <v>2.0103881739814655E-2</v>
-      </c>
-      <c r="M9" s="25">
+      <c r="K9" s="38">
+        <v>8.4458572530852691E-2</v>
+      </c>
+      <c r="L9" s="38">
+        <v>7.4822070829920345E-2</v>
+      </c>
+      <c r="M9" s="38">
         <v>0.10051940869907326</v>
       </c>
-      <c r="N9" s="25">
+      <c r="N9" s="38">
         <v>7.2758715777634986E-2</v>
       </c>
-      <c r="O9" s="25">
+      <c r="O9" s="38">
         <v>0.10643181925352328</v>
       </c>
-      <c r="P9" s="25">
+      <c r="P9" s="38">
         <v>0.10643181925352328</v>
       </c>
-      <c r="Q9" s="25">
-        <v>7.5672265882885476E-2</v>
-      </c>
-      <c r="R9" s="25">
-        <v>3.0268906353154192E-2</v>
-      </c>
-      <c r="S9" s="25">
+      <c r="Q9" s="38">
+        <v>0.12888817550964712</v>
+      </c>
+      <c r="R9" s="38">
+        <v>0.11541436175597282</v>
+      </c>
+      <c r="S9" s="38">
         <v>0.15134453176577095</v>
       </c>
-      <c r="T9" s="25">
-        <v>0.11270541088783727</v>
-      </c>
-      <c r="U9" s="25">
+      <c r="T9" s="38">
+        <v>0</v>
+      </c>
+      <c r="U9" s="38">
         <v>6.1341180025162804E-2</v>
       </c>
-      <c r="V9" s="25">
+      <c r="V9" s="38">
         <v>6.1341180025162804E-2</v>
       </c>
-      <c r="W9" s="25">
-        <v>4.5356139694650306E-2</v>
-      </c>
-      <c r="X9" s="25">
-        <v>1.8142455877860123E-2</v>
-      </c>
-      <c r="Y9" s="25">
+      <c r="W9" s="38">
+        <v>7.6026729707231705E-2</v>
+      </c>
+      <c r="X9" s="38">
+        <v>6.7215399897990372E-2</v>
+      </c>
+      <c r="Y9" s="38">
         <v>9.0712279389300612E-2</v>
       </c>
-      <c r="Z9" s="25">
+      <c r="Z9" s="38">
         <v>6.5307279512189356E-2</v>
       </c>
     </row>
@@ -18049,785 +18055,785 @@
       </c>
     </row>
     <row r="13" spans="1:26">
-      <c r="B13" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="C13" s="26" t="s">
+      <c r="B13" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="C13" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="D13" s="26" t="s">
+      <c r="D13" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="E13" s="26" t="s">
+      <c r="E13" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="F13" s="26" t="s">
+      <c r="F13" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="G13" s="26" t="s">
+      <c r="G13" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="H13" s="26" t="s">
+      <c r="H13" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="I13" s="26" t="s">
+      <c r="I13" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="J13" s="26" t="s">
+      <c r="J13" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="K13" s="26" t="s">
+      <c r="K13" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="L13" s="26" t="s">
+      <c r="L13" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="M13" s="26" t="s">
+      <c r="M13" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="N13" s="26" t="s">
+      <c r="N13" s="25" t="s">
         <v>41</v>
       </c>
-      <c r="O13" s="26" t="s">
+      <c r="O13" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="P13" s="26" t="s">
+      <c r="P13" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="Q13" s="26" t="s">
+      <c r="Q13" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="R13" s="26" t="s">
+      <c r="R13" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="S13" s="26" t="s">
+      <c r="S13" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="T13" s="26" t="s">
+      <c r="T13" s="25" t="s">
         <v>47</v>
       </c>
-      <c r="U13" s="26" t="s">
+      <c r="U13" s="25" t="s">
         <v>48</v>
       </c>
-      <c r="V13" s="26" t="s">
+      <c r="V13" s="25" t="s">
         <v>49</v>
       </c>
-      <c r="W13" s="26" t="s">
+      <c r="W13" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="X13" s="26" t="s">
+      <c r="X13" s="25" t="s">
         <v>51</v>
       </c>
-      <c r="Y13" s="26" t="s">
+      <c r="Y13" s="25" t="s">
         <v>52</v>
       </c>
-      <c r="Z13" s="26" t="s">
+      <c r="Z13" s="25" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="14" spans="1:26">
-      <c r="B14" s="26">
+      <c r="B14" s="25">
         <v>12</v>
       </c>
-      <c r="C14" s="27">
+      <c r="C14" s="26">
         <f>ROUND(C3,5)</f>
         <v>0.16306999999999999</v>
       </c>
-      <c r="D14" s="27">
+      <c r="D14" s="26">
         <f t="shared" ref="D14:Z20" si="0">ROUND(D3,5)</f>
         <v>0.16306999999999999</v>
       </c>
-      <c r="E14" s="27">
-        <f t="shared" si="0"/>
-        <v>0.13073000000000001</v>
-      </c>
-      <c r="F14" s="27">
-        <f t="shared" si="0"/>
-        <v>5.2290000000000003E-2</v>
-      </c>
-      <c r="G14" s="27">
+      <c r="E14" s="26">
+        <f t="shared" si="0"/>
+        <v>0.21226999999999999</v>
+      </c>
+      <c r="F14" s="26">
+        <f t="shared" si="0"/>
+        <v>0.18275</v>
+      </c>
+      <c r="G14" s="26">
         <f t="shared" si="0"/>
         <v>0.26146000000000003</v>
       </c>
-      <c r="H14" s="27">
+      <c r="H14" s="26">
         <f t="shared" si="0"/>
         <v>0.17743999999999999</v>
       </c>
-      <c r="I14" s="27">
+      <c r="I14" s="26">
         <f t="shared" si="0"/>
         <v>9.8769999999999997E-2</v>
       </c>
-      <c r="J14" s="27">
+      <c r="J14" s="26">
         <f t="shared" si="0"/>
         <v>9.8769999999999997E-2</v>
       </c>
-      <c r="K14" s="27">
-        <f t="shared" si="0"/>
-        <v>8.5900000000000004E-2</v>
-      </c>
-      <c r="L14" s="27">
-        <f t="shared" si="0"/>
-        <v>3.4360000000000002E-2</v>
-      </c>
-      <c r="M14" s="27">
+      <c r="K14" s="26">
+        <f t="shared" si="0"/>
+        <v>0.13528999999999999</v>
+      </c>
+      <c r="L14" s="26">
+        <f t="shared" si="0"/>
+        <v>0.11337999999999999</v>
+      </c>
+      <c r="M14" s="26">
         <f t="shared" si="0"/>
         <v>0.17180000000000001</v>
       </c>
-      <c r="N14" s="27">
+      <c r="N14" s="26">
         <f t="shared" si="0"/>
         <v>0.10895000000000001</v>
       </c>
-      <c r="O14" s="27">
+      <c r="O14" s="26">
         <f t="shared" si="0"/>
         <v>0.14898</v>
       </c>
-      <c r="P14" s="27">
+      <c r="P14" s="26">
         <f t="shared" si="0"/>
         <v>0.14898</v>
       </c>
-      <c r="Q14" s="27">
-        <f t="shared" si="0"/>
-        <v>0.12154</v>
-      </c>
-      <c r="R14" s="27">
-        <f t="shared" si="0"/>
-        <v>4.8619999999999997E-2</v>
-      </c>
-      <c r="S14" s="27">
+      <c r="Q14" s="26">
+        <f t="shared" si="0"/>
+        <v>0.19603000000000001</v>
+      </c>
+      <c r="R14" s="26">
+        <f t="shared" si="0"/>
+        <v>0.1678</v>
+      </c>
+      <c r="S14" s="26">
         <f t="shared" si="0"/>
         <v>0.24307999999999999</v>
       </c>
-      <c r="T14" s="27">
+      <c r="T14" s="26">
         <f t="shared" si="0"/>
         <v>0.16259000000000001</v>
       </c>
-      <c r="U14" s="27">
+      <c r="U14" s="26">
         <f t="shared" si="0"/>
         <v>8.9109999999999995E-2</v>
       </c>
-      <c r="V14" s="27">
+      <c r="V14" s="26">
         <f t="shared" si="0"/>
         <v>8.9109999999999995E-2</v>
       </c>
-      <c r="W14" s="27">
-        <f t="shared" si="0"/>
-        <v>7.8469999999999998E-2</v>
-      </c>
-      <c r="X14" s="27">
-        <f t="shared" si="0"/>
-        <v>3.1390000000000001E-2</v>
-      </c>
-      <c r="Y14" s="27">
+      <c r="W14" s="26">
+        <f t="shared" si="0"/>
+        <v>0.12303</v>
+      </c>
+      <c r="X14" s="26">
+        <f t="shared" si="0"/>
+        <v>0.10267</v>
+      </c>
+      <c r="Y14" s="26">
         <f t="shared" si="0"/>
         <v>0.15695000000000001</v>
       </c>
-      <c r="Z14" s="27">
+      <c r="Z14" s="26">
         <f t="shared" si="0"/>
         <v>9.8489999999999994E-2</v>
       </c>
     </row>
     <row r="15" spans="1:26">
-      <c r="B15" s="26">
+      <c r="B15" s="25">
         <v>13</v>
       </c>
-      <c r="C15" s="27">
+      <c r="C15" s="26">
         <f t="shared" ref="C15:R20" si="1">ROUND(C4,5)</f>
         <v>0.15476999999999999</v>
       </c>
-      <c r="D15" s="27">
+      <c r="D15" s="26">
         <f t="shared" si="1"/>
         <v>0.15476999999999999</v>
       </c>
-      <c r="E15" s="27">
+      <c r="E15" s="26">
         <f t="shared" si="1"/>
-        <v>0.10568</v>
-      </c>
-      <c r="F15" s="27">
+        <v>0.18306</v>
+      </c>
+      <c r="F15" s="26">
         <f t="shared" si="1"/>
-        <v>4.2270000000000002E-2</v>
-      </c>
-      <c r="G15" s="27">
+        <v>0.16608999999999999</v>
+      </c>
+      <c r="G15" s="26">
         <f t="shared" si="1"/>
         <v>0.21135999999999999</v>
       </c>
-      <c r="H15" s="27">
+      <c r="H15" s="26">
         <f t="shared" si="1"/>
         <v>0.16295000000000001</v>
       </c>
-      <c r="I15" s="27">
+      <c r="I15" s="26">
         <f t="shared" si="1"/>
         <v>9.3049999999999994E-2</v>
       </c>
-      <c r="J15" s="27">
+      <c r="J15" s="26">
         <f t="shared" si="1"/>
         <v>9.3049999999999994E-2</v>
       </c>
-      <c r="K15" s="27">
+      <c r="K15" s="26">
         <f t="shared" si="1"/>
-        <v>6.6919999999999993E-2</v>
-      </c>
-      <c r="L15" s="27">
+        <v>0.11344</v>
+      </c>
+      <c r="L15" s="26">
         <f t="shared" si="1"/>
-        <v>2.6769999999999999E-2</v>
-      </c>
-      <c r="M15" s="27">
+        <v>0.10120999999999999</v>
+      </c>
+      <c r="M15" s="26">
         <f t="shared" si="1"/>
         <v>0.13383999999999999</v>
       </c>
-      <c r="N15" s="27">
+      <c r="N15" s="26">
         <f t="shared" si="1"/>
         <v>9.869E-2</v>
       </c>
-      <c r="O15" s="27">
+      <c r="O15" s="26">
         <f t="shared" si="1"/>
         <v>0.14116000000000001</v>
       </c>
-      <c r="P15" s="27">
+      <c r="P15" s="26">
         <f t="shared" si="1"/>
         <v>0.14116000000000001</v>
       </c>
-      <c r="Q15" s="27">
+      <c r="Q15" s="26">
         <f t="shared" si="1"/>
-        <v>9.7479999999999997E-2</v>
-      </c>
-      <c r="R15" s="27">
+        <v>0.16805999999999999</v>
+      </c>
+      <c r="R15" s="26">
         <f t="shared" si="1"/>
-        <v>3.8989999999999997E-2</v>
-      </c>
-      <c r="S15" s="27">
+        <v>0.15192</v>
+      </c>
+      <c r="S15" s="26">
         <f t="shared" si="0"/>
         <v>0.19495000000000001</v>
       </c>
-      <c r="T15" s="27">
+      <c r="T15" s="26">
         <f t="shared" si="0"/>
         <v>0.14887</v>
       </c>
-      <c r="U15" s="27">
+      <c r="U15" s="26">
         <f t="shared" si="0"/>
         <v>8.3849999999999994E-2</v>
       </c>
-      <c r="V15" s="27">
+      <c r="V15" s="26">
         <f t="shared" si="0"/>
         <v>8.3849999999999994E-2</v>
       </c>
-      <c r="W15" s="27">
-        <f t="shared" si="0"/>
-        <v>6.0789999999999997E-2</v>
-      </c>
-      <c r="X15" s="27">
-        <f t="shared" si="0"/>
-        <v>2.4309999999999998E-2</v>
-      </c>
-      <c r="Y15" s="27">
+      <c r="W15" s="26">
+        <f t="shared" si="0"/>
+        <v>0.10271</v>
+      </c>
+      <c r="X15" s="26">
+        <f t="shared" si="0"/>
+        <v>9.1389999999999999E-2</v>
+      </c>
+      <c r="Y15" s="26">
         <f t="shared" si="0"/>
         <v>0.12157</v>
       </c>
-      <c r="Z15" s="27">
+      <c r="Z15" s="26">
         <f t="shared" si="0"/>
         <v>8.9029999999999998E-2</v>
       </c>
     </row>
     <row r="16" spans="1:26">
-      <c r="B16" s="26">
+      <c r="B16" s="25">
         <v>14</v>
       </c>
-      <c r="C16" s="27">
+      <c r="C16" s="26">
         <f t="shared" si="1"/>
         <v>0.14674999999999999</v>
       </c>
-      <c r="D16" s="27">
+      <c r="D16" s="26">
         <f t="shared" si="0"/>
         <v>0.14674999999999999</v>
       </c>
-      <c r="E16" s="27">
-        <f t="shared" si="0"/>
-        <v>0.10087</v>
-      </c>
-      <c r="F16" s="27">
-        <f t="shared" si="0"/>
-        <v>4.0349999999999997E-2</v>
-      </c>
-      <c r="G16" s="27">
+      <c r="E16" s="26">
+        <f t="shared" si="0"/>
+        <v>0.17424000000000001</v>
+      </c>
+      <c r="F16" s="26">
+        <f t="shared" si="0"/>
+        <v>0.15773999999999999</v>
+      </c>
+      <c r="G16" s="26">
         <f t="shared" si="0"/>
         <v>0.20172999999999999</v>
       </c>
-      <c r="H16" s="27">
+      <c r="H16" s="26">
         <f t="shared" si="0"/>
         <v>0.15465000000000001</v>
       </c>
-      <c r="I16" s="27">
+      <c r="I16" s="26">
         <f t="shared" si="0"/>
         <v>8.7599999999999997E-2</v>
       </c>
-      <c r="J16" s="27">
+      <c r="J16" s="26">
         <f t="shared" si="0"/>
         <v>8.7599999999999997E-2</v>
       </c>
-      <c r="K16" s="27">
-        <f t="shared" si="0"/>
-        <v>6.3299999999999995E-2</v>
-      </c>
-      <c r="L16" s="27">
-        <f t="shared" si="0"/>
-        <v>2.5319999999999999E-2</v>
-      </c>
-      <c r="M16" s="27">
+      <c r="K16" s="26">
+        <f t="shared" si="0"/>
+        <v>0.1071</v>
+      </c>
+      <c r="L16" s="26">
+        <f t="shared" si="0"/>
+        <v>9.5399999999999999E-2</v>
+      </c>
+      <c r="M16" s="26">
         <f t="shared" si="0"/>
         <v>0.12659999999999999</v>
       </c>
-      <c r="N16" s="27">
+      <c r="N16" s="26">
         <f t="shared" si="0"/>
         <v>9.2969999999999997E-2</v>
       </c>
-      <c r="O16" s="27">
+      <c r="O16" s="26">
         <f t="shared" si="0"/>
         <v>0.13363</v>
       </c>
-      <c r="P16" s="27">
+      <c r="P16" s="26">
         <f t="shared" si="0"/>
         <v>0.13363</v>
       </c>
-      <c r="Q16" s="27">
-        <f t="shared" si="0"/>
-        <v>9.2859999999999998E-2</v>
-      </c>
-      <c r="R16" s="27">
-        <f t="shared" si="0"/>
-        <v>3.7139999999999999E-2</v>
-      </c>
-      <c r="S16" s="27">
+      <c r="Q16" s="26">
+        <f t="shared" si="0"/>
+        <v>0.15967000000000001</v>
+      </c>
+      <c r="R16" s="26">
+        <f t="shared" si="0"/>
+        <v>0.14405000000000001</v>
+      </c>
+      <c r="S16" s="26">
         <f t="shared" si="0"/>
         <v>0.18570999999999999</v>
       </c>
-      <c r="T16" s="27">
+      <c r="T16" s="26">
         <f t="shared" si="0"/>
         <v>0.14105000000000001</v>
       </c>
-      <c r="U16" s="27">
+      <c r="U16" s="26">
         <f t="shared" si="0"/>
         <v>7.8850000000000003E-2</v>
       </c>
-      <c r="V16" s="27">
+      <c r="V16" s="26">
         <f t="shared" si="0"/>
         <v>7.8850000000000003E-2</v>
       </c>
-      <c r="W16" s="27">
-        <f t="shared" si="0"/>
-        <v>5.7410000000000003E-2</v>
-      </c>
-      <c r="X16" s="27">
-        <f t="shared" si="0"/>
-        <v>2.2970000000000001E-2</v>
-      </c>
-      <c r="Y16" s="27">
+      <c r="W16" s="26">
+        <f t="shared" si="0"/>
+        <v>9.6839999999999996E-2</v>
+      </c>
+      <c r="X16" s="26">
+        <f t="shared" si="0"/>
+        <v>8.6050000000000001E-2</v>
+      </c>
+      <c r="Y16" s="26">
         <f t="shared" si="0"/>
         <v>0.11483</v>
       </c>
-      <c r="Z16" s="27">
+      <c r="Z16" s="26">
         <f t="shared" si="0"/>
         <v>8.3779999999999993E-2</v>
       </c>
     </row>
     <row r="17" spans="1:26">
-      <c r="B17" s="26">
+      <c r="B17" s="25">
         <v>15</v>
       </c>
-      <c r="C17" s="27">
+      <c r="C17" s="26">
         <f t="shared" si="1"/>
         <v>0.13900999999999999</v>
       </c>
-      <c r="D17" s="27">
+      <c r="D17" s="26">
         <f t="shared" si="0"/>
         <v>0.13900999999999999</v>
       </c>
-      <c r="E17" s="27">
-        <f t="shared" si="0"/>
-        <v>9.6159999999999995E-2</v>
-      </c>
-      <c r="F17" s="27">
-        <f t="shared" si="0"/>
-        <v>3.8460000000000001E-2</v>
-      </c>
-      <c r="G17" s="27">
+      <c r="E17" s="26">
+        <f t="shared" si="0"/>
+        <v>0.16567000000000001</v>
+      </c>
+      <c r="F17" s="26">
+        <f t="shared" si="0"/>
+        <v>0.14967</v>
+      </c>
+      <c r="G17" s="26">
         <f t="shared" si="0"/>
         <v>0.19231999999999999</v>
       </c>
-      <c r="H17" s="27">
+      <c r="H17" s="26">
         <f t="shared" si="0"/>
         <v>0.14663999999999999</v>
       </c>
-      <c r="I17" s="27">
+      <c r="I17" s="26">
         <f t="shared" si="0"/>
         <v>8.2409999999999997E-2</v>
       </c>
-      <c r="J17" s="27">
+      <c r="J17" s="26">
         <f t="shared" si="0"/>
         <v>8.2409999999999997E-2</v>
       </c>
-      <c r="K17" s="27">
-        <f t="shared" si="0"/>
-        <v>5.9819999999999998E-2</v>
-      </c>
-      <c r="L17" s="27">
-        <f t="shared" si="0"/>
-        <v>2.393E-2</v>
-      </c>
-      <c r="M17" s="27">
+      <c r="K17" s="26">
+        <f t="shared" si="0"/>
+        <v>0.10102999999999999</v>
+      </c>
+      <c r="L17" s="26">
+        <f t="shared" si="0"/>
+        <v>8.9859999999999995E-2</v>
+      </c>
+      <c r="M17" s="26">
         <f t="shared" si="0"/>
         <v>0.11964</v>
       </c>
-      <c r="N17" s="27">
+      <c r="N17" s="26">
         <f t="shared" si="0"/>
         <v>8.7520000000000001E-2</v>
       </c>
-      <c r="O17" s="27">
+      <c r="O17" s="26">
         <f t="shared" si="0"/>
         <v>0.12640000000000001</v>
       </c>
-      <c r="P17" s="27">
+      <c r="P17" s="26">
         <f t="shared" si="0"/>
         <v>0.12640000000000001</v>
       </c>
-      <c r="Q17" s="27">
-        <f t="shared" si="0"/>
-        <v>8.8359999999999994E-2</v>
-      </c>
-      <c r="R17" s="27">
-        <f t="shared" si="0"/>
-        <v>3.5340000000000003E-2</v>
-      </c>
-      <c r="S17" s="27">
+      <c r="Q17" s="26">
+        <f t="shared" si="0"/>
+        <v>0.15156</v>
+      </c>
+      <c r="R17" s="26">
+        <f t="shared" si="0"/>
+        <v>0.13646</v>
+      </c>
+      <c r="S17" s="26">
         <f t="shared" si="0"/>
         <v>0.17671999999999999</v>
       </c>
-      <c r="T17" s="27">
+      <c r="T17" s="26">
         <f t="shared" si="0"/>
         <v>0.13353000000000001</v>
       </c>
-      <c r="U17" s="27">
+      <c r="U17" s="26">
         <f t="shared" si="0"/>
         <v>7.4109999999999995E-2</v>
       </c>
-      <c r="V17" s="27">
+      <c r="V17" s="26">
         <f t="shared" si="0"/>
         <v>7.4109999999999995E-2</v>
       </c>
-      <c r="W17" s="27">
-        <f t="shared" si="0"/>
-        <v>5.4190000000000002E-2</v>
-      </c>
-      <c r="X17" s="27">
-        <f t="shared" si="0"/>
-        <v>2.1669999999999998E-2</v>
-      </c>
-      <c r="Y17" s="27">
+      <c r="W17" s="26">
+        <f t="shared" si="0"/>
+        <v>9.1240000000000002E-2</v>
+      </c>
+      <c r="X17" s="26">
+        <f t="shared" si="0"/>
+        <v>8.097E-2</v>
+      </c>
+      <c r="Y17" s="26">
         <f t="shared" si="0"/>
         <v>0.10836999999999999</v>
       </c>
-      <c r="Z17" s="27">
+      <c r="Z17" s="26">
         <f t="shared" si="0"/>
         <v>7.8780000000000003E-2</v>
       </c>
     </row>
     <row r="18" spans="1:26">
-      <c r="B18" s="26">
+      <c r="B18" s="25">
         <v>16</v>
       </c>
-      <c r="C18" s="27">
+      <c r="C18" s="26">
         <f t="shared" si="1"/>
         <v>0.13156000000000001</v>
       </c>
-      <c r="D18" s="27">
+      <c r="D18" s="26">
         <f t="shared" si="0"/>
         <v>0.13156000000000001</v>
       </c>
-      <c r="E18" s="27">
-        <f t="shared" si="0"/>
-        <v>9.1579999999999995E-2</v>
-      </c>
-      <c r="F18" s="27">
-        <f t="shared" si="0"/>
-        <v>3.6630000000000003E-2</v>
-      </c>
-      <c r="G18" s="27">
+      <c r="E18" s="26">
+        <f t="shared" si="0"/>
+        <v>0.15736</v>
+      </c>
+      <c r="F18" s="26">
+        <f t="shared" si="0"/>
+        <v>0.14188000000000001</v>
+      </c>
+      <c r="G18" s="26">
         <f t="shared" si="0"/>
         <v>0.18315999999999999</v>
       </c>
-      <c r="H18" s="27">
+      <c r="H18" s="26">
         <f t="shared" si="0"/>
         <v>0.1389</v>
       </c>
-      <c r="I18" s="27">
+      <c r="I18" s="26">
         <f t="shared" si="0"/>
         <v>7.7490000000000003E-2</v>
       </c>
-      <c r="J18" s="27">
+      <c r="J18" s="26">
         <f t="shared" si="0"/>
         <v>7.7490000000000003E-2</v>
       </c>
-      <c r="K18" s="27">
-        <f t="shared" si="0"/>
-        <v>5.6489999999999999E-2</v>
-      </c>
-      <c r="L18" s="27">
-        <f t="shared" si="0"/>
-        <v>2.2599999999999999E-2</v>
-      </c>
-      <c r="M18" s="27">
+      <c r="K18" s="26">
+        <f t="shared" si="0"/>
+        <v>9.5240000000000005E-2</v>
+      </c>
+      <c r="L18" s="26">
+        <f t="shared" si="0"/>
+        <v>8.4589999999999999E-2</v>
+      </c>
+      <c r="M18" s="26">
         <f t="shared" si="0"/>
         <v>0.11298</v>
       </c>
-      <c r="N18" s="27">
+      <c r="N18" s="26">
         <f t="shared" si="0"/>
         <v>8.2339999999999997E-2</v>
       </c>
-      <c r="O18" s="27">
+      <c r="O18" s="26">
         <f t="shared" si="0"/>
         <v>0.11945</v>
       </c>
-      <c r="P18" s="27">
+      <c r="P18" s="26">
         <f t="shared" si="0"/>
         <v>0.11945</v>
       </c>
-      <c r="Q18" s="27">
-        <f t="shared" si="0"/>
-        <v>8.4000000000000005E-2</v>
-      </c>
-      <c r="R18" s="27">
-        <f t="shared" si="0"/>
-        <v>3.3599999999999998E-2</v>
-      </c>
-      <c r="S18" s="27">
+      <c r="Q18" s="26">
+        <f t="shared" si="0"/>
+        <v>0.14371999999999999</v>
+      </c>
+      <c r="R18" s="26">
+        <f t="shared" si="0"/>
+        <v>0.12916</v>
+      </c>
+      <c r="S18" s="26">
         <f t="shared" si="0"/>
         <v>0.16799</v>
       </c>
-      <c r="T18" s="27">
+      <c r="T18" s="26">
         <f t="shared" si="0"/>
         <v>0.1263</v>
       </c>
-      <c r="U18" s="27">
+      <c r="U18" s="26">
         <f t="shared" si="0"/>
         <v>6.9620000000000001E-2</v>
       </c>
-      <c r="V18" s="27">
+      <c r="V18" s="26">
         <f t="shared" si="0"/>
         <v>6.9620000000000001E-2</v>
       </c>
-      <c r="W18" s="27">
-        <f t="shared" si="0"/>
-        <v>5.11E-2</v>
-      </c>
-      <c r="X18" s="27">
-        <f t="shared" si="0"/>
-        <v>2.044E-2</v>
-      </c>
-      <c r="Y18" s="27">
+      <c r="W18" s="26">
+        <f t="shared" si="0"/>
+        <v>8.591E-2</v>
+      </c>
+      <c r="X18" s="26">
+        <f t="shared" si="0"/>
+        <v>7.6139999999999999E-2</v>
+      </c>
+      <c r="Y18" s="26">
         <f t="shared" si="0"/>
         <v>0.10221</v>
       </c>
-      <c r="Z18" s="27">
+      <c r="Z18" s="26">
         <f t="shared" si="0"/>
         <v>7.4050000000000005E-2</v>
       </c>
     </row>
     <row r="19" spans="1:26">
-      <c r="B19" s="26">
+      <c r="B19" s="25">
         <v>17</v>
       </c>
-      <c r="C19" s="27">
+      <c r="C19" s="26">
         <f t="shared" si="1"/>
         <v>0.12441000000000001</v>
       </c>
-      <c r="D19" s="27">
+      <c r="D19" s="26">
         <f t="shared" si="0"/>
         <v>0.12441000000000001</v>
       </c>
-      <c r="E19" s="27">
-        <f t="shared" si="0"/>
-        <v>8.7120000000000003E-2</v>
-      </c>
-      <c r="F19" s="27">
-        <f t="shared" si="0"/>
-        <v>3.4849999999999999E-2</v>
-      </c>
-      <c r="G19" s="27">
+      <c r="E19" s="26">
+        <f t="shared" si="0"/>
+        <v>0.14932000000000001</v>
+      </c>
+      <c r="F19" s="26">
+        <f t="shared" si="0"/>
+        <v>0.13438</v>
+      </c>
+      <c r="G19" s="26">
         <f t="shared" si="0"/>
         <v>0.17424000000000001</v>
       </c>
-      <c r="H19" s="27">
+      <c r="H19" s="26">
         <f t="shared" si="0"/>
         <v>0.13145999999999999</v>
       </c>
-      <c r="I19" s="27">
+      <c r="I19" s="26">
         <f t="shared" si="0"/>
         <v>7.2819999999999996E-2</v>
       </c>
-      <c r="J19" s="27">
+      <c r="J19" s="26">
         <f t="shared" si="0"/>
         <v>7.2819999999999996E-2</v>
       </c>
-      <c r="K19" s="27">
-        <f t="shared" si="0"/>
-        <v>5.33E-2</v>
-      </c>
-      <c r="L19" s="27">
-        <f t="shared" si="0"/>
-        <v>2.1319999999999999E-2</v>
-      </c>
-      <c r="M19" s="27">
+      <c r="K19" s="26">
+        <f t="shared" si="0"/>
+        <v>8.9709999999999998E-2</v>
+      </c>
+      <c r="L19" s="26">
+        <f t="shared" si="0"/>
+        <v>7.9579999999999998E-2</v>
+      </c>
+      <c r="M19" s="26">
         <f t="shared" si="0"/>
         <v>0.10661</v>
       </c>
-      <c r="N19" s="27">
+      <c r="N19" s="26">
         <f t="shared" si="0"/>
         <v>7.7420000000000003E-2</v>
       </c>
-      <c r="O19" s="27">
+      <c r="O19" s="26">
         <f t="shared" si="0"/>
         <v>0.1128</v>
       </c>
-      <c r="P19" s="27">
+      <c r="P19" s="26">
         <f t="shared" si="0"/>
         <v>0.1128</v>
       </c>
-      <c r="Q19" s="27">
-        <f t="shared" si="0"/>
-        <v>7.9759999999999998E-2</v>
-      </c>
-      <c r="R19" s="27">
-        <f t="shared" si="0"/>
-        <v>3.1910000000000001E-2</v>
-      </c>
-      <c r="S19" s="27">
+      <c r="Q19" s="26">
+        <f t="shared" si="0"/>
+        <v>0.13616</v>
+      </c>
+      <c r="R19" s="26">
+        <f t="shared" si="0"/>
+        <v>0.12214</v>
+      </c>
+      <c r="S19" s="26">
         <f t="shared" si="0"/>
         <v>0.15953000000000001</v>
       </c>
-      <c r="T19" s="27">
+      <c r="T19" s="26">
         <f t="shared" si="0"/>
         <v>0.11935999999999999</v>
       </c>
-      <c r="U19" s="27">
+      <c r="U19" s="26">
         <f t="shared" si="0"/>
         <v>6.5369999999999998E-2</v>
       </c>
-      <c r="V19" s="27">
+      <c r="V19" s="26">
         <f t="shared" si="0"/>
         <v>6.5369999999999998E-2</v>
       </c>
-      <c r="W19" s="27">
-        <f t="shared" si="0"/>
-        <v>4.8160000000000001E-2</v>
-      </c>
-      <c r="X19" s="27">
-        <f t="shared" si="0"/>
-        <v>1.9259999999999999E-2</v>
-      </c>
-      <c r="Y19" s="27">
+      <c r="W19" s="26">
+        <f t="shared" si="0"/>
+        <v>8.0839999999999995E-2</v>
+      </c>
+      <c r="X19" s="26">
+        <f t="shared" si="0"/>
+        <v>7.1559999999999999E-2</v>
+      </c>
+      <c r="Y19" s="26">
         <f t="shared" si="0"/>
         <v>9.6320000000000003E-2</v>
       </c>
-      <c r="Z19" s="27">
+      <c r="Z19" s="26">
         <f t="shared" si="0"/>
         <v>6.9559999999999997E-2</v>
       </c>
     </row>
     <row r="20" spans="1:26">
-      <c r="B20" s="26">
+      <c r="B20" s="25">
         <v>18</v>
       </c>
-      <c r="C20" s="27">
+      <c r="C20" s="26">
         <f t="shared" si="1"/>
         <v>0.11755</v>
       </c>
-      <c r="D20" s="27">
+      <c r="D20" s="26">
         <f t="shared" si="0"/>
         <v>0.11755</v>
       </c>
-      <c r="E20" s="27">
-        <f t="shared" si="0"/>
-        <v>8.2790000000000002E-2</v>
-      </c>
-      <c r="F20" s="27">
-        <f t="shared" si="0"/>
-        <v>3.3119999999999997E-2</v>
-      </c>
-      <c r="G20" s="27">
+      <c r="E20" s="26">
+        <f t="shared" si="0"/>
+        <v>0.14155999999999999</v>
+      </c>
+      <c r="F20" s="26">
+        <f t="shared" si="0"/>
+        <v>0.12715000000000001</v>
+      </c>
+      <c r="G20" s="26">
         <f t="shared" si="0"/>
         <v>0.16558</v>
       </c>
-      <c r="H20" s="27">
+      <c r="H20" s="26">
         <f t="shared" si="0"/>
         <v>0.12431</v>
       </c>
-      <c r="I20" s="27">
+      <c r="I20" s="26">
         <f t="shared" si="0"/>
         <v>6.8400000000000002E-2</v>
       </c>
-      <c r="J20" s="27">
+      <c r="J20" s="26">
         <f t="shared" si="0"/>
         <v>6.8400000000000002E-2</v>
       </c>
-      <c r="K20" s="27">
-        <f t="shared" si="0"/>
-        <v>5.0259999999999999E-2</v>
-      </c>
-      <c r="L20" s="27">
-        <f t="shared" si="0"/>
-        <v>2.01E-2</v>
-      </c>
-      <c r="M20" s="27">
+      <c r="K20" s="26">
+        <f t="shared" si="0"/>
+        <v>8.4459999999999993E-2</v>
+      </c>
+      <c r="L20" s="26">
+        <f t="shared" si="0"/>
+        <v>7.4819999999999998E-2</v>
+      </c>
+      <c r="M20" s="26">
         <f t="shared" si="0"/>
         <v>0.10052</v>
       </c>
-      <c r="N20" s="27">
+      <c r="N20" s="26">
         <f t="shared" si="0"/>
         <v>7.2760000000000005E-2</v>
       </c>
-      <c r="O20" s="27">
+      <c r="O20" s="26">
         <f t="shared" si="0"/>
         <v>0.10643</v>
       </c>
-      <c r="P20" s="27">
+      <c r="P20" s="26">
         <f t="shared" si="0"/>
         <v>0.10643</v>
       </c>
-      <c r="Q20" s="27">
-        <f t="shared" si="0"/>
-        <v>7.5670000000000001E-2</v>
-      </c>
-      <c r="R20" s="27">
-        <f t="shared" si="0"/>
-        <v>3.0269999999999998E-2</v>
-      </c>
-      <c r="S20" s="27">
+      <c r="Q20" s="26">
+        <f t="shared" si="0"/>
+        <v>0.12889</v>
+      </c>
+      <c r="R20" s="26">
+        <f t="shared" si="0"/>
+        <v>0.11541</v>
+      </c>
+      <c r="S20" s="26">
         <f t="shared" si="0"/>
         <v>0.15134</v>
       </c>
-      <c r="T20" s="27">
-        <f t="shared" si="0"/>
-        <v>0.11271</v>
-      </c>
-      <c r="U20" s="27">
+      <c r="T20" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="U20" s="26">
         <f t="shared" si="0"/>
         <v>6.1339999999999999E-2</v>
       </c>
-      <c r="V20" s="27">
+      <c r="V20" s="26">
         <f t="shared" si="0"/>
         <v>6.1339999999999999E-2</v>
       </c>
-      <c r="W20" s="27">
-        <f t="shared" si="0"/>
-        <v>4.5359999999999998E-2</v>
-      </c>
-      <c r="X20" s="27">
-        <f t="shared" si="0"/>
-        <v>1.814E-2</v>
-      </c>
-      <c r="Y20" s="27">
+      <c r="W20" s="26">
+        <f t="shared" si="0"/>
+        <v>7.603E-2</v>
+      </c>
+      <c r="X20" s="26">
+        <f t="shared" si="0"/>
+        <v>6.7220000000000002E-2</v>
+      </c>
+      <c r="Y20" s="26">
         <f t="shared" si="0"/>
         <v>9.0709999999999999E-2</v>
       </c>
-      <c r="Z20" s="27">
+      <c r="Z20" s="26">
         <f t="shared" si="0"/>
         <v>6.5310000000000007E-2</v>
       </c>
@@ -18847,729 +18853,729 @@
   <dimension ref="A1:Z22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A22"/>
+      <selection activeCell="C3" sqref="C3:Z9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:26">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="25" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:26">
-      <c r="A2" s="26"/>
-      <c r="B2" s="28" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="28" t="s">
+      <c r="A2" s="25"/>
+      <c r="B2" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="D2" s="28" t="s">
+      <c r="D2" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="E2" s="28" t="s">
+      <c r="E2" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="F2" s="28" t="s">
+      <c r="F2" s="27" t="s">
         <v>33</v>
       </c>
-      <c r="G2" s="28" t="s">
+      <c r="G2" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="H2" s="28" t="s">
+      <c r="H2" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="I2" s="28" t="s">
+      <c r="I2" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="J2" s="28" t="s">
+      <c r="J2" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="K2" s="28" t="s">
+      <c r="K2" s="27" t="s">
         <v>38</v>
       </c>
-      <c r="L2" s="28" t="s">
+      <c r="L2" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="M2" s="28" t="s">
+      <c r="M2" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="N2" s="28" t="s">
+      <c r="N2" s="27" t="s">
         <v>41</v>
       </c>
-      <c r="O2" s="28" t="s">
+      <c r="O2" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="P2" s="28" t="s">
+      <c r="P2" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="Q2" s="28" t="s">
+      <c r="Q2" s="27" t="s">
         <v>44</v>
       </c>
-      <c r="R2" s="28" t="s">
+      <c r="R2" s="27" t="s">
         <v>45</v>
       </c>
-      <c r="S2" s="28" t="s">
+      <c r="S2" s="27" t="s">
         <v>46</v>
       </c>
-      <c r="T2" s="28" t="s">
+      <c r="T2" s="27" t="s">
         <v>47</v>
       </c>
-      <c r="U2" s="28" t="s">
+      <c r="U2" s="27" t="s">
         <v>48</v>
       </c>
-      <c r="V2" s="28" t="s">
+      <c r="V2" s="27" t="s">
         <v>49</v>
       </c>
-      <c r="W2" s="28" t="s">
+      <c r="W2" s="27" t="s">
         <v>50</v>
       </c>
-      <c r="X2" s="28" t="s">
+      <c r="X2" s="27" t="s">
         <v>51</v>
       </c>
-      <c r="Y2" s="28" t="s">
+      <c r="Y2" s="27" t="s">
         <v>52</v>
       </c>
-      <c r="Z2" s="28" t="s">
+      <c r="Z2" s="27" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="3" spans="1:26">
-      <c r="A3" s="26"/>
-      <c r="B3" s="28">
+      <c r="A3" s="25"/>
+      <c r="B3" s="27">
         <v>12</v>
       </c>
-      <c r="C3" s="23">
+      <c r="C3" s="39">
         <v>0.13072032357909907</v>
       </c>
-      <c r="D3" s="23">
+      <c r="D3" s="39">
         <v>0.13072032357909907</v>
       </c>
-      <c r="E3" s="23">
-        <v>8.7781920090155188E-2</v>
-      </c>
-      <c r="F3" s="23">
-        <v>3.5112768036062079E-2</v>
-      </c>
-      <c r="G3" s="23">
+      <c r="E3" s="39">
+        <v>0.15314208187970474</v>
+      </c>
+      <c r="F3" s="39">
+        <v>0.13968902689934135</v>
+      </c>
+      <c r="G3" s="39">
         <v>0.17556384018031038</v>
       </c>
-      <c r="H3" s="23">
+      <c r="H3" s="39">
         <v>0.19002206560710103</v>
       </c>
-      <c r="I3" s="23">
+      <c r="I3" s="39">
         <v>5.9635640495214338E-2</v>
       </c>
-      <c r="J3" s="23">
+      <c r="J3" s="39">
         <v>5.9635640495214338E-2</v>
       </c>
-      <c r="K3" s="23">
-        <v>4.1293421303029307E-2</v>
-      </c>
-      <c r="L3" s="23">
-        <v>1.6517368521211724E-2</v>
-      </c>
-      <c r="M3" s="23">
+      <c r="K3" s="39">
+        <v>7.1111241550636473E-2</v>
+      </c>
+      <c r="L3" s="39">
+        <v>6.4225880917383196E-2</v>
+      </c>
+      <c r="M3" s="39">
         <v>8.2586842606058614E-2</v>
       </c>
-      <c r="N3" s="23">
+      <c r="N3" s="39">
         <v>9.027636511993109E-2</v>
       </c>
-      <c r="O3" s="23">
+      <c r="O3" s="39">
         <v>8.8609827724222198E-2</v>
       </c>
-      <c r="P3" s="23">
+      <c r="P3" s="39">
         <v>8.8609827724222198E-2</v>
       </c>
-      <c r="Q3" s="23">
-        <v>6.0588804753311985E-2</v>
-      </c>
-      <c r="R3" s="23">
-        <v>2.4235521901324796E-2</v>
-      </c>
-      <c r="S3" s="23">
+      <c r="Q3" s="39">
+        <v>0.10489371861542308</v>
+      </c>
+      <c r="R3" s="39">
+        <v>9.5123384080702547E-2</v>
+      </c>
+      <c r="S3" s="39">
         <v>0.12117760950662397</v>
       </c>
-      <c r="T3" s="23">
+      <c r="T3" s="39">
         <v>0.13191776806942238</v>
       </c>
-      <c r="U3" s="23">
+      <c r="U3" s="39">
         <v>3.9258168697638492E-2</v>
       </c>
-      <c r="V3" s="23">
+      <c r="V3" s="39">
         <v>3.9258168697638492E-2</v>
       </c>
-      <c r="W3" s="23">
-        <v>2.7427136262616711E-2</v>
-      </c>
-      <c r="X3" s="23">
-        <v>1.0970854505046685E-2</v>
-      </c>
-      <c r="Y3" s="23">
+      <c r="W3" s="39">
+        <v>4.7056220611435953E-2</v>
+      </c>
+      <c r="X3" s="39">
+        <v>4.2377389463157479E-2</v>
+      </c>
+      <c r="Y3" s="39">
         <v>5.4854272525233422E-2</v>
       </c>
-      <c r="Z3" s="23">
+      <c r="Z3" s="39">
         <v>6.0138786840652658E-2</v>
       </c>
     </row>
     <row r="4" spans="1:26">
-      <c r="A4" s="26"/>
-      <c r="B4" s="28">
+      <c r="A4" s="25"/>
+      <c r="B4" s="27">
         <v>13</v>
       </c>
-      <c r="C4" s="23">
+      <c r="C4" s="39">
         <v>0.14826936823900039</v>
       </c>
-      <c r="D4" s="23">
+      <c r="D4" s="39">
         <v>0.14826936823900039</v>
       </c>
-      <c r="E4" s="23">
-        <v>9.6584553235701504E-2</v>
-      </c>
-      <c r="F4" s="23">
-        <v>3.8633821294280606E-2</v>
-      </c>
-      <c r="G4" s="23">
+      <c r="E4" s="39">
+        <v>0.1707192373552017</v>
+      </c>
+      <c r="F4" s="39">
+        <v>0.15724931588548091</v>
+      </c>
+      <c r="G4" s="39">
         <v>0.19316910647140301</v>
       </c>
-      <c r="H4" s="23">
+      <c r="H4" s="39">
         <v>0.20749853238479582</v>
       </c>
-      <c r="I4" s="23">
+      <c r="I4" s="39">
         <v>6.8489779559944258E-2</v>
       </c>
-      <c r="J4" s="23">
+      <c r="J4" s="39">
         <v>6.8489779559944258E-2</v>
       </c>
-      <c r="K4" s="23">
-        <v>4.6094105663264641E-2</v>
-      </c>
-      <c r="L4" s="23">
-        <v>1.8437642265305858E-2</v>
-      </c>
-      <c r="M4" s="23">
+      <c r="K4" s="39">
+        <v>8.0338995443236777E-2</v>
+      </c>
+      <c r="L4" s="39">
+        <v>7.3229465913261266E-2</v>
+      </c>
+      <c r="M4" s="39">
         <v>9.2188211326529282E-2</v>
       </c>
-      <c r="N4" s="23">
+      <c r="N4" s="39">
         <v>0.10008586033603298</v>
       </c>
-      <c r="O4" s="23">
+      <c r="O4" s="39">
         <v>0.10124841846462271</v>
       </c>
-      <c r="P4" s="23">
+      <c r="P4" s="39">
         <v>0.10124841846462271</v>
       </c>
-      <c r="Q4" s="23">
-        <v>6.7226009388458755E-2</v>
-      </c>
-      <c r="R4" s="23">
-        <v>2.6890403755383502E-2</v>
-      </c>
-      <c r="S4" s="23">
+      <c r="Q4" s="39">
+        <v>0.11785021862077011</v>
+      </c>
+      <c r="R4" s="39">
+        <v>0.10788913852708167</v>
+      </c>
+      <c r="S4" s="39">
         <v>0.13445201877691751</v>
       </c>
-      <c r="T4" s="23">
+      <c r="T4" s="39">
         <v>0.14532003544507888</v>
       </c>
-      <c r="U4" s="23">
+      <c r="U4" s="39">
         <v>4.5822291862324768E-2</v>
       </c>
-      <c r="V4" s="23">
+      <c r="V4" s="39">
         <v>4.5822291862324768E-2</v>
       </c>
-      <c r="W4" s="23">
-        <v>3.1816237516487322E-2</v>
-      </c>
-      <c r="X4" s="23">
-        <v>1.272649500659493E-2</v>
-      </c>
-      <c r="Y4" s="23">
+      <c r="W4" s="39">
+        <v>5.4727383447649706E-2</v>
+      </c>
+      <c r="X4" s="39">
+        <v>4.9384328496454744E-2</v>
+      </c>
+      <c r="Y4" s="39">
         <v>6.3632475032974645E-2</v>
       </c>
-      <c r="Z4" s="23">
+      <c r="Z4" s="39">
         <v>6.9647157565001047E-2</v>
       </c>
     </row>
     <row r="5" spans="1:26">
-      <c r="A5" s="26"/>
-      <c r="B5" s="28">
+      <c r="A5" s="25"/>
+      <c r="B5" s="27">
         <v>14</v>
       </c>
-      <c r="C5" s="23">
+      <c r="C5" s="39">
         <v>0.16766160955157292</v>
       </c>
-      <c r="D5" s="23">
+      <c r="D5" s="39">
         <v>0.16766160955157292</v>
       </c>
-      <c r="E5" s="23">
-        <v>0.10837134869662345</v>
-      </c>
-      <c r="F5" s="23">
-        <v>4.3348539478649382E-2</v>
-      </c>
-      <c r="G5" s="23">
+      <c r="E5" s="39">
+        <v>0.1922021534724099</v>
+      </c>
+      <c r="F5" s="39">
+        <v>0.1774778271199077</v>
+      </c>
+      <c r="G5" s="39">
         <v>0.21674269739324689</v>
       </c>
-      <c r="H5" s="23">
+      <c r="H5" s="39">
         <v>0.23224687387015924</v>
       </c>
-      <c r="I5" s="23">
+      <c r="I5" s="39">
         <v>7.8535874423254479E-2</v>
       </c>
-      <c r="J5" s="23">
+      <c r="J5" s="39">
         <v>7.8535874423254479E-2</v>
       </c>
-      <c r="K5" s="23">
-        <v>5.2635544194574398E-2</v>
-      </c>
-      <c r="L5" s="23">
-        <v>2.1054217677829761E-2</v>
-      </c>
-      <c r="M5" s="23">
+      <c r="K5" s="39">
+        <v>9.1903481406201637E-2</v>
+      </c>
+      <c r="L5" s="39">
+        <v>8.3882917216433345E-2</v>
+      </c>
+      <c r="M5" s="39">
         <v>0.1052710883891488</v>
       </c>
-      <c r="N5" s="23">
+      <c r="N5" s="39">
         <v>0.11413144566820385</v>
       </c>
-      <c r="O5" s="23">
+      <c r="O5" s="39">
         <v>0.11543364732735795</v>
       </c>
-      <c r="P5" s="23">
+      <c r="P5" s="39">
         <v>0.11543364732735795</v>
       </c>
-      <c r="Q5" s="23">
-        <v>7.6201467871442996E-2</v>
-      </c>
-      <c r="R5" s="23">
-        <v>3.0480587148577199E-2</v>
-      </c>
-      <c r="S5" s="23">
+      <c r="Q5" s="39">
+        <v>0.13391829153512197</v>
+      </c>
+      <c r="R5" s="39">
+        <v>0.12282750501046355</v>
+      </c>
+      <c r="S5" s="39">
         <v>0.15240293574288599</v>
       </c>
-      <c r="T5" s="23">
+      <c r="T5" s="39">
         <v>0.16441078039090012</v>
       </c>
-      <c r="U5" s="23">
+      <c r="U5" s="39">
         <v>5.332907393622692E-2</v>
       </c>
-      <c r="V5" s="23">
+      <c r="V5" s="39">
         <v>5.332907393622692E-2</v>
       </c>
-      <c r="W5" s="23">
-        <v>3.6809012415341527E-2</v>
-      </c>
-      <c r="X5" s="23">
-        <v>1.4723604966136611E-2</v>
-      </c>
-      <c r="Y5" s="23">
+      <c r="W5" s="39">
+        <v>6.347354938345498E-2</v>
+      </c>
+      <c r="X5" s="39">
+        <v>5.7386864115118147E-2</v>
+      </c>
+      <c r="Y5" s="39">
         <v>7.3618024830683054E-2</v>
       </c>
-      <c r="Z5" s="23">
+      <c r="Z5" s="39">
         <v>8.0443889665049603E-2</v>
       </c>
     </row>
     <row r="6" spans="1:26">
-      <c r="A6" s="26"/>
-      <c r="B6" s="28">
+      <c r="A6" s="25"/>
+      <c r="B6" s="27">
         <v>15</v>
       </c>
-      <c r="C6" s="23">
+      <c r="C6" s="39">
         <v>0.18895348428302433</v>
       </c>
-      <c r="D6" s="23">
+      <c r="D6" s="39">
         <v>0.18895348428302433</v>
       </c>
-      <c r="E6" s="23">
-        <v>0.12110418052669357</v>
-      </c>
-      <c r="F6" s="23">
-        <v>4.8441672210677432E-2</v>
-      </c>
-      <c r="G6" s="23">
+      <c r="E6" s="39">
+        <v>0.21558092266820572</v>
+      </c>
+      <c r="F6" s="39">
+        <v>0.19960445963709689</v>
+      </c>
+      <c r="G6" s="39">
         <v>0.24220836105338714</v>
       </c>
-      <c r="H6" s="23">
+      <c r="H6" s="39">
         <v>0.25884472561381183</v>
       </c>
-      <c r="I6" s="23">
+      <c r="I6" s="39">
         <v>8.9896510804592988E-2</v>
       </c>
-      <c r="J6" s="23">
+      <c r="J6" s="39">
         <v>8.9896510804592988E-2</v>
       </c>
-      <c r="K6" s="23">
-        <v>5.9967709986047536E-2</v>
-      </c>
-      <c r="L6" s="23">
-        <v>2.3987083994419015E-2</v>
-      </c>
-      <c r="M6" s="23">
+      <c r="K6" s="39">
+        <v>0.10491596538834402</v>
+      </c>
+      <c r="L6" s="39">
+        <v>9.59042926380934E-2</v>
+      </c>
+      <c r="M6" s="39">
         <v>0.11993541997209507</v>
       </c>
-      <c r="N6" s="23">
+      <c r="N6" s="39">
         <v>0.12982872201365486</v>
       </c>
-      <c r="O6" s="23">
+      <c r="O6" s="39">
         <v>0.13128015246148522</v>
       </c>
-      <c r="P6" s="23">
+      <c r="P6" s="39">
         <v>0.13128015246148522</v>
       </c>
-      <c r="Q6" s="23">
-        <v>8.6106063047996562E-2</v>
-      </c>
-      <c r="R6" s="23">
-        <v>3.4442425219198623E-2</v>
-      </c>
-      <c r="S6" s="23">
+      <c r="Q6" s="39">
+        <v>0.15174613927873917</v>
+      </c>
+      <c r="R6" s="39">
+        <v>0.1394665471883868</v>
+      </c>
+      <c r="S6" s="39">
         <v>0.17221212609599312</v>
       </c>
-      <c r="T6" s="23">
+      <c r="T6" s="39">
         <v>0.18539419793419482</v>
       </c>
-      <c r="U6" s="23">
+      <c r="U6" s="39">
         <v>6.189465567146632E-2</v>
       </c>
-      <c r="V6" s="23">
+      <c r="V6" s="39">
         <v>6.189465567146632E-2</v>
       </c>
-      <c r="W6" s="23">
-        <v>4.2471577296019893E-2</v>
-      </c>
-      <c r="X6" s="23">
-        <v>1.6988630918407958E-2</v>
-      </c>
-      <c r="Y6" s="23">
+      <c r="W6" s="39">
+        <v>7.3418905131753059E-2</v>
+      </c>
+      <c r="X6" s="39">
+        <v>6.6504355455581018E-2</v>
+      </c>
+      <c r="Y6" s="39">
         <v>8.4943154592039785E-2</v>
       </c>
-      <c r="Z6" s="23">
+      <c r="Z6" s="39">
         <v>9.266408977527113E-2</v>
       </c>
     </row>
     <row r="7" spans="1:26">
-      <c r="A7" s="26"/>
-      <c r="B7" s="28">
+      <c r="A7" s="25"/>
+      <c r="B7" s="27">
         <v>16</v>
       </c>
-      <c r="C7" s="23">
+      <c r="C7" s="39">
         <v>0.21216686250271777</v>
       </c>
-      <c r="D7" s="23">
+      <c r="D7" s="39">
         <v>0.21216686250271777</v>
       </c>
-      <c r="E7" s="23">
-        <v>0.13474352577547533</v>
-      </c>
-      <c r="F7" s="23">
-        <v>5.389741031019013E-2</v>
-      </c>
-      <c r="G7" s="23">
+      <c r="E7" s="39">
+        <v>0.24082695702683421</v>
+      </c>
+      <c r="F7" s="39">
+        <v>0.22363090031236435</v>
+      </c>
+      <c r="G7" s="39">
         <v>0.26948705155095065</v>
       </c>
-      <c r="H7" s="23">
+      <c r="H7" s="39">
         <v>0.2871797599944742</v>
       </c>
-      <c r="I7" s="23">
+      <c r="I7" s="39">
         <v>0.10269543582069027</v>
       </c>
-      <c r="J7" s="23">
+      <c r="J7" s="39">
         <v>0.10269543582069027</v>
       </c>
-      <c r="K7" s="23">
-        <v>6.8146365011634014E-2</v>
-      </c>
-      <c r="L7" s="23">
-        <v>2.7258546004653605E-2</v>
-      </c>
-      <c r="M7" s="23">
+      <c r="K7" s="39">
+        <v>0.11949408292197915</v>
+      </c>
+      <c r="L7" s="39">
+        <v>0.10941489466120582</v>
+      </c>
+      <c r="M7" s="39">
         <v>0.13629273002326803</v>
       </c>
-      <c r="N7" s="23">
+      <c r="N7" s="39">
         <v>0.14728095246135559</v>
       </c>
-      <c r="O7" s="23">
+      <c r="O7" s="39">
         <v>0.14888982889461763</v>
       </c>
-      <c r="P7" s="23">
+      <c r="P7" s="39">
         <v>0.14888982889461763</v>
       </c>
-      <c r="Q7" s="23">
-        <v>9.6964524654654896E-2</v>
-      </c>
-      <c r="R7" s="23">
-        <v>3.8785809861861961E-2</v>
-      </c>
-      <c r="S7" s="23">
+      <c r="Q7" s="39">
+        <v>0.17140943910196371</v>
+      </c>
+      <c r="R7" s="39">
+        <v>0.15789767297755605</v>
+      </c>
+      <c r="S7" s="39">
         <v>0.19392904930930979</v>
       </c>
-      <c r="T7" s="23">
+      <c r="T7" s="39">
         <v>0.2082982549266541</v>
       </c>
-      <c r="U7" s="23">
+      <c r="U7" s="39">
         <v>7.1643399983750369E-2</v>
       </c>
-      <c r="V7" s="23">
+      <c r="V7" s="39">
         <v>7.1643399983750369E-2</v>
       </c>
-      <c r="W7" s="23">
-        <v>4.8872104639166122E-2</v>
-      </c>
-      <c r="X7" s="23">
-        <v>1.9548841855666452E-2</v>
-      </c>
-      <c r="Y7" s="23">
+      <c r="W7" s="39">
+        <v>8.4693804631041314E-2</v>
+      </c>
+      <c r="X7" s="39">
+        <v>7.6863561842666739E-2</v>
+      </c>
+      <c r="Y7" s="39">
         <v>9.7744209278332245E-2</v>
       </c>
-      <c r="Z7" s="23">
+      <c r="Z7" s="39">
         <v>0.1064450605052412</v>
       </c>
     </row>
     <row r="8" spans="1:26">
-      <c r="A8" s="26"/>
-      <c r="B8" s="28">
+      <c r="A8" s="25"/>
+      <c r="B8" s="27">
         <v>17</v>
       </c>
-      <c r="C8" s="23">
+      <c r="C8" s="39">
         <v>0.23728141398439886</v>
       </c>
-      <c r="D8" s="23">
+      <c r="D8" s="39">
         <v>0.23728141398439886</v>
       </c>
-      <c r="E8" s="23">
-        <v>0.14922260757988282</v>
-      </c>
-      <c r="F8" s="23">
-        <v>5.9689043031953132E-2</v>
-      </c>
-      <c r="G8" s="23">
+      <c r="E8" s="39">
+        <v>0.26786331457208223</v>
+      </c>
+      <c r="F8" s="39">
+        <v>0.24951417421947222</v>
+      </c>
+      <c r="G8" s="39">
         <v>0.29844521515976563</v>
       </c>
-      <c r="H8" s="23">
+      <c r="H8" s="39">
         <v>0.31708368915278728</v>
       </c>
-      <c r="I8" s="23">
+      <c r="I8" s="39">
         <v>0.11705373594432186</v>
       </c>
-      <c r="J8" s="23">
+      <c r="J8" s="39">
         <v>0.11705373594432186</v>
       </c>
-      <c r="K8" s="23">
-        <v>7.721994858392113E-2</v>
-      </c>
-      <c r="L8" s="23">
-        <v>3.0887979433568455E-2</v>
-      </c>
-      <c r="M8" s="23">
+      <c r="K8" s="39">
+        <v>0.13574681655608206</v>
+      </c>
+      <c r="L8" s="39">
+        <v>0.12453096818902594</v>
+      </c>
+      <c r="M8" s="39">
         <v>0.15443989716784226</v>
       </c>
-      <c r="N8" s="23">
+      <c r="N8" s="39">
         <v>0.16657252414397133</v>
       </c>
-      <c r="O8" s="23">
+      <c r="O8" s="39">
         <v>0.16834507260725676</v>
       </c>
-      <c r="P8" s="23">
+      <c r="P8" s="39">
         <v>0.16834507260725676</v>
       </c>
-      <c r="Q8" s="23">
-        <v>0.10878343347914121</v>
-      </c>
-      <c r="R8" s="23">
-        <v>4.3513373391656486E-2</v>
-      </c>
-      <c r="S8" s="23">
+      <c r="Q8" s="39">
+        <v>0.19295596978276958</v>
+      </c>
+      <c r="R8" s="39">
+        <v>0.17818943147746188</v>
+      </c>
+      <c r="S8" s="39">
         <v>0.21756686695828242</v>
       </c>
-      <c r="T8" s="23">
+      <c r="T8" s="39">
         <v>0.23310990551610464</v>
       </c>
-      <c r="U8" s="23">
+      <c r="U8" s="39">
         <v>8.2706478261945063E-2</v>
       </c>
-      <c r="V8" s="23">
+      <c r="V8" s="39">
         <v>8.2706478261945063E-2</v>
       </c>
-      <c r="W8" s="23">
-        <v>5.6079173180596985E-2</v>
-      </c>
-      <c r="X8" s="23">
-        <v>2.2431669272238795E-2</v>
-      </c>
-      <c r="Y8" s="23">
+      <c r="W8" s="39">
+        <v>9.7432412311569516E-2</v>
+      </c>
+      <c r="X8" s="39">
+        <v>8.859685188179485E-2</v>
+      </c>
+      <c r="Y8" s="39">
         <v>0.11215834636119397</v>
       </c>
-      <c r="Z8" s="23">
+      <c r="Z8" s="39">
         <v>0.12192234785265216</v>
       </c>
     </row>
     <row r="9" spans="1:26">
-      <c r="A9" s="26"/>
-      <c r="B9" s="28">
+      <c r="A9" s="25"/>
+      <c r="B9" s="27">
         <v>18</v>
       </c>
-      <c r="C9" s="23">
+      <c r="C9" s="39">
         <v>0.2642279024146969</v>
       </c>
-      <c r="D9" s="23">
+      <c r="D9" s="39">
         <v>0.2642279024146969</v>
       </c>
-      <c r="E9" s="23">
-        <v>0.16444652392789583</v>
-      </c>
-      <c r="F9" s="23">
-        <v>6.5778609571158331E-2</v>
-      </c>
-      <c r="G9" s="23">
+      <c r="E9" s="39">
+        <v>0.29656047513524431</v>
+      </c>
+      <c r="F9" s="39">
+        <v>0.27716093150291587</v>
+      </c>
+      <c r="G9" s="39">
         <v>0.32889304785579165</v>
       </c>
-      <c r="H9" s="23">
+      <c r="H9" s="39">
         <v>0.34833259726949661</v>
       </c>
-      <c r="I9" s="23">
+      <c r="I9" s="39">
         <v>0.1330849768166428</v>
       </c>
-      <c r="J9" s="23">
+      <c r="J9" s="39">
         <v>0.1330849768166428</v>
       </c>
-      <c r="K9" s="23">
-        <v>8.7226075452098414E-2</v>
-      </c>
-      <c r="L9" s="23">
-        <v>3.4890430180839364E-2</v>
-      </c>
-      <c r="M9" s="23">
+      <c r="K9" s="39">
+        <v>0.15376856386041982</v>
+      </c>
+      <c r="L9" s="39">
+        <v>0.14135841163415361</v>
+      </c>
+      <c r="M9" s="39">
         <v>0.17445215090419683</v>
       </c>
-      <c r="N9" s="23">
+      <c r="N9" s="39">
         <v>0.1877615070306955</v>
       </c>
-      <c r="O9" s="23">
+      <c r="O9" s="39">
         <v>0.18970128807672451</v>
       </c>
-      <c r="P9" s="23">
+      <c r="P9" s="39">
         <v>0.18970128807672451</v>
       </c>
-      <c r="Q9" s="23">
-        <v>0.12154747348797017</v>
-      </c>
-      <c r="R9" s="23">
-        <v>4.8618989395188071E-2</v>
-      </c>
-      <c r="S9" s="23">
+      <c r="Q9" s="39">
+        <v>0.21639811752633242</v>
+      </c>
+      <c r="R9" s="39">
+        <v>0.20038001985656767</v>
+      </c>
+      <c r="S9" s="39">
         <v>0.24309494697594033</v>
       </c>
-      <c r="T9" s="23">
+      <c r="T9" s="39">
         <v>0.25976818131547708</v>
       </c>
-      <c r="U9" s="23">
+      <c r="U9" s="39">
         <v>9.5219683807686056E-2</v>
       </c>
-      <c r="V9" s="23">
+      <c r="V9" s="39">
         <v>9.5219683807686056E-2</v>
       </c>
-      <c r="W9" s="23">
-        <v>6.4159579280315654E-2</v>
-      </c>
-      <c r="X9" s="23">
-        <v>2.5663831712126262E-2</v>
-      </c>
-      <c r="Y9" s="23">
+      <c r="W9" s="39">
+        <v>0.11176942118415868</v>
+      </c>
+      <c r="X9" s="39">
+        <v>0.10183957875827511</v>
+      </c>
+      <c r="Y9" s="39">
         <v>0.12831915856063131</v>
       </c>
-      <c r="Z9" s="23">
+      <c r="Z9" s="39">
         <v>0.13922465565303327</v>
       </c>
     </row>
     <row r="10" spans="1:26">
-      <c r="A10" s="26"/>
+      <c r="A10" s="25"/>
     </row>
     <row r="11" spans="1:26">
-      <c r="A11" s="26" t="s">
+      <c r="A11" s="25" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="12" spans="1:26">
-      <c r="A12" s="26"/>
-      <c r="B12" s="29" t="s">
-        <v>0</v>
-      </c>
-      <c r="C12" s="29" t="s">
+      <c r="A12" s="25"/>
+      <c r="B12" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="C12" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="D12" s="29" t="s">
+      <c r="D12" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="E12" s="29" t="s">
+      <c r="E12" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="F12" s="29" t="s">
+      <c r="F12" s="28" t="s">
         <v>33</v>
       </c>
-      <c r="G12" s="29" t="s">
+      <c r="G12" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="H12" s="29" t="s">
+      <c r="H12" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="I12" s="29" t="s">
+      <c r="I12" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="J12" s="29" t="s">
+      <c r="J12" s="28" t="s">
         <v>37</v>
       </c>
-      <c r="K12" s="29" t="s">
+      <c r="K12" s="28" t="s">
         <v>38</v>
       </c>
-      <c r="L12" s="29" t="s">
+      <c r="L12" s="28" t="s">
         <v>39</v>
       </c>
-      <c r="M12" s="29" t="s">
+      <c r="M12" s="28" t="s">
         <v>40</v>
       </c>
-      <c r="N12" s="29" t="s">
+      <c r="N12" s="28" t="s">
         <v>41</v>
       </c>
-      <c r="O12" s="29" t="s">
+      <c r="O12" s="28" t="s">
         <v>42</v>
       </c>
-      <c r="P12" s="29" t="s">
+      <c r="P12" s="28" t="s">
         <v>43</v>
       </c>
-      <c r="Q12" s="29" t="s">
+      <c r="Q12" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="R12" s="29" t="s">
+      <c r="R12" s="28" t="s">
         <v>45</v>
       </c>
-      <c r="S12" s="29" t="s">
+      <c r="S12" s="28" t="s">
         <v>46</v>
       </c>
-      <c r="T12" s="29" t="s">
+      <c r="T12" s="28" t="s">
         <v>47</v>
       </c>
-      <c r="U12" s="29" t="s">
+      <c r="U12" s="28" t="s">
         <v>48</v>
       </c>
-      <c r="V12" s="29" t="s">
+      <c r="V12" s="28" t="s">
         <v>49</v>
       </c>
-      <c r="W12" s="29" t="s">
+      <c r="W12" s="28" t="s">
         <v>50</v>
       </c>
-      <c r="X12" s="29" t="s">
+      <c r="X12" s="28" t="s">
         <v>51</v>
       </c>
-      <c r="Y12" s="29" t="s">
+      <c r="Y12" s="28" t="s">
         <v>52</v>
       </c>
-      <c r="Z12" s="29" t="s">
+      <c r="Z12" s="28" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="13" spans="1:26">
-      <c r="A13" s="26"/>
-      <c r="B13" s="29">
+      <c r="A13" s="25"/>
+      <c r="B13" s="28">
         <v>12</v>
       </c>
       <c r="C13" s="23">
@@ -19582,11 +19588,11 @@
       </c>
       <c r="E13" s="23">
         <f t="shared" si="0"/>
-        <v>8.7779999999999997E-2</v>
+        <v>0.15314</v>
       </c>
       <c r="F13" s="23">
         <f t="shared" si="0"/>
-        <v>3.5110000000000002E-2</v>
+        <v>0.13969000000000001</v>
       </c>
       <c r="G13" s="23">
         <f t="shared" si="0"/>
@@ -19606,11 +19612,11 @@
       </c>
       <c r="K13" s="23">
         <f t="shared" si="0"/>
-        <v>4.129E-2</v>
+        <v>7.1110000000000007E-2</v>
       </c>
       <c r="L13" s="23">
         <f t="shared" si="0"/>
-        <v>1.652E-2</v>
+        <v>6.4229999999999995E-2</v>
       </c>
       <c r="M13" s="23">
         <f t="shared" si="0"/>
@@ -19630,11 +19636,11 @@
       </c>
       <c r="Q13" s="23">
         <f t="shared" si="0"/>
-        <v>6.0589999999999998E-2</v>
+        <v>0.10489</v>
       </c>
       <c r="R13" s="23">
         <f t="shared" si="0"/>
-        <v>2.4240000000000001E-2</v>
+        <v>9.5119999999999996E-2</v>
       </c>
       <c r="S13" s="23">
         <f t="shared" si="0"/>
@@ -19654,11 +19660,11 @@
       </c>
       <c r="W13" s="23">
         <f t="shared" si="0"/>
-        <v>2.743E-2</v>
+        <v>4.7059999999999998E-2</v>
       </c>
       <c r="X13" s="23">
         <f t="shared" si="0"/>
-        <v>1.0970000000000001E-2</v>
+        <v>4.2380000000000001E-2</v>
       </c>
       <c r="Y13" s="23">
         <f t="shared" si="0"/>
@@ -19670,8 +19676,8 @@
       </c>
     </row>
     <row r="14" spans="1:26">
-      <c r="A14" s="26"/>
-      <c r="B14" s="29">
+      <c r="A14" s="25"/>
+      <c r="B14" s="28">
         <v>13</v>
       </c>
       <c r="C14" s="23">
@@ -19684,11 +19690,11 @@
       </c>
       <c r="E14" s="23">
         <f t="shared" si="1"/>
-        <v>9.6579999999999999E-2</v>
+        <v>0.17072000000000001</v>
       </c>
       <c r="F14" s="23">
         <f t="shared" si="1"/>
-        <v>3.8629999999999998E-2</v>
+        <v>0.15725</v>
       </c>
       <c r="G14" s="23">
         <f t="shared" si="1"/>
@@ -19708,11 +19714,11 @@
       </c>
       <c r="K14" s="23">
         <f t="shared" si="1"/>
-        <v>4.6089999999999999E-2</v>
+        <v>8.0339999999999995E-2</v>
       </c>
       <c r="L14" s="23">
         <f t="shared" si="1"/>
-        <v>1.8440000000000002E-2</v>
+        <v>7.3230000000000003E-2</v>
       </c>
       <c r="M14" s="23">
         <f t="shared" si="1"/>
@@ -19732,11 +19738,11 @@
       </c>
       <c r="Q14" s="23">
         <f t="shared" si="1"/>
-        <v>6.7229999999999998E-2</v>
+        <v>0.11785</v>
       </c>
       <c r="R14" s="23">
         <f t="shared" si="1"/>
-        <v>2.6890000000000001E-2</v>
+        <v>0.10789</v>
       </c>
       <c r="S14" s="23">
         <f t="shared" si="0"/>
@@ -19756,11 +19762,11 @@
       </c>
       <c r="W14" s="23">
         <f t="shared" si="0"/>
-        <v>3.1820000000000001E-2</v>
+        <v>5.4730000000000001E-2</v>
       </c>
       <c r="X14" s="23">
         <f t="shared" si="0"/>
-        <v>1.273E-2</v>
+        <v>4.938E-2</v>
       </c>
       <c r="Y14" s="23">
         <f t="shared" si="0"/>
@@ -19772,8 +19778,8 @@
       </c>
     </row>
     <row r="15" spans="1:26">
-      <c r="A15" s="26"/>
-      <c r="B15" s="29">
+      <c r="A15" s="25"/>
+      <c r="B15" s="28">
         <v>14</v>
       </c>
       <c r="C15" s="23">
@@ -19786,11 +19792,11 @@
       </c>
       <c r="E15" s="23">
         <f t="shared" si="0"/>
-        <v>0.10836999999999999</v>
+        <v>0.19220000000000001</v>
       </c>
       <c r="F15" s="23">
         <f t="shared" si="0"/>
-        <v>4.335E-2</v>
+        <v>0.17748</v>
       </c>
       <c r="G15" s="23">
         <f t="shared" si="0"/>
@@ -19810,11 +19816,11 @@
       </c>
       <c r="K15" s="23">
         <f t="shared" si="0"/>
-        <v>5.2639999999999999E-2</v>
+        <v>9.1899999999999996E-2</v>
       </c>
       <c r="L15" s="23">
         <f t="shared" si="0"/>
-        <v>2.1049999999999999E-2</v>
+        <v>8.3879999999999996E-2</v>
       </c>
       <c r="M15" s="23">
         <f t="shared" si="0"/>
@@ -19834,11 +19840,11 @@
       </c>
       <c r="Q15" s="23">
         <f t="shared" si="0"/>
-        <v>7.6200000000000004E-2</v>
+        <v>0.13392000000000001</v>
       </c>
       <c r="R15" s="23">
         <f t="shared" si="0"/>
-        <v>3.048E-2</v>
+        <v>0.12282999999999999</v>
       </c>
       <c r="S15" s="23">
         <f t="shared" si="0"/>
@@ -19858,11 +19864,11 @@
       </c>
       <c r="W15" s="23">
         <f t="shared" si="0"/>
-        <v>3.6810000000000002E-2</v>
+        <v>6.3469999999999999E-2</v>
       </c>
       <c r="X15" s="23">
         <f t="shared" si="0"/>
-        <v>1.472E-2</v>
+        <v>5.7389999999999997E-2</v>
       </c>
       <c r="Y15" s="23">
         <f t="shared" si="0"/>
@@ -19874,8 +19880,8 @@
       </c>
     </row>
     <row r="16" spans="1:26">
-      <c r="A16" s="26"/>
-      <c r="B16" s="29">
+      <c r="A16" s="25"/>
+      <c r="B16" s="28">
         <v>15</v>
       </c>
       <c r="C16" s="23">
@@ -19888,11 +19894,11 @@
       </c>
       <c r="E16" s="23">
         <f t="shared" si="0"/>
-        <v>0.1211</v>
+        <v>0.21557999999999999</v>
       </c>
       <c r="F16" s="23">
         <f t="shared" si="0"/>
-        <v>4.8439999999999997E-2</v>
+        <v>0.1996</v>
       </c>
       <c r="G16" s="23">
         <f t="shared" si="0"/>
@@ -19912,11 +19918,11 @@
       </c>
       <c r="K16" s="23">
         <f t="shared" si="0"/>
-        <v>5.9970000000000002E-2</v>
+        <v>0.10492</v>
       </c>
       <c r="L16" s="23">
         <f t="shared" si="0"/>
-        <v>2.3990000000000001E-2</v>
+        <v>9.5899999999999999E-2</v>
       </c>
       <c r="M16" s="23">
         <f t="shared" si="0"/>
@@ -19936,11 +19942,11 @@
       </c>
       <c r="Q16" s="23">
         <f t="shared" si="0"/>
-        <v>8.6110000000000006E-2</v>
+        <v>0.15175</v>
       </c>
       <c r="R16" s="23">
         <f t="shared" si="0"/>
-        <v>3.4439999999999998E-2</v>
+        <v>0.13947000000000001</v>
       </c>
       <c r="S16" s="23">
         <f t="shared" si="0"/>
@@ -19960,11 +19966,11 @@
       </c>
       <c r="W16" s="23">
         <f t="shared" si="0"/>
-        <v>4.2470000000000001E-2</v>
+        <v>7.3419999999999999E-2</v>
       </c>
       <c r="X16" s="23">
         <f t="shared" si="0"/>
-        <v>1.6990000000000002E-2</v>
+        <v>6.6500000000000004E-2</v>
       </c>
       <c r="Y16" s="23">
         <f t="shared" si="0"/>
@@ -19976,8 +19982,8 @@
       </c>
     </row>
     <row r="17" spans="1:26">
-      <c r="A17" s="26"/>
-      <c r="B17" s="29">
+      <c r="A17" s="25"/>
+      <c r="B17" s="28">
         <v>16</v>
       </c>
       <c r="C17" s="23">
@@ -19990,11 +19996,11 @@
       </c>
       <c r="E17" s="23">
         <f t="shared" si="0"/>
-        <v>0.13474</v>
+        <v>0.24082999999999999</v>
       </c>
       <c r="F17" s="23">
         <f t="shared" si="0"/>
-        <v>5.3900000000000003E-2</v>
+        <v>0.22363</v>
       </c>
       <c r="G17" s="23">
         <f t="shared" si="0"/>
@@ -20014,11 +20020,11 @@
       </c>
       <c r="K17" s="23">
         <f t="shared" si="0"/>
-        <v>6.8150000000000002E-2</v>
+        <v>0.11949</v>
       </c>
       <c r="L17" s="23">
         <f t="shared" si="0"/>
-        <v>2.726E-2</v>
+        <v>0.10940999999999999</v>
       </c>
       <c r="M17" s="23">
         <f t="shared" si="0"/>
@@ -20038,11 +20044,11 @@
       </c>
       <c r="Q17" s="23">
         <f t="shared" si="0"/>
-        <v>9.6960000000000005E-2</v>
+        <v>0.17141000000000001</v>
       </c>
       <c r="R17" s="23">
         <f t="shared" si="0"/>
-        <v>3.8789999999999998E-2</v>
+        <v>0.15790000000000001</v>
       </c>
       <c r="S17" s="23">
         <f t="shared" si="0"/>
@@ -20062,11 +20068,11 @@
       </c>
       <c r="W17" s="23">
         <f t="shared" si="0"/>
-        <v>4.8869999999999997E-2</v>
+        <v>8.4690000000000001E-2</v>
       </c>
       <c r="X17" s="23">
         <f t="shared" si="0"/>
-        <v>1.9550000000000001E-2</v>
+        <v>7.6859999999999998E-2</v>
       </c>
       <c r="Y17" s="23">
         <f t="shared" si="0"/>
@@ -20078,8 +20084,8 @@
       </c>
     </row>
     <row r="18" spans="1:26">
-      <c r="A18" s="26"/>
-      <c r="B18" s="29">
+      <c r="A18" s="25"/>
+      <c r="B18" s="28">
         <v>17</v>
       </c>
       <c r="C18" s="23">
@@ -20092,11 +20098,11 @@
       </c>
       <c r="E18" s="23">
         <f t="shared" si="0"/>
-        <v>0.14921999999999999</v>
+        <v>0.26785999999999999</v>
       </c>
       <c r="F18" s="23">
         <f t="shared" si="0"/>
-        <v>5.969E-2</v>
+        <v>0.24951000000000001</v>
       </c>
       <c r="G18" s="23">
         <f t="shared" si="0"/>
@@ -20116,11 +20122,11 @@
       </c>
       <c r="K18" s="23">
         <f t="shared" si="0"/>
-        <v>7.7219999999999997E-2</v>
+        <v>0.13575000000000001</v>
       </c>
       <c r="L18" s="23">
         <f t="shared" si="0"/>
-        <v>3.0890000000000001E-2</v>
+        <v>0.12453</v>
       </c>
       <c r="M18" s="23">
         <f t="shared" si="0"/>
@@ -20140,11 +20146,11 @@
       </c>
       <c r="Q18" s="23">
         <f t="shared" si="0"/>
-        <v>0.10878</v>
+        <v>0.19295999999999999</v>
       </c>
       <c r="R18" s="23">
         <f t="shared" si="0"/>
-        <v>4.351E-2</v>
+        <v>0.17818999999999999</v>
       </c>
       <c r="S18" s="23">
         <f t="shared" si="0"/>
@@ -20164,11 +20170,11 @@
       </c>
       <c r="W18" s="23">
         <f t="shared" si="0"/>
-        <v>5.6079999999999998E-2</v>
+        <v>9.7430000000000003E-2</v>
       </c>
       <c r="X18" s="23">
         <f t="shared" si="0"/>
-        <v>2.2429999999999999E-2</v>
+        <v>8.8599999999999998E-2</v>
       </c>
       <c r="Y18" s="23">
         <f t="shared" si="0"/>
@@ -20180,8 +20186,8 @@
       </c>
     </row>
     <row r="19" spans="1:26">
-      <c r="A19" s="26"/>
-      <c r="B19" s="29">
+      <c r="A19" s="25"/>
+      <c r="B19" s="28">
         <v>18</v>
       </c>
       <c r="C19" s="23">
@@ -20194,11 +20200,11 @@
       </c>
       <c r="E19" s="23">
         <f t="shared" si="0"/>
-        <v>0.16445000000000001</v>
+        <v>0.29655999999999999</v>
       </c>
       <c r="F19" s="23">
         <f t="shared" si="0"/>
-        <v>6.5780000000000005E-2</v>
+        <v>0.27716000000000002</v>
       </c>
       <c r="G19" s="23">
         <f t="shared" si="0"/>
@@ -20218,11 +20224,11 @@
       </c>
       <c r="K19" s="23">
         <f t="shared" si="0"/>
-        <v>8.7230000000000002E-2</v>
+        <v>0.15376999999999999</v>
       </c>
       <c r="L19" s="23">
         <f t="shared" si="0"/>
-        <v>3.4889999999999997E-2</v>
+        <v>0.14136000000000001</v>
       </c>
       <c r="M19" s="23">
         <f t="shared" si="0"/>
@@ -20242,11 +20248,11 @@
       </c>
       <c r="Q19" s="23">
         <f t="shared" si="0"/>
-        <v>0.12155000000000001</v>
+        <v>0.21640000000000001</v>
       </c>
       <c r="R19" s="23">
         <f t="shared" si="0"/>
-        <v>4.8619999999999997E-2</v>
+        <v>0.20038</v>
       </c>
       <c r="S19" s="23">
         <f t="shared" si="0"/>
@@ -20266,11 +20272,11 @@
       </c>
       <c r="W19" s="23">
         <f t="shared" si="0"/>
-        <v>6.4159999999999995E-2</v>
+        <v>0.11176999999999999</v>
       </c>
       <c r="X19" s="23">
         <f t="shared" si="0"/>
-        <v>2.5659999999999999E-2</v>
+        <v>0.10184</v>
       </c>
       <c r="Y19" s="23">
         <f t="shared" si="0"/>
@@ -20282,13 +20288,13 @@
       </c>
     </row>
     <row r="20" spans="1:26">
-      <c r="A20" s="26"/>
+      <c r="A20" s="25"/>
     </row>
     <row r="21" spans="1:26">
-      <c r="A21" s="26"/>
+      <c r="A21" s="25"/>
     </row>
     <row r="22" spans="1:26">
-      <c r="A22" s="26" t="s">
+      <c r="A22" s="25" t="s">
         <v>55</v>
       </c>
     </row>
@@ -20302,729 +20308,729 @@
   <dimension ref="A1:Z22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A22"/>
+      <selection activeCell="C3" sqref="C3:Z9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:26">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="28" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:26">
-      <c r="A2" s="29"/>
-      <c r="B2" s="30" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="30" t="s">
+      <c r="A2" s="28"/>
+      <c r="B2" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="D2" s="30" t="s">
+      <c r="D2" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="E2" s="30" t="s">
+      <c r="E2" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="F2" s="30" t="s">
+      <c r="F2" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="G2" s="30" t="s">
+      <c r="G2" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="H2" s="30" t="s">
+      <c r="H2" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="I2" s="30" t="s">
+      <c r="I2" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="J2" s="30" t="s">
+      <c r="J2" s="29" t="s">
         <v>37</v>
       </c>
-      <c r="K2" s="30" t="s">
+      <c r="K2" s="29" t="s">
         <v>38</v>
       </c>
-      <c r="L2" s="30" t="s">
+      <c r="L2" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="M2" s="30" t="s">
+      <c r="M2" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="N2" s="30" t="s">
+      <c r="N2" s="29" t="s">
         <v>41</v>
       </c>
-      <c r="O2" s="30" t="s">
+      <c r="O2" s="29" t="s">
         <v>42</v>
       </c>
-      <c r="P2" s="30" t="s">
+      <c r="P2" s="29" t="s">
         <v>43</v>
       </c>
-      <c r="Q2" s="30" t="s">
+      <c r="Q2" s="29" t="s">
         <v>44</v>
       </c>
-      <c r="R2" s="30" t="s">
+      <c r="R2" s="29" t="s">
         <v>45</v>
       </c>
-      <c r="S2" s="30" t="s">
+      <c r="S2" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="T2" s="30" t="s">
+      <c r="T2" s="29" t="s">
         <v>47</v>
       </c>
-      <c r="U2" s="30" t="s">
+      <c r="U2" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="V2" s="30" t="s">
+      <c r="V2" s="29" t="s">
         <v>49</v>
       </c>
-      <c r="W2" s="30" t="s">
+      <c r="W2" s="29" t="s">
         <v>50</v>
       </c>
-      <c r="X2" s="30" t="s">
+      <c r="X2" s="29" t="s">
         <v>51</v>
       </c>
-      <c r="Y2" s="30" t="s">
+      <c r="Y2" s="29" t="s">
         <v>52</v>
       </c>
-      <c r="Z2" s="30" t="s">
+      <c r="Z2" s="29" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="3" spans="1:26">
-      <c r="A3" s="29"/>
-      <c r="B3" s="30">
+      <c r="A3" s="28"/>
+      <c r="B3" s="29">
         <v>12</v>
       </c>
-      <c r="C3" s="31">
+      <c r="C3" s="40">
         <v>0.29550584974001159</v>
       </c>
-      <c r="D3" s="31">
+      <c r="D3" s="40">
         <v>0.29550584974001159</v>
       </c>
-      <c r="E3" s="31">
-        <v>0.18447309438766898</v>
-      </c>
-      <c r="F3" s="31">
-        <v>7.3789237755067599E-2</v>
-      </c>
-      <c r="G3" s="31">
+      <c r="E3" s="40">
+        <v>0.33222601925767481</v>
+      </c>
+      <c r="F3" s="40">
+        <v>0.31019391754707687</v>
+      </c>
+      <c r="G3" s="40">
         <v>0.36894618877533797</v>
       </c>
-      <c r="H3" s="31">
+      <c r="H3" s="40">
         <v>0.39087881343329189</v>
       </c>
-      <c r="I3" s="31">
+      <c r="I3" s="40">
         <v>0.15115219942802108</v>
       </c>
-      <c r="J3" s="31">
+      <c r="J3" s="40">
         <v>0.15115219942802108</v>
       </c>
-      <c r="K3" s="31">
-        <v>9.9606279074667695E-2</v>
-      </c>
-      <c r="L3" s="31">
-        <v>3.9842511629867079E-2</v>
-      </c>
-      <c r="M3" s="31">
+      <c r="K3" s="40">
+        <v>0.17518237878867823</v>
+      </c>
+      <c r="L3" s="40">
+        <v>0.16076427117228395</v>
+      </c>
+      <c r="M3" s="40">
         <v>0.19921255814933539</v>
       </c>
-      <c r="N3" s="31">
+      <c r="N3" s="40">
         <v>0.21460746499850836</v>
       </c>
-      <c r="O3" s="31">
+      <c r="O3" s="40">
         <v>0.2140482687790832</v>
       </c>
-      <c r="P3" s="31">
+      <c r="P3" s="40">
         <v>0.2140482687790832</v>
       </c>
-      <c r="Q3" s="31">
-        <v>0.13773069646100677</v>
-      </c>
-      <c r="R3" s="31">
-        <v>5.5092278584402715E-2</v>
-      </c>
-      <c r="S3" s="31">
+      <c r="Q3" s="40">
+        <v>0.24475483085054839</v>
+      </c>
+      <c r="R3" s="40">
+        <v>0.22633089360766928</v>
+      </c>
+      <c r="S3" s="40">
         <v>0.27546139292201355</v>
       </c>
-      <c r="T3" s="31">
+      <c r="T3" s="40">
         <v>0.29453229660845154</v>
       </c>
-      <c r="U3" s="31">
+      <c r="U3" s="40">
         <v>0.1030604304862867</v>
       </c>
-      <c r="V3" s="31">
+      <c r="V3" s="40">
         <v>0.1030604304862867</v>
       </c>
-      <c r="W3" s="31">
-        <v>6.9184594675518768E-2</v>
-      </c>
-      <c r="X3" s="31">
-        <v>2.767383787020751E-2</v>
-      </c>
-      <c r="Y3" s="31">
+      <c r="W3" s="40">
+        <v>0.12071480991866212</v>
+      </c>
+      <c r="X3" s="40">
+        <v>0.11012218225923687</v>
+      </c>
+      <c r="Y3" s="40">
         <v>0.13836918935103754</v>
       </c>
-      <c r="Z3" s="31">
+      <c r="Z3" s="40">
         <v>0.14995774555657526</v>
       </c>
     </row>
     <row r="4" spans="1:26">
-      <c r="A4" s="29"/>
-      <c r="B4" s="30">
+      <c r="A4" s="28"/>
+      <c r="B4" s="29">
         <v>13</v>
       </c>
-      <c r="C4" s="31">
+      <c r="C4" s="40">
         <v>0.30992924849221043</v>
       </c>
-      <c r="D4" s="31">
+      <c r="D4" s="40">
         <v>0.30992924849221043</v>
       </c>
-      <c r="E4" s="31">
-        <v>0.1895566420334292</v>
-      </c>
-      <c r="F4" s="31">
-        <v>7.5822656813371692E-2</v>
-      </c>
-      <c r="G4" s="31">
+      <c r="E4" s="40">
+        <v>0.34452126627953439</v>
+      </c>
+      <c r="F4" s="40">
+        <v>0.32376605560714</v>
+      </c>
+      <c r="G4" s="40">
         <v>0.3791132840668584</v>
       </c>
-      <c r="H4" s="31">
+      <c r="H4" s="40">
         <v>0.39944588176607454</v>
       </c>
-      <c r="I4" s="31">
+      <c r="I4" s="40">
         <v>0.16187209217418533</v>
       </c>
-      <c r="J4" s="31">
+      <c r="J4" s="40">
         <v>0.16187209217418533</v>
       </c>
-      <c r="K4" s="31">
-        <v>0.10487158957596845</v>
-      </c>
-      <c r="L4" s="31">
-        <v>4.1948635830387382E-2</v>
-      </c>
-      <c r="M4" s="31">
+      <c r="K4" s="40">
+        <v>0.18580763566306113</v>
+      </c>
+      <c r="L4" s="40">
+        <v>0.17144630956973564</v>
+      </c>
+      <c r="M4" s="40">
         <v>0.20974317915193691</v>
       </c>
-      <c r="N4" s="31">
+      <c r="N4" s="40">
         <v>0.22491130127072356</v>
       </c>
-      <c r="O4" s="31">
+      <c r="O4" s="40">
         <v>0.2271126340374299</v>
       </c>
-      <c r="P4" s="31">
+      <c r="P4" s="40">
         <v>0.2271126340374299</v>
       </c>
-      <c r="Q4" s="31">
-        <v>0.14339429832113498</v>
-      </c>
-      <c r="R4" s="31">
-        <v>5.7357719328453995E-2</v>
-      </c>
-      <c r="S4" s="31">
+      <c r="Q4" s="40">
+        <v>0.25695061533984992</v>
+      </c>
+      <c r="R4" s="40">
+        <v>0.2390478265583979</v>
+      </c>
+      <c r="S4" s="40">
         <v>0.28678859664226997</v>
       </c>
-      <c r="T4" s="31">
+      <c r="T4" s="40">
         <v>0.30506801857525023</v>
       </c>
-      <c r="U4" s="31">
+      <c r="U4" s="40">
         <v>0.11812734210692455</v>
       </c>
-      <c r="V4" s="31">
+      <c r="V4" s="40">
         <v>0.11812734210692455</v>
       </c>
-      <c r="W4" s="31">
-        <v>7.8759319788092377E-2</v>
-      </c>
-      <c r="X4" s="31">
-        <v>3.1503727915236951E-2</v>
-      </c>
-      <c r="Y4" s="31">
+      <c r="W4" s="40">
+        <v>0.13782299084155464</v>
+      </c>
+      <c r="X4" s="40">
+        <v>0.12600560160077659</v>
+      </c>
+      <c r="Y4" s="40">
         <v>0.15751863957618475</v>
       </c>
-      <c r="Z4" s="31">
+      <c r="Z4" s="40">
         <v>0.17035204037908908</v>
       </c>
     </row>
     <row r="5" spans="1:26">
-      <c r="A5" s="29"/>
-      <c r="B5" s="30">
+      <c r="A5" s="28"/>
+      <c r="B5" s="29">
         <v>14</v>
       </c>
-      <c r="C5" s="31">
+      <c r="C5" s="40">
         <v>0.34088517030620885</v>
       </c>
-      <c r="D5" s="31">
+      <c r="D5" s="40">
         <v>0.34088517030620885</v>
       </c>
-      <c r="E5" s="31">
-        <v>0.20607734542577039</v>
-      </c>
-      <c r="F5" s="31">
-        <v>8.2430938170308166E-2</v>
-      </c>
-      <c r="G5" s="31">
+      <c r="E5" s="40">
+        <v>0.37651993057887478</v>
+      </c>
+      <c r="F5" s="40">
+        <v>0.35513907441527526</v>
+      </c>
+      <c r="G5" s="40">
         <v>0.41215469085154077</v>
       </c>
-      <c r="H5" s="31">
+      <c r="H5" s="40">
         <v>0.43278738883748519</v>
       </c>
-      <c r="I5" s="31">
+      <c r="I5" s="40">
         <v>0.1826118330759173</v>
       </c>
-      <c r="J5" s="31">
+      <c r="J5" s="40">
         <v>0.1826118330759173</v>
       </c>
-      <c r="K5" s="31">
-        <v>0.11733430654736889</v>
-      </c>
-      <c r="L5" s="31">
-        <v>4.6933722618947557E-2</v>
-      </c>
-      <c r="M5" s="31">
+      <c r="K5" s="40">
+        <v>0.20864022308532754</v>
+      </c>
+      <c r="L5" s="40">
+        <v>0.19302318907968138</v>
+      </c>
+      <c r="M5" s="40">
         <v>0.23466861309473777</v>
       </c>
-      <c r="N5" s="31">
+      <c r="N5" s="40">
         <v>0.25098451361873508</v>
       </c>
-      <c r="O5" s="31">
+      <c r="O5" s="40">
         <v>0.25334536391786272</v>
       </c>
-      <c r="P5" s="31">
+      <c r="P5" s="40">
         <v>0.25334536391786272</v>
       </c>
-      <c r="Q5" s="31">
-        <v>0.15833641389671313</v>
-      </c>
-      <c r="R5" s="31">
-        <v>6.333456555868526E-2</v>
-      </c>
-      <c r="S5" s="31">
+      <c r="Q5" s="40">
+        <v>0.28500909585564449</v>
+      </c>
+      <c r="R5" s="40">
+        <v>0.26601085669297542</v>
+      </c>
+      <c r="S5" s="40">
         <v>0.31667282779342626</v>
       </c>
-      <c r="T5" s="31">
+      <c r="T5" s="40">
         <v>0.33581456139269328</v>
       </c>
-      <c r="U5" s="31">
+      <c r="U5" s="40">
         <v>0.13498996822169568</v>
       </c>
-      <c r="V5" s="31">
+      <c r="V5" s="40">
         <v>0.13498996822169568</v>
       </c>
-      <c r="W5" s="31">
-        <v>8.9350007571831425E-2</v>
-      </c>
-      <c r="X5" s="31">
-        <v>3.5740003028732571E-2</v>
-      </c>
-      <c r="Y5" s="31">
+      <c r="W5" s="40">
+        <v>0.15684499168267926</v>
+      </c>
+      <c r="X5" s="40">
+        <v>0.14373197760608911</v>
+      </c>
+      <c r="Y5" s="40">
         <v>0.17870001514366285</v>
       </c>
-      <c r="Z5" s="31">
+      <c r="Z5" s="40">
         <v>0.1928241918647402</v>
       </c>
     </row>
     <row r="6" spans="1:26">
-      <c r="A6" s="29"/>
-      <c r="B6" s="30">
+      <c r="A6" s="28"/>
+      <c r="B6" s="29">
         <v>15</v>
       </c>
-      <c r="C6" s="31">
+      <c r="C6" s="40">
         <v>0.37297959555570837</v>
       </c>
-      <c r="D6" s="31">
+      <c r="D6" s="40">
         <v>0.37297959555570837</v>
       </c>
-      <c r="E6" s="31">
-        <v>0.22280641298931159</v>
-      </c>
-      <c r="F6" s="31">
-        <v>8.9122565195724646E-2</v>
-      </c>
-      <c r="G6" s="31">
+      <c r="E6" s="40">
+        <v>0.40929621076716577</v>
+      </c>
+      <c r="F6" s="40">
+        <v>0.38750624164029135</v>
+      </c>
+      <c r="G6" s="40">
         <v>0.44561282597862317</v>
       </c>
-      <c r="H6" s="31">
+      <c r="H6" s="40">
         <v>0.46631966818466064</v>
       </c>
-      <c r="I6" s="31">
+      <c r="I6" s="40">
         <v>0.20527077203822922</v>
       </c>
-      <c r="J6" s="31">
+      <c r="J6" s="40">
         <v>0.20527077203822922</v>
       </c>
-      <c r="K6" s="31">
-        <v>0.13071766373990495</v>
-      </c>
-      <c r="L6" s="31">
-        <v>5.2287065495961987E-2</v>
-      </c>
-      <c r="M6" s="31">
+      <c r="K6" s="40">
+        <v>0.23335304975901955</v>
+      </c>
+      <c r="L6" s="40">
+        <v>0.21650368312654536</v>
+      </c>
+      <c r="M6" s="40">
         <v>0.26143532747980991</v>
       </c>
-      <c r="N6" s="31">
+      <c r="N6" s="40">
         <v>0.2788329969838958</v>
       </c>
-      <c r="O6" s="31">
+      <c r="O6" s="40">
         <v>0.28134234111565104</v>
       </c>
-      <c r="P6" s="31">
+      <c r="P6" s="40">
         <v>0.28134234111565104</v>
       </c>
-      <c r="Q6" s="31">
-        <v>0.17395269912062988</v>
-      </c>
-      <c r="R6" s="31">
-        <v>6.9581079648251956E-2</v>
-      </c>
-      <c r="S6" s="31">
+      <c r="Q6" s="40">
+        <v>0.3146238696784554</v>
+      </c>
+      <c r="R6" s="40">
+        <v>0.29465495254077279</v>
+      </c>
+      <c r="S6" s="40">
         <v>0.34790539824125977</v>
       </c>
-      <c r="T6" s="31">
+      <c r="T6" s="40">
         <v>0.36774544154318123</v>
       </c>
-      <c r="U6" s="31">
+      <c r="U6" s="40">
         <v>0.15376761844856132</v>
       </c>
-      <c r="V6" s="31">
+      <c r="V6" s="40">
         <v>0.15376761844856132</v>
       </c>
-      <c r="W6" s="31">
-        <v>0.10099071173125469</v>
-      </c>
-      <c r="X6" s="31">
-        <v>4.039628469250188E-2</v>
-      </c>
-      <c r="Y6" s="31">
+      <c r="W6" s="40">
+        <v>0.17787452095553535</v>
+      </c>
+      <c r="X6" s="40">
+        <v>0.16341037945135092</v>
+      </c>
+      <c r="Y6" s="40">
         <v>0.20198142346250939</v>
       </c>
-      <c r="Z6" s="31">
+      <c r="Z6" s="40">
         <v>0.2174205760205149</v>
       </c>
     </row>
     <row r="7" spans="1:26">
-      <c r="A7" s="29"/>
-      <c r="B7" s="30">
+      <c r="A7" s="28"/>
+      <c r="B7" s="29">
         <v>16</v>
       </c>
-      <c r="C7" s="31">
+      <c r="C7" s="40">
         <v>0.40590286485032145</v>
       </c>
-      <c r="D7" s="31">
+      <c r="D7" s="40">
         <v>0.40590286485032145</v>
       </c>
-      <c r="E7" s="31">
-        <v>0.23955994039648146</v>
-      </c>
-      <c r="F7" s="31">
-        <v>9.5823976158592589E-2</v>
-      </c>
-      <c r="G7" s="31">
+      <c r="E7" s="40">
+        <v>0.44251137282164221</v>
+      </c>
+      <c r="F7" s="40">
+        <v>0.42054626803884976</v>
+      </c>
+      <c r="G7" s="40">
         <v>0.47911988079296292</v>
       </c>
-      <c r="H7" s="31">
+      <c r="H7" s="40">
         <v>0.49967163505930923</v>
       </c>
-      <c r="I7" s="31">
+      <c r="I7" s="40">
         <v>0.22984150185422531</v>
       </c>
-      <c r="J7" s="31">
+      <c r="J7" s="40">
         <v>0.22984150185422531</v>
       </c>
-      <c r="K7" s="31">
-        <v>0.14496290751763549</v>
-      </c>
-      <c r="L7" s="31">
-        <v>5.7985163007054197E-2</v>
-      </c>
-      <c r="M7" s="31">
+      <c r="K7" s="40">
+        <v>0.25988365844474814</v>
+      </c>
+      <c r="L7" s="40">
+        <v>0.24185836449043444</v>
+      </c>
+      <c r="M7" s="40">
         <v>0.28992581503527098</v>
       </c>
-      <c r="N7" s="31">
+      <c r="N7" s="40">
         <v>0.30830473406242848</v>
       </c>
-      <c r="O7" s="31">
+      <c r="O7" s="40">
         <v>0.31094663185899651</v>
       </c>
-      <c r="P7" s="31">
+      <c r="P7" s="40">
         <v>0.31094663185899651</v>
       </c>
-      <c r="Q7" s="31">
-        <v>0.19010575385890205</v>
-      </c>
-      <c r="R7" s="31">
-        <v>7.6042301543560828E-2</v>
-      </c>
-      <c r="S7" s="31">
+      <c r="Q7" s="40">
+        <v>0.34557906978840031</v>
+      </c>
+      <c r="R7" s="40">
+        <v>0.32479960703075805</v>
+      </c>
+      <c r="S7" s="40">
         <v>0.3802115077178041</v>
       </c>
-      <c r="T7" s="31">
+      <c r="T7" s="40">
         <v>0.400557726583739</v>
       </c>
-      <c r="U7" s="31">
+      <c r="U7" s="40">
         <v>0.17456098946800941</v>
       </c>
-      <c r="V7" s="31">
+      <c r="V7" s="40">
         <v>0.17456098946800941</v>
       </c>
-      <c r="W7" s="31">
-        <v>0.11369705502458326</v>
-      </c>
-      <c r="X7" s="31">
-        <v>4.5478822009833303E-2</v>
-      </c>
-      <c r="Y7" s="31">
+      <c r="W7" s="40">
+        <v>0.20097754975858795</v>
+      </c>
+      <c r="X7" s="40">
+        <v>0.18512761358424082</v>
+      </c>
+      <c r="Y7" s="40">
         <v>0.22739411004916651</v>
       </c>
-      <c r="Z7" s="31">
+      <c r="Z7" s="40">
         <v>0.2441453798977363</v>
       </c>
     </row>
     <row r="8" spans="1:26">
-      <c r="A8" s="29"/>
-      <c r="B8" s="30">
+      <c r="A8" s="28"/>
+      <c r="B8" s="29">
         <v>17</v>
       </c>
-      <c r="C8" s="31">
+      <c r="C8" s="40">
         <v>0.43931041752524763</v>
       </c>
-      <c r="D8" s="31">
+      <c r="D8" s="40">
         <v>0.43931041752524763</v>
       </c>
-      <c r="E8" s="31">
-        <v>0.25615293729640171</v>
-      </c>
-      <c r="F8" s="31">
-        <v>0.10246117491856069</v>
-      </c>
-      <c r="G8" s="31">
+      <c r="E8" s="40">
+        <v>0.47580814605902555</v>
+      </c>
+      <c r="F8" s="40">
+        <v>0.45390950893875881</v>
+      </c>
+      <c r="G8" s="40">
         <v>0.51230587459280341</v>
       </c>
-      <c r="H8" s="31">
+      <c r="H8" s="40">
         <v>0.53248010431806703</v>
       </c>
-      <c r="I8" s="31">
+      <c r="I8" s="40">
         <v>0.25626950146858768</v>
       </c>
-      <c r="J8" s="31">
+      <c r="J8" s="40">
         <v>0.25626950146858768</v>
       </c>
-      <c r="K8" s="31">
-        <v>0.1599832457702407</v>
-      </c>
-      <c r="L8" s="31">
-        <v>6.3993298308096289E-2</v>
-      </c>
-      <c r="M8" s="31">
+      <c r="K8" s="40">
+        <v>0.28811799650453451</v>
+      </c>
+      <c r="L8" s="40">
+        <v>0.26900889948296641</v>
+      </c>
+      <c r="M8" s="40">
         <v>0.3199664915404814</v>
       </c>
-      <c r="N8" s="31">
+      <c r="N8" s="40">
         <v>0.3391916149673575</v>
       </c>
-      <c r="O8" s="31">
+      <c r="O8" s="40">
         <v>0.34194531751522267</v>
       </c>
-      <c r="P8" s="31">
+      <c r="P8" s="40">
         <v>0.34194531751522267</v>
       </c>
-      <c r="Q8" s="31">
-        <v>0.20663635589135371</v>
-      </c>
-      <c r="R8" s="31">
-        <v>8.2654542356541488E-2</v>
-      </c>
-      <c r="S8" s="31">
+      <c r="Q8" s="40">
+        <v>0.37760901464896501</v>
+      </c>
+      <c r="R8" s="40">
+        <v>0.35621079636871961</v>
+      </c>
+      <c r="S8" s="40">
         <v>0.41327271178270741</v>
       </c>
-      <c r="T8" s="31">
+      <c r="T8" s="40">
         <v>0.43391160779937243</v>
       </c>
-      <c r="U8" s="31">
+      <c r="U8" s="40">
         <v>0.19744414348984035</v>
       </c>
-      <c r="V8" s="31">
+      <c r="V8" s="40">
         <v>0.19744414348984035</v>
       </c>
-      <c r="W8" s="31">
-        <v>0.12746196303048396</v>
-      </c>
-      <c r="X8" s="31">
-        <v>5.0984785212193587E-2</v>
-      </c>
-      <c r="Y8" s="31">
+      <c r="W8" s="40">
+        <v>0.22618403477540414</v>
+      </c>
+      <c r="X8" s="40">
+        <v>0.20894010000406588</v>
+      </c>
+      <c r="Y8" s="40">
         <v>0.25492392606096792</v>
       </c>
-      <c r="Z8" s="31">
+      <c r="Z8" s="40">
         <v>0.27295251423225325</v>
       </c>
     </row>
     <row r="9" spans="1:26">
-      <c r="A9" s="29"/>
-      <c r="B9" s="30">
+      <c r="A9" s="28"/>
+      <c r="B9" s="29">
         <v>18</v>
       </c>
-      <c r="C9" s="31">
+      <c r="C9" s="40">
         <v>0.47283666905654426</v>
       </c>
-      <c r="D9" s="31">
+      <c r="D9" s="40">
         <v>0.47283666905654426</v>
       </c>
-      <c r="E9" s="31">
-        <v>0.2724074242967654</v>
-      </c>
-      <c r="F9" s="31">
-        <v>0.10896296971870617</v>
-      </c>
-      <c r="G9" s="31">
+      <c r="E9" s="40">
+        <v>0.50882575882503756</v>
+      </c>
+      <c r="F9" s="40">
+        <v>0.48723230496394154</v>
+      </c>
+      <c r="G9" s="40">
         <v>0.5448148485935308</v>
       </c>
-      <c r="H9" s="31">
+      <c r="H9" s="40">
         <v>0.56440535977475093</v>
       </c>
-      <c r="I9" s="31">
+      <c r="I9" s="40">
         <v>0.28444759676866466</v>
       </c>
-      <c r="J9" s="31">
+      <c r="J9" s="40">
         <v>0.28444759676866466</v>
       </c>
-      <c r="K9" s="31">
-        <v>0.17566418191339275</v>
-      </c>
-      <c r="L9" s="31">
-        <v>7.0265672765357098E-2</v>
-      </c>
-      <c r="M9" s="31">
+      <c r="K9" s="40">
+        <v>0.31788798029772508</v>
+      </c>
+      <c r="L9" s="40">
+        <v>0.29782375018028884</v>
+      </c>
+      <c r="M9" s="40">
         <v>0.35132836382678551</v>
       </c>
-      <c r="N9" s="31">
+      <c r="N9" s="40">
         <v>0.37123241188241834</v>
       </c>
-      <c r="O9" s="31">
+      <c r="O9" s="40">
         <v>0.37407280623808481</v>
       </c>
-      <c r="P9" s="31">
+      <c r="P9" s="40">
         <v>0.37407280623808481</v>
       </c>
-      <c r="Q9" s="31">
-        <v>0.22336925491177653</v>
-      </c>
-      <c r="R9" s="31">
-        <v>8.9347701964710619E-2</v>
-      </c>
-      <c r="S9" s="31">
+      <c r="Q9" s="40">
+        <v>0.41040565803081897</v>
+      </c>
+      <c r="R9" s="40">
+        <v>0.38860594695517847</v>
+      </c>
+      <c r="S9" s="40">
         <v>0.44673850982355306</v>
       </c>
-      <c r="T9" s="31">
+      <c r="T9" s="40">
         <v>0.46744385435332725</v>
       </c>
-      <c r="U9" s="31">
+      <c r="U9" s="40">
         <v>0.22245591706785262</v>
       </c>
-      <c r="V9" s="31">
+      <c r="V9" s="40">
         <v>0.22245591706785262</v>
       </c>
-      <c r="W9" s="31">
-        <v>0.14225184079766034</v>
-      </c>
-      <c r="X9" s="31">
-        <v>5.6900736319064144E-2</v>
-      </c>
-      <c r="Y9" s="31">
+      <c r="W9" s="40">
+        <v>0.25347979933158665</v>
+      </c>
+      <c r="X9" s="40">
+        <v>0.23486546997334623</v>
+      </c>
+      <c r="Y9" s="40">
         <v>0.28450368159532069</v>
       </c>
-      <c r="Z9" s="31">
+      <c r="Z9" s="40">
         <v>0.30373896298734987</v>
       </c>
     </row>
     <row r="10" spans="1:26">
-      <c r="A10" s="29"/>
+      <c r="A10" s="28"/>
     </row>
     <row r="11" spans="1:26">
-      <c r="A11" s="29" t="s">
+      <c r="A11" s="28" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="12" spans="1:26">
-      <c r="A12" s="29"/>
-      <c r="B12" s="32" t="s">
-        <v>0</v>
-      </c>
-      <c r="C12" s="32" t="s">
+      <c r="A12" s="28"/>
+      <c r="B12" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="C12" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="D12" s="32" t="s">
+      <c r="D12" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="E12" s="32" t="s">
+      <c r="E12" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="F12" s="32" t="s">
+      <c r="F12" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="G12" s="32" t="s">
+      <c r="G12" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="H12" s="32" t="s">
+      <c r="H12" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="I12" s="32" t="s">
+      <c r="I12" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="J12" s="32" t="s">
+      <c r="J12" s="30" t="s">
         <v>37</v>
       </c>
-      <c r="K12" s="32" t="s">
+      <c r="K12" s="30" t="s">
         <v>38</v>
       </c>
-      <c r="L12" s="32" t="s">
+      <c r="L12" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="M12" s="32" t="s">
+      <c r="M12" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="N12" s="32" t="s">
+      <c r="N12" s="30" t="s">
         <v>41</v>
       </c>
-      <c r="O12" s="32" t="s">
+      <c r="O12" s="30" t="s">
         <v>42</v>
       </c>
-      <c r="P12" s="32" t="s">
+      <c r="P12" s="30" t="s">
         <v>43</v>
       </c>
-      <c r="Q12" s="32" t="s">
+      <c r="Q12" s="30" t="s">
         <v>44</v>
       </c>
-      <c r="R12" s="32" t="s">
+      <c r="R12" s="30" t="s">
         <v>45</v>
       </c>
-      <c r="S12" s="32" t="s">
+      <c r="S12" s="30" t="s">
         <v>46</v>
       </c>
-      <c r="T12" s="32" t="s">
+      <c r="T12" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="U12" s="32" t="s">
+      <c r="U12" s="30" t="s">
         <v>48</v>
       </c>
-      <c r="V12" s="32" t="s">
+      <c r="V12" s="30" t="s">
         <v>49</v>
       </c>
-      <c r="W12" s="32" t="s">
+      <c r="W12" s="30" t="s">
         <v>50</v>
       </c>
-      <c r="X12" s="32" t="s">
+      <c r="X12" s="30" t="s">
         <v>51</v>
       </c>
-      <c r="Y12" s="32" t="s">
+      <c r="Y12" s="30" t="s">
         <v>52</v>
       </c>
-      <c r="Z12" s="32" t="s">
+      <c r="Z12" s="30" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="13" spans="1:26">
-      <c r="A13" s="29"/>
-      <c r="B13" s="32">
+      <c r="A13" s="28"/>
+      <c r="B13" s="30">
         <v>12</v>
       </c>
       <c r="C13" s="23">
@@ -21037,11 +21043,11 @@
       </c>
       <c r="E13" s="23">
         <f t="shared" si="0"/>
-        <v>0.18447</v>
+        <v>0.33223000000000003</v>
       </c>
       <c r="F13" s="23">
         <f t="shared" si="0"/>
-        <v>7.3789999999999994E-2</v>
+        <v>0.31019000000000002</v>
       </c>
       <c r="G13" s="23">
         <f t="shared" si="0"/>
@@ -21061,11 +21067,11 @@
       </c>
       <c r="K13" s="23">
         <f t="shared" si="0"/>
-        <v>9.9610000000000004E-2</v>
+        <v>0.17518</v>
       </c>
       <c r="L13" s="23">
         <f t="shared" si="0"/>
-        <v>3.984E-2</v>
+        <v>0.16075999999999999</v>
       </c>
       <c r="M13" s="23">
         <f t="shared" si="0"/>
@@ -21085,11 +21091,11 @@
       </c>
       <c r="Q13" s="23">
         <f t="shared" si="0"/>
-        <v>0.13772999999999999</v>
+        <v>0.24475</v>
       </c>
       <c r="R13" s="23">
         <f t="shared" si="0"/>
-        <v>5.509E-2</v>
+        <v>0.22633</v>
       </c>
       <c r="S13" s="23">
         <f t="shared" si="0"/>
@@ -21109,11 +21115,11 @@
       </c>
       <c r="W13" s="23">
         <f t="shared" si="0"/>
-        <v>6.9180000000000005E-2</v>
+        <v>0.12071</v>
       </c>
       <c r="X13" s="23">
         <f t="shared" si="0"/>
-        <v>2.767E-2</v>
+        <v>0.11012</v>
       </c>
       <c r="Y13" s="23">
         <f t="shared" si="0"/>
@@ -21125,8 +21131,8 @@
       </c>
     </row>
     <row r="14" spans="1:26">
-      <c r="A14" s="29"/>
-      <c r="B14" s="32">
+      <c r="A14" s="28"/>
+      <c r="B14" s="30">
         <v>13</v>
       </c>
       <c r="C14" s="23">
@@ -21139,11 +21145,11 @@
       </c>
       <c r="E14" s="23">
         <f t="shared" si="1"/>
-        <v>0.18956000000000001</v>
+        <v>0.34451999999999999</v>
       </c>
       <c r="F14" s="23">
         <f t="shared" si="1"/>
-        <v>7.5819999999999999E-2</v>
+        <v>0.32377</v>
       </c>
       <c r="G14" s="23">
         <f t="shared" si="1"/>
@@ -21163,11 +21169,11 @@
       </c>
       <c r="K14" s="23">
         <f t="shared" si="1"/>
-        <v>0.10487</v>
+        <v>0.18581</v>
       </c>
       <c r="L14" s="23">
         <f t="shared" si="1"/>
-        <v>4.1950000000000001E-2</v>
+        <v>0.17144999999999999</v>
       </c>
       <c r="M14" s="23">
         <f t="shared" si="1"/>
@@ -21187,11 +21193,11 @@
       </c>
       <c r="Q14" s="23">
         <f t="shared" si="1"/>
-        <v>0.14338999999999999</v>
+        <v>0.25695000000000001</v>
       </c>
       <c r="R14" s="23">
         <f t="shared" si="1"/>
-        <v>5.7360000000000001E-2</v>
+        <v>0.23905000000000001</v>
       </c>
       <c r="S14" s="23">
         <f t="shared" si="0"/>
@@ -21211,11 +21217,11 @@
       </c>
       <c r="W14" s="23">
         <f t="shared" si="0"/>
-        <v>7.8759999999999997E-2</v>
+        <v>0.13782</v>
       </c>
       <c r="X14" s="23">
         <f t="shared" si="0"/>
-        <v>3.15E-2</v>
+        <v>0.12601000000000001</v>
       </c>
       <c r="Y14" s="23">
         <f t="shared" si="0"/>
@@ -21227,8 +21233,8 @@
       </c>
     </row>
     <row r="15" spans="1:26">
-      <c r="A15" s="29"/>
-      <c r="B15" s="32">
+      <c r="A15" s="28"/>
+      <c r="B15" s="30">
         <v>14</v>
       </c>
       <c r="C15" s="23">
@@ -21241,11 +21247,11 @@
       </c>
       <c r="E15" s="23">
         <f t="shared" si="0"/>
-        <v>0.20608000000000001</v>
+        <v>0.37652000000000002</v>
       </c>
       <c r="F15" s="23">
         <f t="shared" si="0"/>
-        <v>8.2430000000000003E-2</v>
+        <v>0.35514000000000001</v>
       </c>
       <c r="G15" s="23">
         <f t="shared" si="0"/>
@@ -21265,11 +21271,11 @@
       </c>
       <c r="K15" s="23">
         <f t="shared" si="0"/>
-        <v>0.11733</v>
+        <v>0.20863999999999999</v>
       </c>
       <c r="L15" s="23">
         <f t="shared" si="0"/>
-        <v>4.6929999999999999E-2</v>
+        <v>0.19302</v>
       </c>
       <c r="M15" s="23">
         <f t="shared" si="0"/>
@@ -21289,11 +21295,11 @@
       </c>
       <c r="Q15" s="23">
         <f t="shared" si="0"/>
-        <v>0.15834000000000001</v>
+        <v>0.28500999999999999</v>
       </c>
       <c r="R15" s="23">
         <f t="shared" si="0"/>
-        <v>6.3329999999999997E-2</v>
+        <v>0.26601000000000002</v>
       </c>
       <c r="S15" s="23">
         <f t="shared" si="0"/>
@@ -21313,11 +21319,11 @@
       </c>
       <c r="W15" s="23">
         <f t="shared" si="0"/>
-        <v>8.9349999999999999E-2</v>
+        <v>0.15684000000000001</v>
       </c>
       <c r="X15" s="23">
         <f t="shared" si="0"/>
-        <v>3.5740000000000001E-2</v>
+        <v>0.14373</v>
       </c>
       <c r="Y15" s="23">
         <f t="shared" si="0"/>
@@ -21329,8 +21335,8 @@
       </c>
     </row>
     <row r="16" spans="1:26">
-      <c r="A16" s="29"/>
-      <c r="B16" s="32">
+      <c r="A16" s="28"/>
+      <c r="B16" s="30">
         <v>15</v>
       </c>
       <c r="C16" s="23">
@@ -21343,11 +21349,11 @@
       </c>
       <c r="E16" s="23">
         <f t="shared" si="0"/>
-        <v>0.22281000000000001</v>
+        <v>0.4093</v>
       </c>
       <c r="F16" s="23">
         <f t="shared" si="0"/>
-        <v>8.9120000000000005E-2</v>
+        <v>0.38751000000000002</v>
       </c>
       <c r="G16" s="23">
         <f t="shared" si="0"/>
@@ -21367,11 +21373,11 @@
       </c>
       <c r="K16" s="23">
         <f t="shared" si="0"/>
-        <v>0.13072</v>
+        <v>0.23335</v>
       </c>
       <c r="L16" s="23">
         <f t="shared" si="0"/>
-        <v>5.2290000000000003E-2</v>
+        <v>0.2165</v>
       </c>
       <c r="M16" s="23">
         <f t="shared" si="0"/>
@@ -21391,11 +21397,11 @@
       </c>
       <c r="Q16" s="23">
         <f t="shared" si="0"/>
-        <v>0.17394999999999999</v>
+        <v>0.31462000000000001</v>
       </c>
       <c r="R16" s="23">
         <f t="shared" si="0"/>
-        <v>6.9580000000000003E-2</v>
+        <v>0.29465000000000002</v>
       </c>
       <c r="S16" s="23">
         <f t="shared" si="0"/>
@@ -21415,11 +21421,11 @@
       </c>
       <c r="W16" s="23">
         <f t="shared" si="0"/>
-        <v>0.10099</v>
+        <v>0.17787</v>
       </c>
       <c r="X16" s="23">
         <f t="shared" si="0"/>
-        <v>4.0399999999999998E-2</v>
+        <v>0.16341</v>
       </c>
       <c r="Y16" s="23">
         <f t="shared" si="0"/>
@@ -21431,8 +21437,8 @@
       </c>
     </row>
     <row r="17" spans="1:26">
-      <c r="A17" s="29"/>
-      <c r="B17" s="32">
+      <c r="A17" s="28"/>
+      <c r="B17" s="30">
         <v>16</v>
       </c>
       <c r="C17" s="23">
@@ -21445,11 +21451,11 @@
       </c>
       <c r="E17" s="23">
         <f t="shared" si="0"/>
-        <v>0.23956</v>
+        <v>0.44251000000000001</v>
       </c>
       <c r="F17" s="23">
         <f t="shared" si="0"/>
-        <v>9.5820000000000002E-2</v>
+        <v>0.42054999999999998</v>
       </c>
       <c r="G17" s="23">
         <f t="shared" si="0"/>
@@ -21469,11 +21475,11 @@
       </c>
       <c r="K17" s="23">
         <f t="shared" si="0"/>
-        <v>0.14496000000000001</v>
+        <v>0.25988</v>
       </c>
       <c r="L17" s="23">
         <f t="shared" si="0"/>
-        <v>5.799E-2</v>
+        <v>0.24185999999999999</v>
       </c>
       <c r="M17" s="23">
         <f t="shared" si="0"/>
@@ -21493,11 +21499,11 @@
       </c>
       <c r="Q17" s="23">
         <f t="shared" si="0"/>
-        <v>0.19011</v>
+        <v>0.34558</v>
       </c>
       <c r="R17" s="23">
         <f t="shared" si="0"/>
-        <v>7.6039999999999996E-2</v>
+        <v>0.32479999999999998</v>
       </c>
       <c r="S17" s="23">
         <f t="shared" si="0"/>
@@ -21517,11 +21523,11 @@
       </c>
       <c r="W17" s="23">
         <f t="shared" si="0"/>
-        <v>0.1137</v>
+        <v>0.20097999999999999</v>
       </c>
       <c r="X17" s="23">
         <f t="shared" si="0"/>
-        <v>4.548E-2</v>
+        <v>0.18512999999999999</v>
       </c>
       <c r="Y17" s="23">
         <f t="shared" si="0"/>
@@ -21533,8 +21539,8 @@
       </c>
     </row>
     <row r="18" spans="1:26">
-      <c r="A18" s="29"/>
-      <c r="B18" s="32">
+      <c r="A18" s="28"/>
+      <c r="B18" s="30">
         <v>17</v>
       </c>
       <c r="C18" s="23">
@@ -21547,11 +21553,11 @@
       </c>
       <c r="E18" s="23">
         <f t="shared" si="0"/>
-        <v>0.25614999999999999</v>
+        <v>0.47581000000000001</v>
       </c>
       <c r="F18" s="23">
         <f t="shared" si="0"/>
-        <v>0.10246</v>
+        <v>0.45390999999999998</v>
       </c>
       <c r="G18" s="23">
         <f t="shared" si="0"/>
@@ -21571,11 +21577,11 @@
       </c>
       <c r="K18" s="23">
         <f t="shared" si="0"/>
-        <v>0.15998000000000001</v>
+        <v>0.28811999999999999</v>
       </c>
       <c r="L18" s="23">
         <f t="shared" si="0"/>
-        <v>6.3990000000000005E-2</v>
+        <v>0.26901000000000003</v>
       </c>
       <c r="M18" s="23">
         <f t="shared" si="0"/>
@@ -21595,11 +21601,11 @@
       </c>
       <c r="Q18" s="23">
         <f t="shared" si="0"/>
-        <v>0.20663999999999999</v>
+        <v>0.37761</v>
       </c>
       <c r="R18" s="23">
         <f t="shared" si="0"/>
-        <v>8.2650000000000001E-2</v>
+        <v>0.35621000000000003</v>
       </c>
       <c r="S18" s="23">
         <f t="shared" si="0"/>
@@ -21619,11 +21625,11 @@
       </c>
       <c r="W18" s="23">
         <f t="shared" si="0"/>
-        <v>0.12745999999999999</v>
+        <v>0.22617999999999999</v>
       </c>
       <c r="X18" s="23">
         <f t="shared" si="0"/>
-        <v>5.0979999999999998E-2</v>
+        <v>0.20893999999999999</v>
       </c>
       <c r="Y18" s="23">
         <f t="shared" si="0"/>
@@ -21635,8 +21641,8 @@
       </c>
     </row>
     <row r="19" spans="1:26">
-      <c r="A19" s="29"/>
-      <c r="B19" s="32">
+      <c r="A19" s="28"/>
+      <c r="B19" s="30">
         <v>18</v>
       </c>
       <c r="C19" s="23">
@@ -21649,11 +21655,11 @@
       </c>
       <c r="E19" s="23">
         <f t="shared" si="0"/>
-        <v>0.27240999999999999</v>
+        <v>0.50883</v>
       </c>
       <c r="F19" s="23">
         <f t="shared" si="0"/>
-        <v>0.10896</v>
+        <v>0.48723</v>
       </c>
       <c r="G19" s="23">
         <f t="shared" si="0"/>
@@ -21673,11 +21679,11 @@
       </c>
       <c r="K19" s="23">
         <f t="shared" si="0"/>
-        <v>0.17566000000000001</v>
+        <v>0.31789000000000001</v>
       </c>
       <c r="L19" s="23">
         <f t="shared" si="0"/>
-        <v>7.0269999999999999E-2</v>
+        <v>0.29781999999999997</v>
       </c>
       <c r="M19" s="23">
         <f t="shared" si="0"/>
@@ -21697,11 +21703,11 @@
       </c>
       <c r="Q19" s="23">
         <f t="shared" si="0"/>
-        <v>0.22337000000000001</v>
+        <v>0.41041</v>
       </c>
       <c r="R19" s="23">
         <f t="shared" si="0"/>
-        <v>8.9349999999999999E-2</v>
+        <v>0.38861000000000001</v>
       </c>
       <c r="S19" s="23">
         <f t="shared" si="0"/>
@@ -21721,11 +21727,11 @@
       </c>
       <c r="W19" s="23">
         <f t="shared" si="0"/>
-        <v>0.14224999999999999</v>
+        <v>0.25347999999999998</v>
       </c>
       <c r="X19" s="23">
         <f t="shared" si="0"/>
-        <v>5.6899999999999999E-2</v>
+        <v>0.23487</v>
       </c>
       <c r="Y19" s="23">
         <f t="shared" si="0"/>
@@ -21737,13 +21743,13 @@
       </c>
     </row>
     <row r="20" spans="1:26">
-      <c r="A20" s="29"/>
+      <c r="A20" s="28"/>
     </row>
     <row r="21" spans="1:26">
-      <c r="A21" s="29"/>
+      <c r="A21" s="28"/>
     </row>
     <row r="22" spans="1:26">
-      <c r="A22" s="29" t="s">
+      <c r="A22" s="28" t="s">
         <v>55</v>
       </c>
     </row>
@@ -21757,56 +21763,413 @@
   <dimension ref="A1:Z11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B4"/>
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:26">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="30" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:26">
-      <c r="A2" s="32"/>
+      <c r="A2" s="30"/>
+      <c r="B2" s="31" t="s">
+        <v>57</v>
+      </c>
+      <c r="C2" s="31" t="s">
+        <v>60</v>
+      </c>
+      <c r="D2" s="31" t="s">
+        <v>61</v>
+      </c>
+      <c r="E2" s="31" t="s">
+        <v>62</v>
+      </c>
+      <c r="F2" s="31" t="s">
+        <v>63</v>
+      </c>
+      <c r="G2" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="H2" s="31" t="s">
+        <v>65</v>
+      </c>
+      <c r="I2" s="31" t="s">
+        <v>66</v>
+      </c>
+      <c r="J2" s="31" t="s">
+        <v>67</v>
+      </c>
+      <c r="K2" s="31" t="s">
+        <v>68</v>
+      </c>
+      <c r="L2" s="31" t="s">
+        <v>69</v>
+      </c>
+      <c r="M2" s="31" t="s">
+        <v>70</v>
+      </c>
+      <c r="N2" s="31" t="s">
+        <v>71</v>
+      </c>
+      <c r="O2" s="31"/>
+      <c r="P2" s="31"/>
+      <c r="Q2" s="31"/>
+      <c r="R2" s="31"/>
+      <c r="S2" s="31"/>
+      <c r="T2" s="31"/>
+      <c r="U2" s="31"/>
+      <c r="V2" s="31"/>
+      <c r="W2" s="31"/>
+      <c r="X2" s="31"/>
+      <c r="Y2" s="31"/>
+      <c r="Z2" s="31"/>
+    </row>
+    <row r="3" spans="1:26">
+      <c r="A3" s="30"/>
+      <c r="B3" s="31" t="s">
+        <v>58</v>
+      </c>
+      <c r="C3" s="45">
+        <v>0.3872230784500168</v>
+      </c>
+      <c r="D3" s="45">
+        <v>0.3872230784500168</v>
+      </c>
+      <c r="E3" s="45">
+        <v>0.3872230784500168</v>
+      </c>
+      <c r="F3" s="45">
+        <v>0.3872230784500168</v>
+      </c>
+      <c r="G3" s="45">
+        <v>0.3872230784500168</v>
+      </c>
+      <c r="H3" s="45">
+        <v>0.3872230784500168</v>
+      </c>
+      <c r="I3" s="47">
+        <v>0.4248242725493126</v>
+      </c>
+      <c r="J3" s="47">
+        <v>0.4248242725493126</v>
+      </c>
+      <c r="K3" s="47">
+        <v>0.4248242725493126</v>
+      </c>
+      <c r="L3" s="47">
+        <v>0.4248242725493126</v>
+      </c>
+      <c r="M3" s="47">
+        <v>0.4248242725493126</v>
+      </c>
+      <c r="N3" s="47">
+        <v>0.4248242725493126</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26">
+      <c r="A4" s="30"/>
+      <c r="B4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C4" s="44">
+        <v>0.54041165833661997</v>
+      </c>
+      <c r="D4" s="44">
+        <v>0.54041165833662008</v>
+      </c>
+      <c r="E4" s="44">
+        <v>0.54041165833662008</v>
+      </c>
+      <c r="F4" s="44">
+        <v>0.54041165833662008</v>
+      </c>
+      <c r="G4" s="44">
+        <v>0.54041165833662008</v>
+      </c>
+      <c r="H4" s="44">
+        <v>0.54041165833662008</v>
+      </c>
+      <c r="I4" s="46">
+        <v>0.50424989764879125</v>
+      </c>
+      <c r="J4" s="46">
+        <v>0.50424989764879125</v>
+      </c>
+      <c r="K4" s="46">
+        <v>0.50424989764879125</v>
+      </c>
+      <c r="L4" s="46">
+        <v>0.50424989764879125</v>
+      </c>
+      <c r="M4" s="46">
+        <v>0.50424989764879125</v>
+      </c>
+      <c r="N4" s="46">
+        <v>0.50424989764879125</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26" s="32" customFormat="1"/>
+    <row r="6" spans="1:26">
+      <c r="A6" s="30" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26">
+      <c r="A7" s="30"/>
+      <c r="B7" s="32" t="s">
+        <v>57</v>
+      </c>
+      <c r="C7" s="32" t="s">
+        <v>60</v>
+      </c>
+      <c r="D7" s="32" t="s">
+        <v>61</v>
+      </c>
+      <c r="E7" s="32" t="s">
+        <v>62</v>
+      </c>
+      <c r="F7" s="32" t="s">
+        <v>63</v>
+      </c>
+      <c r="G7" s="32" t="s">
+        <v>64</v>
+      </c>
+      <c r="H7" s="32" t="s">
+        <v>65</v>
+      </c>
+      <c r="I7" s="32" t="s">
+        <v>66</v>
+      </c>
+      <c r="J7" s="32" t="s">
+        <v>67</v>
+      </c>
+      <c r="K7" s="32" t="s">
+        <v>68</v>
+      </c>
+      <c r="L7" s="32" t="s">
+        <v>69</v>
+      </c>
+      <c r="M7" s="32" t="s">
+        <v>70</v>
+      </c>
+      <c r="N7" s="32" t="s">
+        <v>71</v>
+      </c>
+      <c r="O7" s="32"/>
+      <c r="P7" s="32"/>
+      <c r="Q7" s="32"/>
+      <c r="R7" s="32"/>
+      <c r="S7" s="32"/>
+      <c r="T7" s="32"/>
+      <c r="U7" s="32"/>
+      <c r="V7" s="32"/>
+      <c r="W7" s="32"/>
+      <c r="X7" s="32"/>
+      <c r="Y7" s="32"/>
+      <c r="Z7" s="32"/>
+    </row>
+    <row r="8" spans="1:26">
+      <c r="A8" s="30"/>
+      <c r="B8" s="32" t="s">
+        <v>58</v>
+      </c>
+      <c r="C8" s="23">
+        <f>ROUND(C3,5)</f>
+        <v>0.38722000000000001</v>
+      </c>
+      <c r="D8" s="23">
+        <f t="shared" ref="D8:N8" si="0">ROUND(D3,5)</f>
+        <v>0.38722000000000001</v>
+      </c>
+      <c r="E8" s="23">
+        <f t="shared" si="0"/>
+        <v>0.38722000000000001</v>
+      </c>
+      <c r="F8" s="23">
+        <f t="shared" si="0"/>
+        <v>0.38722000000000001</v>
+      </c>
+      <c r="G8" s="23">
+        <f t="shared" si="0"/>
+        <v>0.38722000000000001</v>
+      </c>
+      <c r="H8" s="23">
+        <f t="shared" si="0"/>
+        <v>0.38722000000000001</v>
+      </c>
+      <c r="I8" s="23">
+        <f t="shared" si="0"/>
+        <v>0.42481999999999998</v>
+      </c>
+      <c r="J8" s="23">
+        <f t="shared" si="0"/>
+        <v>0.42481999999999998</v>
+      </c>
+      <c r="K8" s="23">
+        <f t="shared" si="0"/>
+        <v>0.42481999999999998</v>
+      </c>
+      <c r="L8" s="23">
+        <f t="shared" si="0"/>
+        <v>0.42481999999999998</v>
+      </c>
+      <c r="M8" s="23">
+        <f t="shared" si="0"/>
+        <v>0.42481999999999998</v>
+      </c>
+      <c r="N8" s="23">
+        <f t="shared" si="0"/>
+        <v>0.42481999999999998</v>
+      </c>
+      <c r="O8" s="23"/>
+      <c r="P8" s="23"/>
+      <c r="Q8" s="23"/>
+      <c r="R8" s="23"/>
+      <c r="S8" s="23"/>
+      <c r="T8" s="23"/>
+      <c r="U8" s="23"/>
+      <c r="V8" s="23"/>
+      <c r="W8" s="23"/>
+      <c r="X8" s="23"/>
+      <c r="Y8" s="23"/>
+      <c r="Z8" s="23"/>
+    </row>
+    <row r="9" spans="1:26" s="32" customFormat="1">
+      <c r="B9" s="32" t="s">
+        <v>59</v>
+      </c>
+      <c r="C9" s="23">
+        <f>ROUND(C4,5)</f>
+        <v>0.54040999999999995</v>
+      </c>
+      <c r="D9" s="23">
+        <f t="shared" ref="D9:N9" si="1">ROUND(D4,5)</f>
+        <v>0.54040999999999995</v>
+      </c>
+      <c r="E9" s="23">
+        <f t="shared" si="1"/>
+        <v>0.54040999999999995</v>
+      </c>
+      <c r="F9" s="23">
+        <f t="shared" si="1"/>
+        <v>0.54040999999999995</v>
+      </c>
+      <c r="G9" s="23">
+        <f t="shared" si="1"/>
+        <v>0.54040999999999995</v>
+      </c>
+      <c r="H9" s="23">
+        <f t="shared" si="1"/>
+        <v>0.54040999999999995</v>
+      </c>
+      <c r="I9" s="23">
+        <f t="shared" si="1"/>
+        <v>0.50424999999999998</v>
+      </c>
+      <c r="J9" s="23">
+        <f t="shared" si="1"/>
+        <v>0.50424999999999998</v>
+      </c>
+      <c r="K9" s="23">
+        <f t="shared" si="1"/>
+        <v>0.50424999999999998</v>
+      </c>
+      <c r="L9" s="23">
+        <f t="shared" si="1"/>
+        <v>0.50424999999999998</v>
+      </c>
+      <c r="M9" s="23">
+        <f t="shared" si="1"/>
+        <v>0.50424999999999998</v>
+      </c>
+      <c r="N9" s="23">
+        <f t="shared" si="1"/>
+        <v>0.50424999999999998</v>
+      </c>
+      <c r="O9" s="23"/>
+      <c r="P9" s="23"/>
+      <c r="Q9" s="23"/>
+      <c r="R9" s="23"/>
+      <c r="S9" s="23"/>
+      <c r="T9" s="23"/>
+      <c r="U9" s="23"/>
+      <c r="V9" s="23"/>
+      <c r="W9" s="23"/>
+      <c r="X9" s="23"/>
+      <c r="Y9" s="23"/>
+      <c r="Z9" s="23"/>
+    </row>
+    <row r="10" spans="1:26">
+      <c r="A10" s="30"/>
+    </row>
+    <row r="11" spans="1:26">
+      <c r="A11" s="30" t="s">
+        <v>55</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Z11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:26">
+      <c r="A1" s="33" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:26">
+      <c r="A2" s="33"/>
       <c r="B2" s="33" t="s">
         <v>57</v>
       </c>
       <c r="C2" s="33" t="s">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="D2" s="33" t="s">
-        <v>61</v>
+        <v>31</v>
       </c>
       <c r="E2" s="33" t="s">
-        <v>62</v>
+        <v>32</v>
       </c>
       <c r="F2" s="33" t="s">
-        <v>63</v>
+        <v>33</v>
       </c>
       <c r="G2" s="33" t="s">
-        <v>64</v>
+        <v>34</v>
       </c>
       <c r="H2" s="33" t="s">
-        <v>65</v>
+        <v>35</v>
       </c>
       <c r="I2" s="33" t="s">
-        <v>66</v>
+        <v>36</v>
       </c>
       <c r="J2" s="33" t="s">
-        <v>67</v>
+        <v>37</v>
       </c>
       <c r="K2" s="33" t="s">
-        <v>68</v>
+        <v>38</v>
       </c>
       <c r="L2" s="33" t="s">
-        <v>69</v>
+        <v>39</v>
       </c>
       <c r="M2" s="33" t="s">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="N2" s="33" t="s">
-        <v>71</v>
+        <v>41</v>
       </c>
       <c r="O2" s="33"/>
       <c r="P2" s="33"/>
@@ -21822,499 +22185,142 @@
       <c r="Z2" s="33"/>
     </row>
     <row r="3" spans="1:26">
-      <c r="A3" s="32"/>
+      <c r="A3" s="33"/>
       <c r="B3" s="33" t="s">
         <v>58</v>
       </c>
       <c r="C3" s="34">
-        <v>0.3872230784500168</v>
+        <v>0.27249512024599126</v>
       </c>
       <c r="D3" s="34">
-        <v>0.3872230784500168</v>
+        <v>0.27249512024599126</v>
       </c>
       <c r="E3" s="34">
-        <v>0.3872230784500168</v>
+        <v>0.27249512024599126</v>
       </c>
       <c r="F3" s="34">
-        <v>0.3872230784500168</v>
+        <v>0.27249512024599126</v>
       </c>
       <c r="G3" s="34">
-        <v>0.3872230784500168</v>
+        <v>0.27249512024599126</v>
       </c>
       <c r="H3" s="34">
-        <v>0.3872230784500168</v>
+        <v>0.27249512024599126</v>
       </c>
       <c r="I3" s="34">
-        <v>0.4248242725493126</v>
+        <v>0.30449151282646025</v>
       </c>
       <c r="J3" s="34">
-        <v>0.4248242725493126</v>
+        <v>0.30449151282646025</v>
       </c>
       <c r="K3" s="34">
-        <v>0.4248242725493126</v>
+        <v>0.30449151282646025</v>
       </c>
       <c r="L3" s="34">
-        <v>0.4248242725493126</v>
+        <v>0.30449151282646025</v>
       </c>
       <c r="M3" s="34">
-        <v>0.4248242725493126</v>
+        <v>0.30449151282646025</v>
       </c>
       <c r="N3" s="34">
-        <v>0.4248242725493126</v>
+        <v>0.30449151282646025</v>
       </c>
     </row>
     <row r="4" spans="1:26">
-      <c r="A4" s="32"/>
-      <c r="B4" t="s">
+      <c r="A4" s="33"/>
+      <c r="B4" s="33" t="s">
         <v>59</v>
       </c>
       <c r="C4" s="34">
-        <v>0.46530584250501056</v>
+        <v>0.34029048249791771</v>
       </c>
       <c r="D4" s="34">
-        <v>0.46530584250501056</v>
+        <v>0.34029048249791771</v>
       </c>
       <c r="E4" s="34">
-        <v>0.46530584250501056</v>
+        <v>0.34029048249791771</v>
       </c>
       <c r="F4" s="34">
-        <v>0.46530584250501056</v>
+        <v>0.34029048249791771</v>
       </c>
       <c r="G4" s="34">
-        <v>0.46530584250501056</v>
+        <v>0.34029048249791771</v>
       </c>
       <c r="H4" s="34">
-        <v>0.46530584250501056</v>
+        <v>0.34029048249791771</v>
       </c>
       <c r="I4" s="34">
-        <v>0.50424989764879125</v>
+        <v>0.37613168601042085</v>
       </c>
       <c r="J4" s="34">
-        <v>0.50424989764879125</v>
+        <v>0.37613168601042085</v>
       </c>
       <c r="K4" s="34">
-        <v>0.50424989764879125</v>
+        <v>0.37613168601042085</v>
       </c>
       <c r="L4" s="34">
-        <v>0.50424989764879125</v>
+        <v>0.37613168601042085</v>
       </c>
       <c r="M4" s="34">
-        <v>0.50424989764879125</v>
+        <v>0.37613168601042085</v>
       </c>
       <c r="N4" s="34">
-        <v>0.50424989764879125</v>
-      </c>
-    </row>
-    <row r="5" spans="1:26" s="35" customFormat="1"/>
+        <v>0.37613168601042085</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26">
+      <c r="A5" s="33"/>
+    </row>
     <row r="6" spans="1:26">
-      <c r="A6" s="32" t="s">
+      <c r="A6" s="33" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="7" spans="1:26">
-      <c r="A7" s="32"/>
-      <c r="B7" s="35" t="s">
+      <c r="A7" s="33"/>
+      <c r="B7" s="33" t="s">
         <v>57</v>
       </c>
-      <c r="C7" s="35" t="s">
-        <v>60</v>
-      </c>
-      <c r="D7" s="35" t="s">
-        <v>61</v>
-      </c>
-      <c r="E7" s="35" t="s">
-        <v>62</v>
-      </c>
-      <c r="F7" s="35" t="s">
-        <v>63</v>
-      </c>
-      <c r="G7" s="35" t="s">
-        <v>64</v>
-      </c>
-      <c r="H7" s="35" t="s">
-        <v>65</v>
-      </c>
-      <c r="I7" s="35" t="s">
-        <v>66</v>
-      </c>
-      <c r="J7" s="35" t="s">
-        <v>67</v>
-      </c>
-      <c r="K7" s="35" t="s">
-        <v>68</v>
-      </c>
-      <c r="L7" s="35" t="s">
-        <v>69</v>
-      </c>
-      <c r="M7" s="35" t="s">
-        <v>70</v>
-      </c>
-      <c r="N7" s="35" t="s">
-        <v>71</v>
-      </c>
-      <c r="O7" s="35"/>
-      <c r="P7" s="35"/>
-      <c r="Q7" s="35"/>
-      <c r="R7" s="35"/>
-      <c r="S7" s="35"/>
-      <c r="T7" s="35"/>
-      <c r="U7" s="35"/>
-      <c r="V7" s="35"/>
-      <c r="W7" s="35"/>
-      <c r="X7" s="35"/>
-      <c r="Y7" s="35"/>
-      <c r="Z7" s="35"/>
+      <c r="C7" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" s="33" t="s">
+        <v>31</v>
+      </c>
+      <c r="E7" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="F7" s="33" t="s">
+        <v>33</v>
+      </c>
+      <c r="G7" s="33" t="s">
+        <v>34</v>
+      </c>
+      <c r="H7" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="I7" s="33" t="s">
+        <v>36</v>
+      </c>
+      <c r="J7" s="33" t="s">
+        <v>37</v>
+      </c>
+      <c r="K7" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="L7" s="33" t="s">
+        <v>39</v>
+      </c>
+      <c r="M7" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="N7" s="33" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="8" spans="1:26">
-      <c r="A8" s="32"/>
-      <c r="B8" s="35" t="s">
-        <v>58</v>
-      </c>
-      <c r="C8" s="23">
-        <f>ROUND(C3,5)</f>
-        <v>0.38722000000000001</v>
-      </c>
-      <c r="D8" s="23">
-        <f t="shared" ref="D8:N8" si="0">ROUND(D3,5)</f>
-        <v>0.38722000000000001</v>
-      </c>
-      <c r="E8" s="23">
-        <f t="shared" si="0"/>
-        <v>0.38722000000000001</v>
-      </c>
-      <c r="F8" s="23">
-        <f t="shared" si="0"/>
-        <v>0.38722000000000001</v>
-      </c>
-      <c r="G8" s="23">
-        <f t="shared" si="0"/>
-        <v>0.38722000000000001</v>
-      </c>
-      <c r="H8" s="23">
-        <f t="shared" si="0"/>
-        <v>0.38722000000000001</v>
-      </c>
-      <c r="I8" s="23">
-        <f t="shared" si="0"/>
-        <v>0.42481999999999998</v>
-      </c>
-      <c r="J8" s="23">
-        <f t="shared" si="0"/>
-        <v>0.42481999999999998</v>
-      </c>
-      <c r="K8" s="23">
-        <f t="shared" si="0"/>
-        <v>0.42481999999999998</v>
-      </c>
-      <c r="L8" s="23">
-        <f t="shared" si="0"/>
-        <v>0.42481999999999998</v>
-      </c>
-      <c r="M8" s="23">
-        <f t="shared" si="0"/>
-        <v>0.42481999999999998</v>
-      </c>
-      <c r="N8" s="23">
-        <f t="shared" si="0"/>
-        <v>0.42481999999999998</v>
-      </c>
-      <c r="O8" s="23"/>
-      <c r="P8" s="23"/>
-      <c r="Q8" s="23"/>
-      <c r="R8" s="23"/>
-      <c r="S8" s="23"/>
-      <c r="T8" s="23"/>
-      <c r="U8" s="23"/>
-      <c r="V8" s="23"/>
-      <c r="W8" s="23"/>
-      <c r="X8" s="23"/>
-      <c r="Y8" s="23"/>
-      <c r="Z8" s="23"/>
-    </row>
-    <row r="9" spans="1:26" s="35" customFormat="1">
-      <c r="B9" s="35" t="s">
-        <v>59</v>
-      </c>
-      <c r="C9" s="23">
-        <f>ROUND(C4,5)</f>
-        <v>0.46531</v>
-      </c>
-      <c r="D9" s="23">
-        <f t="shared" ref="D9:N9" si="1">ROUND(D4,5)</f>
-        <v>0.46531</v>
-      </c>
-      <c r="E9" s="23">
-        <f t="shared" si="1"/>
-        <v>0.46531</v>
-      </c>
-      <c r="F9" s="23">
-        <f t="shared" si="1"/>
-        <v>0.46531</v>
-      </c>
-      <c r="G9" s="23">
-        <f t="shared" si="1"/>
-        <v>0.46531</v>
-      </c>
-      <c r="H9" s="23">
-        <f t="shared" si="1"/>
-        <v>0.46531</v>
-      </c>
-      <c r="I9" s="23">
-        <f t="shared" si="1"/>
-        <v>0.50424999999999998</v>
-      </c>
-      <c r="J9" s="23">
-        <f t="shared" si="1"/>
-        <v>0.50424999999999998</v>
-      </c>
-      <c r="K9" s="23">
-        <f t="shared" si="1"/>
-        <v>0.50424999999999998</v>
-      </c>
-      <c r="L9" s="23">
-        <f t="shared" si="1"/>
-        <v>0.50424999999999998</v>
-      </c>
-      <c r="M9" s="23">
-        <f t="shared" si="1"/>
-        <v>0.50424999999999998</v>
-      </c>
-      <c r="N9" s="23">
-        <f t="shared" si="1"/>
-        <v>0.50424999999999998</v>
-      </c>
-      <c r="O9" s="23"/>
-      <c r="P9" s="23"/>
-      <c r="Q9" s="23"/>
-      <c r="R9" s="23"/>
-      <c r="S9" s="23"/>
-      <c r="T9" s="23"/>
-      <c r="U9" s="23"/>
-      <c r="V9" s="23"/>
-      <c r="W9" s="23"/>
-      <c r="X9" s="23"/>
-      <c r="Y9" s="23"/>
-      <c r="Z9" s="23"/>
-    </row>
-    <row r="10" spans="1:26">
-      <c r="A10" s="32"/>
-    </row>
-    <row r="11" spans="1:26">
-      <c r="A11" s="32" t="s">
-        <v>55</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:26">
-      <c r="A1" s="36" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="2" spans="1:26">
-      <c r="A2" s="36"/>
-      <c r="B2" s="36" t="s">
-        <v>57</v>
-      </c>
-      <c r="C2" s="36" t="s">
-        <v>30</v>
-      </c>
-      <c r="D2" s="36" t="s">
-        <v>31</v>
-      </c>
-      <c r="E2" s="36" t="s">
-        <v>32</v>
-      </c>
-      <c r="F2" s="36" t="s">
-        <v>33</v>
-      </c>
-      <c r="G2" s="36" t="s">
-        <v>34</v>
-      </c>
-      <c r="H2" s="36" t="s">
-        <v>35</v>
-      </c>
-      <c r="I2" s="36" t="s">
-        <v>36</v>
-      </c>
-      <c r="J2" s="36" t="s">
-        <v>37</v>
-      </c>
-      <c r="K2" s="36" t="s">
-        <v>38</v>
-      </c>
-      <c r="L2" s="36" t="s">
-        <v>39</v>
-      </c>
-      <c r="M2" s="36" t="s">
-        <v>40</v>
-      </c>
-      <c r="N2" s="36" t="s">
-        <v>41</v>
-      </c>
-      <c r="O2" s="36"/>
-      <c r="P2" s="36"/>
-      <c r="Q2" s="36"/>
-      <c r="R2" s="36"/>
-      <c r="S2" s="36"/>
-      <c r="T2" s="36"/>
-      <c r="U2" s="36"/>
-      <c r="V2" s="36"/>
-      <c r="W2" s="36"/>
-      <c r="X2" s="36"/>
-      <c r="Y2" s="36"/>
-      <c r="Z2" s="36"/>
-    </row>
-    <row r="3" spans="1:26">
-      <c r="A3" s="36"/>
-      <c r="B3" s="36" t="s">
-        <v>58</v>
-      </c>
-      <c r="C3" s="37">
-        <v>0.27249512024599126</v>
-      </c>
-      <c r="D3" s="37">
-        <v>0.27249512024599126</v>
-      </c>
-      <c r="E3" s="37">
-        <v>0.27249512024599126</v>
-      </c>
-      <c r="F3" s="37">
-        <v>0.27249512024599126</v>
-      </c>
-      <c r="G3" s="37">
-        <v>0.27249512024599126</v>
-      </c>
-      <c r="H3" s="37">
-        <v>0.27249512024599126</v>
-      </c>
-      <c r="I3" s="37">
-        <v>0.30449151282646025</v>
-      </c>
-      <c r="J3" s="37">
-        <v>0.30449151282646025</v>
-      </c>
-      <c r="K3" s="37">
-        <v>0.30449151282646025</v>
-      </c>
-      <c r="L3" s="37">
-        <v>0.30449151282646025</v>
-      </c>
-      <c r="M3" s="37">
-        <v>0.30449151282646025</v>
-      </c>
-      <c r="N3" s="37">
-        <v>0.30449151282646025</v>
-      </c>
-    </row>
-    <row r="4" spans="1:26">
-      <c r="A4" s="36"/>
-      <c r="B4" s="36" t="s">
-        <v>59</v>
-      </c>
-      <c r="C4" s="37">
-        <v>0.34029048249791771</v>
-      </c>
-      <c r="D4" s="37">
-        <v>0.34029048249791771</v>
-      </c>
-      <c r="E4" s="37">
-        <v>0.34029048249791771</v>
-      </c>
-      <c r="F4" s="37">
-        <v>0.34029048249791771</v>
-      </c>
-      <c r="G4" s="37">
-        <v>0.34029048249791771</v>
-      </c>
-      <c r="H4" s="37">
-        <v>0.34029048249791771</v>
-      </c>
-      <c r="I4" s="37">
-        <v>0.37613168601042085</v>
-      </c>
-      <c r="J4" s="37">
-        <v>0.37613168601042085</v>
-      </c>
-      <c r="K4" s="37">
-        <v>0.37613168601042085</v>
-      </c>
-      <c r="L4" s="37">
-        <v>0.37613168601042085</v>
-      </c>
-      <c r="M4" s="37">
-        <v>0.37613168601042085</v>
-      </c>
-      <c r="N4" s="37">
-        <v>0.37613168601042085</v>
-      </c>
-    </row>
-    <row r="5" spans="1:26">
-      <c r="A5" s="36"/>
-    </row>
-    <row r="6" spans="1:26">
-      <c r="A6" s="36" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="7" spans="1:26">
-      <c r="A7" s="36"/>
-      <c r="B7" s="36" t="s">
-        <v>57</v>
-      </c>
-      <c r="C7" s="36" t="s">
-        <v>30</v>
-      </c>
-      <c r="D7" s="36" t="s">
-        <v>31</v>
-      </c>
-      <c r="E7" s="36" t="s">
-        <v>32</v>
-      </c>
-      <c r="F7" s="36" t="s">
-        <v>33</v>
-      </c>
-      <c r="G7" s="36" t="s">
-        <v>34</v>
-      </c>
-      <c r="H7" s="36" t="s">
-        <v>35</v>
-      </c>
-      <c r="I7" s="36" t="s">
-        <v>36</v>
-      </c>
-      <c r="J7" s="36" t="s">
-        <v>37</v>
-      </c>
-      <c r="K7" s="36" t="s">
-        <v>38</v>
-      </c>
-      <c r="L7" s="36" t="s">
-        <v>39</v>
-      </c>
-      <c r="M7" s="36" t="s">
-        <v>40</v>
-      </c>
-      <c r="N7" s="36" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="8" spans="1:26">
-      <c r="A8" s="36"/>
-      <c r="B8" s="36" t="s">
+      <c r="A8" s="33"/>
+      <c r="B8" s="33" t="s">
         <v>58</v>
       </c>
       <c r="C8" s="23">
@@ -22367,8 +22373,8 @@
       </c>
     </row>
     <row r="9" spans="1:26">
-      <c r="A9" s="36"/>
-      <c r="B9" s="36" t="s">
+      <c r="A9" s="33"/>
+      <c r="B9" s="33" t="s">
         <v>59</v>
       </c>
       <c r="C9" s="23">
@@ -22421,10 +22427,10 @@
       </c>
     </row>
     <row r="10" spans="1:26">
-      <c r="A10" s="36"/>
+      <c r="A10" s="33"/>
     </row>
     <row r="11" spans="1:26">
-      <c r="A11" s="36" t="s">
+      <c r="A11" s="33" t="s">
         <v>55</v>
       </c>
     </row>
